--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.411296817359463</v>
+        <v>-2.411934999177646</v>
       </c>
       <c r="G21">
-        <v>-0.01337373782562468</v>
+        <v>-0.01401191964380777</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.43298474848126</v>
+        <v>-2.433622930299443</v>
       </c>
       <c r="G23">
-        <v>-0.01936141477405684</v>
+        <v>-0.01999959659223949</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.444717475753988</v>
+        <v>-2.445424168587613</v>
       </c>
       <c r="G24">
-        <v>-0.02324401496010209</v>
+        <v>-0.02395070779372732</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.566741616504382</v>
+        <v>-2.567026659644853</v>
       </c>
       <c r="G38">
-        <v>-0.03536637649694141</v>
+        <v>-0.03565141963741247</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.602419715615838</v>
+        <v>-2.602704758756309</v>
       </c>
       <c r="G43">
-        <v>-0.03179384017498577</v>
+        <v>-0.03207888331545639</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.636711705588358</v>
+        <v>-2.638382857867765</v>
       </c>
       <c r="G48">
-        <v>-0.0268351947140929</v>
+        <v>-0.02850634699350063</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2028,6 +2028,6193 @@
         <v>-2.790429433867961</v>
       </c>
       <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>147</v>
+      </c>
+      <c r="B72">
+        <v>1.083</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>147</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>-2.527180582330456</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>147</v>
+      </c>
+      <c r="B73">
+        <v>1.083</v>
+      </c>
+      <c r="C73">
+        <v>0.006802721088435374</v>
+      </c>
+      <c r="D73">
+        <v>146</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>-2.530879685091336</v>
+      </c>
+      <c r="G73">
+        <v>-0.0005521466569748945</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>147</v>
+      </c>
+      <c r="B74">
+        <v>1.083</v>
+      </c>
+      <c r="C74">
+        <v>0.01360544217687075</v>
+      </c>
+      <c r="D74">
+        <v>145</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>-2.534578787852217</v>
+      </c>
+      <c r="G74">
+        <v>-0.001104293313950677</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>147</v>
+      </c>
+      <c r="B75">
+        <v>1.083</v>
+      </c>
+      <c r="C75">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="D75">
+        <v>144</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>-2.538277890613097</v>
+      </c>
+      <c r="G75">
+        <v>-0.001656439970925572</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>147</v>
+      </c>
+      <c r="B76">
+        <v>1.083</v>
+      </c>
+      <c r="C76">
+        <v>0.0272108843537415</v>
+      </c>
+      <c r="D76">
+        <v>143</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>-2.541976993373976</v>
+      </c>
+      <c r="G76">
+        <v>-0.002208586627900466</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>147</v>
+      </c>
+      <c r="B77">
+        <v>1.083</v>
+      </c>
+      <c r="C77">
+        <v>0.03401360544217687</v>
+      </c>
+      <c r="D77">
+        <v>142</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>-2.54525411191767</v>
+      </c>
+      <c r="G77">
+        <v>-0.002338749067688717</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>147</v>
+      </c>
+      <c r="B78">
+        <v>1.083</v>
+      </c>
+      <c r="C78">
+        <v>0.04081632653061224</v>
+      </c>
+      <c r="D78">
+        <v>141</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>-2.54895321467855</v>
+      </c>
+      <c r="G78">
+        <v>-0.002890895724664055</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>147</v>
+      </c>
+      <c r="B79">
+        <v>1.083</v>
+      </c>
+      <c r="C79">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D79">
+        <v>140</v>
+      </c>
+      <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>-2.552230333222244</v>
+      </c>
+      <c r="G79">
+        <v>-0.003021058164452306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>147</v>
+      </c>
+      <c r="B80">
+        <v>1.083</v>
+      </c>
+      <c r="C80">
+        <v>0.05442176870748299</v>
+      </c>
+      <c r="D80">
+        <v>139</v>
+      </c>
+      <c r="E80">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>-2.554076738340131</v>
+      </c>
+      <c r="G80">
+        <v>-0.001720507178434083</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>147</v>
+      </c>
+      <c r="B81">
+        <v>1.083</v>
+      </c>
+      <c r="C81">
+        <v>0.06122448979591837</v>
+      </c>
+      <c r="D81">
+        <v>138</v>
+      </c>
+      <c r="E81">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>-2.559023345819837</v>
+      </c>
+      <c r="G81">
+        <v>-0.003520158554235042</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>147</v>
+      </c>
+      <c r="B82">
+        <v>1.083</v>
+      </c>
+      <c r="C82">
+        <v>0.06802721088435375</v>
+      </c>
+      <c r="D82">
+        <v>137</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>-2.561456075143019</v>
+      </c>
+      <c r="G82">
+        <v>-0.002805931773512071</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>147</v>
+      </c>
+      <c r="B83">
+        <v>1.083</v>
+      </c>
+      <c r="C83">
+        <v>0.07482993197278912</v>
+      </c>
+      <c r="D83">
+        <v>136</v>
+      </c>
+      <c r="E83">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>-2.56473361447285</v>
+      </c>
+      <c r="G83">
+        <v>-0.002936514999437811</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>147</v>
+      </c>
+      <c r="B84">
+        <v>1.083</v>
+      </c>
+      <c r="C84">
+        <v>0.08163265306122448</v>
+      </c>
+      <c r="D84">
+        <v>135</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
+      </c>
+      <c r="F84">
+        <v>-2.568379090065926</v>
+      </c>
+      <c r="G84">
+        <v>-0.003435034488609379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>147</v>
+      </c>
+      <c r="B85">
+        <v>1.083</v>
+      </c>
+      <c r="C85">
+        <v>0.08843537414965986</v>
+      </c>
+      <c r="D85">
+        <v>134</v>
+      </c>
+      <c r="E85">
+        <v>13</v>
+      </c>
+      <c r="F85">
+        <v>-2.571315003782643</v>
+      </c>
+      <c r="G85">
+        <v>-0.00322399210142077</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>147</v>
+      </c>
+      <c r="B86">
+        <v>1.083</v>
+      </c>
+      <c r="C86">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="D86">
+        <v>133</v>
+      </c>
+      <c r="E86">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>-2.574272146639786</v>
+      </c>
+      <c r="G86">
+        <v>-0.00303417885465862</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>147</v>
+      </c>
+      <c r="B87">
+        <v>1.083</v>
+      </c>
+      <c r="C87">
+        <v>0.1020408163265306</v>
+      </c>
+      <c r="D87">
+        <v>132</v>
+      </c>
+      <c r="E87">
+        <v>15</v>
+      </c>
+      <c r="F87">
+        <v>-2.577391689849622</v>
+      </c>
+      <c r="G87">
+        <v>-0.003006765960589686</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>147</v>
+      </c>
+      <c r="B88">
+        <v>1.083</v>
+      </c>
+      <c r="C88">
+        <v>0.108843537414966</v>
+      </c>
+      <c r="D88">
+        <v>131</v>
+      </c>
+      <c r="E88">
+        <v>16</v>
+      </c>
+      <c r="F88">
+        <v>-2.582120330173412</v>
+      </c>
+      <c r="G88">
+        <v>-0.004588450180474712</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>147</v>
+      </c>
+      <c r="B89">
+        <v>1.083</v>
+      </c>
+      <c r="C89">
+        <v>0.1156462585034014</v>
+      </c>
+      <c r="D89">
+        <v>130</v>
+      </c>
+      <c r="E89">
+        <v>17</v>
+      </c>
+      <c r="F89">
+        <v>-2.584518721833799</v>
+      </c>
+      <c r="G89">
+        <v>-0.003839885736956816</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>147</v>
+      </c>
+      <c r="B90">
+        <v>1.083</v>
+      </c>
+      <c r="C90">
+        <v>0.1224489795918367</v>
+      </c>
+      <c r="D90">
+        <v>129</v>
+      </c>
+      <c r="E90">
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <v>-2.59135472504085</v>
+      </c>
+      <c r="G90">
+        <v>-0.00752893284010181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>147</v>
+      </c>
+      <c r="B91">
+        <v>1.083</v>
+      </c>
+      <c r="C91">
+        <v>0.1292517006802721</v>
+      </c>
+      <c r="D91">
+        <v>128</v>
+      </c>
+      <c r="E91">
+        <v>19</v>
+      </c>
+      <c r="F91">
+        <v>-2.594149467545299</v>
+      </c>
+      <c r="G91">
+        <v>-0.007176719240646445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>147</v>
+      </c>
+      <c r="B92">
+        <v>1.083</v>
+      </c>
+      <c r="C92">
+        <v>0.1360544217687075</v>
+      </c>
+      <c r="D92">
+        <v>127</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+      <c r="F92">
+        <v>-2.59726665033358</v>
+      </c>
+      <c r="G92">
+        <v>-0.007146945925021519</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>147</v>
+      </c>
+      <c r="B93">
+        <v>1.083</v>
+      </c>
+      <c r="C93">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D93">
+        <v>126</v>
+      </c>
+      <c r="E93">
+        <v>21</v>
+      </c>
+      <c r="F93">
+        <v>-2.598426662350952</v>
+      </c>
+      <c r="G93">
+        <v>-0.00516000183848897</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>147</v>
+      </c>
+      <c r="B94">
+        <v>1.083</v>
+      </c>
+      <c r="C94">
+        <v>0.1496598639455782</v>
+      </c>
+      <c r="D94">
+        <v>125</v>
+      </c>
+      <c r="E94">
+        <v>22</v>
+      </c>
+      <c r="F94">
+        <v>-2.603451584623583</v>
+      </c>
+      <c r="G94">
+        <v>-0.007037968007214346</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>147</v>
+      </c>
+      <c r="B95">
+        <v>1.083</v>
+      </c>
+      <c r="C95">
+        <v>0.1564625850340136</v>
+      </c>
+      <c r="D95">
+        <v>124</v>
+      </c>
+      <c r="E95">
+        <v>23</v>
+      </c>
+      <c r="F95">
+        <v>-2.607941449437171</v>
+      </c>
+      <c r="G95">
+        <v>-0.008380876716897134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>147</v>
+      </c>
+      <c r="B96">
+        <v>1.083</v>
+      </c>
+      <c r="C96">
+        <v>0.163265306122449</v>
+      </c>
+      <c r="D96">
+        <v>123</v>
+      </c>
+      <c r="E96">
+        <v>24</v>
+      </c>
+      <c r="F96">
+        <v>-2.612102119883005</v>
+      </c>
+      <c r="G96">
+        <v>-0.009394591058826673</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>147</v>
+      </c>
+      <c r="B97">
+        <v>1.083</v>
+      </c>
+      <c r="C97">
+        <v>0.1700680272108843</v>
+      </c>
+      <c r="D97">
+        <v>122</v>
+      </c>
+      <c r="E97">
+        <v>25</v>
+      </c>
+      <c r="F97">
+        <v>-2.614873168649748</v>
+      </c>
+      <c r="G97">
+        <v>-0.009018683721664811</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>147</v>
+      </c>
+      <c r="B98">
+        <v>1.083</v>
+      </c>
+      <c r="C98">
+        <v>0.1768707482993197</v>
+      </c>
+      <c r="D98">
+        <v>121</v>
+      </c>
+      <c r="E98">
+        <v>26</v>
+      </c>
+      <c r="F98">
+        <v>-2.617325187477939</v>
+      </c>
+      <c r="G98">
+        <v>-0.008323746445950242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>147</v>
+      </c>
+      <c r="B99">
+        <v>1.083</v>
+      </c>
+      <c r="C99">
+        <v>0.1836734693877551</v>
+      </c>
+      <c r="D99">
+        <v>120</v>
+      </c>
+      <c r="E99">
+        <v>27</v>
+      </c>
+      <c r="F99">
+        <v>-2.623224536576907</v>
+      </c>
+      <c r="G99">
+        <v>-0.01107613944101304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>147</v>
+      </c>
+      <c r="B100">
+        <v>1.083</v>
+      </c>
+      <c r="C100">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="D100">
+        <v>119</v>
+      </c>
+      <c r="E100">
+        <v>28</v>
+      </c>
+      <c r="F100">
+        <v>-2.625286548429155</v>
+      </c>
+      <c r="G100">
+        <v>-0.009991195189355651</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>147</v>
+      </c>
+      <c r="B101">
+        <v>1.083</v>
+      </c>
+      <c r="C101">
+        <v>0.1972789115646258</v>
+      </c>
+      <c r="D101">
+        <v>118</v>
+      </c>
+      <c r="E101">
+        <v>29</v>
+      </c>
+      <c r="F101">
+        <v>-2.630946597056053</v>
+      </c>
+      <c r="G101">
+        <v>-0.0125042877123489</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>147</v>
+      </c>
+      <c r="B102">
+        <v>1.083</v>
+      </c>
+      <c r="C102">
+        <v>0.2040816326530612</v>
+      </c>
+      <c r="D102">
+        <v>117</v>
+      </c>
+      <c r="E102">
+        <v>30</v>
+      </c>
+      <c r="F102">
+        <v>-2.632929769153507</v>
+      </c>
+      <c r="G102">
+        <v>-0.01134050370589756</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>147</v>
+      </c>
+      <c r="B103">
+        <v>1.083</v>
+      </c>
+      <c r="C103">
+        <v>0.2108843537414966</v>
+      </c>
+      <c r="D103">
+        <v>116</v>
+      </c>
+      <c r="E103">
+        <v>31</v>
+      </c>
+      <c r="F103">
+        <v>-2.638673903340172</v>
+      </c>
+      <c r="G103">
+        <v>-0.0139376817886574</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>147</v>
+      </c>
+      <c r="B104">
+        <v>1.083</v>
+      </c>
+      <c r="C104">
+        <v>0.217687074829932</v>
+      </c>
+      <c r="D104">
+        <v>115</v>
+      </c>
+      <c r="E104">
+        <v>32</v>
+      </c>
+      <c r="F104">
+        <v>-2.641816615325851</v>
+      </c>
+      <c r="G104">
+        <v>-0.01393343767043098</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>147</v>
+      </c>
+      <c r="B105">
+        <v>1.083</v>
+      </c>
+      <c r="C105">
+        <v>0.2244897959183673</v>
+      </c>
+      <c r="D105">
+        <v>114</v>
+      </c>
+      <c r="E105">
+        <v>33</v>
+      </c>
+      <c r="F105">
+        <v>-2.647076433837855</v>
+      </c>
+      <c r="G105">
+        <v>-0.0160463000785307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>147</v>
+      </c>
+      <c r="B106">
+        <v>1.083</v>
+      </c>
+      <c r="C106">
+        <v>0.2312925170068027</v>
+      </c>
+      <c r="D106">
+        <v>113</v>
+      </c>
+      <c r="E106">
+        <v>34</v>
+      </c>
+      <c r="F106">
+        <v>-2.650695855271669</v>
+      </c>
+      <c r="G106">
+        <v>-0.01651876540843911</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>147</v>
+      </c>
+      <c r="B107">
+        <v>1.083</v>
+      </c>
+      <c r="C107">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="D107">
+        <v>112</v>
+      </c>
+      <c r="E107">
+        <v>35</v>
+      </c>
+      <c r="F107">
+        <v>-2.653947340442236</v>
+      </c>
+      <c r="G107">
+        <v>-0.01662329447510147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>147</v>
+      </c>
+      <c r="B108">
+        <v>1.083</v>
+      </c>
+      <c r="C108">
+        <v>0.2448979591836735</v>
+      </c>
+      <c r="D108">
+        <v>111</v>
+      </c>
+      <c r="E108">
+        <v>36</v>
+      </c>
+      <c r="F108">
+        <v>-2.657646443203117</v>
+      </c>
+      <c r="G108">
+        <v>-0.01717544113207703</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>147</v>
+      </c>
+      <c r="B109">
+        <v>1.083</v>
+      </c>
+      <c r="C109">
+        <v>0.2517006802721088</v>
+      </c>
+      <c r="D109">
+        <v>110</v>
+      </c>
+      <c r="E109">
+        <v>37</v>
+      </c>
+      <c r="F109">
+        <v>-2.6625374838796</v>
+      </c>
+      <c r="G109">
+        <v>-0.01891952570465505</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>147</v>
+      </c>
+      <c r="B110">
+        <v>1.083</v>
+      </c>
+      <c r="C110">
+        <v>0.2585034013605442</v>
+      </c>
+      <c r="D110">
+        <v>109</v>
+      </c>
+      <c r="E110">
+        <v>38</v>
+      </c>
+      <c r="F110">
+        <v>-2.6671471865893</v>
+      </c>
+      <c r="G110">
+        <v>-0.02038227231044942</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>147</v>
+      </c>
+      <c r="B111">
+        <v>1.083</v>
+      </c>
+      <c r="C111">
+        <v>0.2653061224489796</v>
+      </c>
+      <c r="D111">
+        <v>108</v>
+      </c>
+      <c r="E111">
+        <v>39</v>
+      </c>
+      <c r="F111">
+        <v>-2.67092554989111</v>
+      </c>
+      <c r="G111">
+        <v>-0.02101367950835509</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>147</v>
+      </c>
+      <c r="B112">
+        <v>1.083</v>
+      </c>
+      <c r="C112">
+        <v>0.272108843537415</v>
+      </c>
+      <c r="D112">
+        <v>107</v>
+      </c>
+      <c r="E112">
+        <v>40</v>
+      </c>
+      <c r="F112">
+        <v>-2.674340954263652</v>
+      </c>
+      <c r="G112">
+        <v>-0.02128212777699212</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>147</v>
+      </c>
+      <c r="B113">
+        <v>1.083</v>
+      </c>
+      <c r="C113">
+        <v>0.2789115646258503</v>
+      </c>
+      <c r="D113">
+        <v>106</v>
+      </c>
+      <c r="E113">
+        <v>41</v>
+      </c>
+      <c r="F113">
+        <v>-2.679252278332559</v>
+      </c>
+      <c r="G113">
+        <v>-0.02304649574199358</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>147</v>
+      </c>
+      <c r="B114">
+        <v>1.083</v>
+      </c>
+      <c r="C114">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D114">
+        <v>105</v>
+      </c>
+      <c r="E114">
+        <v>42</v>
+      </c>
+      <c r="F114">
+        <v>-2.683646899269764</v>
+      </c>
+      <c r="G114">
+        <v>-0.02429416057529266</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>147</v>
+      </c>
+      <c r="B115">
+        <v>1.083</v>
+      </c>
+      <c r="C115">
+        <v>0.2925170068027211</v>
+      </c>
+      <c r="D115">
+        <v>104</v>
+      </c>
+      <c r="E115">
+        <v>43</v>
+      </c>
+      <c r="F115">
+        <v>-2.687587137962403</v>
+      </c>
+      <c r="G115">
+        <v>-0.02508744316402711</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>147</v>
+      </c>
+      <c r="B116">
+        <v>1.083</v>
+      </c>
+      <c r="C116">
+        <v>0.2993197278911565</v>
+      </c>
+      <c r="D116">
+        <v>103</v>
+      </c>
+      <c r="E116">
+        <v>44</v>
+      </c>
+      <c r="F116">
+        <v>-2.692607760178064</v>
+      </c>
+      <c r="G116">
+        <v>-0.02696110927578266</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>147</v>
+      </c>
+      <c r="B117">
+        <v>1.083</v>
+      </c>
+      <c r="C117">
+        <v>0.3061224489795918</v>
+      </c>
+      <c r="D117">
+        <v>102</v>
+      </c>
+      <c r="E117">
+        <v>45</v>
+      </c>
+      <c r="F117">
+        <v>-2.696547998870702</v>
+      </c>
+      <c r="G117">
+        <v>-0.02775439186451556</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>147</v>
+      </c>
+      <c r="B118">
+        <v>1.083</v>
+      </c>
+      <c r="C118">
+        <v>0.3129251700680272</v>
+      </c>
+      <c r="D118">
+        <v>101</v>
+      </c>
+      <c r="E118">
+        <v>46</v>
+      </c>
+      <c r="F118">
+        <v>-2.69985945507719</v>
+      </c>
+      <c r="G118">
+        <v>-0.02791889196709851</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>147</v>
+      </c>
+      <c r="B119">
+        <v>1.083</v>
+      </c>
+      <c r="C119">
+        <v>0.3197278911564626</v>
+      </c>
+      <c r="D119">
+        <v>100</v>
+      </c>
+      <c r="E119">
+        <v>47</v>
+      </c>
+      <c r="F119">
+        <v>-2.705040013048265</v>
+      </c>
+      <c r="G119">
+        <v>-0.02995249383426812</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>147</v>
+      </c>
+      <c r="B120">
+        <v>1.083</v>
+      </c>
+      <c r="C120">
+        <v>0.3265306122448979</v>
+      </c>
+      <c r="D120">
+        <v>99</v>
+      </c>
+      <c r="E120">
+        <v>48</v>
+      </c>
+      <c r="F120">
+        <v>-2.709777357661725</v>
+      </c>
+      <c r="G120">
+        <v>-0.0315428823438233</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>147</v>
+      </c>
+      <c r="B121">
+        <v>1.083</v>
+      </c>
+      <c r="C121">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D121">
+        <v>98</v>
+      </c>
+      <c r="E121">
+        <v>49</v>
+      </c>
+      <c r="F121">
+        <v>-2.714248353756439</v>
+      </c>
+      <c r="G121">
+        <v>-0.03286692233463206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>147</v>
+      </c>
+      <c r="B122">
+        <v>1.083</v>
+      </c>
+      <c r="C122">
+        <v>0.3401360544217687</v>
+      </c>
+      <c r="D122">
+        <v>97</v>
+      </c>
+      <c r="E122">
+        <v>50</v>
+      </c>
+      <c r="F122">
+        <v>-2.718800550027499</v>
+      </c>
+      <c r="G122">
+        <v>-0.03427216250178766</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>147</v>
+      </c>
+      <c r="B123">
+        <v>1.083</v>
+      </c>
+      <c r="C123">
+        <v>0.3469387755102041</v>
+      </c>
+      <c r="D123">
+        <v>96</v>
+      </c>
+      <c r="E123">
+        <v>51</v>
+      </c>
+      <c r="F123">
+        <v>-2.723320348271183</v>
+      </c>
+      <c r="G123">
+        <v>-0.03564500464156573</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>147</v>
+      </c>
+      <c r="B124">
+        <v>1.083</v>
+      </c>
+      <c r="C124">
+        <v>0.3537414965986395</v>
+      </c>
+      <c r="D124">
+        <v>95</v>
+      </c>
+      <c r="E124">
+        <v>52</v>
+      </c>
+      <c r="F124">
+        <v>-2.728240901591624</v>
+      </c>
+      <c r="G124">
+        <v>-0.03741860185810242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>147</v>
+      </c>
+      <c r="B125">
+        <v>1.083</v>
+      </c>
+      <c r="C125">
+        <v>0.3605442176870748</v>
+      </c>
+      <c r="D125">
+        <v>94</v>
+      </c>
+      <c r="E125">
+        <v>53</v>
+      </c>
+      <c r="F125">
+        <v>-2.732739470694881</v>
+      </c>
+      <c r="G125">
+        <v>-0.0387702148574538</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>147</v>
+      </c>
+      <c r="B126">
+        <v>1.083</v>
+      </c>
+      <c r="C126">
+        <v>0.3673469387755102</v>
+      </c>
+      <c r="D126">
+        <v>93</v>
+      </c>
+      <c r="E126">
+        <v>54</v>
+      </c>
+      <c r="F126">
+        <v>-2.737421669291257</v>
+      </c>
+      <c r="G126">
+        <v>-0.04030545734992463</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>147</v>
+      </c>
+      <c r="B127">
+        <v>1.083</v>
+      </c>
+      <c r="C127">
+        <v>0.3741496598639456</v>
+      </c>
+      <c r="D127">
+        <v>92</v>
+      </c>
+      <c r="E127">
+        <v>55</v>
+      </c>
+      <c r="F127">
+        <v>-2.742159013904717</v>
+      </c>
+      <c r="G127">
+        <v>-0.04189584585947936</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>147</v>
+      </c>
+      <c r="B128">
+        <v>1.083</v>
+      </c>
+      <c r="C128">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="D128">
+        <v>91</v>
+      </c>
+      <c r="E128">
+        <v>56</v>
+      </c>
+      <c r="F128">
+        <v>-2.745173677662866</v>
+      </c>
+      <c r="G128">
+        <v>-0.04176355351372329</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>147</v>
+      </c>
+      <c r="B129">
+        <v>1.083</v>
+      </c>
+      <c r="C129">
+        <v>0.3877551020408163</v>
+      </c>
+      <c r="D129">
+        <v>90</v>
+      </c>
+      <c r="E129">
+        <v>57</v>
+      </c>
+      <c r="F129">
+        <v>-2.748188341421013</v>
+      </c>
+      <c r="G129">
+        <v>-0.04163126116796501</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>147</v>
+      </c>
+      <c r="B130">
+        <v>1.083</v>
+      </c>
+      <c r="C130">
+        <v>0.3945578231292517</v>
+      </c>
+      <c r="D130">
+        <v>89</v>
+      </c>
+      <c r="E130">
+        <v>58</v>
+      </c>
+      <c r="F130">
+        <v>-2.751203005179161</v>
+      </c>
+      <c r="G130">
+        <v>-0.04149896882220827</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>147</v>
+      </c>
+      <c r="B131">
+        <v>1.083</v>
+      </c>
+      <c r="C131">
+        <v>0.4013605442176871</v>
+      </c>
+      <c r="D131">
+        <v>88</v>
+      </c>
+      <c r="E131">
+        <v>59</v>
+      </c>
+      <c r="F131">
+        <v>-2.754217668937308</v>
+      </c>
+      <c r="G131">
+        <v>-0.0413666764764502</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>147</v>
+      </c>
+      <c r="B132">
+        <v>1.083</v>
+      </c>
+      <c r="C132">
+        <v>0.4081632653061225</v>
+      </c>
+      <c r="D132">
+        <v>87</v>
+      </c>
+      <c r="E132">
+        <v>60</v>
+      </c>
+      <c r="F132">
+        <v>-2.757232332695455</v>
+      </c>
+      <c r="G132">
+        <v>-0.04123438413069258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>147</v>
+      </c>
+      <c r="B133">
+        <v>1.083</v>
+      </c>
+      <c r="C133">
+        <v>0.4149659863945578</v>
+      </c>
+      <c r="D133">
+        <v>86</v>
+      </c>
+      <c r="E133">
+        <v>61</v>
+      </c>
+      <c r="F133">
+        <v>-2.760246996453604</v>
+      </c>
+      <c r="G133">
+        <v>-0.04110209178493629</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>147</v>
+      </c>
+      <c r="B134">
+        <v>1.083</v>
+      </c>
+      <c r="C134">
+        <v>0.4217687074829932</v>
+      </c>
+      <c r="D134">
+        <v>85</v>
+      </c>
+      <c r="E134">
+        <v>62</v>
+      </c>
+      <c r="F134">
+        <v>-2.763261660211752</v>
+      </c>
+      <c r="G134">
+        <v>-0.04096979943917911</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>147</v>
+      </c>
+      <c r="B135">
+        <v>1.083</v>
+      </c>
+      <c r="C135">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D135">
+        <v>84</v>
+      </c>
+      <c r="E135">
+        <v>63</v>
+      </c>
+      <c r="F135">
+        <v>-2.7662763239699</v>
+      </c>
+      <c r="G135">
+        <v>-0.04083750709342171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>147</v>
+      </c>
+      <c r="B136">
+        <v>1.083</v>
+      </c>
+      <c r="C136">
+        <v>0.4353741496598639</v>
+      </c>
+      <c r="D136">
+        <v>83</v>
+      </c>
+      <c r="E136">
+        <v>64</v>
+      </c>
+      <c r="F136">
+        <v>-2.768692352943899</v>
+      </c>
+      <c r="G136">
+        <v>-0.04010657996351541</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>147</v>
+      </c>
+      <c r="B137">
+        <v>1.083</v>
+      </c>
+      <c r="C137">
+        <v>0.4421768707482993</v>
+      </c>
+      <c r="D137">
+        <v>82</v>
+      </c>
+      <c r="E137">
+        <v>65</v>
+      </c>
+      <c r="F137">
+        <v>-2.771400820999434</v>
+      </c>
+      <c r="G137">
+        <v>-0.03966809191514531</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>147</v>
+      </c>
+      <c r="B138">
+        <v>1.083</v>
+      </c>
+      <c r="C138">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="D138">
+        <v>81</v>
+      </c>
+      <c r="E138">
+        <v>66</v>
+      </c>
+      <c r="F138">
+        <v>-2.773816849973431</v>
+      </c>
+      <c r="G138">
+        <v>-0.0389371647852379</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>147</v>
+      </c>
+      <c r="B139">
+        <v>1.083</v>
+      </c>
+      <c r="C139">
+        <v>0.4557823129251701</v>
+      </c>
+      <c r="D139">
+        <v>80</v>
+      </c>
+      <c r="E139">
+        <v>67</v>
+      </c>
+      <c r="F139">
+        <v>-2.775940439865895</v>
+      </c>
+      <c r="G139">
+        <v>-0.03791379857379673</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>147</v>
+      </c>
+      <c r="B140">
+        <v>1.083</v>
+      </c>
+      <c r="C140">
+        <v>0.4625850340136055</v>
+      </c>
+      <c r="D140">
+        <v>79</v>
+      </c>
+      <c r="E140">
+        <v>68</v>
+      </c>
+      <c r="F140">
+        <v>-2.778648907921429</v>
+      </c>
+      <c r="G140">
+        <v>-0.03747531052542508</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>147</v>
+      </c>
+      <c r="B141">
+        <v>1.083</v>
+      </c>
+      <c r="C141">
+        <v>0.4693877551020408</v>
+      </c>
+      <c r="D141">
+        <v>78</v>
+      </c>
+      <c r="E141">
+        <v>69</v>
+      </c>
+      <c r="F141">
+        <v>-2.781357375976965</v>
+      </c>
+      <c r="G141">
+        <v>-0.03703682247705609</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>147</v>
+      </c>
+      <c r="B142">
+        <v>1.083</v>
+      </c>
+      <c r="C142">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="D142">
+        <v>77</v>
+      </c>
+      <c r="E142">
+        <v>70</v>
+      </c>
+      <c r="F142">
+        <v>-2.7840658440325</v>
+      </c>
+      <c r="G142">
+        <v>-0.03659833442868621</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>147</v>
+      </c>
+      <c r="B143">
+        <v>1.083</v>
+      </c>
+      <c r="C143">
+        <v>0.4829931972789115</v>
+      </c>
+      <c r="D143">
+        <v>76</v>
+      </c>
+      <c r="E143">
+        <v>71</v>
+      </c>
+      <c r="F143">
+        <v>-2.786522409210455</v>
+      </c>
+      <c r="G143">
+        <v>-0.03590794350273629</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>147</v>
+      </c>
+      <c r="B144">
+        <v>1.083</v>
+      </c>
+      <c r="C144">
+        <v>0.4897959183673469</v>
+      </c>
+      <c r="D144">
+        <v>75</v>
+      </c>
+      <c r="E144">
+        <v>72</v>
+      </c>
+      <c r="F144">
+        <v>-2.789190341062033</v>
+      </c>
+      <c r="G144">
+        <v>-0.0354289192504087</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>147</v>
+      </c>
+      <c r="B145">
+        <v>1.083</v>
+      </c>
+      <c r="C145">
+        <v>0.4965986394557823</v>
+      </c>
+      <c r="D145">
+        <v>74</v>
+      </c>
+      <c r="E145">
+        <v>73</v>
+      </c>
+      <c r="F145">
+        <v>-2.791646906239991</v>
+      </c>
+      <c r="G145">
+        <v>-0.03473852832446145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>1.083</v>
+      </c>
+      <c r="C146">
+        <v>0.5034013605442177</v>
+      </c>
+      <c r="D146">
+        <v>73</v>
+      </c>
+      <c r="E146">
+        <v>74</v>
+      </c>
+      <c r="F146">
+        <v>-2.794314838091568</v>
+      </c>
+      <c r="G146">
+        <v>-0.03425950407213296</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>1.083</v>
+      </c>
+      <c r="C147">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="D147">
+        <v>72</v>
+      </c>
+      <c r="E147">
+        <v>75</v>
+      </c>
+      <c r="F147">
+        <v>-2.797608184310175</v>
+      </c>
+      <c r="G147">
+        <v>-0.03440589418683482</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1.083</v>
+      </c>
+      <c r="C148">
+        <v>0.5170068027210885</v>
+      </c>
+      <c r="D148">
+        <v>71</v>
+      </c>
+      <c r="E148">
+        <v>76</v>
+      </c>
+      <c r="F148">
+        <v>-2.799731774202638</v>
+      </c>
+      <c r="G148">
+        <v>-0.03338252797539365</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>1.083</v>
+      </c>
+      <c r="C149">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="D149">
+        <v>70</v>
+      </c>
+      <c r="E149">
+        <v>77</v>
+      </c>
+      <c r="F149">
+        <v>-2.802047796081316</v>
+      </c>
+      <c r="G149">
+        <v>-0.03255159375016659</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <v>1.083</v>
+      </c>
+      <c r="C150">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="D150">
+        <v>69</v>
+      </c>
+      <c r="E150">
+        <v>78</v>
+      </c>
+      <c r="F150">
+        <v>-2.805148710313708</v>
+      </c>
+      <c r="G150">
+        <v>-0.03250555187865278</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>147</v>
+      </c>
+      <c r="B151">
+        <v>1.083</v>
+      </c>
+      <c r="C151">
+        <v>0.5374149659863946</v>
+      </c>
+      <c r="D151">
+        <v>68</v>
+      </c>
+      <c r="E151">
+        <v>79</v>
+      </c>
+      <c r="F151">
+        <v>-2.808734495613852</v>
+      </c>
+      <c r="G151">
+        <v>-0.03294438107489195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>147</v>
+      </c>
+      <c r="B152">
+        <v>1.083</v>
+      </c>
+      <c r="C152">
+        <v>0.54421768707483</v>
+      </c>
+      <c r="D152">
+        <v>67</v>
+      </c>
+      <c r="E152">
+        <v>80</v>
+      </c>
+      <c r="F152">
+        <v>-2.811150524587849</v>
+      </c>
+      <c r="G152">
+        <v>-0.03221345394498409</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>147</v>
+      </c>
+      <c r="B153">
+        <v>1.083</v>
+      </c>
+      <c r="C153">
+        <v>0.5510204081632653</v>
+      </c>
+      <c r="D153">
+        <v>66</v>
+      </c>
+      <c r="E153">
+        <v>81</v>
+      </c>
+      <c r="F153">
+        <v>-2.814151431724921</v>
+      </c>
+      <c r="G153">
+        <v>-0.03206740497815108</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>147</v>
+      </c>
+      <c r="B154">
+        <v>1.083</v>
+      </c>
+      <c r="C154">
+        <v>0.5578231292517006</v>
+      </c>
+      <c r="D154">
+        <v>65</v>
+      </c>
+      <c r="E154">
+        <v>82</v>
+      </c>
+      <c r="F154">
+        <v>-2.816607996902879</v>
+      </c>
+      <c r="G154">
+        <v>-0.03137701405220339</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>147</v>
+      </c>
+      <c r="B155">
+        <v>1.083</v>
+      </c>
+      <c r="C155">
+        <v>0.564625850340136</v>
+      </c>
+      <c r="D155">
+        <v>64</v>
+      </c>
+      <c r="E155">
+        <v>83</v>
+      </c>
+      <c r="F155">
+        <v>-2.819568367835992</v>
+      </c>
+      <c r="G155">
+        <v>-0.0311904288814111</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>147</v>
+      </c>
+      <c r="B156">
+        <v>1.083</v>
+      </c>
+      <c r="C156">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D156">
+        <v>63</v>
+      </c>
+      <c r="E156">
+        <v>84</v>
+      </c>
+      <c r="F156">
+        <v>-2.822276835891527</v>
+      </c>
+      <c r="G156">
+        <v>-0.030751940833041</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>147</v>
+      </c>
+      <c r="B157">
+        <v>1.083</v>
+      </c>
+      <c r="C157">
+        <v>0.5782312925170068</v>
+      </c>
+      <c r="D157">
+        <v>62</v>
+      </c>
+      <c r="E157">
+        <v>85</v>
+      </c>
+      <c r="F157">
+        <v>-2.825277743028598</v>
+      </c>
+      <c r="G157">
+        <v>-0.03060589186620688</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>147</v>
+      </c>
+      <c r="B158">
+        <v>1.083</v>
+      </c>
+      <c r="C158">
+        <v>0.5850340136054422</v>
+      </c>
+      <c r="D158">
+        <v>61</v>
+      </c>
+      <c r="E158">
+        <v>86</v>
+      </c>
+      <c r="F158">
+        <v>-2.828278650165669</v>
+      </c>
+      <c r="G158">
+        <v>-0.03045984289937365</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>147</v>
+      </c>
+      <c r="B159">
+        <v>1.083</v>
+      </c>
+      <c r="C159">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="D159">
+        <v>60</v>
+      </c>
+      <c r="E159">
+        <v>87</v>
+      </c>
+      <c r="F159">
+        <v>-2.831279557302741</v>
+      </c>
+      <c r="G159">
+        <v>-0.03031379393253952</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>147</v>
+      </c>
+      <c r="B160">
+        <v>1.083</v>
+      </c>
+      <c r="C160">
+        <v>0.5986394557823129</v>
+      </c>
+      <c r="D160">
+        <v>59</v>
+      </c>
+      <c r="E160">
+        <v>88</v>
+      </c>
+      <c r="F160">
+        <v>-2.833736122480696</v>
+      </c>
+      <c r="G160">
+        <v>-0.02962340300659005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>147</v>
+      </c>
+      <c r="B161">
+        <v>1.083</v>
+      </c>
+      <c r="C161">
+        <v>0.6054421768707483</v>
+      </c>
+      <c r="D161">
+        <v>58</v>
+      </c>
+      <c r="E161">
+        <v>89</v>
+      </c>
+      <c r="F161">
+        <v>-2.836192687658652</v>
+      </c>
+      <c r="G161">
+        <v>-0.02893301208064059</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>147</v>
+      </c>
+      <c r="B162">
+        <v>1.083</v>
+      </c>
+      <c r="C162">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="D162">
+        <v>57</v>
+      </c>
+      <c r="E162">
+        <v>90</v>
+      </c>
+      <c r="F162">
+        <v>-2.838649252836608</v>
+      </c>
+      <c r="G162">
+        <v>-0.02824262115469156</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>147</v>
+      </c>
+      <c r="B163">
+        <v>1.083</v>
+      </c>
+      <c r="C163">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="D163">
+        <v>56</v>
+      </c>
+      <c r="E163">
+        <v>91</v>
+      </c>
+      <c r="F163">
+        <v>-2.841418448543024</v>
+      </c>
+      <c r="G163">
+        <v>-0.02786486075720296</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>147</v>
+      </c>
+      <c r="B164">
+        <v>1.083</v>
+      </c>
+      <c r="C164">
+        <v>0.6258503401360545</v>
+      </c>
+      <c r="D164">
+        <v>55</v>
+      </c>
+      <c r="E164">
+        <v>92</v>
+      </c>
+      <c r="F164">
+        <v>-2.843562383192519</v>
+      </c>
+      <c r="G164">
+        <v>-0.02686183930279273</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>147</v>
+      </c>
+      <c r="B165">
+        <v>1.083</v>
+      </c>
+      <c r="C165">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="D165">
+        <v>54</v>
+      </c>
+      <c r="E165">
+        <v>93</v>
+      </c>
+      <c r="F165">
+        <v>-2.846018948370475</v>
+      </c>
+      <c r="G165">
+        <v>-0.02617144837684371</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>147</v>
+      </c>
+      <c r="B166">
+        <v>1.083</v>
+      </c>
+      <c r="C166">
+        <v>0.6394557823129252</v>
+      </c>
+      <c r="D166">
+        <v>53</v>
+      </c>
+      <c r="E166">
+        <v>94</v>
+      </c>
+      <c r="F166">
+        <v>-2.848788144076891</v>
+      </c>
+      <c r="G166">
+        <v>-0.02579368797935377</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>147</v>
+      </c>
+      <c r="B167">
+        <v>1.083</v>
+      </c>
+      <c r="C167">
+        <v>0.6462585034013606</v>
+      </c>
+      <c r="D167">
+        <v>52</v>
+      </c>
+      <c r="E167">
+        <v>95</v>
+      </c>
+      <c r="F167">
+        <v>-2.851325628352652</v>
+      </c>
+      <c r="G167">
+        <v>-0.0251842161512098</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>147</v>
+      </c>
+      <c r="B168">
+        <v>1.083</v>
+      </c>
+      <c r="C168">
+        <v>0.6530612244897959</v>
+      </c>
+      <c r="D168">
+        <v>51</v>
+      </c>
+      <c r="E168">
+        <v>96</v>
+      </c>
+      <c r="F168">
+        <v>-2.854013904961264</v>
+      </c>
+      <c r="G168">
+        <v>-0.02472553665591715</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>147</v>
+      </c>
+      <c r="B169">
+        <v>1.083</v>
+      </c>
+      <c r="C169">
+        <v>0.6598639455782312</v>
+      </c>
+      <c r="D169">
+        <v>50</v>
+      </c>
+      <c r="E169">
+        <v>97</v>
+      </c>
+      <c r="F169">
+        <v>-2.85678310066768</v>
+      </c>
+      <c r="G169">
+        <v>-0.02434777625842777</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>147</v>
+      </c>
+      <c r="B170">
+        <v>1.083</v>
+      </c>
+      <c r="C170">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D170">
+        <v>49</v>
+      </c>
+      <c r="E170">
+        <v>98</v>
+      </c>
+      <c r="F170">
+        <v>-2.858927035317174</v>
+      </c>
+      <c r="G170">
+        <v>-0.02334475480401677</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>147</v>
+      </c>
+      <c r="B171">
+        <v>1.083</v>
+      </c>
+      <c r="C171">
+        <v>0.673469387755102</v>
+      </c>
+      <c r="D171">
+        <v>48</v>
+      </c>
+      <c r="E171">
+        <v>99</v>
+      </c>
+      <c r="F171">
+        <v>-2.862008861552052</v>
+      </c>
+      <c r="G171">
+        <v>-0.0232796249349897</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>147</v>
+      </c>
+      <c r="B172">
+        <v>1.083</v>
+      </c>
+      <c r="C172">
+        <v>0.6802721088435374</v>
+      </c>
+      <c r="D172">
+        <v>47</v>
+      </c>
+      <c r="E172">
+        <v>100</v>
+      </c>
+      <c r="F172">
+        <v>-2.865715948843851</v>
+      </c>
+      <c r="G172">
+        <v>-0.02383975612288347</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>147</v>
+      </c>
+      <c r="B173">
+        <v>1.083</v>
+      </c>
+      <c r="C173">
+        <v>0.6870748299319728</v>
+      </c>
+      <c r="D173">
+        <v>46</v>
+      </c>
+      <c r="E173">
+        <v>101</v>
+      </c>
+      <c r="F173">
+        <v>-2.867628172062691</v>
+      </c>
+      <c r="G173">
+        <v>-0.02260502323781832</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>147</v>
+      </c>
+      <c r="B174">
+        <v>1.083</v>
+      </c>
+      <c r="C174">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="D174">
+        <v>45</v>
+      </c>
+      <c r="E174">
+        <v>102</v>
+      </c>
+      <c r="F174">
+        <v>-2.870397367769107</v>
+      </c>
+      <c r="G174">
+        <v>-0.02222726284032883</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>147</v>
+      </c>
+      <c r="B175">
+        <v>1.083</v>
+      </c>
+      <c r="C175">
+        <v>0.7006802721088435</v>
+      </c>
+      <c r="D175">
+        <v>44</v>
+      </c>
+      <c r="E175">
+        <v>103</v>
+      </c>
+      <c r="F175">
+        <v>-2.872460383320796</v>
+      </c>
+      <c r="G175">
+        <v>-0.02114332228811344</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>147</v>
+      </c>
+      <c r="B176">
+        <v>1.083</v>
+      </c>
+      <c r="C176">
+        <v>0.7074829931972789</v>
+      </c>
+      <c r="D176">
+        <v>43</v>
+      </c>
+      <c r="E176">
+        <v>104</v>
+      </c>
+      <c r="F176">
+        <v>-2.875542209555673</v>
+      </c>
+      <c r="G176">
+        <v>-0.02107819241908493</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>147</v>
+      </c>
+      <c r="B177">
+        <v>1.083</v>
+      </c>
+      <c r="C177">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D177">
+        <v>42</v>
+      </c>
+      <c r="E177">
+        <v>105</v>
+      </c>
+      <c r="F177">
+        <v>-2.878311405262091</v>
+      </c>
+      <c r="G177">
+        <v>-0.02070043202159721</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>147</v>
+      </c>
+      <c r="B178">
+        <v>1.083</v>
+      </c>
+      <c r="C178">
+        <v>0.7210884353741497</v>
+      </c>
+      <c r="D178">
+        <v>41</v>
+      </c>
+      <c r="E178">
+        <v>106</v>
+      </c>
+      <c r="F178">
+        <v>-2.881080600968506</v>
+      </c>
+      <c r="G178">
+        <v>-0.02032267162410817</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>147</v>
+      </c>
+      <c r="B179">
+        <v>1.083</v>
+      </c>
+      <c r="C179">
+        <v>0.7278911564625851</v>
+      </c>
+      <c r="D179">
+        <v>40</v>
+      </c>
+      <c r="E179">
+        <v>107</v>
+      </c>
+      <c r="F179">
+        <v>-2.883537166146462</v>
+      </c>
+      <c r="G179">
+        <v>-0.01963228069815892</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>147</v>
+      </c>
+      <c r="B180">
+        <v>1.083</v>
+      </c>
+      <c r="C180">
+        <v>0.7346938775510204</v>
+      </c>
+      <c r="D180">
+        <v>39</v>
+      </c>
+      <c r="E180">
+        <v>108</v>
+      </c>
+      <c r="F180">
+        <v>-2.886618992381341</v>
+      </c>
+      <c r="G180">
+        <v>-0.01956715082913307</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>147</v>
+      </c>
+      <c r="B181">
+        <v>1.083</v>
+      </c>
+      <c r="C181">
+        <v>0.7414965986394558</v>
+      </c>
+      <c r="D181">
+        <v>38</v>
+      </c>
+      <c r="E181">
+        <v>109</v>
+      </c>
+      <c r="F181">
+        <v>-2.888762927030835</v>
+      </c>
+      <c r="G181">
+        <v>-0.01856412937472096</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>147</v>
+      </c>
+      <c r="B182">
+        <v>1.083</v>
+      </c>
+      <c r="C182">
+        <v>0.7482993197278912</v>
+      </c>
+      <c r="D182">
+        <v>37</v>
+      </c>
+      <c r="E182">
+        <v>110</v>
+      </c>
+      <c r="F182">
+        <v>-2.892470014322633</v>
+      </c>
+      <c r="G182">
+        <v>-0.01912426056261385</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>147</v>
+      </c>
+      <c r="B183">
+        <v>1.083</v>
+      </c>
+      <c r="C183">
+        <v>0.7551020408163265</v>
+      </c>
+      <c r="D183">
+        <v>36</v>
+      </c>
+      <c r="E183">
+        <v>111</v>
+      </c>
+      <c r="F183">
+        <v>-2.894926579500589</v>
+      </c>
+      <c r="G183">
+        <v>-0.01843386963666516</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>147</v>
+      </c>
+      <c r="B184">
+        <v>1.083</v>
+      </c>
+      <c r="C184">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="D184">
+        <v>35</v>
+      </c>
+      <c r="E184">
+        <v>112</v>
+      </c>
+      <c r="F184">
+        <v>-2.897070514150085</v>
+      </c>
+      <c r="G184">
+        <v>-0.01743084818225571</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>147</v>
+      </c>
+      <c r="B185">
+        <v>1.083</v>
+      </c>
+      <c r="C185">
+        <v>0.7687074829931972</v>
+      </c>
+      <c r="D185">
+        <v>34</v>
+      </c>
+      <c r="E185">
+        <v>113</v>
+      </c>
+      <c r="F185">
+        <v>-2.90148378159661</v>
+      </c>
+      <c r="G185">
+        <v>-0.01869715952487572</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>147</v>
+      </c>
+      <c r="B186">
+        <v>1.083</v>
+      </c>
+      <c r="C186">
+        <v>0.7755102040816326</v>
+      </c>
+      <c r="D186">
+        <v>33</v>
+      </c>
+      <c r="E186">
+        <v>114</v>
+      </c>
+      <c r="F186">
+        <v>-2.902699920384185</v>
+      </c>
+      <c r="G186">
+        <v>-0.01676634220854512</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>147</v>
+      </c>
+      <c r="B187">
+        <v>1.083</v>
+      </c>
+      <c r="C187">
+        <v>0.782312925170068</v>
+      </c>
+      <c r="D187">
+        <v>32</v>
+      </c>
+      <c r="E187">
+        <v>115</v>
+      </c>
+      <c r="F187">
+        <v>-2.905690731797794</v>
+      </c>
+      <c r="G187">
+        <v>-0.01661019751824999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>147</v>
+      </c>
+      <c r="B188">
+        <v>1.083</v>
+      </c>
+      <c r="C188">
+        <v>0.7891156462585034</v>
+      </c>
+      <c r="D188">
+        <v>31</v>
+      </c>
+      <c r="E188">
+        <v>116</v>
+      </c>
+      <c r="F188">
+        <v>-2.907915585545096</v>
+      </c>
+      <c r="G188">
+        <v>-0.01568809516164604</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>147</v>
+      </c>
+      <c r="B189">
+        <v>1.083</v>
+      </c>
+      <c r="C189">
+        <v>0.7959183673469388</v>
+      </c>
+      <c r="D189">
+        <v>30</v>
+      </c>
+      <c r="E189">
+        <v>117</v>
+      </c>
+      <c r="F189">
+        <v>-2.911229123210629</v>
+      </c>
+      <c r="G189">
+        <v>-0.01585467672327445</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>147</v>
+      </c>
+      <c r="B190">
+        <v>1.083</v>
+      </c>
+      <c r="C190">
+        <v>0.8027210884353742</v>
+      </c>
+      <c r="D190">
+        <v>29</v>
+      </c>
+      <c r="E190">
+        <v>118</v>
+      </c>
+      <c r="F190">
+        <v>-2.915248841030886</v>
+      </c>
+      <c r="G190">
+        <v>-0.01672743843962665</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>147</v>
+      </c>
+      <c r="B191">
+        <v>1.083</v>
+      </c>
+      <c r="C191">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="D191">
+        <v>28</v>
+      </c>
+      <c r="E191">
+        <v>119</v>
+      </c>
+      <c r="F191">
+        <v>-2.916767514623461</v>
+      </c>
+      <c r="G191">
+        <v>-0.01509915592829636</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>147</v>
+      </c>
+      <c r="B192">
+        <v>1.083</v>
+      </c>
+      <c r="C192">
+        <v>0.8163265306122449</v>
+      </c>
+      <c r="D192">
+        <v>27</v>
+      </c>
+      <c r="E192">
+        <v>120</v>
+      </c>
+      <c r="F192">
+        <v>-2.920787232443721</v>
+      </c>
+      <c r="G192">
+        <v>-0.01597191764465117</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>147</v>
+      </c>
+      <c r="B193">
+        <v>1.083</v>
+      </c>
+      <c r="C193">
+        <v>0.8231292517006803</v>
+      </c>
+      <c r="D193">
+        <v>26</v>
+      </c>
+      <c r="E193">
+        <v>121</v>
+      </c>
+      <c r="F193">
+        <v>-2.923243797621675</v>
+      </c>
+      <c r="G193">
+        <v>-0.01528152671870014</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>147</v>
+      </c>
+      <c r="B194">
+        <v>1.083</v>
+      </c>
+      <c r="C194">
+        <v>0.8299319727891157</v>
+      </c>
+      <c r="D194">
+        <v>25</v>
+      </c>
+      <c r="E194">
+        <v>122</v>
+      </c>
+      <c r="F194">
+        <v>-2.926325623856553</v>
+      </c>
+      <c r="G194">
+        <v>-0.01521639684967258</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>147</v>
+      </c>
+      <c r="B195">
+        <v>1.083</v>
+      </c>
+      <c r="C195">
+        <v>0.8367346938775511</v>
+      </c>
+      <c r="D195">
+        <v>24</v>
+      </c>
+      <c r="E195">
+        <v>123</v>
+      </c>
+      <c r="F195">
+        <v>-2.929094819562971</v>
+      </c>
+      <c r="G195">
+        <v>-0.01483863645218614</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>147</v>
+      </c>
+      <c r="B196">
+        <v>1.083</v>
+      </c>
+      <c r="C196">
+        <v>0.8435374149659864</v>
+      </c>
+      <c r="D196">
+        <v>23</v>
+      </c>
+      <c r="E196">
+        <v>124</v>
+      </c>
+      <c r="F196">
+        <v>-2.932176645797847</v>
+      </c>
+      <c r="G196">
+        <v>-0.0147735065831564</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>147</v>
+      </c>
+      <c r="B197">
+        <v>1.083</v>
+      </c>
+      <c r="C197">
+        <v>0.8503401360544217</v>
+      </c>
+      <c r="D197">
+        <v>22</v>
+      </c>
+      <c r="E197">
+        <v>125</v>
+      </c>
+      <c r="F197">
+        <v>-2.934945841504264</v>
+      </c>
+      <c r="G197">
+        <v>-0.01439574618566791</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>147</v>
+      </c>
+      <c r="B198">
+        <v>1.083</v>
+      </c>
+      <c r="C198">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D198">
+        <v>21</v>
+      </c>
+      <c r="E198">
+        <v>126</v>
+      </c>
+      <c r="F198">
+        <v>-2.93740240668222</v>
+      </c>
+      <c r="G198">
+        <v>-0.01370535525971955</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>147</v>
+      </c>
+      <c r="B199">
+        <v>1.083</v>
+      </c>
+      <c r="C199">
+        <v>0.8639455782312925</v>
+      </c>
+      <c r="D199">
+        <v>20</v>
+      </c>
+      <c r="E199">
+        <v>127</v>
+      </c>
+      <c r="F199">
+        <v>-2.940796863445556</v>
+      </c>
+      <c r="G199">
+        <v>-0.01395285591915041</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>147</v>
+      </c>
+      <c r="B200">
+        <v>1.083</v>
+      </c>
+      <c r="C200">
+        <v>0.8707482993197279</v>
+      </c>
+      <c r="D200">
+        <v>19</v>
+      </c>
+      <c r="E200">
+        <v>128</v>
+      </c>
+      <c r="F200">
+        <v>-2.942940798095053</v>
+      </c>
+      <c r="G200">
+        <v>-0.01294983446474185</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>147</v>
+      </c>
+      <c r="B201">
+        <v>1.083</v>
+      </c>
+      <c r="C201">
+        <v>0.8775510204081632</v>
+      </c>
+      <c r="D201">
+        <v>18</v>
+      </c>
+      <c r="E201">
+        <v>129</v>
+      </c>
+      <c r="F201">
+        <v>-2.94633525485839</v>
+      </c>
+      <c r="G201">
+        <v>-0.01319733512417404</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <v>147</v>
+      </c>
+      <c r="B202">
+        <v>1.083</v>
+      </c>
+      <c r="C202">
+        <v>0.8843537414965986</v>
+      </c>
+      <c r="D202">
+        <v>17</v>
+      </c>
+      <c r="E202">
+        <v>130</v>
+      </c>
+      <c r="F202">
+        <v>-2.949104450564807</v>
+      </c>
+      <c r="G202">
+        <v>-0.01281957472668627</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203">
+        <v>147</v>
+      </c>
+      <c r="B203">
+        <v>1.083</v>
+      </c>
+      <c r="C203">
+        <v>0.891156462585034</v>
+      </c>
+      <c r="D203">
+        <v>16</v>
+      </c>
+      <c r="E203">
+        <v>131</v>
+      </c>
+      <c r="F203">
+        <v>-2.952186276799685</v>
+      </c>
+      <c r="G203">
+        <v>-0.01275444485765875</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204">
+        <v>147</v>
+      </c>
+      <c r="B204">
+        <v>1.083</v>
+      </c>
+      <c r="C204">
+        <v>0.8979591836734694</v>
+      </c>
+      <c r="D204">
+        <v>15</v>
+      </c>
+      <c r="E204">
+        <v>132</v>
+      </c>
+      <c r="F204">
+        <v>-2.954955472506102</v>
+      </c>
+      <c r="G204">
+        <v>-0.01237668446017054</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205">
+        <v>147</v>
+      </c>
+      <c r="B205">
+        <v>1.083</v>
+      </c>
+      <c r="C205">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="D205">
+        <v>14</v>
+      </c>
+      <c r="E205">
+        <v>133</v>
+      </c>
+      <c r="F205">
+        <v>-2.958037298740979</v>
+      </c>
+      <c r="G205">
+        <v>-0.01231155459114214</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <v>147</v>
+      </c>
+      <c r="B206">
+        <v>1.083</v>
+      </c>
+      <c r="C206">
+        <v>0.9115646258503401</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206">
+        <v>134</v>
+      </c>
+      <c r="F206">
+        <v>-2.961119124975855</v>
+      </c>
+      <c r="G206">
+        <v>-0.01224642472211415</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207">
+        <v>147</v>
+      </c>
+      <c r="B207">
+        <v>1.083</v>
+      </c>
+      <c r="C207">
+        <v>0.9183673469387755</v>
+      </c>
+      <c r="D207">
+        <v>12</v>
+      </c>
+      <c r="E207">
+        <v>135</v>
+      </c>
+      <c r="F207">
+        <v>-2.964200951210732</v>
+      </c>
+      <c r="G207">
+        <v>-0.01218129485308569</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208">
+        <v>147</v>
+      </c>
+      <c r="B208">
+        <v>1.083</v>
+      </c>
+      <c r="C208">
+        <v>0.9251700680272109</v>
+      </c>
+      <c r="D208">
+        <v>11</v>
+      </c>
+      <c r="E208">
+        <v>136</v>
+      </c>
+      <c r="F208">
+        <v>-2.966332799410213</v>
+      </c>
+      <c r="G208">
+        <v>-0.01116618694866117</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <v>147</v>
+      </c>
+      <c r="B209">
+        <v>1.083</v>
+      </c>
+      <c r="C209">
+        <v>0.9319727891156463</v>
+      </c>
+      <c r="D209">
+        <v>10</v>
+      </c>
+      <c r="E209">
+        <v>137</v>
+      </c>
+      <c r="F209">
+        <v>-2.968464647609695</v>
+      </c>
+      <c r="G209">
+        <v>-0.01015107904423798</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>147</v>
+      </c>
+      <c r="B210">
+        <v>1.083</v>
+      </c>
+      <c r="C210">
+        <v>0.9387755102040817</v>
+      </c>
+      <c r="D210">
+        <v>9</v>
+      </c>
+      <c r="E210">
+        <v>138</v>
+      </c>
+      <c r="F210">
+        <v>-2.970596495809176</v>
+      </c>
+      <c r="G210">
+        <v>-0.009135971139814347</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>147</v>
+      </c>
+      <c r="B211">
+        <v>1.083</v>
+      </c>
+      <c r="C211">
+        <v>0.9455782312925171</v>
+      </c>
+      <c r="D211">
+        <v>8</v>
+      </c>
+      <c r="E211">
+        <v>139</v>
+      </c>
+      <c r="F211">
+        <v>-2.972728344008658</v>
+      </c>
+      <c r="G211">
+        <v>-0.008120863235391157</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>147</v>
+      </c>
+      <c r="B212">
+        <v>1.083</v>
+      </c>
+      <c r="C212">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="D212">
+        <v>7</v>
+      </c>
+      <c r="E212">
+        <v>140</v>
+      </c>
+      <c r="F212">
+        <v>-2.974860192208139</v>
+      </c>
+      <c r="G212">
+        <v>-0.007105755330966357</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <v>147</v>
+      </c>
+      <c r="B213">
+        <v>1.083</v>
+      </c>
+      <c r="C213">
+        <v>0.9591836734693877</v>
+      </c>
+      <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="E213">
+        <v>141</v>
+      </c>
+      <c r="F213">
+        <v>-2.97699204040762</v>
+      </c>
+      <c r="G213">
+        <v>-0.006090647426542264</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>147</v>
+      </c>
+      <c r="B214">
+        <v>1.083</v>
+      </c>
+      <c r="C214">
+        <v>0.9659863945578231</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
+      <c r="E214">
+        <v>142</v>
+      </c>
+      <c r="F214">
+        <v>-2.979123888607102</v>
+      </c>
+      <c r="G214">
+        <v>-0.005075539522119518</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <v>147</v>
+      </c>
+      <c r="B215">
+        <v>1.083</v>
+      </c>
+      <c r="C215">
+        <v>0.9727891156462585</v>
+      </c>
+      <c r="D215">
+        <v>4</v>
+      </c>
+      <c r="E215">
+        <v>143</v>
+      </c>
+      <c r="F215">
+        <v>-2.981255736806584</v>
+      </c>
+      <c r="G215">
+        <v>-0.004060431617696772</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>147</v>
+      </c>
+      <c r="B216">
+        <v>1.083</v>
+      </c>
+      <c r="C216">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+      <c r="E216">
+        <v>144</v>
+      </c>
+      <c r="F216">
+        <v>-2.983387585006067</v>
+      </c>
+      <c r="G216">
+        <v>-0.003045323713274019</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>147</v>
+      </c>
+      <c r="B217">
+        <v>1.083</v>
+      </c>
+      <c r="C217">
+        <v>0.9863945578231292</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <v>145</v>
+      </c>
+      <c r="F217">
+        <v>-2.985519433205547</v>
+      </c>
+      <c r="G217">
+        <v>-0.002030215808849496</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <v>147</v>
+      </c>
+      <c r="B218">
+        <v>1.083</v>
+      </c>
+      <c r="C218">
+        <v>0.9931972789115646</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>146</v>
+      </c>
+      <c r="F218">
+        <v>-2.987651281405028</v>
+      </c>
+      <c r="G218">
+        <v>-0.00101510790442497</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219">
+        <v>147</v>
+      </c>
+      <c r="B219">
+        <v>1.083</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>147</v>
+      </c>
+      <c r="F219">
+        <v>-2.989783129604508</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220">
+        <v>309</v>
+      </c>
+      <c r="B220">
+        <v>1.444</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>309</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>-2.621703188588303</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221">
+        <v>309</v>
+      </c>
+      <c r="B221">
+        <v>1.444</v>
+      </c>
+      <c r="C221">
+        <v>0.0970873786407767</v>
+      </c>
+      <c r="D221">
+        <v>279</v>
+      </c>
+      <c r="E221">
+        <v>30</v>
+      </c>
+      <c r="F221">
+        <v>-2.666879909623818</v>
+      </c>
+      <c r="G221">
+        <v>0.001415996484237958</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222">
+        <v>309</v>
+      </c>
+      <c r="B222">
+        <v>1.444</v>
+      </c>
+      <c r="C222">
+        <v>0.1974110032362459</v>
+      </c>
+      <c r="D222">
+        <v>248</v>
+      </c>
+      <c r="E222">
+        <v>61</v>
+      </c>
+      <c r="F222">
+        <v>-2.715239896792717</v>
+      </c>
+      <c r="G222">
+        <v>0.00120181741908354</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223">
+        <v>309</v>
+      </c>
+      <c r="B223">
+        <v>1.444</v>
+      </c>
+      <c r="C223">
+        <v>0.2977346278317152</v>
+      </c>
+      <c r="D223">
+        <v>217</v>
+      </c>
+      <c r="E223">
+        <v>92</v>
+      </c>
+      <c r="F223">
+        <v>-2.772419606935411</v>
+      </c>
+      <c r="G223">
+        <v>-0.00783208461986562</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224">
+        <v>309</v>
+      </c>
+      <c r="B224">
+        <v>1.444</v>
+      </c>
+      <c r="C224">
+        <v>0.3980582524271845</v>
+      </c>
+      <c r="D224">
+        <v>186</v>
+      </c>
+      <c r="E224">
+        <v>123</v>
+      </c>
+      <c r="F224">
+        <v>-2.835801607757044</v>
+      </c>
+      <c r="G224">
+        <v>-0.02306827733775352</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225">
+        <v>309</v>
+      </c>
+      <c r="B225">
+        <v>1.444</v>
+      </c>
+      <c r="C225">
+        <v>0.4983818770226537</v>
+      </c>
+      <c r="D225">
+        <v>155</v>
+      </c>
+      <c r="E225">
+        <v>154</v>
+      </c>
+      <c r="F225">
+        <v>-2.897391575168058</v>
+      </c>
+      <c r="G225">
+        <v>-0.03651243664502291</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226">
+        <v>309</v>
+      </c>
+      <c r="B226">
+        <v>1.444</v>
+      </c>
+      <c r="C226">
+        <v>0.598705501618123</v>
+      </c>
+      <c r="D226">
+        <v>124</v>
+      </c>
+      <c r="E226">
+        <v>185</v>
+      </c>
+      <c r="F226">
+        <v>-2.939916273639788</v>
+      </c>
+      <c r="G226">
+        <v>-0.03089132701300823</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227">
+        <v>309</v>
+      </c>
+      <c r="B227">
+        <v>1.444</v>
+      </c>
+      <c r="C227">
+        <v>0.6990291262135923</v>
+      </c>
+      <c r="D227">
+        <v>93</v>
+      </c>
+      <c r="E227">
+        <v>216</v>
+      </c>
+      <c r="F227">
+        <v>-2.981117192898052</v>
+      </c>
+      <c r="G227">
+        <v>-0.02394643816752717</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228">
+        <v>309</v>
+      </c>
+      <c r="B228">
+        <v>1.444</v>
+      </c>
+      <c r="C228">
+        <v>0.7993527508090615</v>
+      </c>
+      <c r="D228">
+        <v>62</v>
+      </c>
+      <c r="E228">
+        <v>247</v>
+      </c>
+      <c r="F228">
+        <v>-3.0211132146724</v>
+      </c>
+      <c r="G228">
+        <v>-0.01579665183813073</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229">
+        <v>309</v>
+      </c>
+      <c r="B229">
+        <v>1.444</v>
+      </c>
+      <c r="C229">
+        <v>0.8996763754045307</v>
+      </c>
+      <c r="D229">
+        <v>31</v>
+      </c>
+      <c r="E229">
+        <v>278</v>
+      </c>
+      <c r="F229">
+        <v>-3.062811717830271</v>
+      </c>
+      <c r="G229">
+        <v>-0.009349346892257637</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230">
+        <v>309</v>
+      </c>
+      <c r="B230">
+        <v>1.444</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>309</v>
+      </c>
+      <c r="F230">
+        <v>-3.101608179041758</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231">
+        <v>561</v>
+      </c>
+      <c r="B231">
+        <v>1.805</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>561</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>-2.681923713795291</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232">
+        <v>561</v>
+      </c>
+      <c r="B232">
+        <v>1.805</v>
+      </c>
+      <c r="C232">
+        <v>0.09982174688057041</v>
+      </c>
+      <c r="D232">
+        <v>505</v>
+      </c>
+      <c r="E232">
+        <v>56</v>
+      </c>
+      <c r="F232">
+        <v>-2.726025619336128</v>
+      </c>
+      <c r="G232">
+        <v>0.004903425801600303</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233">
+        <v>561</v>
+      </c>
+      <c r="B233">
+        <v>1.805</v>
+      </c>
+      <c r="C233">
+        <v>0.1996434937611408</v>
+      </c>
+      <c r="D233">
+        <v>449</v>
+      </c>
+      <c r="E233">
+        <v>112</v>
+      </c>
+      <c r="F233">
+        <v>-2.773285740916861</v>
+      </c>
+      <c r="G233">
+        <v>0.006648635563304861</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234">
+        <v>561</v>
+      </c>
+      <c r="B234">
+        <v>1.805</v>
+      </c>
+      <c r="C234">
+        <v>0.2994652406417112</v>
+      </c>
+      <c r="D234">
+        <v>393</v>
+      </c>
+      <c r="E234">
+        <v>168</v>
+      </c>
+      <c r="F234">
+        <v>-2.826244793113586</v>
+      </c>
+      <c r="G234">
+        <v>0.002694914709016949</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235">
+        <v>561</v>
+      </c>
+      <c r="B235">
+        <v>1.805</v>
+      </c>
+      <c r="C235">
+        <v>0.3992869875222816</v>
+      </c>
+      <c r="D235">
+        <v>337</v>
+      </c>
+      <c r="E235">
+        <v>224</v>
+      </c>
+      <c r="F235">
+        <v>-2.886252541542376</v>
+      </c>
+      <c r="G235">
+        <v>-0.008307502377336018</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236">
+        <v>561</v>
+      </c>
+      <c r="B236">
+        <v>1.805</v>
+      </c>
+      <c r="C236">
+        <v>0.499108734402852</v>
+      </c>
+      <c r="D236">
+        <v>281</v>
+      </c>
+      <c r="E236">
+        <v>280</v>
+      </c>
+      <c r="F236">
+        <v>-2.950779617639742</v>
+      </c>
+      <c r="G236">
+        <v>-0.02382924713226497</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237">
+        <v>561</v>
+      </c>
+      <c r="B237">
+        <v>1.805</v>
+      </c>
+      <c r="C237">
+        <v>0.5989304812834224</v>
+      </c>
+      <c r="D237">
+        <v>225</v>
+      </c>
+      <c r="E237">
+        <v>336</v>
+      </c>
+      <c r="F237">
+        <v>-3.007348604281509</v>
+      </c>
+      <c r="G237">
+        <v>-0.03139290243159421</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238">
+        <v>561</v>
+      </c>
+      <c r="B238">
+        <v>1.805</v>
+      </c>
+      <c r="C238">
+        <v>0.6987522281639929</v>
+      </c>
+      <c r="D238">
+        <v>169</v>
+      </c>
+      <c r="E238">
+        <v>392</v>
+      </c>
+      <c r="F238">
+        <v>-3.04930944796753</v>
+      </c>
+      <c r="G238">
+        <v>-0.02434841477517879</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239">
+        <v>561</v>
+      </c>
+      <c r="B239">
+        <v>1.805</v>
+      </c>
+      <c r="C239">
+        <v>0.7985739750445633</v>
+      </c>
+      <c r="D239">
+        <v>113</v>
+      </c>
+      <c r="E239">
+        <v>448</v>
+      </c>
+      <c r="F239">
+        <v>-3.091921824600202</v>
+      </c>
+      <c r="G239">
+        <v>-0.0179554600654136</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240">
+        <v>561</v>
+      </c>
+      <c r="B240">
+        <v>1.805</v>
+      </c>
+      <c r="C240">
+        <v>0.8983957219251337</v>
+      </c>
+      <c r="D240">
+        <v>57</v>
+      </c>
+      <c r="E240">
+        <v>504</v>
+      </c>
+      <c r="F240">
+        <v>-3.131717224503014</v>
+      </c>
+      <c r="G240">
+        <v>-0.008745528625788201</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241">
+        <v>561</v>
+      </c>
+      <c r="B241">
+        <v>1.805</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>561</v>
+      </c>
+      <c r="F241">
+        <v>-3.172852122422207</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242">
+        <v>923</v>
+      </c>
+      <c r="B242">
+        <v>2.166</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>923</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>-2.723569122533771</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243">
+        <v>923</v>
+      </c>
+      <c r="B243">
+        <v>2.166</v>
+      </c>
+      <c r="C243">
+        <v>0.09967497291440953</v>
+      </c>
+      <c r="D243">
+        <v>831</v>
+      </c>
+      <c r="E243">
+        <v>92</v>
+      </c>
+      <c r="F243">
+        <v>-2.764925310610515</v>
+      </c>
+      <c r="G243">
+        <v>0.008336932736913827</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244">
+        <v>923</v>
+      </c>
+      <c r="B244">
+        <v>2.166</v>
+      </c>
+      <c r="C244">
+        <v>0.1993499458288191</v>
+      </c>
+      <c r="D244">
+        <v>739</v>
+      </c>
+      <c r="E244">
+        <v>184</v>
+      </c>
+      <c r="F244">
+        <v>-2.811109476951128</v>
+      </c>
+      <c r="G244">
+        <v>0.01184588720996027</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245">
+        <v>923</v>
+      </c>
+      <c r="B245">
+        <v>2.166</v>
+      </c>
+      <c r="C245">
+        <v>0.2990249187432286</v>
+      </c>
+      <c r="D245">
+        <v>647</v>
+      </c>
+      <c r="E245">
+        <v>276</v>
+      </c>
+      <c r="F245">
+        <v>-2.861861548748021</v>
+      </c>
+      <c r="G245">
+        <v>0.01078693622672477</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246">
+        <v>923</v>
+      </c>
+      <c r="B246">
+        <v>2.166</v>
+      </c>
+      <c r="C246">
+        <v>0.399783315276273</v>
+      </c>
+      <c r="D246">
+        <v>554</v>
+      </c>
+      <c r="E246">
+        <v>369</v>
+      </c>
+      <c r="F246">
+        <v>-2.920205021664118</v>
+      </c>
+      <c r="G246">
+        <v>0.002676726741825508</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247">
+        <v>923</v>
+      </c>
+      <c r="B247">
+        <v>2.166</v>
+      </c>
+      <c r="C247">
+        <v>0.4994582881906826</v>
+      </c>
+      <c r="D247">
+        <v>462</v>
+      </c>
+      <c r="E247">
+        <v>461</v>
+      </c>
+      <c r="F247">
+        <v>-2.98300230473093</v>
+      </c>
+      <c r="G247">
+        <v>-0.01042743551132785</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248">
+        <v>923</v>
+      </c>
+      <c r="B248">
+        <v>2.166</v>
+      </c>
+      <c r="C248">
+        <v>0.5991332611050921</v>
+      </c>
+      <c r="D248">
+        <v>370</v>
+      </c>
+      <c r="E248">
+        <v>553</v>
+      </c>
+      <c r="F248">
+        <v>-3.051204502307168</v>
+      </c>
+      <c r="G248">
+        <v>-0.02893651227390714</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249">
+        <v>923</v>
+      </c>
+      <c r="B249">
+        <v>2.166</v>
+      </c>
+      <c r="C249">
+        <v>0.6998916576381365</v>
+      </c>
+      <c r="D249">
+        <v>277</v>
+      </c>
+      <c r="E249">
+        <v>646</v>
+      </c>
+      <c r="F249">
+        <v>-3.099247678803074</v>
+      </c>
+      <c r="G249">
+        <v>-0.02674642533861527</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250">
+        <v>923</v>
+      </c>
+      <c r="B250">
+        <v>2.166</v>
+      </c>
+      <c r="C250">
+        <v>0.7995666305525461</v>
+      </c>
+      <c r="D250">
+        <v>185</v>
+      </c>
+      <c r="E250">
+        <v>738</v>
+      </c>
+      <c r="F250">
+        <v>-3.138565002264335</v>
+      </c>
+      <c r="G250">
+        <v>-0.01637062798621813</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251">
+        <v>923</v>
+      </c>
+      <c r="B251">
+        <v>2.166</v>
+      </c>
+      <c r="C251">
+        <v>0.8992416034669556</v>
+      </c>
+      <c r="D251">
+        <v>93</v>
+      </c>
+      <c r="E251">
+        <v>830</v>
+      </c>
+      <c r="F251">
+        <v>-3.180717076554148</v>
+      </c>
+      <c r="G251">
+        <v>-0.008829581462372282</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252">
+        <v>923</v>
+      </c>
+      <c r="B252">
+        <v>2.166</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>923</v>
+      </c>
+      <c r="F252">
+        <v>-3.222120758522974</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253">
+        <v>1415</v>
+      </c>
+      <c r="B253">
+        <v>2.527</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>1415</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>-2.754057650354959</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254">
+        <v>1415</v>
+      </c>
+      <c r="B254">
+        <v>2.527</v>
+      </c>
+      <c r="C254">
+        <v>0.09964664310954063</v>
+      </c>
+      <c r="D254">
+        <v>1274</v>
+      </c>
+      <c r="E254">
+        <v>141</v>
+      </c>
+      <c r="F254">
+        <v>-2.794001774364349</v>
+      </c>
+      <c r="G254">
+        <v>0.01029099595180494</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255">
+        <v>1415</v>
+      </c>
+      <c r="B255">
+        <v>2.527</v>
+      </c>
+      <c r="C255">
+        <v>0.2</v>
+      </c>
+      <c r="D255">
+        <v>1132</v>
+      </c>
+      <c r="E255">
+        <v>283</v>
+      </c>
+      <c r="F255">
+        <v>-2.840897459818753</v>
+      </c>
+      <c r="G255">
+        <v>0.01398670790512879</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256">
+        <v>1415</v>
+      </c>
+      <c r="B256">
+        <v>2.527</v>
+      </c>
+      <c r="C256">
+        <v>0.2996466431095406</v>
+      </c>
+      <c r="D256">
+        <v>991</v>
+      </c>
+      <c r="E256">
+        <v>424</v>
+      </c>
+      <c r="F256">
+        <v>-2.890358720774489</v>
+      </c>
+      <c r="G256">
+        <v>0.01476056691058747</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257">
+        <v>1415</v>
+      </c>
+      <c r="B257">
+        <v>2.527</v>
+      </c>
+      <c r="C257">
+        <v>0.4</v>
+      </c>
+      <c r="D257">
+        <v>849</v>
+      </c>
+      <c r="E257">
+        <v>566</v>
+      </c>
+      <c r="F257">
+        <v>-2.946067365916806</v>
+      </c>
+      <c r="G257">
+        <v>0.009643319175998588</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258">
+        <v>1415</v>
+      </c>
+      <c r="B258">
+        <v>2.527</v>
+      </c>
+      <c r="C258">
+        <v>0.4996466431095407</v>
+      </c>
+      <c r="D258">
+        <v>708</v>
+      </c>
+      <c r="E258">
+        <v>707</v>
+      </c>
+      <c r="F258">
+        <v>-3.007326133062151</v>
+      </c>
+      <c r="G258">
+        <v>-0.001380328008152132</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259">
+        <v>1415</v>
+      </c>
+      <c r="B259">
+        <v>2.527</v>
+      </c>
+      <c r="C259">
+        <v>0.6</v>
+      </c>
+      <c r="D259">
+        <v>566</v>
+      </c>
+      <c r="E259">
+        <v>849</v>
+      </c>
+      <c r="F259">
+        <v>-3.074160193489027</v>
+      </c>
+      <c r="G259">
+        <v>-0.01762299102730003</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260">
+        <v>1415</v>
+      </c>
+      <c r="B260">
+        <v>2.527</v>
+      </c>
+      <c r="C260">
+        <v>0.6996466431095406</v>
+      </c>
+      <c r="D260">
+        <v>425</v>
+      </c>
+      <c r="E260">
+        <v>990</v>
+      </c>
+      <c r="F260">
+        <v>-3.131413655174648</v>
+      </c>
+      <c r="G260">
+        <v>-0.02464133275172598</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261">
+        <v>1415</v>
+      </c>
+      <c r="B261">
+        <v>2.527</v>
+      </c>
+      <c r="C261">
+        <v>0.8</v>
+      </c>
+      <c r="D261">
+        <v>283</v>
+      </c>
+      <c r="E261">
+        <v>1132</v>
+      </c>
+      <c r="F261">
+        <v>-3.173626893606031</v>
+      </c>
+      <c r="G261">
+        <v>-0.01626317377538011</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262">
+        <v>1415</v>
+      </c>
+      <c r="B262">
+        <v>2.527</v>
+      </c>
+      <c r="C262">
+        <v>0.8996466431095407</v>
+      </c>
+      <c r="D262">
+        <v>142</v>
+      </c>
+      <c r="E262">
+        <v>1273</v>
+      </c>
+      <c r="F262">
+        <v>-3.217382051725147</v>
+      </c>
+      <c r="G262">
+        <v>-0.009783211933302449</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263">
+        <v>1415</v>
+      </c>
+      <c r="B263">
+        <v>2.527</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>1415</v>
+      </c>
+      <c r="F263">
+        <v>-3.258190237199573</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264">
+        <v>2057</v>
+      </c>
+      <c r="B264">
+        <v>2.888</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>2057</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>-2.777331564851756</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265">
+        <v>2057</v>
+      </c>
+      <c r="B265">
+        <v>2.888</v>
+      </c>
+      <c r="C265">
+        <v>0.09965969859017987</v>
+      </c>
+      <c r="D265">
+        <v>1852</v>
+      </c>
+      <c r="E265">
+        <v>205</v>
+      </c>
+      <c r="F265">
+        <v>-2.816431164378035</v>
+      </c>
+      <c r="G265">
+        <v>0.01156668331594624</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266">
+        <v>2057</v>
+      </c>
+      <c r="B266">
+        <v>2.888</v>
+      </c>
+      <c r="C266">
+        <v>0.1998055420515314</v>
+      </c>
+      <c r="D266">
+        <v>1646</v>
+      </c>
+      <c r="E266">
+        <v>411</v>
+      </c>
+      <c r="F266">
+        <v>-2.861532229024989</v>
+      </c>
+      <c r="G266">
+        <v>0.0173790541104486</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267">
+        <v>2057</v>
+      </c>
+      <c r="B267">
+        <v>2.888</v>
+      </c>
+      <c r="C267">
+        <v>0.2999513855128829</v>
+      </c>
+      <c r="D267">
+        <v>1440</v>
+      </c>
+      <c r="E267">
+        <v>617</v>
+      </c>
+      <c r="F267">
+        <v>-2.910680115539143</v>
+      </c>
+      <c r="G267">
+        <v>0.0191446030377509</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268">
+        <v>2057</v>
+      </c>
+      <c r="B268">
+        <v>2.888</v>
+      </c>
+      <c r="C268">
+        <v>0.3996110841030627</v>
+      </c>
+      <c r="D268">
+        <v>1235</v>
+      </c>
+      <c r="E268">
+        <v>822</v>
+      </c>
+      <c r="F268">
+        <v>-2.965345817752583</v>
+      </c>
+      <c r="G268">
+        <v>0.01514518366653661</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269">
+        <v>2057</v>
+      </c>
+      <c r="B269">
+        <v>2.888</v>
+      </c>
+      <c r="C269">
+        <v>0.4997569275644142</v>
+      </c>
+      <c r="D269">
+        <v>1029</v>
+      </c>
+      <c r="E269">
+        <v>1028</v>
+      </c>
+      <c r="F269">
+        <v>-3.026003663022228</v>
+      </c>
+      <c r="G269">
+        <v>0.005400773838346584</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270">
+        <v>2057</v>
+      </c>
+      <c r="B270">
+        <v>2.888</v>
+      </c>
+      <c r="C270">
+        <v>0.5999027710257657</v>
+      </c>
+      <c r="D270">
+        <v>823</v>
+      </c>
+      <c r="E270">
+        <v>1234</v>
+      </c>
+      <c r="F270">
+        <v>-3.090953261656205</v>
+      </c>
+      <c r="G270">
+        <v>-0.008635389354173961</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271">
+        <v>2057</v>
+      </c>
+      <c r="B271">
+        <v>2.888</v>
+      </c>
+      <c r="C271">
+        <v>0.6995624696159456</v>
+      </c>
+      <c r="D271">
+        <v>618</v>
+      </c>
+      <c r="E271">
+        <v>1439</v>
+      </c>
+      <c r="F271">
+        <v>-3.157197052500988</v>
+      </c>
+      <c r="G271">
+        <v>-0.02421289735673127</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272">
+        <v>2057</v>
+      </c>
+      <c r="B272">
+        <v>2.888</v>
+      </c>
+      <c r="C272">
+        <v>0.7997083130772971</v>
+      </c>
+      <c r="D272">
+        <v>412</v>
+      </c>
+      <c r="E272">
+        <v>1645</v>
+      </c>
+      <c r="F272">
+        <v>-3.201615675802399</v>
+      </c>
+      <c r="G272">
+        <v>-0.01771808521668672</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273">
+        <v>2057</v>
+      </c>
+      <c r="B273">
+        <v>2.888</v>
+      </c>
+      <c r="C273">
+        <v>0.8998541565386485</v>
+      </c>
+      <c r="D273">
+        <v>206</v>
+      </c>
+      <c r="E273">
+        <v>1851</v>
+      </c>
+      <c r="F273">
+        <v>-3.244225681541994</v>
+      </c>
+      <c r="G273">
+        <v>-0.009414655514825454</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274">
+        <v>2057</v>
+      </c>
+      <c r="B274">
+        <v>2.888</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>2057</v>
+      </c>
+      <c r="F274">
+        <v>-3.285724461468624</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275">
+        <v>2869</v>
+      </c>
+      <c r="B275">
+        <v>3.249</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>2869</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>-2.795675378543732</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276">
+        <v>2869</v>
+      </c>
+      <c r="B276">
+        <v>3.249</v>
+      </c>
+      <c r="C276">
+        <v>0.09968630184733357</v>
+      </c>
+      <c r="D276">
+        <v>2583</v>
+      </c>
+      <c r="E276">
+        <v>286</v>
+      </c>
+      <c r="F276">
+        <v>-2.834497913435873</v>
+      </c>
+      <c r="G276">
+        <v>0.01219200456969682</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277">
+        <v>2869</v>
+      </c>
+      <c r="B277">
+        <v>3.249</v>
+      </c>
+      <c r="C277">
+        <v>0.1997211571976298</v>
+      </c>
+      <c r="D277">
+        <v>2296</v>
+      </c>
+      <c r="E277">
+        <v>573</v>
+      </c>
+      <c r="F277">
+        <v>-2.878197353975906</v>
+      </c>
+      <c r="G277">
+        <v>0.01968547600710391</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278">
+        <v>2869</v>
+      </c>
+      <c r="B278">
+        <v>3.249</v>
+      </c>
+      <c r="C278">
+        <v>0.2997560125479261</v>
+      </c>
+      <c r="D278">
+        <v>2009</v>
+      </c>
+      <c r="E278">
+        <v>860</v>
+      </c>
+      <c r="F278">
+        <v>-2.927542835265043</v>
+      </c>
+      <c r="G278">
+        <v>0.02153290669540553</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279">
+        <v>2869</v>
+      </c>
+      <c r="B279">
+        <v>3.249</v>
+      </c>
+      <c r="C279">
+        <v>0.3997908678982224</v>
+      </c>
+      <c r="D279">
+        <v>1722</v>
+      </c>
+      <c r="E279">
+        <v>1147</v>
+      </c>
+      <c r="F279">
+        <v>-2.980946113150365</v>
+      </c>
+      <c r="G279">
+        <v>0.01932254078752194</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280">
+        <v>2869</v>
+      </c>
+      <c r="B280">
+        <v>3.249</v>
+      </c>
+      <c r="C280">
+        <v>0.4998257232485186</v>
+      </c>
+      <c r="D280">
+        <v>1435</v>
+      </c>
+      <c r="E280">
+        <v>1434</v>
+      </c>
+      <c r="F280">
+        <v>-3.040137688032276</v>
+      </c>
+      <c r="G280">
+        <v>0.01132387788305111</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281">
+        <v>2869</v>
+      </c>
+      <c r="B281">
+        <v>3.249</v>
+      </c>
+      <c r="C281">
+        <v>0.5998605785988149</v>
+      </c>
+      <c r="D281">
+        <v>1148</v>
+      </c>
+      <c r="E281">
+        <v>1721</v>
+      </c>
+      <c r="F281">
+        <v>-3.10421789450146</v>
+      </c>
+      <c r="G281">
+        <v>-0.001563416608694634</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282">
+        <v>2869</v>
+      </c>
+      <c r="B282">
+        <v>3.249</v>
+      </c>
+      <c r="C282">
+        <v>0.6998954339491111</v>
+      </c>
+      <c r="D282">
+        <v>861</v>
+      </c>
+      <c r="E282">
+        <v>2008</v>
+      </c>
+      <c r="F282">
+        <v>-3.173818869184048</v>
+      </c>
+      <c r="G282">
+        <v>-0.01997147931384369</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283">
+        <v>2869</v>
+      </c>
+      <c r="B283">
+        <v>3.249</v>
+      </c>
+      <c r="C283">
+        <v>0.7999302892994075</v>
+      </c>
+      <c r="D283">
+        <v>574</v>
+      </c>
+      <c r="E283">
+        <v>2295</v>
+      </c>
+      <c r="F283">
+        <v>-3.224309831594119</v>
+      </c>
+      <c r="G283">
+        <v>-0.01926952974647533</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284">
+        <v>2869</v>
+      </c>
+      <c r="B284">
+        <v>3.249</v>
+      </c>
+      <c r="C284">
+        <v>0.8999651446497037</v>
+      </c>
+      <c r="D284">
+        <v>287</v>
+      </c>
+      <c r="E284">
+        <v>2582</v>
+      </c>
+      <c r="F284">
+        <v>-3.264827979553089</v>
+      </c>
+      <c r="G284">
+        <v>-0.008594765728006548</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285">
+        <v>2869</v>
+      </c>
+      <c r="B285">
+        <v>3.249</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>2869</v>
+      </c>
+      <c r="F285">
+        <v>-3.307426125802522</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286">
+        <v>3871</v>
+      </c>
+      <c r="B286">
+        <v>3.61</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>3871</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>-2.810502834326656</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287">
+        <v>3871</v>
+      </c>
+      <c r="B287">
+        <v>3.61</v>
+      </c>
+      <c r="C287">
+        <v>0.09997416688194265</v>
+      </c>
+      <c r="D287">
+        <v>3484</v>
+      </c>
+      <c r="E287">
+        <v>387</v>
+      </c>
+      <c r="F287">
+        <v>-2.848979392956621</v>
+      </c>
+      <c r="G287">
+        <v>0.01295664369741134</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288">
+        <v>3871</v>
+      </c>
+      <c r="B288">
+        <v>3.61</v>
+      </c>
+      <c r="C288">
+        <v>0.1999483337638853</v>
+      </c>
+      <c r="D288">
+        <v>3097</v>
+      </c>
+      <c r="E288">
+        <v>774</v>
+      </c>
+      <c r="F288">
+        <v>-2.892176143608465</v>
+      </c>
+      <c r="G288">
+        <v>0.02119309537294267</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289">
+        <v>3871</v>
+      </c>
+      <c r="B289">
+        <v>3.61</v>
+      </c>
+      <c r="C289">
+        <v>0.2999225006458279</v>
+      </c>
+      <c r="D289">
+        <v>2710</v>
+      </c>
+      <c r="E289">
+        <v>1161</v>
+      </c>
+      <c r="F289">
+        <v>-2.940507644692476</v>
+      </c>
+      <c r="G289">
+        <v>0.02429479661630696</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290">
+        <v>3871</v>
+      </c>
+      <c r="B290">
+        <v>3.61</v>
+      </c>
+      <c r="C290">
+        <v>0.3998966675277706</v>
+      </c>
+      <c r="D290">
+        <v>2323</v>
+      </c>
+      <c r="E290">
+        <v>1548</v>
+      </c>
+      <c r="F290">
+        <v>-2.993879369761322</v>
+      </c>
+      <c r="G290">
+        <v>0.02235627387483707</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291">
+        <v>3871</v>
+      </c>
+      <c r="B291">
+        <v>3.61</v>
+      </c>
+      <c r="C291">
+        <v>0.4998708344097132</v>
+      </c>
+      <c r="D291">
+        <v>1936</v>
+      </c>
+      <c r="E291">
+        <v>1935</v>
+      </c>
+      <c r="F291">
+        <v>-3.0522011867136</v>
+      </c>
+      <c r="G291">
+        <v>0.01546765924993498</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292">
+        <v>3871</v>
+      </c>
+      <c r="B292">
+        <v>3.61</v>
+      </c>
+      <c r="C292">
+        <v>0.5998450012916559</v>
+      </c>
+      <c r="D292">
+        <v>1549</v>
+      </c>
+      <c r="E292">
+        <v>2322</v>
+      </c>
+      <c r="F292">
+        <v>-3.11553077896585</v>
+      </c>
+      <c r="G292">
+        <v>0.003571269325061577</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293">
+        <v>3871</v>
+      </c>
+      <c r="B293">
+        <v>3.61</v>
+      </c>
+      <c r="C293">
+        <v>0.6998191681735986</v>
+      </c>
+      <c r="D293">
+        <v>1162</v>
+      </c>
+      <c r="E293">
+        <v>2709</v>
+      </c>
+      <c r="F293">
+        <v>-3.183809642600894</v>
+      </c>
+      <c r="G293">
+        <v>-0.01327439198260727</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294">
+        <v>3871</v>
+      </c>
+      <c r="B294">
+        <v>3.61</v>
+      </c>
+      <c r="C294">
+        <v>0.7997933350555412</v>
+      </c>
+      <c r="D294">
+        <v>775</v>
+      </c>
+      <c r="E294">
+        <v>3096</v>
+      </c>
+      <c r="F294">
+        <v>-3.240016655023779</v>
+      </c>
+      <c r="G294">
+        <v>-0.01804820207811608</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295">
+        <v>3871</v>
+      </c>
+      <c r="B295">
+        <v>3.61</v>
+      </c>
+      <c r="C295">
+        <v>0.8997675019374839</v>
+      </c>
+      <c r="D295">
+        <v>388</v>
+      </c>
+      <c r="E295">
+        <v>3483</v>
+      </c>
+      <c r="F295">
+        <v>-3.281572546965653</v>
+      </c>
+      <c r="G295">
+        <v>-0.00817089169261398</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296">
+        <v>3871</v>
+      </c>
+      <c r="B296">
+        <v>3.61</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>3871</v>
+      </c>
+      <c r="F296">
+        <v>-3.32496775993201</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297">
+        <v>5083</v>
+      </c>
+      <c r="B297">
+        <v>3.971</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>5083</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>-2.822735089673319</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298">
+        <v>5083</v>
+      </c>
+      <c r="B298">
+        <v>3.971</v>
+      </c>
+      <c r="C298">
+        <v>0.09994097973637615</v>
+      </c>
+      <c r="D298">
+        <v>4575</v>
+      </c>
+      <c r="E298">
+        <v>508</v>
+      </c>
+      <c r="F298">
+        <v>-2.860947161941995</v>
+      </c>
+      <c r="G298">
+        <v>0.0134278367533347</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299">
+        <v>5083</v>
+      </c>
+      <c r="B299">
+        <v>3.971</v>
+      </c>
+      <c r="C299">
+        <v>0.1998819594727523</v>
+      </c>
+      <c r="D299">
+        <v>4067</v>
+      </c>
+      <c r="E299">
+        <v>1016</v>
+      </c>
+      <c r="F299">
+        <v>-2.903561849649023</v>
+      </c>
+      <c r="G299">
+        <v>0.02245305806831688</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300">
+        <v>5083</v>
+      </c>
+      <c r="B300">
+        <v>3.971</v>
+      </c>
+      <c r="C300">
+        <v>0.2998229392091284</v>
+      </c>
+      <c r="D300">
+        <v>3559</v>
+      </c>
+      <c r="E300">
+        <v>1524</v>
+      </c>
+      <c r="F300">
+        <v>-2.951072707876506</v>
+      </c>
+      <c r="G300">
+        <v>0.02658210886284396</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301">
+        <v>5083</v>
+      </c>
+      <c r="B301">
+        <v>3.971</v>
+      </c>
+      <c r="C301">
+        <v>0.3999606531575841</v>
+      </c>
+      <c r="D301">
+        <v>3050</v>
+      </c>
+      <c r="E301">
+        <v>2033</v>
+      </c>
+      <c r="F301">
+        <v>-3.004365947985548</v>
+      </c>
+      <c r="G301">
+        <v>0.02503043114002912</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302">
+        <v>5083</v>
+      </c>
+      <c r="B302">
+        <v>3.971</v>
+      </c>
+      <c r="C302">
+        <v>0.4999016328939603</v>
+      </c>
+      <c r="D302">
+        <v>2542</v>
+      </c>
+      <c r="E302">
+        <v>2541</v>
+      </c>
+      <c r="F302">
+        <v>-3.062057654738838</v>
+      </c>
+      <c r="G302">
+        <v>0.01897863340874983</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303">
+        <v>5083</v>
+      </c>
+      <c r="B303">
+        <v>3.971</v>
+      </c>
+      <c r="C303">
+        <v>0.5998426126303364</v>
+      </c>
+      <c r="D303">
+        <v>2034</v>
+      </c>
+      <c r="E303">
+        <v>3049</v>
+      </c>
+      <c r="F303">
+        <v>-3.124497808045408</v>
+      </c>
+      <c r="G303">
+        <v>0.008178389124190444</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304">
+        <v>5083</v>
+      </c>
+      <c r="B304">
+        <v>3.971</v>
+      </c>
+      <c r="C304">
+        <v>0.6999803265787921</v>
+      </c>
+      <c r="D304">
+        <v>1525</v>
+      </c>
+      <c r="E304">
+        <v>3558</v>
+      </c>
+      <c r="F304">
+        <v>-3.192352728423805</v>
+      </c>
+      <c r="G304">
+        <v>-0.007934968867980174</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305">
+        <v>5083</v>
+      </c>
+      <c r="B305">
+        <v>3.971</v>
+      </c>
+      <c r="C305">
+        <v>0.7999213063151682</v>
+      </c>
+      <c r="D305">
+        <v>1017</v>
+      </c>
+      <c r="E305">
+        <v>4066</v>
+      </c>
+      <c r="F305">
+        <v>-3.252822183150438</v>
+      </c>
+      <c r="G305">
+        <v>-0.01676451457260242</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306">
+        <v>5083</v>
+      </c>
+      <c r="B306">
+        <v>3.971</v>
+      </c>
+      <c r="C306">
+        <v>0.8998622860515444</v>
+      </c>
+      <c r="D306">
+        <v>509</v>
+      </c>
+      <c r="E306">
+        <v>4574</v>
+      </c>
+      <c r="F306">
+        <v>-3.29578087137157</v>
+      </c>
+      <c r="G306">
+        <v>-0.008083293771724176</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307">
+        <v>5083</v>
+      </c>
+      <c r="B307">
+        <v>3.971</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>5083</v>
+      </c>
+      <c r="F307">
+        <v>-3.339439139986073</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308">
+        <v>6525</v>
+      </c>
+      <c r="B308">
+        <v>4.332</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>6525</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>-2.832997797461241</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309">
+        <v>6525</v>
+      </c>
+      <c r="B309">
+        <v>4.332</v>
+      </c>
+      <c r="C309">
+        <v>0.09992337164750958</v>
+      </c>
+      <c r="D309">
+        <v>5873</v>
+      </c>
+      <c r="E309">
+        <v>652</v>
+      </c>
+      <c r="F309">
+        <v>-2.870929823200496</v>
+      </c>
+      <c r="G309">
+        <v>0.01388650089390397</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310">
+        <v>6525</v>
+      </c>
+      <c r="B310">
+        <v>4.332</v>
+      </c>
+      <c r="C310">
+        <v>0.2</v>
+      </c>
+      <c r="D310">
+        <v>5220</v>
+      </c>
+      <c r="E310">
+        <v>1305</v>
+      </c>
+      <c r="F310">
+        <v>-2.913407358663439</v>
+      </c>
+      <c r="G310">
+        <v>0.02330696833196289</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311">
+        <v>6525</v>
+      </c>
+      <c r="B311">
+        <v>4.332</v>
+      </c>
+      <c r="C311">
+        <v>0.2999233716475096</v>
+      </c>
+      <c r="D311">
+        <v>4568</v>
+      </c>
+      <c r="E311">
+        <v>1957</v>
+      </c>
+      <c r="F311">
+        <v>-2.960846922510756</v>
+      </c>
+      <c r="G311">
+        <v>0.02768593111780571</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312">
+        <v>6525</v>
+      </c>
+      <c r="B312">
+        <v>4.332</v>
+      </c>
+      <c r="C312">
+        <v>0.4</v>
+      </c>
+      <c r="D312">
+        <v>3915</v>
+      </c>
+      <c r="E312">
+        <v>2610</v>
+      </c>
+      <c r="F312">
+        <v>-3.012861612724491</v>
+      </c>
+      <c r="G312">
+        <v>0.02756924380507231</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313">
+        <v>6525</v>
+      </c>
+      <c r="B313">
+        <v>4.332</v>
+      </c>
+      <c r="C313">
+        <v>0.4999233716475096</v>
+      </c>
+      <c r="D313">
+        <v>3263</v>
+      </c>
+      <c r="E313">
+        <v>3262</v>
+      </c>
+      <c r="F313">
+        <v>-3.069802464896187</v>
+      </c>
+      <c r="G313">
+        <v>0.02244691826653544</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314">
+        <v>6525</v>
+      </c>
+      <c r="B314">
+        <v>4.332</v>
+      </c>
+      <c r="C314">
+        <v>0.6</v>
+      </c>
+      <c r="D314">
+        <v>2610</v>
+      </c>
+      <c r="E314">
+        <v>3915</v>
+      </c>
+      <c r="F314">
+        <v>-3.13245360180382</v>
+      </c>
+      <c r="G314">
+        <v>0.01169378425990431</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315">
+        <v>6525</v>
+      </c>
+      <c r="B315">
+        <v>4.332</v>
+      </c>
+      <c r="C315">
+        <v>0.6999233716475096</v>
+      </c>
+      <c r="D315">
+        <v>1958</v>
+      </c>
+      <c r="E315">
+        <v>4567</v>
+      </c>
+      <c r="F315">
+        <v>-3.199558403077119</v>
+      </c>
+      <c r="G315">
+        <v>-0.003592490380234903</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316">
+        <v>6525</v>
+      </c>
+      <c r="B316">
+        <v>4.332</v>
+      </c>
+      <c r="C316">
+        <v>0.8</v>
+      </c>
+      <c r="D316">
+        <v>1305</v>
+      </c>
+      <c r="E316">
+        <v>5220</v>
+      </c>
+      <c r="F316">
+        <v>-3.264337288535071</v>
+      </c>
+      <c r="G316">
+        <v>-0.01647337293718476</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317">
+        <v>6525</v>
+      </c>
+      <c r="B317">
+        <v>4.332</v>
+      </c>
+      <c r="C317">
+        <v>0.8999233716475096</v>
+      </c>
+      <c r="D317">
+        <v>653</v>
+      </c>
+      <c r="E317">
+        <v>5872</v>
+      </c>
+      <c r="F317">
+        <v>-3.307976157893792</v>
+      </c>
+      <c r="G317">
+        <v>-0.008293715662746837</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318">
+        <v>6525</v>
+      </c>
+      <c r="B318">
+        <v>4.332</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>6525</v>
+      </c>
+      <c r="F318">
+        <v>-3.351580445132047</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319">
+        <v>8217</v>
+      </c>
+      <c r="B319">
+        <v>4.693</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>8217</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>-2.8417306772002</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320">
+        <v>8217</v>
+      </c>
+      <c r="B320">
+        <v>4.693</v>
+      </c>
+      <c r="C320">
+        <v>0.09991481075818426</v>
+      </c>
+      <c r="D320">
+        <v>7396</v>
+      </c>
+      <c r="E320">
+        <v>821</v>
+      </c>
+      <c r="F320">
+        <v>-2.879123389208288</v>
+      </c>
+      <c r="G320">
+        <v>0.01458109501992988</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321">
+        <v>8217</v>
+      </c>
+      <c r="B321">
+        <v>4.693</v>
+      </c>
+      <c r="C321">
+        <v>0.1999513204332481</v>
+      </c>
+      <c r="D321">
+        <v>6574</v>
+      </c>
+      <c r="E321">
+        <v>1643</v>
+      </c>
+      <c r="F321">
+        <v>-2.921358239616704</v>
+      </c>
+      <c r="G321">
+        <v>0.0243833571292118</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322">
+        <v>8217</v>
+      </c>
+      <c r="B322">
+        <v>4.693</v>
+      </c>
+      <c r="C322">
+        <v>0.299987830108312</v>
+      </c>
+      <c r="D322">
+        <v>5752</v>
+      </c>
+      <c r="E322">
+        <v>2465</v>
+      </c>
+      <c r="F322">
+        <v>-2.96819005246026</v>
+      </c>
+      <c r="G322">
+        <v>0.02958865680335343</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323">
+        <v>8217</v>
+      </c>
+      <c r="B323">
+        <v>4.693</v>
+      </c>
+      <c r="C323">
+        <v>0.3999026408664963</v>
+      </c>
+      <c r="D323">
+        <v>4931</v>
+      </c>
+      <c r="E323">
+        <v>3286</v>
+      </c>
+      <c r="F323">
+        <v>-3.02049642399396</v>
+      </c>
+      <c r="G323">
+        <v>0.02925609229767145</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324">
+        <v>8217</v>
+      </c>
+      <c r="B324">
+        <v>4.693</v>
+      </c>
+      <c r="C324">
+        <v>0.4999391505415602</v>
+      </c>
+      <c r="D324">
+        <v>4109</v>
+      </c>
+      <c r="E324">
+        <v>4108</v>
+      </c>
+      <c r="F324">
+        <v>-3.077316983720144</v>
+      </c>
+      <c r="G324">
+        <v>0.02447264508918567</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325">
+        <v>8217</v>
+      </c>
+      <c r="B325">
+        <v>4.693</v>
+      </c>
+      <c r="C325">
+        <v>0.5999756602166241</v>
+      </c>
+      <c r="D325">
+        <v>3287</v>
+      </c>
+      <c r="E325">
+        <v>4930</v>
+      </c>
+      <c r="F325">
+        <v>-3.138958647106423</v>
+      </c>
+      <c r="G325">
+        <v>0.01486809422060476</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326">
+        <v>8217</v>
+      </c>
+      <c r="B326">
+        <v>4.693</v>
+      </c>
+      <c r="C326">
+        <v>0.6998904709748083</v>
+      </c>
+      <c r="D326">
+        <v>2466</v>
+      </c>
+      <c r="E326">
+        <v>5751</v>
+      </c>
+      <c r="F326">
+        <v>-3.205264221303546</v>
+      </c>
+      <c r="G326">
+        <v>0.000536327051499641</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327">
+        <v>8217</v>
+      </c>
+      <c r="B327">
+        <v>4.693</v>
+      </c>
+      <c r="C327">
+        <v>0.7999269806498722</v>
+      </c>
+      <c r="D327">
+        <v>1644</v>
+      </c>
+      <c r="E327">
+        <v>6573</v>
+      </c>
+      <c r="F327">
+        <v>-3.274818743035683</v>
+      </c>
+      <c r="G327">
+        <v>-0.01698108216293914</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328">
+        <v>8217</v>
+      </c>
+      <c r="B328">
+        <v>4.693</v>
+      </c>
+      <c r="C328">
+        <v>0.8999634903249361</v>
+      </c>
+      <c r="D328">
+        <v>822</v>
+      </c>
+      <c r="E328">
+        <v>7395</v>
+      </c>
+      <c r="F328">
+        <v>-3.318351546962274</v>
+      </c>
+      <c r="G328">
+        <v>-0.008476773571831742</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329">
+        <v>8217</v>
+      </c>
+      <c r="B329">
+        <v>4.693</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>8217</v>
+      </c>
+      <c r="F329">
+        <v>-3.36191188590814</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330">
+        <v>10179</v>
+      </c>
+      <c r="B330">
+        <v>5.054</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>10179</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>-2.849251743704464</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331">
+        <v>10179</v>
+      </c>
+      <c r="B331">
+        <v>5.054</v>
+      </c>
+      <c r="C331">
+        <v>0.09991158267020336</v>
+      </c>
+      <c r="D331">
+        <v>9162</v>
+      </c>
+      <c r="E331">
+        <v>1017</v>
+      </c>
+      <c r="F331">
+        <v>-2.88640710448779</v>
+      </c>
+      <c r="G331">
+        <v>0.01495431908626621</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332">
+        <v>10179</v>
+      </c>
+      <c r="B332">
+        <v>5.054</v>
+      </c>
+      <c r="C332">
+        <v>0.1999214068179585</v>
+      </c>
+      <c r="D332">
+        <v>8144</v>
+      </c>
+      <c r="E332">
+        <v>2035</v>
+      </c>
+      <c r="F332">
+        <v>-2.928454330129393</v>
+      </c>
+      <c r="G332">
+        <v>0.02506801193753017</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333">
+        <v>10179</v>
+      </c>
+      <c r="B333">
+        <v>5.054</v>
+      </c>
+      <c r="C333">
+        <v>0.2999312309657137</v>
+      </c>
+      <c r="D333">
+        <v>7126</v>
+      </c>
+      <c r="E333">
+        <v>3053</v>
+      </c>
+      <c r="F333">
+        <v>-2.975374052919129</v>
+      </c>
+      <c r="G333">
+        <v>0.03030920764066147</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334">
+        <v>10179</v>
+      </c>
+      <c r="B334">
+        <v>5.054</v>
+      </c>
+      <c r="C334">
+        <v>0.3999410551134689</v>
+      </c>
+      <c r="D334">
+        <v>6108</v>
+      </c>
+      <c r="E334">
+        <v>4071</v>
+      </c>
+      <c r="F334">
+        <v>-3.027208657745855</v>
+      </c>
+      <c r="G334">
+        <v>0.03063552130680125</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335">
+        <v>10179</v>
+      </c>
+      <c r="B335">
+        <v>5.054</v>
+      </c>
+      <c r="C335">
+        <v>0.4999508792612241</v>
+      </c>
+      <c r="D335">
+        <v>5090</v>
+      </c>
+      <c r="E335">
+        <v>5089</v>
+      </c>
+      <c r="F335">
+        <v>-3.083073025498324</v>
+      </c>
+      <c r="G335">
+        <v>0.02693207204719927</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336">
+        <v>10179</v>
+      </c>
+      <c r="B336">
+        <v>5.054</v>
+      </c>
+      <c r="C336">
+        <v>0.5999607034089792</v>
+      </c>
+      <c r="D336">
+        <v>4072</v>
+      </c>
+      <c r="E336">
+        <v>6107</v>
+      </c>
+      <c r="F336">
+        <v>-3.144558268850676</v>
+      </c>
+      <c r="G336">
+        <v>0.01760774718771385</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337">
+        <v>10179</v>
+      </c>
+      <c r="B337">
+        <v>5.054</v>
+      </c>
+      <c r="C337">
+        <v>0.6999705275567345</v>
+      </c>
+      <c r="D337">
+        <v>3054</v>
+      </c>
+      <c r="E337">
+        <v>7125</v>
+      </c>
+      <c r="F337">
+        <v>-3.210898980058733</v>
+      </c>
+      <c r="G337">
+        <v>0.003427954472524086</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338">
+        <v>10179</v>
+      </c>
+      <c r="B338">
+        <v>5.054</v>
+      </c>
+      <c r="C338">
+        <v>0.7999803517044897</v>
+      </c>
+      <c r="D338">
+        <v>2036</v>
+      </c>
+      <c r="E338">
+        <v>8143</v>
+      </c>
+      <c r="F338">
+        <v>-3.28176247531101</v>
+      </c>
+      <c r="G338">
+        <v>-0.01527462228688614</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339">
+        <v>10179</v>
+      </c>
+      <c r="B339">
+        <v>5.054</v>
+      </c>
+      <c r="C339">
+        <v>0.8999901758522448</v>
+      </c>
+      <c r="D339">
+        <v>1018</v>
+      </c>
+      <c r="E339">
+        <v>9161</v>
+      </c>
+      <c r="F339">
+        <v>-3.327435026137068</v>
+      </c>
+      <c r="G339">
+        <v>-0.008786254620077594</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340">
+        <v>10179</v>
+      </c>
+      <c r="B340">
+        <v>5.054</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>10179</v>
+      </c>
+      <c r="F340">
+        <v>-3.370809690009857</v>
+      </c>
+      <c r="G340">
         <v>0</v>
       </c>
     </row>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.468319952330331</v>
+        <v>-2.468958134148512</v>
       </c>
       <c r="G26">
         <v>-0.03114623736308042</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.567026659644853</v>
+        <v>-2.56731913261905</v>
       </c>
       <c r="G38">
         <v>-0.03565141963741247</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.573786291529578</v>
+        <v>-2.574879927694318</v>
       </c>
       <c r="G39">
         <v>-0.03456092443545544</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.587841228630809</v>
+        <v>-2.588099288655845</v>
       </c>
       <c r="G41">
         <v>-0.03291560736332211</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.609171917666838</v>
+        <v>-2.610007493806541</v>
       </c>
       <c r="G44">
         <v>-0.0306959151393027</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.630795079677061</v>
+        <v>-2.631657638932201</v>
       </c>
       <c r="G47">
         <v>-0.02876869588947883</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.652152751828525</v>
+        <v>-2.653823904107933</v>
       </c>
       <c r="G50">
         <v>-0.02657598678089534</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.658619910739053</v>
+        <v>-2.661962215297868</v>
       </c>
       <c r="G51">
         <v>-0.02519301860474099</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.690337579359091</v>
+        <v>-2.691173155498794</v>
       </c>
       <c r="G55">
         <v>-0.02551017887804952</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.698475890549027</v>
+        <v>-2.700147042828434</v>
       </c>
       <c r="G56">
         <v>-0.02579836298130311</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.54895321467855</v>
+        <v>-2.549191990188755</v>
       </c>
       <c r="G78">
         <v>-0.002890895724664055</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.552230333222244</v>
+        <v>-2.553074301656616</v>
       </c>
       <c r="G79">
         <v>-0.003021058164452306</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.554076738340131</v>
+        <v>-2.556168211493329</v>
       </c>
       <c r="G80">
         <v>-0.001720507178434083</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.561456075143019</v>
+        <v>-2.562988797099463</v>
       </c>
       <c r="G82">
         <v>-0.002805931773512071</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.568379090065926</v>
+        <v>-2.569093056174984</v>
       </c>
       <c r="G84">
         <v>-0.003435034488609379</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.571315003782643</v>
+        <v>-2.573058928240748</v>
       </c>
       <c r="G85">
         <v>-0.00322399210142077</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.574272146639786</v>
+        <v>-2.576787964431726</v>
       </c>
       <c r="G86">
         <v>-0.00303417885465862</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.577391689849622</v>
+        <v>-2.57754926518348</v>
       </c>
       <c r="G87">
         <v>-0.003006765960589686</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.582120330173412</v>
+        <v>-2.582516681017474</v>
       </c>
       <c r="G88">
         <v>-0.004588450180474712</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.584518721833799</v>
+        <v>-2.584683482608047</v>
       </c>
       <c r="G89">
         <v>-0.003839885736956816</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.594149467545299</v>
+        <v>-2.59459708513561</v>
       </c>
       <c r="G91">
         <v>-0.007176719240646445</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.598426662350952</v>
+        <v>-2.601290028837984</v>
       </c>
       <c r="G93">
         <v>-0.00516000183848897</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.603451584623583</v>
+        <v>-2.604989131598864</v>
       </c>
       <c r="G94">
         <v>-0.007037968007214346</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.607941449437171</v>
+        <v>-2.608349810740457</v>
       </c>
       <c r="G95">
         <v>-0.008380876716897134</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.612102119883005</v>
+        <v>-2.612574845884578</v>
       </c>
       <c r="G96">
         <v>-0.009394591058826673</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.614873168649748</v>
+        <v>-2.616190808833696</v>
       </c>
       <c r="G97">
         <v>-0.009018683721664811</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.617325187477939</v>
+        <v>-2.621305635572345</v>
       </c>
       <c r="G98">
         <v>-0.008323746445950242</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.625286548429155</v>
+        <v>-2.626793637012472</v>
       </c>
       <c r="G100">
         <v>-0.009991195189355651</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.630946597056053</v>
+        <v>-2.631448262600307</v>
       </c>
       <c r="G101">
         <v>-0.0125042877123489</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.632929769153507</v>
+        <v>-2.635547595476081</v>
       </c>
       <c r="G102">
         <v>-0.01134050370589756</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.638673903340172</v>
+        <v>-2.639413923608491</v>
       </c>
       <c r="G103">
         <v>-0.0139376817886574</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.641816615325851</v>
+        <v>-2.644802798697809</v>
       </c>
       <c r="G104">
         <v>-0.01393343767043098</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.647076433837855</v>
+        <v>-2.647506701558574</v>
       </c>
       <c r="G105">
         <v>-0.0160463000785307</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.650695855271669</v>
+        <v>-2.652265275312462</v>
       </c>
       <c r="G106">
         <v>-0.01651876540843911</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.657646443203117</v>
+        <v>-2.660243461171403</v>
       </c>
       <c r="G108">
         <v>-0.01717544113207703</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.6671471865893</v>
+        <v>-2.667624737609708</v>
       </c>
       <c r="G110">
         <v>-0.02038227231044942</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.67092554989111</v>
+        <v>-2.67230457578453</v>
       </c>
       <c r="G111">
         <v>-0.02101367950835509</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.674340954263652</v>
+        <v>-2.676298020858836</v>
       </c>
       <c r="G112">
         <v>-0.02128212777699212</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.683646899269764</v>
+        <v>-2.68393253729352</v>
       </c>
       <c r="G114">
         <v>-0.02429416057529266</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.687587137962403</v>
+        <v>-2.688066628618227</v>
       </c>
       <c r="G115">
         <v>-0.02508744316402711</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.692607760178064</v>
+        <v>-2.692772100166174</v>
       </c>
       <c r="G116">
         <v>-0.02696110927578266</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.696547998870702</v>
+        <v>-2.697059887553905</v>
       </c>
       <c r="G117">
         <v>-0.02775439186451556</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.69985945507719</v>
+        <v>-2.701449683472273</v>
       </c>
       <c r="G118">
         <v>-0.02791889196709851</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.709777357661725</v>
+        <v>-2.710097333348275</v>
       </c>
       <c r="G120">
         <v>-0.0315428823438233</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.714248353756439</v>
+        <v>-2.714570269078405</v>
       </c>
       <c r="G121">
         <v>-0.03286692233463206</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.718800550027499</v>
+        <v>-2.718960064996773</v>
       </c>
       <c r="G122">
         <v>-0.03427216250178766</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.723320348271183</v>
+        <v>-2.723531129986706</v>
       </c>
       <c r="G123">
         <v>-0.03564500464156573</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.732739470694881</v>
+        <v>-2.732950673196543</v>
       </c>
       <c r="G125">
         <v>-0.0387702148574538</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.737421669291257</v>
+        <v>-2.737449242299798</v>
       </c>
       <c r="G126">
         <v>-0.04030545734992463</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.773816849973431</v>
+        <v>-2.774109289054971</v>
       </c>
       <c r="G138">
         <v>-0.0389371647852379</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.775940439865895</v>
+        <v>-2.776273415151388</v>
       </c>
       <c r="G139">
         <v>-0.03791379857379673</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.778648907921429</v>
+        <v>-2.778941347002967</v>
       </c>
       <c r="G140">
         <v>-0.03747531052542508</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.781357375976965</v>
+        <v>-2.781649815058502</v>
       </c>
       <c r="G141">
         <v>-0.03703682247705609</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.789190341062033</v>
+        <v>-2.78948278014357</v>
       </c>
       <c r="G144">
         <v>-0.0354289192504087</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.791646906239991</v>
+        <v>-2.79189880911757</v>
       </c>
       <c r="G145">
         <v>-0.03473852832446145</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.794314838091568</v>
+        <v>-2.794607277173104</v>
       </c>
       <c r="G146">
         <v>-0.03425950407213296</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.799731774202638</v>
+        <v>-2.800115381415551</v>
       </c>
       <c r="G148">
         <v>-0.03338252797539365</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.802047796081316</v>
+        <v>-2.803025120421246</v>
       </c>
       <c r="G149">
         <v>-0.03255159375016659</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.805148710313708</v>
+        <v>-2.8054816855992</v>
       </c>
       <c r="G150">
         <v>-0.03250555187865278</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.819568367835992</v>
+        <v>-2.819860806917528</v>
       </c>
       <c r="G155">
         <v>-0.0311904288814111</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.822276835891527</v>
+        <v>-2.822569274973063</v>
       </c>
       <c r="G156">
         <v>-0.030751940833041</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-2.825277743028598</v>
+        <v>-2.825570182110135</v>
       </c>
       <c r="G157">
         <v>-0.03060589186620688</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.836192687658652</v>
+        <v>-2.836505318187112</v>
       </c>
       <c r="G161">
         <v>-0.02893301208064059</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.838649252836608</v>
+        <v>-2.838961883365069</v>
       </c>
       <c r="G162">
         <v>-0.02824262115469156</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.843562383192519</v>
+        <v>-2.84387501372098</v>
       </c>
       <c r="G164">
         <v>-0.02686183930279273</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.846018948370475</v>
+        <v>-2.846331578898936</v>
       </c>
       <c r="G165">
         <v>-0.02617144837684371</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.848788144076891</v>
+        <v>-2.849413405133812</v>
       </c>
       <c r="G166">
         <v>-0.02579368797935377</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.851325628352652</v>
+        <v>-2.851557339783309</v>
       </c>
       <c r="G167">
         <v>-0.0251842161512098</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.854013904961264</v>
+        <v>-2.854720085115991</v>
       </c>
       <c r="G168">
         <v>-0.02472553665591715</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.85678310066768</v>
+        <v>-2.857095731196139</v>
       </c>
       <c r="G169">
         <v>-0.02434777625842777</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.858927035317174</v>
+        <v>-2.859864926902556</v>
       </c>
       <c r="G170">
         <v>-0.02334475480401677</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.862008861552052</v>
+        <v>-2.863259383665894</v>
       </c>
       <c r="G171">
         <v>-0.0232796249349897</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.867628172062691</v>
+        <v>-2.868172514021806</v>
       </c>
       <c r="G173">
         <v>-0.02260502323781832</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.870397367769107</v>
+        <v>-2.870941709728223</v>
       </c>
       <c r="G174">
         <v>-0.02222726284032883</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.872460383320796</v>
+        <v>-2.87371090543464</v>
       </c>
       <c r="G175">
         <v>-0.02114332228811344</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.875542209555673</v>
+        <v>-2.875935759181941</v>
       </c>
       <c r="G176">
         <v>-0.02107819241908493</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.878311405262091</v>
+        <v>-2.878936666319012</v>
       </c>
       <c r="G177">
         <v>-0.02070043202159721</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.881080600968506</v>
+        <v>-2.881161520066312</v>
       </c>
       <c r="G178">
         <v>-0.02032267162410817</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.883537166146462</v>
+        <v>-2.884162427203384</v>
       </c>
       <c r="G179">
         <v>-0.01963228069815892</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.886618992381341</v>
+        <v>-2.886699911479147</v>
       </c>
       <c r="G180">
         <v>-0.01956715082913307</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.888762927030835</v>
+        <v>-2.889388188087757</v>
       </c>
       <c r="G181">
         <v>-0.01856412937472096</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.894926579500589</v>
+        <v>-2.895239210029049</v>
       </c>
       <c r="G183">
         <v>-0.01843386963666516</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.897070514150085</v>
+        <v>-2.897383144678546</v>
       </c>
       <c r="G184">
         <v>-0.01743084818225571</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.902699920384185</v>
+        <v>-2.903234166619838</v>
       </c>
       <c r="G186">
         <v>-0.01676634220854512</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.905690731797794</v>
+        <v>-2.906709542480982</v>
       </c>
       <c r="G187">
         <v>-0.01661019751824999</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.907915585545096</v>
+        <v>-2.909085188561133</v>
       </c>
       <c r="G188">
         <v>-0.01568809516164604</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.911229123210629</v>
+        <v>-2.911854384267548</v>
       </c>
       <c r="G189">
         <v>-0.01585467672327445</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.916767514623461</v>
+        <v>-2.917705406208841</v>
       </c>
       <c r="G191">
         <v>-0.01509915592829636</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-2.923243797621675</v>
+        <v>-2.923556428150138</v>
       </c>
       <c r="G193">
         <v>-0.01528152671870014</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-2.929094819562971</v>
+        <v>-2.929175738660776</v>
       </c>
       <c r="G195">
         <v>-0.01483863645218614</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-2.932176645797847</v>
+        <v>-2.932257564895653</v>
       </c>
       <c r="G196">
         <v>-0.0147735065831564</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-2.940796863445556</v>
+        <v>-2.941109493974017</v>
       </c>
       <c r="G199">
         <v>-0.01395285591915041</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.942940798095053</v>
+        <v>-2.943566059151974</v>
       </c>
       <c r="G200">
         <v>-0.01294983446474185</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-2.949104450564807</v>
+        <v>-2.949417081093268</v>
       </c>
       <c r="G202">
         <v>-0.01281957472668627</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-2.954955472506102</v>
+        <v>-2.955268103034561</v>
       </c>
       <c r="G204">
         <v>-0.01237668446017054</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.715239896792717</v>
+        <v>-2.71845116753383</v>
       </c>
       <c r="G222">
         <v>0.00120181741908354</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.772419606935411</v>
+        <v>-2.773518472893344</v>
       </c>
       <c r="G223">
         <v>-0.00783208461986562</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.835801607757044</v>
+        <v>-2.835975922837473</v>
       </c>
       <c r="G224">
         <v>-0.02306827733775352</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.981117192898052</v>
+        <v>-2.981726154171744</v>
       </c>
       <c r="G227">
         <v>-0.02394643816752717</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.0211132146724</v>
+        <v>-3.021559396106222</v>
       </c>
       <c r="G228">
         <v>-0.01579665183813073</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.773285740916861</v>
+        <v>-2.773296143044339</v>
       </c>
       <c r="G233">
         <v>0.006648635563304861</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.826244793113586</v>
+        <v>-2.82805066217129</v>
       </c>
       <c r="G234">
         <v>0.002694914709016949</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.886252541542376</v>
+        <v>-2.887657250994943</v>
       </c>
       <c r="G235">
         <v>-0.008307502377336018</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.950779617639742</v>
+        <v>-2.951384171970699</v>
       </c>
       <c r="G236">
         <v>-0.02382924713226497</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.007348604281509</v>
+        <v>-3.007526539571815</v>
       </c>
       <c r="G237">
         <v>-0.03139290243159421</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.091921824600202</v>
+        <v>-3.091969549540234</v>
       </c>
       <c r="G239">
         <v>-0.0179554600654136</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.131717224503014</v>
+        <v>-3.131866789699533</v>
       </c>
       <c r="G240">
         <v>-0.008745528625788201</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.764925310610515</v>
+        <v>-2.765993739035502</v>
       </c>
       <c r="G243">
         <v>0.008336932736913827</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.811109476951128</v>
+        <v>-2.811282708197486</v>
       </c>
       <c r="G244">
         <v>0.01184588720996027</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.861861548748021</v>
+        <v>-2.862910978324067</v>
       </c>
       <c r="G245">
         <v>0.01078693622672477</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.920205021664118</v>
+        <v>-2.921377464575792</v>
       </c>
       <c r="G246">
         <v>0.002676726741825508</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.98300230473093</v>
+        <v>-2.983771583830545</v>
       </c>
       <c r="G247">
         <v>-0.01042743551132785</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.051204502307168</v>
+        <v>-3.051238139108625</v>
       </c>
       <c r="G248">
         <v>-0.02893651227390714</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.099247678803074</v>
+        <v>-3.099265246358465</v>
       </c>
       <c r="G249">
         <v>-0.02674642533861527</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.138565002264335</v>
+        <v>-3.138729300262384</v>
       </c>
       <c r="G250">
         <v>-0.01637062798621813</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.180717076554148</v>
+        <v>-3.180957354060431</v>
       </c>
       <c r="G251">
         <v>-0.008829581462372282</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.794001774364349</v>
+        <v>-2.795462360054708</v>
       </c>
       <c r="G254">
         <v>0.01029099595180494</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.890358720774489</v>
+        <v>-2.891482963101241</v>
       </c>
       <c r="G256">
         <v>0.01476056691058747</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.946067365916806</v>
+        <v>-2.946296796431822</v>
       </c>
       <c r="G257">
         <v>0.009643319175998588</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.007326133062151</v>
+        <v>-3.007838888107289</v>
       </c>
       <c r="G258">
         <v>-0.001380328008152132</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.173626893606031</v>
+        <v>-3.173940426392296</v>
       </c>
       <c r="G261">
         <v>-0.01626317377538011</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.217382051725147</v>
+        <v>-3.217410698613206</v>
       </c>
       <c r="G262">
         <v>-0.009783211933302449</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.816431164378035</v>
+        <v>-2.816778403346237</v>
       </c>
       <c r="G265">
         <v>0.01156668331594624</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.861532229024989</v>
+        <v>-2.861802802471169</v>
       </c>
       <c r="G266">
         <v>0.0173790541104486</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.910680115539143</v>
+        <v>-2.91088640902745</v>
       </c>
       <c r="G267">
         <v>0.0191446030377509</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.965345817752583</v>
+        <v>-2.965843178013407</v>
       </c>
       <c r="G268">
         <v>0.01514518366653661</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.090953261656205</v>
+        <v>-3.091157664685274</v>
       </c>
       <c r="G270">
         <v>-0.008635389354173961</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.244225681541994</v>
+        <v>-3.244298643773602</v>
       </c>
       <c r="G273">
         <v>-0.009414655514825454</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.834497913435873</v>
+        <v>-2.834916589238736</v>
       </c>
       <c r="G276">
         <v>0.01219200456969682</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.980946113150365</v>
+        <v>-2.981250698013691</v>
       </c>
       <c r="G279">
         <v>0.01932254078752194</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.040137688032276</v>
+        <v>-3.040211964875484</v>
       </c>
       <c r="G280">
         <v>0.01132387788305111</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.10421789450146</v>
+        <v>-3.104880387835785</v>
       </c>
       <c r="G281">
         <v>-0.001563416608694634</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.264827979553089</v>
+        <v>-3.264874902401067</v>
       </c>
       <c r="G284">
         <v>-0.008594765728006548</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.848979392956621</v>
+        <v>-2.849076059076291</v>
       </c>
       <c r="G287">
         <v>0.01295664369741134</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.0522011867136</v>
+        <v>-3.052211222431436</v>
       </c>
       <c r="G291">
         <v>0.01546765924993498</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.183809642600894</v>
+        <v>-3.184060646152092</v>
       </c>
       <c r="G293">
         <v>-0.01327439198260727</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.281572546965653</v>
+        <v>-3.2817971857007</v>
       </c>
       <c r="G295">
         <v>-0.00817089169261398</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.903561849649023</v>
+        <v>-2.903657288982833</v>
       </c>
       <c r="G299">
         <v>0.02245305806831688</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.124497808045408</v>
+        <v>-3.124738204833763</v>
       </c>
       <c r="G303">
         <v>0.008178389124190444</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.192352728423805</v>
+        <v>-3.192464684105536</v>
       </c>
       <c r="G304">
         <v>-0.007934968867980174</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.29578087137157</v>
+        <v>-3.295885549198328</v>
       </c>
       <c r="G306">
         <v>-0.008083293771724176</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.012861612724491</v>
+        <v>-3.012908560940256</v>
       </c>
       <c r="G312">
         <v>0.02756924380507231</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.069802464896187</v>
+        <v>-3.070068661612243</v>
       </c>
       <c r="G313">
         <v>0.02244691826653544</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.264337288535071</v>
+        <v>-3.264389855834879</v>
       </c>
       <c r="G316">
         <v>-0.01647337293718476</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.307976157893792</v>
+        <v>-3.307988583068985</v>
       </c>
       <c r="G317">
         <v>-0.008293715662746837</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-2.879123389208288</v>
+        <v>-2.87934071184763</v>
       </c>
       <c r="G320">
         <v>0.01458109501992988</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-2.96819005246026</v>
+        <v>-2.968705568464792</v>
       </c>
       <c r="G322">
         <v>0.02958865680335343</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.138958647106423</v>
+        <v>-3.139091697826688</v>
       </c>
       <c r="G325">
         <v>0.01486809422060476</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.205264221303546</v>
+        <v>-3.205508455499884</v>
       </c>
       <c r="G326">
         <v>0.000536327051499641</v>
@@ -7936,7 +7936,7 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.318351546962274</v>
+        <v>-3.318437616839163</v>
       </c>
       <c r="G328">
         <v>-0.008476773571831742</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-2.88640710448779</v>
+        <v>-2.886599259065155</v>
       </c>
       <c r="G331">
         <v>0.01495431908626621</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.083073025498324</v>
+        <v>-3.083877789633674</v>
       </c>
       <c r="G335">
         <v>0.02693207204719927</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.144558268850676</v>
+        <v>-3.144710705091295</v>
       </c>
       <c r="G336">
         <v>0.01760774718771385</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.327435026137068</v>
+        <v>-3.327483074948206</v>
       </c>
       <c r="G339">
         <v>-0.008786254620077594</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.422459873829454</v>
+        <v>-2.423098055647634</v>
       </c>
       <c r="G22">
         <v>-0.01668666720893297</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.561137016848992</v>
+        <v>-2.561402506707755</v>
       </c>
       <c r="G37">
         <v>-0.03761190392823432</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.56731913261905</v>
+        <v>-2.568154708758754</v>
       </c>
       <c r="G38">
         <v>-0.03565141963741247</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.581374069720281</v>
+        <v>-2.581632129745317</v>
       </c>
       <c r="G40">
         <v>-0.0342985755394758</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.54525411191767</v>
+        <v>-2.545676096134857</v>
       </c>
       <c r="G77">
         <v>-0.002338749067688717</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.56473361447285</v>
+        <v>-2.566238342634614</v>
       </c>
       <c r="G83">
         <v>-0.002936514999437811</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.57754926518348</v>
+        <v>-2.579213929100656</v>
       </c>
       <c r="G87">
         <v>-0.003006765960589686</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.584683482608047</v>
+        <v>-2.586883728946136</v>
       </c>
       <c r="G89">
         <v>-0.003839885736956816</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.604989131598864</v>
+        <v>-2.605091140129499</v>
       </c>
       <c r="G94">
         <v>-0.007037968007214346</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.623224536576907</v>
+        <v>-2.624529547734371</v>
       </c>
       <c r="G99">
         <v>-0.01107613944101304</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.639413923608491</v>
+        <v>-2.639485473747166</v>
       </c>
       <c r="G103">
         <v>-0.0139376817886574</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.653947340442236</v>
+        <v>-2.65495853424814</v>
       </c>
       <c r="G107">
         <v>-0.01662329447510147</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.6625374838796</v>
+        <v>-2.663257689681046</v>
       </c>
       <c r="G109">
         <v>-0.01891952570465505</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.679252278332559</v>
+        <v>-2.680450980902416</v>
       </c>
       <c r="G113">
         <v>-0.02304649574199358</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.68393253729352</v>
+        <v>-2.684921976997131</v>
       </c>
       <c r="G114">
         <v>-0.02429416057529266</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.688066628618227</v>
+        <v>-2.688278356081755</v>
       </c>
       <c r="G115">
         <v>-0.02508744316402711</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.692772100166174</v>
+        <v>-2.693036509049504</v>
       </c>
       <c r="G116">
         <v>-0.02696110927578266</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.701449683472273</v>
+        <v>-2.701477256480815</v>
       </c>
       <c r="G118">
         <v>-0.02791889196709851</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.705040013048265</v>
+        <v>-2.705702712411072</v>
       </c>
       <c r="G119">
         <v>-0.02995249383426812</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.728240901591624</v>
+        <v>-2.728324041403388</v>
       </c>
       <c r="G124">
         <v>-0.03741860185810242</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.7840658440325</v>
+        <v>-2.784358283114039</v>
       </c>
       <c r="G142">
         <v>-0.03659833442868621</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.786522409210455</v>
+        <v>-2.786774312088037</v>
       </c>
       <c r="G143">
         <v>-0.03590794350273629</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.79189880911757</v>
+        <v>-2.792483687280641</v>
       </c>
       <c r="G145">
         <v>-0.03473852832446145</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.8054816855992</v>
+        <v>-2.805774124680738</v>
       </c>
       <c r="G150">
         <v>-0.03250555187865278</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.846331578898936</v>
+        <v>-2.846644209427396</v>
       </c>
       <c r="G165">
         <v>-0.02617144837684371</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.851557339783309</v>
+        <v>-2.851869970311768</v>
       </c>
       <c r="G167">
         <v>-0.0251842161512098</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.857095731196139</v>
+        <v>-2.857489280822406</v>
       </c>
       <c r="G169">
         <v>-0.02434777625842777</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.881161520066312</v>
+        <v>-2.881393231496967</v>
       </c>
       <c r="G178">
         <v>-0.02032267162410817</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.884162427203384</v>
+        <v>-2.884475057731844</v>
       </c>
       <c r="G179">
         <v>-0.01963228069815892</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.886699911479147</v>
+        <v>-2.8869316229098</v>
       </c>
       <c r="G180">
         <v>-0.01956715082913307</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.892470014322633</v>
+        <v>-2.892782644851093</v>
       </c>
       <c r="G182">
         <v>-0.01912426056261385</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.895239210029049</v>
+        <v>-2.895320129126857</v>
       </c>
       <c r="G183">
         <v>-0.01843386963666516</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.897383144678546</v>
+        <v>-2.897695775207006</v>
       </c>
       <c r="G184">
         <v>-0.01743084818225571</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.911854384267548</v>
+        <v>-2.912167014796011</v>
       </c>
       <c r="G189">
         <v>-0.01585467672327445</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-2.934945841504264</v>
+        <v>-2.935258472032724</v>
       </c>
       <c r="G197">
         <v>-0.01439574618566791</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-2.93740240668222</v>
+        <v>-2.93771503721068</v>
       </c>
       <c r="G198">
         <v>-0.01370535525971955</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-2.94633525485839</v>
+        <v>-2.946647885386851</v>
       </c>
       <c r="G201">
         <v>-0.01319733512417404</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.773518472893344</v>
+        <v>-2.7735489889874</v>
       </c>
       <c r="G223">
         <v>-0.00783208461986562</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.835975922837473</v>
+        <v>-2.836398130376909</v>
       </c>
       <c r="G224">
         <v>-0.02306827733775352</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.897391575168058</v>
+        <v>-2.89752274018067</v>
       </c>
       <c r="G225">
         <v>-0.03651243664502291</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.773296143044339</v>
+        <v>-2.774151006886724</v>
       </c>
       <c r="G233">
         <v>0.006648635563304861</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.091969549540234</v>
+        <v>-3.091984001281435</v>
       </c>
       <c r="G239">
         <v>-0.0179554600654136</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.811282708197486</v>
+        <v>-2.811398200099006</v>
       </c>
       <c r="G244">
         <v>0.01184588720996027</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.862910978324067</v>
+        <v>-2.863249243934412</v>
       </c>
       <c r="G245">
         <v>0.01078693622672477</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.051238139108625</v>
+        <v>-3.05124967448033</v>
       </c>
       <c r="G248">
         <v>-0.02893651227390714</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.946296796431822</v>
+        <v>-2.946551282877348</v>
       </c>
       <c r="G257">
         <v>0.009643319175998588</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.007838888107289</v>
+        <v>-3.007883843393029</v>
       </c>
       <c r="G258">
         <v>-0.001380328008152132</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.074160193489027</v>
+        <v>-3.074225922708006</v>
       </c>
       <c r="G259">
         <v>-0.01762299102730003</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.217410698613206</v>
+        <v>-3.217447008174172</v>
       </c>
       <c r="G262">
         <v>-0.009783211933302449</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.91088640902745</v>
+        <v>-2.911047575221275</v>
       </c>
       <c r="G267">
         <v>0.0191446030377509</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.091157664685274</v>
+        <v>-3.091341940505302</v>
       </c>
       <c r="G270">
         <v>-0.008635389354173961</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.157197052500988</v>
+        <v>-3.157237921011711</v>
       </c>
       <c r="G271">
         <v>-0.02421289735673127</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.244298643773602</v>
+        <v>-3.244340441094931</v>
       </c>
       <c r="G273">
         <v>-0.009414655514825454</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.040211964875484</v>
+        <v>-3.040385095376083</v>
       </c>
       <c r="G280">
         <v>0.01132387788305111</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.849076059076291</v>
+        <v>-2.849161173214022</v>
       </c>
       <c r="G287">
         <v>0.01295664369741134</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.892176143608465</v>
+        <v>-2.892767204661209</v>
       </c>
       <c r="G288">
         <v>0.02119309537294267</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-2.993879369761322</v>
+        <v>-2.994536474001739</v>
       </c>
       <c r="G290">
         <v>0.02235627387483707</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.240016655023779</v>
+        <v>-3.24006619411189</v>
       </c>
       <c r="G294">
         <v>-0.01804820207811608</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.903657288982833</v>
+        <v>-2.90374755584244</v>
       </c>
       <c r="G299">
         <v>0.02245305806831688</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.192464684105536</v>
+        <v>-3.192483456063815</v>
       </c>
       <c r="G304">
         <v>-0.007934968867980174</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.252822183150438</v>
+        <v>-3.252877264981254</v>
       </c>
       <c r="G305">
         <v>-0.01676451457260242</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.295885549198328</v>
+        <v>-3.295900548131551</v>
       </c>
       <c r="G306">
         <v>-0.008083293771724176</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.913407358663439</v>
+        <v>-2.913513747401933</v>
       </c>
       <c r="G310">
         <v>0.02330696833196289</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.960846922510756</v>
+        <v>-2.961064794423399</v>
       </c>
       <c r="G311">
         <v>0.02768593111780571</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.199558403077119</v>
+        <v>-3.199630287196292</v>
       </c>
       <c r="G315">
         <v>-0.003592490380234903</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.264389855834879</v>
+        <v>-3.264452717279458</v>
       </c>
       <c r="G316">
         <v>-0.01647337293718476</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.307988583068985</v>
+        <v>-3.308015687590328</v>
       </c>
       <c r="G317">
         <v>-0.008293715662746837</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-2.921358239616704</v>
+        <v>-2.921463141251859</v>
       </c>
       <c r="G321">
         <v>0.0243833571292118</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.205508455499884</v>
+        <v>-3.205547369881313</v>
       </c>
       <c r="G326">
         <v>0.000536327051499641</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-2.975374052919129</v>
+        <v>-2.975594534228458</v>
       </c>
       <c r="G333">
         <v>0.03030920764066147</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.144710705091295</v>
+        <v>-3.144747707853425</v>
       </c>
       <c r="G336">
         <v>0.01760774718771385</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.433622930299443</v>
+        <v>-2.434261112117624</v>
       </c>
       <c r="G23">
         <v>-0.01999959659223949</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.456587225057604</v>
+        <v>-2.457225406875785</v>
       </c>
       <c r="G25">
         <v>-0.02726363717703473</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.553807298683326</v>
+        <v>-2.554384814797993</v>
       </c>
       <c r="G36">
         <v>-0.03813231284925034</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.638382857867765</v>
+        <v>-2.640054010147172</v>
       </c>
       <c r="G48">
         <v>-0.02850634699350063</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.644850016778293</v>
+        <v>-2.6465211690577</v>
       </c>
       <c r="G49">
         <v>-0.02712337881734583</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.667593798068692</v>
+        <v>-2.668429374208396</v>
       </c>
       <c r="G52">
         <v>-0.02631677884769723</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.674896533118925</v>
+        <v>-2.676567685398331</v>
       </c>
       <c r="G53">
         <v>-0.02576938681124763</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.549191990188755</v>
+        <v>-2.549375198895738</v>
       </c>
       <c r="G78">
         <v>-0.002890895724664055</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.559023345819837</v>
+        <v>-2.559867314254209</v>
       </c>
       <c r="G81">
         <v>-0.003520158554235042</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.566238342634614</v>
+        <v>-2.567376653382412</v>
       </c>
       <c r="G83">
         <v>-0.002936514999437811</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.579213929100656</v>
+        <v>-2.579879513846881</v>
       </c>
       <c r="G87">
         <v>-0.003006765960589686</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.582516681017474</v>
+        <v>-2.583791758744842</v>
       </c>
       <c r="G88">
         <v>-0.004588450180474712</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.605091140129499</v>
+        <v>-2.605494676413952</v>
       </c>
       <c r="G94">
         <v>-0.007037968007214346</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.608349810740457</v>
+        <v>-2.609432554685034</v>
       </c>
       <c r="G95">
         <v>-0.008380876716897134</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.616190808833696</v>
+        <v>-2.616433988576599</v>
       </c>
       <c r="G97">
         <v>-0.009018683721664811</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.626793637012472</v>
+        <v>-2.62788356639744</v>
       </c>
       <c r="G100">
         <v>-0.009991195189355651</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.631448262600307</v>
+        <v>-2.632300935324349</v>
       </c>
       <c r="G101">
         <v>-0.0125042877123489</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.639485473747166</v>
+        <v>-2.639861016236939</v>
       </c>
       <c r="G103">
         <v>-0.0139376817886574</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.647506701558574</v>
+        <v>-2.64864113303554</v>
       </c>
       <c r="G105">
         <v>-0.0160463000785307</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.65495853424814</v>
+        <v>-2.655142163741261</v>
       </c>
       <c r="G107">
         <v>-0.01662329447510147</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.663257689681046</v>
+        <v>-2.663656925908527</v>
       </c>
       <c r="G109">
         <v>-0.01891952570465505</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.67230457578453</v>
+        <v>-2.67280969981348</v>
       </c>
       <c r="G111">
         <v>-0.02101367950835509</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.688278356081755</v>
+        <v>-2.688375960379693</v>
       </c>
       <c r="G115">
         <v>-0.02508744316402711</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.705702712411072</v>
+        <v>-2.705867052399182</v>
       </c>
       <c r="G119">
         <v>-0.02995249383426812</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.710097333348275</v>
+        <v>-2.710171768870368</v>
       </c>
       <c r="G120">
         <v>-0.0315428823438233</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.714570269078405</v>
+        <v>-2.714727844412264</v>
       </c>
       <c r="G121">
         <v>-0.03286692233463206</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.718960064996773</v>
+        <v>-2.719198840506978</v>
       </c>
       <c r="G122">
         <v>-0.03427216250178766</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.723531129986706</v>
+        <v>-2.723558702995248</v>
       </c>
       <c r="G123">
         <v>-0.03564500464156573</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.728324041403388</v>
+        <v>-2.728479677101829</v>
       </c>
       <c r="G124">
         <v>-0.03741860185810242</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.794607277173104</v>
+        <v>-2.795192155336178</v>
       </c>
       <c r="G146">
         <v>-0.03425950407213296</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.800115381415551</v>
+        <v>-2.800901530528785</v>
       </c>
       <c r="G148">
         <v>-0.03338252797539365</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.814151431724921</v>
+        <v>-2.814443870806459</v>
       </c>
       <c r="G153">
         <v>-0.03206740497815108</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.84387501372098</v>
+        <v>-2.844187644249441</v>
       </c>
       <c r="G164">
         <v>-0.02686183930279273</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.851869970311768</v>
+        <v>-2.852182600840229</v>
       </c>
       <c r="G167">
         <v>-0.0251842161512098</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.859864926902556</v>
+        <v>-2.860177557431017</v>
       </c>
       <c r="G170">
         <v>-0.02334475480401677</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.868172514021806</v>
+        <v>-2.86832059559634</v>
       </c>
       <c r="G173">
         <v>-0.02260502323781832</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.875935759181941</v>
+        <v>-2.876167470612596</v>
       </c>
       <c r="G176">
         <v>-0.02107819241908493</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.881393231496967</v>
+        <v>-2.881705862025428</v>
       </c>
       <c r="G178">
         <v>-0.02032267162410817</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.8869316229098</v>
+        <v>-2.887012542007607</v>
       </c>
       <c r="G180">
         <v>-0.01956715082913307</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.889388188087757</v>
+        <v>-2.890013449144677</v>
       </c>
       <c r="G181">
         <v>-0.01856412937472096</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.892782644851093</v>
+        <v>-2.893095275379556</v>
       </c>
       <c r="G182">
         <v>-0.01912426056261385</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.895320129126857</v>
+        <v>-2.895864471085971</v>
       </c>
       <c r="G183">
         <v>-0.01843386963666516</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.897695775207006</v>
+        <v>-2.898321036263927</v>
       </c>
       <c r="G184">
         <v>-0.01743084818225571</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.903234166619838</v>
+        <v>-2.903546797148299</v>
       </c>
       <c r="G186">
         <v>-0.01676634220854512</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.909085188561133</v>
+        <v>-2.909710449618054</v>
       </c>
       <c r="G188">
         <v>-0.01568809516164604</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.912167014796011</v>
+        <v>-2.912792275852931</v>
       </c>
       <c r="G189">
         <v>-0.01585467672327445</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-2.923556428150138</v>
+        <v>-2.923869058678597</v>
       </c>
       <c r="G193">
         <v>-0.01528152671870014</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.943566059151974</v>
+        <v>-2.943878689680435</v>
       </c>
       <c r="G200">
         <v>-0.01294983446474185</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.666879909623818</v>
+        <v>-2.6678953901021</v>
       </c>
       <c r="G221">
         <v>0.001415996484237958</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.836398130376909</v>
+        <v>-2.836821892195959</v>
       </c>
       <c r="G224">
         <v>-0.02306827733775352</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.021559396106222</v>
+        <v>-3.021652082964558</v>
       </c>
       <c r="G228">
         <v>-0.01579665183813073</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.062811717830271</v>
+        <v>-3.062963900506019</v>
       </c>
       <c r="G229">
         <v>-0.009349346892257637</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.726025619336128</v>
+        <v>-2.726237335768877</v>
       </c>
       <c r="G232">
         <v>0.004903425801600303</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.131866789699533</v>
+        <v>-3.132073892549318</v>
       </c>
       <c r="G240">
         <v>-0.008745528625788201</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.811398200099006</v>
+        <v>-2.812410656062724</v>
       </c>
       <c r="G244">
         <v>0.01184588720996027</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.863249243934412</v>
+        <v>-2.863965999778434</v>
       </c>
       <c r="G245">
         <v>0.01078693622672477</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.921377464575792</v>
+        <v>-2.92166019131879</v>
       </c>
       <c r="G246">
         <v>0.002676726741825508</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.05124967448033</v>
+        <v>-3.051296871873328</v>
       </c>
       <c r="G248">
         <v>-0.02893651227390714</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.099265246358465</v>
+        <v>-3.099311821163437</v>
       </c>
       <c r="G249">
         <v>-0.02674642533861527</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.138729300262384</v>
+        <v>-3.138740739956566</v>
       </c>
       <c r="G250">
         <v>-0.01637062798621813</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.180957354060431</v>
+        <v>-3.181001271012331</v>
       </c>
       <c r="G251">
         <v>-0.008829581462372282</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.173940426392296</v>
+        <v>-3.174029303445293</v>
       </c>
       <c r="G261">
         <v>-0.01626317377538011</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.816778403346237</v>
+        <v>-2.816938327647875</v>
       </c>
       <c r="G265">
         <v>0.01156668331594624</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.861802802471169</v>
+        <v>-2.862182479540824</v>
       </c>
       <c r="G266">
         <v>0.0173790541104486</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.911047575221275</v>
+        <v>-2.911169164290747</v>
       </c>
       <c r="G267">
         <v>0.0191446030377509</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.244340441094931</v>
+        <v>-3.244457950290986</v>
       </c>
       <c r="G273">
         <v>-0.009414655514825454</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.878197353975906</v>
+        <v>-2.87874368033106</v>
       </c>
       <c r="G277">
         <v>0.01968547600710391</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.981250698013691</v>
+        <v>-2.981791467701664</v>
       </c>
       <c r="G279">
         <v>0.01932254078752194</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.040385095376083</v>
+        <v>-3.040633825868328</v>
       </c>
       <c r="G280">
         <v>0.01132387788305111</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.173818869184048</v>
+        <v>-3.173893486616213</v>
       </c>
       <c r="G282">
         <v>-0.01997147931384369</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.264874902401067</v>
+        <v>-3.264934575104416</v>
       </c>
       <c r="G284">
         <v>-0.008594765728006548</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.849161173214022</v>
+        <v>-2.849444104584431</v>
       </c>
       <c r="G287">
         <v>0.01295664369741134</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.940507644692476</v>
+        <v>-2.940958642122669</v>
       </c>
       <c r="G289">
         <v>0.02429479661630696</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.052211222431436</v>
+        <v>-3.052540059497043</v>
       </c>
       <c r="G291">
         <v>0.01546765924993498</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.860947161941995</v>
+        <v>-2.86104251201333</v>
       </c>
       <c r="G298">
         <v>0.0134278367533347</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.90374755584244</v>
+        <v>-2.903866607809965</v>
       </c>
       <c r="G299">
         <v>0.02245305806831688</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.951072707876506</v>
+        <v>-2.951551665943078</v>
       </c>
       <c r="G300">
         <v>0.02658210886284396</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.062057654738838</v>
+        <v>-3.062109101275306</v>
       </c>
       <c r="G302">
         <v>0.01897863340874983</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.192483456063815</v>
+        <v>-3.19263745562414</v>
       </c>
       <c r="G304">
         <v>-0.007934968867980174</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.252877264981254</v>
+        <v>-3.25292761488405</v>
       </c>
       <c r="G305">
         <v>-0.01676451457260242</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.295900548131551</v>
+        <v>-3.295963742340676</v>
       </c>
       <c r="G306">
         <v>-0.008083293771724176</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.012908560940256</v>
+        <v>-3.013397528485081</v>
       </c>
       <c r="G312">
         <v>0.02756924380507231</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.070068661612243</v>
+        <v>-3.070107580851738</v>
       </c>
       <c r="G313">
         <v>0.02244691826653544</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.13245360180382</v>
+        <v>-3.132626191134063</v>
       </c>
       <c r="G314">
         <v>0.01169378425990431</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.139091697826688</v>
+        <v>-3.139163742488245</v>
       </c>
       <c r="G325">
         <v>0.01486809422060476</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.205547369881313</v>
+        <v>-3.205674714462371</v>
       </c>
       <c r="G326">
         <v>0.000536327051499641</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-2.886599259065155</v>
+        <v>-2.886697996858204</v>
       </c>
       <c r="G331">
         <v>0.01495431908626621</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-2.928454330129393</v>
+        <v>-2.928655173028292</v>
       </c>
       <c r="G332">
         <v>0.02506801193753017</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.144747707853425</v>
+        <v>-3.144775770759638</v>
       </c>
       <c r="G336">
         <v>0.01760774718771385</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.210898980058733</v>
+        <v>-3.211040921982686</v>
       </c>
       <c r="G337">
         <v>0.003427954472524086</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.569093056174984</v>
+        <v>-2.570653771926107</v>
       </c>
       <c r="G84">
         <v>-0.003435034488609379</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.583791758744842</v>
+        <v>-2.584077396768597</v>
       </c>
       <c r="G88">
         <v>-0.004588450180474712</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.612574845884578</v>
+        <v>-2.612711612864146</v>
       </c>
       <c r="G96">
         <v>-0.009394591058826673</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.616433988576599</v>
+        <v>-2.616649491135233</v>
       </c>
       <c r="G97">
         <v>-0.009018683721664811</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.688375960379693</v>
+        <v>-2.688405473023649</v>
       </c>
       <c r="G115">
         <v>-0.02508744316402711</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.701477256480815</v>
+        <v>-2.70195092823039</v>
       </c>
       <c r="G118">
         <v>-0.02791889196709851</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.705867052399182</v>
+        <v>-2.705885921118054</v>
       </c>
       <c r="G119">
         <v>-0.02995249383426812</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.714727844412264</v>
+        <v>-2.714807104953194</v>
       </c>
       <c r="G121">
         <v>-0.03286692233463206</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.723558702995248</v>
+        <v>-2.723742332488368</v>
       </c>
       <c r="G123">
         <v>-0.03564500464156573</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.816607996902879</v>
+        <v>-2.816859899780457</v>
       </c>
       <c r="G154">
         <v>-0.03137701405220339</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.876167470612596</v>
+        <v>-2.876561020238862</v>
       </c>
       <c r="G176">
         <v>-0.02107819241908493</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-2.929175738660776</v>
+        <v>-2.92940745009143</v>
       </c>
       <c r="G195">
         <v>-0.01483863645218614</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-2.952186276799685</v>
+        <v>-2.952498907328145</v>
       </c>
       <c r="G203">
         <v>-0.01275444485765875</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-2.958037298740979</v>
+        <v>-2.958349929269438</v>
       </c>
       <c r="G205">
         <v>-0.01231155459114214</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.7735489889874</v>
+        <v>-2.773992536060258</v>
       </c>
       <c r="G223">
         <v>-0.00783208461986562</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.946551282877348</v>
+        <v>-2.946715720439333</v>
       </c>
       <c r="G257">
         <v>0.009643319175998588</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.074225922708006</v>
+        <v>-3.07439356034492</v>
       </c>
       <c r="G259">
         <v>-0.01762299102730003</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.965843178013407</v>
+        <v>-2.965903262582095</v>
       </c>
       <c r="G268">
         <v>0.01514518366653661</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.201615675802399</v>
+        <v>-3.201663797989382</v>
       </c>
       <c r="G272">
         <v>-0.01771808521668672</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.903866607809965</v>
+        <v>-2.903932580962388</v>
       </c>
       <c r="G299">
         <v>0.02245305806831688</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.070107580851738</v>
+        <v>-3.070382081238225</v>
       </c>
       <c r="G313">
         <v>0.02244691826653544</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-2.921463141251859</v>
+        <v>-2.921593484454821</v>
       </c>
       <c r="G321">
         <v>0.0243833571292118</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.274818743035683</v>
+        <v>-3.27482883485337</v>
       </c>
       <c r="G327">
         <v>-0.01698108216293914</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.144775770759638</v>
+        <v>-3.144854661228687</v>
       </c>
       <c r="G336">
         <v>0.01760774718771385</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>n_atoms</t>
+    <t>num_atoms</t>
   </si>
   <si>
     <t>diameter</t>
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.98466167250952</v>
+        <v>-1.984661672509521</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-1.77635683940025e-15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-2.074350761232195</v>
+        <v>-2.074350761232194</v>
       </c>
       <c r="G4">
-        <v>-0.03379770394274573</v>
+        <v>-0.03379770394274528</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -556,7 +556,7 @@
         <v>-2.13832309947322</v>
       </c>
       <c r="G7">
-        <v>-0.01393296501387775</v>
+        <v>-0.01393296501387731</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -576,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>-2.162435760229498</v>
+        <v>-2.162435760229497</v>
       </c>
       <c r="G8">
-        <v>-0.01009993338019144</v>
+        <v>-0.01009993338019055</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -599,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>-2.186548420985776</v>
+        <v>-2.186548420985775</v>
       </c>
       <c r="G9">
-        <v>-0.006266901746504461</v>
+        <v>-0.006266901746503128</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -622,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>-2.210661081742054</v>
+        <v>-2.210661081742052</v>
       </c>
       <c r="G10">
-        <v>-0.002433870112817815</v>
+        <v>-0.002433870112816039</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -645,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>-2.234773742498332</v>
+        <v>-2.23477374249833</v>
       </c>
       <c r="G11">
-        <v>0.00139916152086883</v>
+        <v>0.001399161520871051</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -668,10 +668,10 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>-2.263069225268513</v>
+        <v>-2.263069225268511</v>
       </c>
       <c r="G12">
-        <v>0.001049371140651845</v>
+        <v>0.001049371140654065</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -691,10 +691,10 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>-2.287181886024792</v>
+        <v>-2.287181886024789</v>
       </c>
       <c r="G13">
-        <v>0.004882402774338268</v>
+        <v>0.004882402774341377</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -714,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>-2.315477368794974</v>
+        <v>-2.31547736879497</v>
       </c>
       <c r="G14">
-        <v>0.004532612394120561</v>
+        <v>0.004532612394124558</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -737,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>-2.347955673579059</v>
+        <v>-2.347955673579055</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4.440892098500626e-15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-2.358672444100427</v>
+        <v>-2.358672444100425</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.332267629550188e-15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,7 +786,7 @@
         <v>-2.368559136934052</v>
       </c>
       <c r="G17">
-        <v>-0.002036565746942998</v>
+        <v>-0.002036565746942554</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -806,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-2.37908401158586</v>
+        <v>-2.379084011585859</v>
       </c>
       <c r="G18">
-        <v>-0.004711313312068199</v>
+        <v>-0.004711313312067311</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -829,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-2.390247068055848</v>
+        <v>-2.390247068055846</v>
       </c>
       <c r="G19">
-        <v>-0.008024242695374273</v>
+        <v>-0.008024242695372497</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.400771942707656</v>
+        <v>-2.400771942707655</v>
       </c>
       <c r="G20">
-        <v>-0.01069899026049947</v>
+        <v>-0.01069899026049859</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.411934999177646</v>
+        <v>-2.410658635541279</v>
       </c>
       <c r="G21">
-        <v>-0.01401191964380777</v>
+        <v>-0.0127355560074407</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.423098055647634</v>
+        <v>-2.423098055647633</v>
       </c>
       <c r="G22">
-        <v>-0.01668666720893297</v>
+        <v>-0.01732484902711162</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.434261112117624</v>
+        <v>-2.433622930299439</v>
       </c>
       <c r="G23">
-        <v>-0.01999959659223949</v>
+        <v>-0.01999959659223549</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.445424168587613</v>
+        <v>-2.444147804951247</v>
       </c>
       <c r="G24">
-        <v>-0.02395070779372732</v>
+        <v>-0.02267434415736114</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.457225406875785</v>
+        <v>-2.455242350405794</v>
       </c>
       <c r="G25">
-        <v>-0.02726363717703473</v>
+        <v>-0.02591876252522507</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.468958134148512</v>
+        <v>-2.468319952330329</v>
       </c>
       <c r="G26">
-        <v>-0.03114623736308042</v>
+        <v>-0.0311462373630782</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.493198792543036</v>
+        <v>-2.493198792543037</v>
       </c>
       <c r="G28">
-        <v>-0.04032482340242027</v>
+        <v>-0.04032482340242116</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.506276394467571</v>
+        <v>-2.506276394467572</v>
       </c>
       <c r="G29">
-        <v>-0.04555229824027296</v>
+        <v>-0.0455522982402734</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.51302859651857</v>
+        <v>-2.513028596518571</v>
       </c>
       <c r="G30">
-        <v>-0.04445437320458923</v>
+        <v>-0.04445437320459056</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.519780798569568</v>
+        <v>-2.51978079856957</v>
       </c>
       <c r="G31">
-        <v>-0.04335644816890505</v>
+        <v>-0.04335644816890727</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.526533000620568</v>
+        <v>-2.52653300062057</v>
       </c>
       <c r="G32">
-        <v>-0.04225852313322198</v>
+        <v>-0.04225852313322376</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.533285202671566</v>
+        <v>-2.53328520267157</v>
       </c>
       <c r="G33">
-        <v>-0.04116059809753825</v>
+        <v>-0.0411605980975418</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.540037404722565</v>
+        <v>-2.540037404722568</v>
       </c>
       <c r="G34">
-        <v>-0.04006267306185451</v>
+        <v>-0.04006267306185762</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.546789606773565</v>
+        <v>-2.546789606773568</v>
       </c>
       <c r="G35">
-        <v>-0.03896474802617167</v>
+        <v>-0.03896474802617522</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.554384814797993</v>
+        <v>-2.553256765684096</v>
       </c>
       <c r="G36">
-        <v>-0.03813231284925034</v>
+        <v>-0.03758177985002109</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.561402506707755</v>
+        <v>-2.559723924594625</v>
       </c>
       <c r="G37">
-        <v>-0.03761190392823432</v>
+        <v>-0.03619881167386718</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.568154708758754</v>
+        <v>-2.567319132619057</v>
       </c>
       <c r="G38">
-        <v>-0.03565141963741247</v>
+        <v>-0.03594389261161623</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.574879927694318</v>
+        <v>-2.574071334670056</v>
       </c>
       <c r="G39">
-        <v>-0.03456092443545544</v>
+        <v>-0.03484596757593317</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.581632129745317</v>
+        <v>-2.58025345044011</v>
       </c>
       <c r="G40">
-        <v>-0.0342985755394758</v>
+        <v>-0.03317795625930486</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.588099288655845</v>
+        <v>-2.587263712516147</v>
       </c>
       <c r="G41">
-        <v>-0.03291560736332211</v>
+        <v>-0.03233809124865927</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.59595255670531</v>
+        <v>-2.594050327516306</v>
       </c>
       <c r="G42">
-        <v>-0.0331768083511399</v>
+        <v>-0.03127457916213583</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.602704758756309</v>
+        <v>-2.601033606476906</v>
       </c>
       <c r="G43">
-        <v>-0.03207888331545639</v>
+        <v>-0.03040773103605354</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.610007493806541</v>
+        <v>-2.609749433781508</v>
       </c>
       <c r="G44">
-        <v>-0.0306959151393027</v>
+        <v>-0.03127343125397308</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.617310228856772</v>
+        <v>-2.615381016552335</v>
       </c>
       <c r="G45">
-        <v>-0.03098409924255474</v>
+        <v>-0.02905488693811797</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.624612963907005</v>
+        <v>-2.625190480021678</v>
       </c>
       <c r="G46">
-        <v>-0.03043670720610514</v>
+        <v>-0.03101422332077863</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.631657638932201</v>
+        <v>-2.631915698957243</v>
       </c>
       <c r="G47">
-        <v>-0.02876869588947883</v>
+        <v>-0.02988931516966087</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.640054010147172</v>
+        <v>-2.638960373982441</v>
       </c>
       <c r="G48">
-        <v>-0.02850634699350063</v>
+        <v>-0.0290838631081759</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.6465211690577</v>
+        <v>-2.644850016778299</v>
       </c>
       <c r="G49">
-        <v>-0.02712337881734583</v>
+        <v>-0.02712337881735205</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.653823904107933</v>
+        <v>-2.652988327968238</v>
       </c>
       <c r="G50">
-        <v>-0.02657598678089534</v>
+        <v>-0.02741156292060853</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.661962215297868</v>
+        <v>-2.661126639158172</v>
       </c>
       <c r="G51">
-        <v>-0.02519301860474099</v>
+        <v>-0.02769974702386058</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.668429374208396</v>
+        <v>-2.666758221928997</v>
       </c>
       <c r="G52">
-        <v>-0.02631677884769723</v>
+        <v>-0.02548120270800269</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.676567685398331</v>
+        <v>-2.674060956979232</v>
       </c>
       <c r="G53">
-        <v>-0.02576938681124763</v>
+        <v>-0.02493381067155487</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.683870420448563</v>
+        <v>-2.682199268169162</v>
       </c>
       <c r="G54">
-        <v>-0.02689314705420354</v>
+        <v>-0.02522199477480291</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.691173155498794</v>
+        <v>-2.690337579359102</v>
       </c>
       <c r="G55">
-        <v>-0.02551017887804952</v>
+        <v>-0.02551017887805973</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.700147042828434</v>
+        <v>-2.698475890549035</v>
       </c>
       <c r="G56">
-        <v>-0.02579836298130311</v>
+        <v>-0.02579836298131066</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.706614201738962</v>
+        <v>-2.705778625599271</v>
       </c>
       <c r="G57">
-        <v>-0.02608654708455516</v>
+        <v>-0.02525097094486461</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.713916936789193</v>
+        <v>-2.713916936789206</v>
       </c>
       <c r="G58">
-        <v>-0.02553915504810411</v>
+        <v>-0.02553915504811699</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.72205524797913</v>
+        <v>-2.722055247979141</v>
       </c>
       <c r="G59">
-        <v>-0.02582733915135837</v>
+        <v>-0.02582733915136992</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.727753096803199</v>
+        <v>-2.727753096803211</v>
       </c>
       <c r="G60">
-        <v>-0.02367506088874477</v>
+        <v>-0.0236750608887572</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.733450945627268</v>
+        <v>-2.73345094562728</v>
       </c>
       <c r="G61">
-        <v>-0.02152278262613166</v>
+        <v>-0.0215227826261441</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.739148794451337</v>
+        <v>-2.73914879445135</v>
       </c>
       <c r="G62">
-        <v>-0.01937050436351873</v>
+        <v>-0.0193705043635316</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.744846643275407</v>
+        <v>-2.74484664327542</v>
       </c>
       <c r="G63">
-        <v>-0.01721822610090556</v>
+        <v>-0.01721822610091933</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-2.750544492099477</v>
+        <v>-2.75054449209949</v>
       </c>
       <c r="G64">
-        <v>-0.01506594783829329</v>
+        <v>-0.01506594783830661</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.756242340923545</v>
+        <v>-2.756242340923559</v>
       </c>
       <c r="G65">
-        <v>-0.01291366957567885</v>
+        <v>-0.01291366957569307</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.761940189747614</v>
+        <v>-2.761940189747629</v>
       </c>
       <c r="G66">
-        <v>-0.01076139131306569</v>
+        <v>-0.01076139131308079</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.767638038571684</v>
+        <v>-2.767638038571698</v>
       </c>
       <c r="G67">
-        <v>-0.008609113050453004</v>
+        <v>-0.008609113050467215</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1956,10 +1956,10 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.773335887395753</v>
+        <v>-2.773335887395767</v>
       </c>
       <c r="G68">
-        <v>-0.006456834787839871</v>
+        <v>-0.006456834787854082</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1979,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.779033736219823</v>
+        <v>-2.779033736219836</v>
       </c>
       <c r="G69">
-        <v>-0.004304556525226724</v>
+        <v>-0.004304556525240047</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2002,10 +2002,10 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.784731585043892</v>
+        <v>-2.784731585043905</v>
       </c>
       <c r="G70">
-        <v>-0.002152278262613584</v>
+        <v>-0.002152278262626907</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2025,10 +2025,10 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.790429433867961</v>
+        <v>-2.790429433867974</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>-1.332267629550188e-14</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-2.527180582330456</v>
+        <v>-2.527180582330468</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>-1.199040866595169e-14</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2071,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>-2.530879685091336</v>
+        <v>-2.530879685091349</v>
       </c>
       <c r="G73">
-        <v>-0.0005521466569748945</v>
+        <v>-0.000552146656987329</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2094,10 +2094,10 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>-2.534578787852217</v>
+        <v>-2.534578787852229</v>
       </c>
       <c r="G74">
-        <v>-0.001104293313950677</v>
+        <v>-0.001104293313963556</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2117,10 +2117,10 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>-2.538277890613097</v>
+        <v>-2.53827789061311</v>
       </c>
       <c r="G75">
-        <v>-0.001656439970925572</v>
+        <v>-0.001656439970938894</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.541976993373976</v>
+        <v>-2.541976993373988</v>
       </c>
       <c r="G76">
-        <v>-0.002208586627900466</v>
+        <v>-0.002208586627912457</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.545676096134857</v>
+        <v>-2.545492887427886</v>
       </c>
       <c r="G77">
-        <v>-0.002338749067688717</v>
+        <v>-0.002577524577904722</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.549375198895738</v>
+        <v>-2.548770005971579</v>
       </c>
       <c r="G78">
-        <v>-0.002890895724664055</v>
+        <v>-0.002707687017692528</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.553074301656616</v>
+        <v>-2.55159714650341</v>
       </c>
       <c r="G79">
-        <v>-0.003021058164452306</v>
+        <v>-0.002387871445618472</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.556168211493329</v>
+        <v>-2.555929435983138</v>
       </c>
       <c r="G80">
-        <v>-0.001720507178434083</v>
+        <v>-0.003573204821441411</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.559867314254209</v>
+        <v>-2.559445330037033</v>
       </c>
       <c r="G81">
-        <v>-0.003520158554235042</v>
+        <v>-0.003942142771431456</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.562988797099463</v>
+        <v>-2.560936796283425</v>
       </c>
       <c r="G82">
-        <v>-0.002805931773512071</v>
+        <v>-0.00228665291391783</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.567376653382412</v>
+        <v>-2.565577582907236</v>
       </c>
       <c r="G83">
-        <v>-0.002936514999437811</v>
+        <v>-0.003780483433823978</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.570653771926107</v>
+        <v>-2.569571027981543</v>
       </c>
       <c r="G84">
-        <v>-0.003435034488609379</v>
+        <v>-0.004626972404226048</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.573058928240748</v>
+        <v>-2.570040346841422</v>
       </c>
       <c r="G85">
-        <v>-0.00322399210142077</v>
+        <v>-0.001949335160199794</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.576787964431726</v>
+        <v>-2.576124844282792</v>
       </c>
       <c r="G86">
-        <v>-0.00303417885465862</v>
+        <v>-0.004886876497664172</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.579879513846881</v>
+        <v>-2.579851940838352</v>
       </c>
       <c r="G87">
-        <v>-0.003006765960589686</v>
+        <v>-0.00546701694931917</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.584077396768597</v>
+        <v>-2.583129059382045</v>
       </c>
       <c r="G88">
-        <v>-0.004588450180474712</v>
+        <v>-0.005597179389106977</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.586883728946136</v>
+        <v>-2.583361542367142</v>
       </c>
       <c r="G89">
-        <v>-0.003839885736956816</v>
+        <v>-0.002682706270299207</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.59135472504085</v>
+        <v>-2.589182051711316</v>
       </c>
       <c r="G90">
-        <v>-0.00752893284010181</v>
+        <v>-0.005356259510567618</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.59459708513561</v>
+        <v>-2.591798410527617</v>
       </c>
       <c r="G91">
-        <v>-0.007176719240646445</v>
+        <v>-0.004825662222964322</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.59726665033358</v>
+        <v>-2.597451798675989</v>
       </c>
       <c r="G92">
-        <v>-0.007146945925021519</v>
+        <v>-0.007332094267431088</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.601290028837984</v>
+        <v>-2.600838531976848</v>
       </c>
       <c r="G93">
-        <v>-0.00516000183848897</v>
+        <v>-0.007571871464385094</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.605494676413952</v>
+        <v>-2.603526020145687</v>
       </c>
       <c r="G94">
-        <v>-0.007037968007214346</v>
+        <v>-0.00711240352931819</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.609432554685034</v>
+        <v>-2.608475092222676</v>
       </c>
       <c r="G95">
-        <v>-0.008380876716897134</v>
+        <v>-0.00891451950240274</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.612711612864146</v>
+        <v>-2.612016094687831</v>
       </c>
       <c r="G96">
-        <v>-0.009394591058826673</v>
+        <v>-0.009308565863652696</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.616649491135233</v>
+        <v>-2.613702984836447</v>
       </c>
       <c r="G97">
-        <v>-0.009018683721664811</v>
+        <v>-0.007848499908363227</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.621305635572345</v>
+        <v>-2.618421460731032</v>
       </c>
       <c r="G98">
-        <v>-0.008323746445950242</v>
+        <v>-0.009420019699042825</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.624529547734371</v>
+        <v>-2.623646520794102</v>
       </c>
       <c r="G99">
-        <v>-0.01107613944101304</v>
+        <v>-0.01149812365820813</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.62788356639744</v>
+        <v>-2.625618103218465</v>
       </c>
       <c r="G100">
-        <v>-0.009991195189355651</v>
+        <v>-0.01032274997866578</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.632300935324349</v>
+        <v>-2.629643946320149</v>
       </c>
       <c r="G101">
-        <v>-0.0125042877123489</v>
+        <v>-0.01120163697644472</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.635547595476081</v>
+        <v>-2.634031802603102</v>
       </c>
       <c r="G102">
-        <v>-0.01134050370589756</v>
+        <v>-0.01244253715549304</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.639861016236939</v>
+        <v>-2.638645909545506</v>
       </c>
       <c r="G103">
-        <v>-0.0139376817886574</v>
+        <v>-0.0139096879939915</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.644802798697809</v>
+        <v>-2.643008132455324</v>
       </c>
       <c r="G104">
-        <v>-0.01393343767043098</v>
+        <v>-0.01512495479990394</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.64864113303554</v>
+        <v>-2.645191442343224</v>
       </c>
       <c r="G105">
-        <v>-0.0160463000785307</v>
+        <v>-0.01416130858389941</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.652265275312462</v>
+        <v>-2.650119181104057</v>
       </c>
       <c r="G106">
-        <v>-0.01651876540843911</v>
+        <v>-0.01594209124082702</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.655142163741261</v>
+        <v>-2.654798073530873</v>
       </c>
       <c r="G107">
-        <v>-0.01662329447510147</v>
+        <v>-0.01747402756373861</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.660243461171403</v>
+        <v>-2.657917616740707</v>
       </c>
       <c r="G108">
-        <v>-0.01717544113207703</v>
+        <v>-0.01744661466966724</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.663656925908527</v>
+        <v>-2.660823492851598</v>
       </c>
       <c r="G109">
-        <v>-0.01891952570465505</v>
+        <v>-0.01720553467665309</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.667624737609708</v>
+        <v>-2.666010815476922</v>
       </c>
       <c r="G110">
-        <v>-0.02038227231044942</v>
+        <v>-0.0192459011980719</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.67280969981348</v>
+        <v>-2.671110698233521</v>
       </c>
       <c r="G111">
-        <v>-0.02101367950835509</v>
+        <v>-0.02119882785076599</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.676298020858836</v>
+        <v>-2.67435735838525</v>
       </c>
       <c r="G112">
-        <v>-0.02128212777699212</v>
+        <v>-0.02129853189858966</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.680450980902416</v>
+        <v>-2.678988815197238</v>
       </c>
       <c r="G113">
-        <v>-0.02304649574199358</v>
+        <v>-0.02278303260667203</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.684921976997131</v>
+        <v>-2.684224939971532</v>
       </c>
       <c r="G114">
-        <v>-0.02429416057529266</v>
+        <v>-0.0248722012770608</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.688405473023649</v>
+        <v>-2.68809226199136</v>
       </c>
       <c r="G115">
-        <v>-0.02508744316402711</v>
+        <v>-0.02559256719298397</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.693036509049504</v>
+        <v>-2.692401382695242</v>
       </c>
       <c r="G116">
-        <v>-0.02696110927578266</v>
+        <v>-0.02675473179296084</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.697059887553905</v>
+        <v>-2.695761116088831</v>
       </c>
       <c r="G117">
-        <v>-0.02775439186451556</v>
+        <v>-0.02696750908264511</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.70195092823039</v>
+        <v>-2.701658525552386</v>
       </c>
       <c r="G118">
-        <v>-0.02791889196709851</v>
+        <v>-0.02971796244229452</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.705885921118054</v>
+        <v>-2.704726802015974</v>
       </c>
       <c r="G119">
-        <v>-0.02995249383426812</v>
+        <v>-0.02963928280197758</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.710171768870368</v>
+        <v>-2.710090568694028</v>
       </c>
       <c r="G120">
-        <v>-0.0315428823438233</v>
+        <v>-0.03185609337612627</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.714807104953194</v>
+        <v>-2.714062784627914</v>
       </c>
       <c r="G121">
-        <v>-0.03286692233463206</v>
+        <v>-0.03268135320610721</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.719198840506978</v>
+        <v>-2.718508147349495</v>
       </c>
       <c r="G122">
-        <v>-0.03427216250178766</v>
+        <v>-0.03397975982378343</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.723742332488368</v>
+        <v>-2.723769905496922</v>
       </c>
       <c r="G123">
-        <v>-0.03564500464156573</v>
+        <v>-0.03609456186730475</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.728479677101829</v>
+        <v>-2.728083326257775</v>
       </c>
       <c r="G124">
-        <v>-0.03741860185810242</v>
+        <v>-0.03726102652425323</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.732950673196543</v>
+        <v>-2.732739470694888</v>
       </c>
       <c r="G125">
-        <v>-0.0387702148574538</v>
+        <v>-0.03877021485746046</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.737449242299798</v>
+        <v>-2.737449242299809</v>
       </c>
       <c r="G126">
-        <v>-0.04030545734992463</v>
+        <v>-0.04033303035847702</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.742159013904717</v>
+        <v>-2.742159013904725</v>
       </c>
       <c r="G127">
-        <v>-0.04189584585947936</v>
+        <v>-0.0418958458594878</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.745173677662866</v>
+        <v>-2.745173677662874</v>
       </c>
       <c r="G128">
-        <v>-0.04176355351372329</v>
+        <v>-0.04176355351373129</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.748188341421013</v>
+        <v>-2.748188341421021</v>
       </c>
       <c r="G129">
-        <v>-0.04163126116796501</v>
+        <v>-0.041631261167973</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.751203005179161</v>
+        <v>-2.751203005179167</v>
       </c>
       <c r="G130">
-        <v>-0.04149896882220827</v>
+        <v>-0.04149896882221449</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.754217668937308</v>
+        <v>-2.754217668937316</v>
       </c>
       <c r="G131">
-        <v>-0.0413666764764502</v>
+        <v>-0.04136667647645864</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.757232332695455</v>
+        <v>-2.757232332695465</v>
       </c>
       <c r="G132">
-        <v>-0.04123438413069258</v>
+        <v>-0.04123438413070191</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.760246996453604</v>
+        <v>-2.760246996453611</v>
       </c>
       <c r="G133">
-        <v>-0.04110209178493629</v>
+        <v>-0.04110209178494295</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.763261660211752</v>
+        <v>-2.763261660211758</v>
       </c>
       <c r="G134">
-        <v>-0.04096979943917911</v>
+        <v>-0.04096979943918488</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.7662763239699</v>
+        <v>-2.766276323969907</v>
       </c>
       <c r="G135">
-        <v>-0.04083750709342171</v>
+        <v>-0.04083750709342882</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.768692352943899</v>
+        <v>-2.768692352943906</v>
       </c>
       <c r="G136">
-        <v>-0.04010657996351541</v>
+        <v>-0.04010657996352252</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.771400820999434</v>
+        <v>-2.77140082099944</v>
       </c>
       <c r="G137">
-        <v>-0.03966809191514531</v>
+        <v>-0.03966809191515197</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.774109289054971</v>
+        <v>-2.773524410891903</v>
       </c>
       <c r="G138">
-        <v>-0.0389371647852379</v>
+        <v>-0.03864472570370947</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.776273415151388</v>
+        <v>-2.775940439865901</v>
       </c>
       <c r="G139">
-        <v>-0.03791379857379673</v>
+        <v>-0.0379137985738025</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.778941347002967</v>
+        <v>-2.778648907921436</v>
       </c>
       <c r="G140">
-        <v>-0.03747531052542508</v>
+        <v>-0.03747531052543218</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.781649815058502</v>
+        <v>-2.780853570221813</v>
       </c>
       <c r="G141">
-        <v>-0.03703682247705609</v>
+        <v>-0.03653301672190445</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.784358283114039</v>
+        <v>-2.784065844032506</v>
       </c>
       <c r="G142">
-        <v>-0.03659833442868621</v>
+        <v>-0.03659833442869154</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.786774312088037</v>
+        <v>-2.786189433924968</v>
       </c>
       <c r="G143">
-        <v>-0.03590794350273629</v>
+        <v>-0.03557496821724859</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.78948278014357</v>
+        <v>-2.788897901980502</v>
       </c>
       <c r="G144">
-        <v>-0.0354289192504087</v>
+        <v>-0.0351364801688776</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.792483687280641</v>
+        <v>-2.79219124819911</v>
       </c>
       <c r="G145">
-        <v>-0.03473852832446145</v>
+        <v>-0.03528287028358079</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.795192155336178</v>
+        <v>-2.794406006222953</v>
       </c>
       <c r="G146">
-        <v>-0.03425950407213296</v>
+        <v>-0.03435067220351851</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.797608184310175</v>
+        <v>-2.797023306147105</v>
       </c>
       <c r="G147">
-        <v>-0.03440589418683482</v>
+        <v>-0.03382101602376508</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.800901530528785</v>
+        <v>-2.799731774202643</v>
       </c>
       <c r="G148">
-        <v>-0.03338252797539365</v>
+        <v>-0.03338252797539809</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.803025120421246</v>
+        <v>-2.802440242258176</v>
       </c>
       <c r="G149">
-        <v>-0.03255159375016659</v>
+        <v>-0.03294403992702666</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.805774124680738</v>
+        <v>-2.80514871031371</v>
       </c>
       <c r="G150">
-        <v>-0.03250555187865278</v>
+        <v>-0.03250555187865456</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.808734495613852</v>
+        <v>-2.807857178369247</v>
       </c>
       <c r="G151">
-        <v>-0.03294438107489195</v>
+        <v>-0.03206706383028668</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.811150524587849</v>
+        <v>-2.811442963669387</v>
       </c>
       <c r="G152">
-        <v>-0.03221345394498409</v>
+        <v>-0.03250589302652185</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.814443870806459</v>
+        <v>-2.813858992643388</v>
       </c>
       <c r="G153">
-        <v>-0.03206740497815108</v>
+        <v>-0.03177496589661732</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.816859899780457</v>
+        <v>-2.816567460698921</v>
       </c>
       <c r="G154">
-        <v>-0.03137701405220339</v>
+        <v>-0.03133647784824545</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.819860806917528</v>
+        <v>-2.819860806917529</v>
       </c>
       <c r="G155">
-        <v>-0.0311904288814111</v>
+        <v>-0.03148286796294841</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.822569274973063</v>
+        <v>-2.82227683589153</v>
       </c>
       <c r="G156">
-        <v>-0.030751940833041</v>
+        <v>-0.03075194083304411</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-2.825570182110135</v>
+        <v>-2.8252777430286</v>
       </c>
       <c r="G157">
-        <v>-0.03060589186620688</v>
+        <v>-0.0306058918662091</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.828278650165669</v>
+        <v>-2.82827865016567</v>
       </c>
       <c r="G158">
-        <v>-0.03045984289937365</v>
+        <v>-0.03045984289937453</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.831279557302741</v>
+        <v>-2.831279557302742</v>
       </c>
       <c r="G159">
-        <v>-0.03031379393253952</v>
+        <v>-0.03031379393254041</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.833736122480696</v>
+        <v>-2.833736122480698</v>
       </c>
       <c r="G160">
-        <v>-0.02962340300659005</v>
+        <v>-0.02962340300659183</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.836505318187112</v>
+        <v>-2.836192687658654</v>
       </c>
       <c r="G161">
-        <v>-0.02893301208064059</v>
+        <v>-0.02893301208064281</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.838961883365069</v>
+        <v>-2.838649252836611</v>
       </c>
       <c r="G162">
-        <v>-0.02824262115469156</v>
+        <v>-0.02824262115469423</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.841418448543024</v>
+        <v>-2.841418448543026</v>
       </c>
       <c r="G163">
-        <v>-0.02786486075720296</v>
+        <v>-0.02786486075720473</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.844187644249441</v>
+        <v>-2.843875013720984</v>
       </c>
       <c r="G164">
-        <v>-0.02686183930279273</v>
+        <v>-0.02717446983125693</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.846644209427396</v>
+        <v>-2.846412497996749</v>
       </c>
       <c r="G165">
-        <v>-0.02617144837684371</v>
+        <v>-0.0265649980031174</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.849413405133812</v>
+        <v>-2.848788144076897</v>
       </c>
       <c r="G166">
-        <v>-0.02579368797935377</v>
+        <v>-0.02579368797935999</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.852182600840229</v>
+        <v>-2.851705421357848</v>
       </c>
       <c r="G167">
-        <v>-0.0251842161512098</v>
+        <v>-0.02556400915640611</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.854720085115991</v>
+        <v>-2.854407454587537</v>
       </c>
       <c r="G168">
-        <v>-0.02472553665591715</v>
+        <v>-0.02511908628218995</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.857489280822406</v>
+        <v>-2.85686401976549</v>
       </c>
       <c r="G169">
-        <v>-0.02434777625842777</v>
+        <v>-0.02442869535623815</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.860177557431017</v>
+        <v>-2.859633215471909</v>
       </c>
       <c r="G170">
-        <v>-0.02334475480401677</v>
+        <v>-0.02405093495875155</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.863259383665894</v>
+        <v>-2.862321492080521</v>
       </c>
       <c r="G171">
-        <v>-0.0232796249349897</v>
+        <v>-0.02359225546345878</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.865715948843851</v>
+        <v>-2.865171606884743</v>
       </c>
       <c r="G172">
-        <v>-0.02383975612288347</v>
+        <v>-0.02329541416377523</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.86832059559634</v>
+        <v>-2.868172514021815</v>
       </c>
       <c r="G173">
-        <v>-0.02260502323781832</v>
+        <v>-0.02314936519694211</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.870941709728223</v>
+        <v>-2.870464530245846</v>
       </c>
       <c r="G174">
-        <v>-0.02222726284032883</v>
+        <v>-0.02229442531706805</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.87371090543464</v>
+        <v>-2.873398274906188</v>
       </c>
       <c r="G175">
-        <v>-0.02114332228811344</v>
+        <v>-0.02208121387350515</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.876561020238862</v>
+        <v>-2.875623128653492</v>
       </c>
       <c r="G176">
-        <v>-0.02107819241908493</v>
+        <v>-0.02115911151690419</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.878936666319012</v>
+        <v>-2.877998774733638</v>
       </c>
       <c r="G177">
-        <v>-0.02070043202159721</v>
+        <v>-0.02038780149314412</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.881705862025428</v>
+        <v>-2.88060342148613</v>
       </c>
       <c r="G178">
-        <v>-0.02032267162410817</v>
+        <v>-0.01984549214173159</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.884475057731844</v>
+        <v>-2.884162427203395</v>
       </c>
       <c r="G179">
-        <v>-0.01963228069815892</v>
+        <v>-0.02025754175509131</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.887012542007607</v>
+        <v>-2.886780830576964</v>
       </c>
       <c r="G180">
-        <v>-0.01956715082913307</v>
+        <v>-0.01972898902475606</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.890013449144677</v>
+        <v>-2.889700818616227</v>
       </c>
       <c r="G181">
-        <v>-0.01856412937472096</v>
+        <v>-0.01950202096011355</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.893095275379556</v>
+        <v>-2.891925672363532</v>
       </c>
       <c r="G182">
-        <v>-0.01912426056261385</v>
+        <v>-0.01857991860351271</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.895864471085971</v>
+        <v>-2.894926579500602</v>
       </c>
       <c r="G183">
-        <v>-0.01843386963666516</v>
+        <v>-0.01843386963667804</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.898321036263927</v>
+        <v>-2.898401955361747</v>
       </c>
       <c r="G184">
-        <v>-0.01743084818225571</v>
+        <v>-0.01876228939391844</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.90148378159661</v>
+        <v>-2.901402862498816</v>
       </c>
       <c r="G185">
-        <v>-0.01869715952487572</v>
+        <v>-0.01861624042708221</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.903546797148299</v>
+        <v>-2.90331508571766</v>
       </c>
       <c r="G186">
-        <v>-0.01676634220854512</v>
+        <v>-0.01738150754202028</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.906709542480982</v>
+        <v>-2.906709542480999</v>
       </c>
       <c r="G187">
-        <v>-0.01661019751824999</v>
+        <v>-0.01762900820145519</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.909710449618054</v>
+        <v>-2.90877255803269</v>
       </c>
       <c r="G188">
-        <v>-0.01568809516164604</v>
+        <v>-0.01654506764924024</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.912792275852931</v>
+        <v>-2.912167014796023</v>
       </c>
       <c r="G189">
-        <v>-0.01585467672327445</v>
+        <v>-0.01679256830866838</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.915248841030886</v>
+        <v>-2.915561471559366</v>
       </c>
       <c r="G190">
-        <v>-0.01672743843962665</v>
+        <v>-0.01704006896810595</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.917705406208841</v>
+        <v>-2.917392775680397</v>
       </c>
       <c r="G191">
-        <v>-0.01509915592829636</v>
+        <v>-0.01572441698523186</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-2.920787232443721</v>
+        <v>-2.92078723244374</v>
       </c>
       <c r="G192">
-        <v>-0.01597191764465117</v>
+        <v>-0.01597191764466982</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-2.923869058678597</v>
+        <v>-2.923012086191037</v>
       </c>
       <c r="G193">
-        <v>-0.01528152671870014</v>
+        <v>-0.01504981528806232</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-2.926325623856553</v>
+        <v>-2.927263515441954</v>
       </c>
       <c r="G194">
-        <v>-0.01521639684967258</v>
+        <v>-0.01615428843507316</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-2.92940745009143</v>
+        <v>-2.929720080619908</v>
       </c>
       <c r="G195">
-        <v>-0.01483863645218614</v>
+        <v>-0.01546389750912297</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-2.932257564895653</v>
+        <v>-2.932176645797864</v>
       </c>
       <c r="G196">
-        <v>-0.0147735065831564</v>
+        <v>-0.01477350658317372</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-2.935258472032724</v>
+        <v>-2.934320580447362</v>
       </c>
       <c r="G197">
-        <v>-0.01439574618566791</v>
+        <v>-0.01377048512876616</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-2.93771503721068</v>
+        <v>-2.93740240668224</v>
       </c>
       <c r="G198">
-        <v>-0.01370535525971955</v>
+        <v>-0.01370535525973954</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-2.941109493974017</v>
+        <v>-2.940484232917116</v>
       </c>
       <c r="G199">
-        <v>-0.01395285591915041</v>
+        <v>-0.01364022539071064</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.943878689680435</v>
+        <v>-2.942940798095074</v>
       </c>
       <c r="G200">
-        <v>-0.01294983446474185</v>
+        <v>-0.01294983446476272</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-2.946647885386851</v>
+        <v>-2.946022624329949</v>
       </c>
       <c r="G201">
-        <v>-0.01319733512417404</v>
+        <v>-0.01288470459573293</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-2.949417081093268</v>
+        <v>-2.949104450564829</v>
       </c>
       <c r="G202">
-        <v>-0.01281957472668627</v>
+        <v>-0.01281957472670803</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-2.952498907328145</v>
+        <v>-2.952186276799707</v>
       </c>
       <c r="G203">
-        <v>-0.01275444485765875</v>
+        <v>-0.01275444485768096</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-2.955268103034561</v>
+        <v>-2.955268103034585</v>
       </c>
       <c r="G204">
-        <v>-0.01237668446017054</v>
+        <v>-0.01268931498865339</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-2.958349929269438</v>
+        <v>-2.958037298741003</v>
       </c>
       <c r="G205">
-        <v>-0.01231155459114214</v>
+        <v>-0.01231155459116656</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-2.961119124975855</v>
+        <v>-2.96111912497588</v>
       </c>
       <c r="G206">
-        <v>-0.01224642472211415</v>
+        <v>-0.01224642472213858</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-2.964200951210732</v>
+        <v>-2.964200951210757</v>
       </c>
       <c r="G207">
-        <v>-0.01218129485308569</v>
+        <v>-0.01218129485311012</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-2.966332799410213</v>
+        <v>-2.966332799410239</v>
       </c>
       <c r="G208">
-        <v>-0.01116618694866117</v>
+        <v>-0.01116618694868693</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-2.968464647609695</v>
+        <v>-2.968464647609725</v>
       </c>
       <c r="G209">
-        <v>-0.01015107904423798</v>
+        <v>-0.01015107904426774</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-2.970596495809176</v>
+        <v>-2.970596495809206</v>
       </c>
       <c r="G210">
-        <v>-0.009135971139814347</v>
+        <v>-0.009135971139844101</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-2.972728344008658</v>
+        <v>-2.972728344008688</v>
       </c>
       <c r="G211">
-        <v>-0.008120863235391157</v>
+        <v>-0.008120863235420911</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5268,10 +5268,10 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-2.974860192208139</v>
+        <v>-2.974860192208174</v>
       </c>
       <c r="G212">
-        <v>-0.007105755330966357</v>
+        <v>-0.00710575533100144</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5291,10 +5291,10 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-2.97699204040762</v>
+        <v>-2.976992040407656</v>
       </c>
       <c r="G213">
-        <v>-0.006090647426542264</v>
+        <v>-0.00609064742657868</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5314,10 +5314,10 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-2.979123888607102</v>
+        <v>-2.979123888607141</v>
       </c>
       <c r="G214">
-        <v>-0.005075539522119518</v>
+        <v>-0.005075539522158154</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5337,10 +5337,10 @@
         <v>143</v>
       </c>
       <c r="F215">
-        <v>-2.981255736806584</v>
+        <v>-2.981255736806621</v>
       </c>
       <c r="G215">
-        <v>-0.004060431617696772</v>
+        <v>-0.004060431617733187</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5360,10 +5360,10 @@
         <v>144</v>
       </c>
       <c r="F216">
-        <v>-2.983387585006067</v>
+        <v>-2.983387585006104</v>
       </c>
       <c r="G216">
-        <v>-0.003045323713274019</v>
+        <v>-0.003045323713311766</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5383,10 +5383,10 @@
         <v>145</v>
       </c>
       <c r="F217">
-        <v>-2.985519433205547</v>
+        <v>-2.985519433205586</v>
       </c>
       <c r="G217">
-        <v>-0.002030215808849496</v>
+        <v>-0.002030215808888132</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5406,10 +5406,10 @@
         <v>146</v>
       </c>
       <c r="F218">
-        <v>-2.987651281405028</v>
+        <v>-2.987651281405068</v>
       </c>
       <c r="G218">
-        <v>-0.00101510790442497</v>
+        <v>-0.001015107904464938</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5429,10 +5429,10 @@
         <v>147</v>
       </c>
       <c r="F219">
-        <v>-2.989783129604508</v>
+        <v>-2.989783129604549</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>-4.130029651605582e-14</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5452,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>-2.621703188588303</v>
+        <v>-2.621703188588206</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>9.769962616701378e-14</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.6678953901021</v>
+        <v>-2.666149409521172</v>
       </c>
       <c r="G221">
-        <v>0.001415996484237958</v>
+        <v>0.002146496586884261</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.71845116753383</v>
+        <v>-2.716483734215324</v>
       </c>
       <c r="G222">
-        <v>0.00120181741908354</v>
+        <v>-4.202000352337976e-05</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.773992536060258</v>
+        <v>-2.774166401221754</v>
       </c>
       <c r="G223">
-        <v>-0.00783208461986562</v>
+        <v>-0.009578878906208343</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.836821892195959</v>
+        <v>-2.836616047263415</v>
       </c>
       <c r="G224">
-        <v>-0.02306827733775352</v>
+        <v>-0.02388271684412491</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.89752274018067</v>
+        <v>-2.897260410155522</v>
       </c>
       <c r="G225">
-        <v>-0.03651243664502291</v>
+        <v>-0.03638127163248717</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.939916273639788</v>
+        <v>-2.939484022343069</v>
       </c>
       <c r="G226">
-        <v>-0.03089132701300823</v>
+        <v>-0.03045907571628925</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.981726154171744</v>
+        <v>-2.981421673534949</v>
       </c>
       <c r="G227">
-        <v>-0.02394643816752717</v>
+        <v>-0.02425091880442487</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.021652082964558</v>
+        <v>-3.021988032746953</v>
       </c>
       <c r="G228">
-        <v>-0.01579665183813073</v>
+        <v>-0.01667146991268376</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.062963900506019</v>
+        <v>-3.06298485120606</v>
       </c>
       <c r="G229">
-        <v>-0.009349346892257637</v>
+        <v>-0.00952248026804603</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5682,10 +5682,10 @@
         <v>309</v>
       </c>
       <c r="F230">
-        <v>-3.101608179041758</v>
+        <v>-3.101608179041814</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>-5.595524044110789e-14</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5705,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>-2.681923713795291</v>
+        <v>-2.681923713795318</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>-2.708944180085382e-14</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.726237335768877</v>
+        <v>-2.72602567939217</v>
       </c>
       <c r="G232">
-        <v>0.004903425801600303</v>
+        <v>0.004903365745557497</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.774151006886724</v>
+        <v>-2.77483716706227</v>
       </c>
       <c r="G233">
-        <v>0.006648635563304861</v>
+        <v>0.005097209417895598</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.82805066217129</v>
+        <v>-2.829343151236155</v>
       </c>
       <c r="G234">
-        <v>0.002694914709016949</v>
+        <v>-0.0004034434135520293</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.887657250994943</v>
+        <v>-2.8888207413901</v>
       </c>
       <c r="G235">
-        <v>-0.008307502377336018</v>
+        <v>-0.01087570222505985</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.951384171970699</v>
+        <v>-2.951308544204023</v>
       </c>
       <c r="G236">
-        <v>-0.02382924713226497</v>
+        <v>-0.02435817369654547</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.007526539571815</v>
+        <v>-3.00763758815939</v>
       </c>
       <c r="G237">
-        <v>-0.03139290243159421</v>
+        <v>-0.03168188630947588</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.04930944796753</v>
+        <v>-3.049176476618119</v>
       </c>
       <c r="G238">
-        <v>-0.02434841477517879</v>
+        <v>-0.02421544342576787</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.091984001281435</v>
+        <v>-3.092093902902514</v>
       </c>
       <c r="G239">
-        <v>-0.0179554600654136</v>
+        <v>-0.0181275383677254</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.132073892549318</v>
+        <v>-3.13181761356028</v>
       </c>
       <c r="G240">
-        <v>-0.008745528625788201</v>
+        <v>-0.008845917683053484</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5935,10 +5935,10 @@
         <v>561</v>
       </c>
       <c r="F241">
-        <v>-3.172852122422207</v>
+        <v>-3.172852122421985</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>2.220446049250313e-13</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5958,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>-2.723569122533771</v>
+        <v>-2.723569122533946</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>-1.749711486809247e-13</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.765993739035502</v>
+        <v>-2.765562315834093</v>
       </c>
       <c r="G243">
-        <v>0.008336932736913827</v>
+        <v>0.00769992751333648</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.812410656062724</v>
+        <v>-2.81325108133848</v>
       </c>
       <c r="G244">
-        <v>0.01184588720996027</v>
+        <v>0.009704282822607713</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.863965999778434</v>
+        <v>-2.866940394025896</v>
       </c>
       <c r="G245">
-        <v>0.01078693622672477</v>
+        <v>0.005708090948849831</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.92166019131879</v>
+        <v>-2.92528457935397</v>
       </c>
       <c r="G246">
-        <v>0.002676726741825508</v>
+        <v>-0.002402830948025958</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.983771583830545</v>
+        <v>-2.986246960244614</v>
       </c>
       <c r="G247">
-        <v>-0.01042743551132785</v>
+        <v>-0.0136720910250121</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.051296871873328</v>
+        <v>-3.051333261311306</v>
       </c>
       <c r="G248">
-        <v>-0.02893651227390714</v>
+        <v>-0.02906527127804548</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.099311821163437</v>
+        <v>-3.099274030136171</v>
       </c>
       <c r="G249">
-        <v>-0.02674642533861527</v>
+        <v>-0.02677277667171218</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.138740739956566</v>
+        <v>-3.138886592232752</v>
       </c>
       <c r="G250">
-        <v>-0.01637062798621813</v>
+        <v>-0.01669221795463449</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.181001271012331</v>
+        <v>-3.181131360401366</v>
       </c>
       <c r="G251">
-        <v>-0.008829581462372282</v>
+        <v>-0.009243865309590149</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6188,10 +6188,10 @@
         <v>923</v>
       </c>
       <c r="F252">
-        <v>-3.222120758522974</v>
+        <v>-3.222120758523039</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>-6.572520305780927e-14</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6211,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>-2.754057650354959</v>
+        <v>-2.75405765035523</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>-2.713385072183883e-13</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.795462360054708</v>
+        <v>-2.795539480748022</v>
       </c>
       <c r="G254">
-        <v>0.01029099595180494</v>
+        <v>0.008753289568131262</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.840897459818753</v>
+        <v>-2.842776318510771</v>
       </c>
       <c r="G255">
-        <v>0.01398670790512879</v>
+        <v>0.01210784921311125</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.891482963101241</v>
+        <v>-2.894560559590325</v>
       </c>
       <c r="G256">
-        <v>0.01476056691058747</v>
+        <v>0.01055872809475189</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.946715720439333</v>
+        <v>-2.951723288563661</v>
       </c>
       <c r="G257">
-        <v>0.009643319175998588</v>
+        <v>0.003987396529143705</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.007883843393029</v>
+        <v>-3.011227743273713</v>
       </c>
       <c r="G258">
-        <v>-0.001380328008152132</v>
+        <v>-0.005281938219713345</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.07439356034492</v>
+        <v>-3.075945891015271</v>
       </c>
       <c r="G259">
-        <v>-0.01762299102730003</v>
+        <v>-0.01940868855354339</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.131413655174648</v>
+        <v>-3.131415779944449</v>
       </c>
       <c r="G260">
-        <v>-0.02464133275172598</v>
+        <v>-0.02464345752152652</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.174029303445293</v>
+        <v>-3.17421501265109</v>
       </c>
       <c r="G261">
-        <v>-0.01626317377538011</v>
+        <v>-0.01685129282043929</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.217447008174172</v>
+        <v>-3.217447008174765</v>
       </c>
       <c r="G262">
-        <v>-0.009783211933302449</v>
+        <v>-0.009848168382920242</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6441,10 +6441,10 @@
         <v>1415</v>
       </c>
       <c r="F263">
-        <v>-3.258190237199573</v>
+        <v>-3.258190237200103</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>-5.293543381412746e-13</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6464,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="F264">
-        <v>-2.777331564851756</v>
+        <v>-2.777331564852105</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>-3.486100297322992e-13</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.816938327647875</v>
+        <v>-2.817545806170651</v>
       </c>
       <c r="G265">
-        <v>0.01156668331594624</v>
+        <v>0.01045204152333135</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.862182479540824</v>
+        <v>-2.864917092804344</v>
       </c>
       <c r="G266">
-        <v>0.0173790541104486</v>
+        <v>0.01399419033109339</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.911169164290747</v>
+        <v>-2.91544628083652</v>
       </c>
       <c r="G267">
-        <v>0.0191446030377509</v>
+        <v>0.01437843774037373</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.965903262582095</v>
+        <v>-2.970514964006869</v>
       </c>
       <c r="G268">
-        <v>0.01514518366653661</v>
+        <v>0.009976037412250616</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.026003663022228</v>
+        <v>-3.029995017905936</v>
       </c>
       <c r="G269">
-        <v>0.005400773838346584</v>
+        <v>0.001409418954638753</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.091341940505302</v>
+        <v>-3.093539305101378</v>
       </c>
       <c r="G270">
-        <v>-0.008635389354173961</v>
+        <v>-0.01122143279934718</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.157237921011711</v>
+        <v>-3.157322026063241</v>
       </c>
       <c r="G271">
-        <v>-0.02421289735673127</v>
+        <v>-0.02433787091898476</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.201663797989382</v>
+        <v>-3.201805354773041</v>
       </c>
       <c r="G272">
-        <v>-0.01771808521668672</v>
+        <v>-0.01790776418732887</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.244457950290986</v>
+        <v>-3.244425227479366</v>
       </c>
       <c r="G273">
-        <v>-0.009414655514825454</v>
+        <v>-0.009614201452197935</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6694,10 +6694,10 @@
         <v>2057</v>
       </c>
       <c r="F274">
-        <v>-3.285724461468624</v>
+        <v>-3.285724461469525</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>-9.00612917575927e-13</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="F275">
-        <v>-2.795675378543732</v>
+        <v>-2.795675378544225</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>-4.929390229335695e-13</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.834916589238736</v>
+        <v>-2.835776494121848</v>
       </c>
       <c r="G276">
-        <v>0.01219200456969682</v>
+        <v>0.0109134238837223</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.87874368033106</v>
+        <v>-2.881180728577164</v>
       </c>
       <c r="G277">
-        <v>0.01968547600710391</v>
+        <v>0.01670210140584549</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.927542835265043</v>
+        <v>-2.93177201473537</v>
       </c>
       <c r="G278">
-        <v>0.02153290669540553</v>
+        <v>0.01730372722507845</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.981791467701664</v>
+        <v>-2.985865962278002</v>
       </c>
       <c r="G279">
-        <v>0.01932254078752194</v>
+        <v>0.01440269165988517</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.040633825868328</v>
+        <v>-3.045127982365756</v>
       </c>
       <c r="G280">
-        <v>0.01132387788305111</v>
+        <v>0.006333583549570587</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.104880387835785</v>
+        <v>-3.107305009008996</v>
       </c>
       <c r="G281">
-        <v>-0.001563416608694634</v>
+        <v>-0.004650531116230372</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.173893486616213</v>
+        <v>-3.174350477550608</v>
       </c>
       <c r="G282">
-        <v>-0.01997147931384369</v>
+        <v>-0.02050308768040354</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.224309831594119</v>
+        <v>-3.224303325402429</v>
       </c>
       <c r="G283">
-        <v>-0.01926952974647533</v>
+        <v>-0.01926302355478549</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.264934575104416</v>
+        <v>-3.265220976351211</v>
       </c>
       <c r="G284">
-        <v>-0.008594765728006548</v>
+        <v>-0.00898776252612854</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6947,10 +6947,10 @@
         <v>2869</v>
       </c>
       <c r="F285">
-        <v>-3.307426125802522</v>
+        <v>-3.30742612580266</v>
       </c>
       <c r="G285">
-        <v>0</v>
+        <v>-1.381117442633695e-13</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6970,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>-2.810502834326656</v>
+        <v>-2.810502834325307</v>
       </c>
       <c r="G286">
-        <v>0</v>
+        <v>1.34869893031464e-12</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.849444104584431</v>
+        <v>-2.85036477933502</v>
       </c>
       <c r="G287">
-        <v>0.01295664369741134</v>
+        <v>0.01157125731901232</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.892767204661209</v>
+        <v>-2.895021883242668</v>
       </c>
       <c r="G288">
-        <v>0.02119309537294267</v>
+        <v>0.01834735573873969</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.940958642122669</v>
+        <v>-2.94390909322686</v>
       </c>
       <c r="G289">
-        <v>0.02429479661630696</v>
+        <v>0.02089334808192378</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-2.994536474001739</v>
+        <v>-2.998142891945056</v>
       </c>
       <c r="G290">
-        <v>0.02235627387483707</v>
+        <v>0.01809275169110358</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.052540059497043</v>
+        <v>-3.056097823156727</v>
       </c>
       <c r="G291">
-        <v>0.01546765924993498</v>
+        <v>0.01157102280680866</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.11553077896585</v>
+        <v>-3.118496508475197</v>
       </c>
       <c r="G292">
-        <v>0.003571269325061577</v>
+        <v>0.0006055398157138736</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.184060646152092</v>
+        <v>-3.185179772536009</v>
       </c>
       <c r="G293">
-        <v>-0.01327439198260727</v>
+        <v>-0.01464452191772159</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.24006619411189</v>
+        <v>-3.240161202234405</v>
       </c>
       <c r="G294">
-        <v>-0.01804820207811608</v>
+        <v>-0.01819274928874237</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.2817971857007</v>
+        <v>-3.282141449427837</v>
       </c>
       <c r="G295">
-        <v>-0.00817089169261398</v>
+        <v>-0.008739794154797975</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7200,10 +7200,10 @@
         <v>3871</v>
       </c>
       <c r="F296">
-        <v>-3.32496775993201</v>
+        <v>-3.324967759930202</v>
       </c>
       <c r="G296">
-        <v>0</v>
+        <v>1.808331262509455e-12</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7223,10 +7223,10 @@
         <v>0</v>
       </c>
       <c r="F297">
-        <v>-2.822735089673319</v>
+        <v>-2.822735089670116</v>
       </c>
       <c r="G297">
-        <v>0</v>
+        <v>3.202771381438652e-12</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7246,10 +7246,10 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.86104251201333</v>
+        <v>-2.862438222328202</v>
       </c>
       <c r="G298">
-        <v>0.0134278367533347</v>
+        <v>0.01193677636712742</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7269,10 +7269,10 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.903932580962388</v>
+        <v>-2.906831721073728</v>
       </c>
       <c r="G299">
-        <v>0.02245305806831688</v>
+        <v>0.01918318664361163</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7292,10 +7292,10 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.951551665943078</v>
+        <v>-2.955146538487834</v>
       </c>
       <c r="G300">
-        <v>0.02658210886284396</v>
+        <v>0.0225082782515158</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7315,10 +7315,10 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.004365947985548</v>
+        <v>-3.008255136469499</v>
       </c>
       <c r="G301">
-        <v>0.02503043114002912</v>
+        <v>0.02114124265607797</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7338,10 +7338,10 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.062109101275306</v>
+        <v>-3.065757306119379</v>
       </c>
       <c r="G302">
-        <v>0.01897863340874983</v>
+        <v>0.0152789820282091</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7361,10 +7361,10 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.124738204833763</v>
+        <v>-3.127147924567278</v>
       </c>
       <c r="G303">
-        <v>0.008178389124190444</v>
+        <v>0.005528272602320472</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7384,10 +7384,10 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.19263745562414</v>
+        <v>-3.194109835687287</v>
       </c>
       <c r="G304">
-        <v>-0.007934968867980174</v>
+        <v>-0.009692076131461391</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7407,10 +7407,10 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.25292761488405</v>
+        <v>-3.253049360694035</v>
       </c>
       <c r="G305">
-        <v>-0.01676451457260242</v>
+        <v>-0.01699169211619933</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7430,10 +7430,10 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.295963742340676</v>
+        <v>-3.296135596428136</v>
       </c>
       <c r="G306">
-        <v>-0.008083293771724176</v>
+        <v>-0.008438018828289817</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7453,10 +7453,10 @@
         <v>5083</v>
       </c>
       <c r="F307">
-        <v>-3.339439139986073</v>
+        <v>-3.339439139983</v>
       </c>
       <c r="G307">
-        <v>0</v>
+        <v>3.072653242952583e-12</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="F308">
-        <v>-2.832997797461241</v>
+        <v>-2.832997797458318</v>
       </c>
       <c r="G308">
-        <v>0</v>
+        <v>2.922551090023262e-12</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7499,10 +7499,10 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.870929823200496</v>
+        <v>-2.872051921849963</v>
       </c>
       <c r="G309">
-        <v>0.01388650089390397</v>
+        <v>0.01276440224443665</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7522,10 +7522,10 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.913513747401933</v>
+        <v>-2.916011270669618</v>
       </c>
       <c r="G310">
-        <v>0.02330696833196289</v>
+        <v>0.02070305632578373</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7545,10 +7545,10 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.961064794423399</v>
+        <v>-2.963722911041733</v>
       </c>
       <c r="G311">
-        <v>0.02768593111780571</v>
+        <v>0.02480994258682867</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7568,10 +7568,10 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.013397528485081</v>
+        <v>-3.015960340425091</v>
       </c>
       <c r="G312">
-        <v>0.02756924380507231</v>
+        <v>0.02447051610447293</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7591,10 +7591,10 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.070382081238225</v>
+        <v>-3.073481391093787</v>
       </c>
       <c r="G313">
-        <v>0.02244691826653544</v>
+        <v>0.01876799206893565</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7614,10 +7614,10 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.132626191134063</v>
+        <v>-3.13539140834092</v>
       </c>
       <c r="G314">
-        <v>0.01169378425990431</v>
+        <v>0.008755977722804786</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7637,10 +7637,10 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.199630287196292</v>
+        <v>-3.200896213560651</v>
       </c>
       <c r="G315">
-        <v>-0.003592490380234903</v>
+        <v>-0.004930300863767112</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7660,10 +7660,10 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.264452717279458</v>
+        <v>-3.264455306889649</v>
       </c>
       <c r="G316">
-        <v>-0.01647337293718476</v>
+        <v>-0.01659139129176268</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7683,10 +7683,10 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.308015687590328</v>
+        <v>-3.308153290133734</v>
       </c>
       <c r="G317">
-        <v>-0.008293715662746837</v>
+        <v>-0.008470847902688372</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7706,10 +7706,10 @@
         <v>6525</v>
       </c>
       <c r="F318">
-        <v>-3.351580445132047</v>
+        <v>-3.351580445127946</v>
       </c>
       <c r="G318">
-        <v>0</v>
+        <v>4.101163852965328e-12</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="F319">
-        <v>-2.8417306772002</v>
+        <v>-2.841730677199684</v>
       </c>
       <c r="G319">
-        <v>0</v>
+        <v>5.155875726359227e-13</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7752,10 +7752,10 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-2.87934071184763</v>
+        <v>-2.880521710464243</v>
       </c>
       <c r="G320">
-        <v>0.01458109501992988</v>
+        <v>0.0131827737639747</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7775,10 +7775,10 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-2.921593484454821</v>
+        <v>-2.923985729692207</v>
       </c>
       <c r="G321">
-        <v>0.0243833571292118</v>
+        <v>0.02175586705370858</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -7798,10 +7798,10 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-2.968705568464792</v>
+        <v>-2.971253590038265</v>
       </c>
       <c r="G322">
-        <v>0.02958865680335343</v>
+        <v>0.02652511922534906</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -7821,10 +7821,10 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.02049642399396</v>
+        <v>-3.023381983047854</v>
       </c>
       <c r="G323">
-        <v>0.02925609229767145</v>
+        <v>0.02637053324377758</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -7844,10 +7844,10 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.077316983720144</v>
+        <v>-3.080225873398986</v>
       </c>
       <c r="G324">
-        <v>0.02447264508918567</v>
+        <v>0.02156375541034294</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -7867,10 +7867,10 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.139163742488245</v>
+        <v>-3.141205399416102</v>
       </c>
       <c r="G325">
-        <v>0.01486809422060476</v>
+        <v>0.01262134191092579</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -7890,10 +7890,10 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.205674714462371</v>
+        <v>-3.207241042722747</v>
       </c>
       <c r="G326">
-        <v>0.000536327051499641</v>
+        <v>-0.001440494367701439</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -7913,10 +7913,10 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.27482883485337</v>
+        <v>-3.274823309593062</v>
       </c>
       <c r="G327">
-        <v>-0.01698108216293914</v>
+        <v>-0.01698564872031805</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -7936,10 +7936,10 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.318437616839163</v>
+        <v>-3.318545438485084</v>
       </c>
       <c r="G328">
-        <v>-0.008476773571831742</v>
+        <v>-0.008670665094642316</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -7959,10 +7959,10 @@
         <v>8217</v>
       </c>
       <c r="F329">
-        <v>-3.36191188590814</v>
+        <v>-3.361911885903178</v>
       </c>
       <c r="G329">
-        <v>0</v>
+        <v>4.96269692007445e-12</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -7982,10 +7982,10 @@
         <v>0</v>
       </c>
       <c r="F330">
-        <v>-2.849251743704464</v>
+        <v>-2.849251743705888</v>
       </c>
       <c r="G330">
-        <v>0</v>
+        <v>-1.424194095989151e-12</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8005,10 +8005,10 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-2.886697996858204</v>
+        <v>-2.887524593644133</v>
       </c>
       <c r="G331">
-        <v>0.01495431908626621</v>
+        <v>0.01383682992992341</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8028,10 +8028,10 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-2.928655173028292</v>
+        <v>-2.930429644858066</v>
       </c>
       <c r="G332">
-        <v>0.02506801193753017</v>
+        <v>0.02309269720885743</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -8051,10 +8051,10 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-2.975594534228458</v>
+        <v>-2.977749293131763</v>
       </c>
       <c r="G333">
-        <v>0.03030920764066147</v>
+        <v>0.02793396742802745</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8074,10 +8074,10 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.027208657745855</v>
+        <v>-3.029311631643274</v>
       </c>
       <c r="G334">
-        <v>0.03063552130680125</v>
+        <v>0.02853254740938227</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8097,10 +8097,10 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.083877789633674</v>
+        <v>-3.086141586582403</v>
       </c>
       <c r="G335">
-        <v>0.02693207204719927</v>
+        <v>0.02386351096312023</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -8120,10 +8120,10 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.144854661228687</v>
+        <v>-3.147032813853341</v>
       </c>
       <c r="G336">
-        <v>0.01760774718771385</v>
+        <v>0.01513320218504921</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -8143,10 +8143,10 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.211040921982686</v>
+        <v>-3.212381942863364</v>
       </c>
       <c r="G337">
-        <v>0.003427954472524086</v>
+        <v>0.001944991667893192</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -8166,10 +8166,10 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.28176247531101</v>
+        <v>-3.281807729102533</v>
       </c>
       <c r="G338">
-        <v>-0.01527462228688614</v>
+        <v>-0.01531987607840912</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -8189,10 +8189,10 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.327483074948206</v>
+        <v>-3.327497022862997</v>
       </c>
       <c r="G339">
-        <v>-0.008786254620077594</v>
+        <v>-0.008848251346007474</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8212,10 +8212,10 @@
         <v>10179</v>
       </c>
       <c r="F340">
-        <v>-3.370809690009857</v>
+        <v>-3.370809690004235</v>
       </c>
       <c r="G340">
-        <v>0</v>
+        <v>5.621725307491943e-12</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.410658635541279</v>
+        <v>-2.411296817359462</v>
       </c>
       <c r="G21">
         <v>-0.0127355560074407</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.433622930299439</v>
+        <v>-2.434261112117622</v>
       </c>
       <c r="G23">
         <v>-0.01999959659223549</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.455242350405794</v>
+        <v>-2.4565872250576</v>
       </c>
       <c r="G25">
         <v>-0.02591876252522507</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.553256765684096</v>
+        <v>-2.553807298683331</v>
       </c>
       <c r="G36">
         <v>-0.03758177985002109</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.559723924594625</v>
+        <v>-2.56082499059309</v>
       </c>
       <c r="G37">
         <v>-0.03619881167386718</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.58025345044011</v>
+        <v>-2.581374069720287</v>
       </c>
       <c r="G40">
         <v>-0.03317795625930486</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.587263712516147</v>
+        <v>-2.588099288655849</v>
       </c>
       <c r="G41">
         <v>-0.03233809124865927</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.594050327516306</v>
+        <v>-2.594566447566378</v>
       </c>
       <c r="G42">
         <v>-0.03127457916213583</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.609749433781508</v>
+        <v>-2.610007493806545</v>
       </c>
       <c r="G44">
         <v>-0.03127343125397308</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.615381016552335</v>
+        <v>-2.61563907657737</v>
       </c>
       <c r="G45">
         <v>-0.02905488693811797</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.666758221928997</v>
+        <v>-2.667593798068698</v>
       </c>
       <c r="G52">
         <v>-0.02548120270800269</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.682199268169162</v>
+        <v>-2.683034844308871</v>
       </c>
       <c r="G54">
         <v>-0.02522199477480291</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.690337579359102</v>
+        <v>-2.691173155498805</v>
       </c>
       <c r="G55">
         <v>-0.02551017887805973</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.545492887427886</v>
+        <v>-2.54567609613487</v>
       </c>
       <c r="G77">
         <v>-0.002577524577904722</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.55159714650341</v>
+        <v>-2.552230333222256</v>
       </c>
       <c r="G79">
         <v>-0.002387871445618472</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.560936796283425</v>
+        <v>-2.561907992790317</v>
       </c>
       <c r="G82">
         <v>-0.00228665291391783</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.570040346841422</v>
+        <v>-2.571445006107968</v>
       </c>
       <c r="G85">
         <v>-0.001949335160199794</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.576124844282792</v>
+        <v>-2.576869164608083</v>
       </c>
       <c r="G86">
         <v>-0.004886876497664172</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.583361542367142</v>
+        <v>-2.584913133042455</v>
       </c>
       <c r="G89">
         <v>-0.002682706270299207</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.589182051711316</v>
+        <v>-2.590394797981208</v>
       </c>
       <c r="G90">
         <v>-0.005356259510567618</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.591798410527617</v>
+        <v>-2.593201130158747</v>
       </c>
       <c r="G91">
         <v>-0.004825662222964322</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.600838531976848</v>
+        <v>-2.602161991067045</v>
       </c>
       <c r="G93">
         <v>-0.007571871464385094</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.603526020145687</v>
+        <v>-2.604956733571492</v>
       </c>
       <c r="G94">
         <v>-0.00711240352931819</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.608475092222676</v>
+        <v>-2.610941582903781</v>
       </c>
       <c r="G95">
         <v>-0.00891451950240274</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.612016094687831</v>
+        <v>-2.612208007684488</v>
       </c>
       <c r="G96">
         <v>-0.009308565863652696</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.613702984836447</v>
+        <v>-2.615805101914733</v>
       </c>
       <c r="G97">
         <v>-0.007848499908363227</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.618421460731032</v>
+        <v>-2.618807167650003</v>
       </c>
       <c r="G98">
         <v>-0.009420019699042825</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.629643946320149</v>
+        <v>-2.630687013191566</v>
       </c>
       <c r="G101">
         <v>-0.01120163697644472</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.634031802603102</v>
+        <v>-2.635765562632004</v>
       </c>
       <c r="G102">
         <v>-0.01244253715549304</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.645191442343224</v>
+        <v>-2.646048415124231</v>
       </c>
       <c r="G105">
         <v>-0.01416130858389941</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.650119181104057</v>
+        <v>-2.650777055448022</v>
       </c>
       <c r="G106">
         <v>-0.01594209124082702</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.660823492851598</v>
+        <v>-2.662407481554288</v>
       </c>
       <c r="G109">
         <v>-0.01720553467665309</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.67435735838525</v>
+        <v>-2.674730540453468</v>
       </c>
       <c r="G112">
         <v>-0.02129853189858966</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.695761116088831</v>
+        <v>-2.696447509189348</v>
       </c>
       <c r="G117">
         <v>-0.02696750908264511</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.704726802015974</v>
+        <v>-2.704784833416485</v>
       </c>
       <c r="G119">
         <v>-0.02963928280197758</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.714062784627914</v>
+        <v>-2.714644704600504</v>
       </c>
       <c r="G121">
         <v>-0.03268135320610721</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.775940439865901</v>
+        <v>-2.776232878947437</v>
       </c>
       <c r="G139">
         <v>-0.0379137985738025</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.778648907921436</v>
+        <v>-2.779233786084508</v>
       </c>
       <c r="G140">
         <v>-0.03747531052543218</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.780853570221813</v>
+        <v>-2.781357375976973</v>
       </c>
       <c r="G141">
         <v>-0.03653301672190445</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.786189433924968</v>
+        <v>-2.786229970128927</v>
       </c>
       <c r="G143">
         <v>-0.03557496821724859</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.794406006222953</v>
+        <v>-2.794607277173107</v>
       </c>
       <c r="G146">
         <v>-0.03435067220351851</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.797023306147105</v>
+        <v>-2.797608184310182</v>
       </c>
       <c r="G147">
         <v>-0.03382101602376508</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.802440242258176</v>
+        <v>-2.803317559502783</v>
       </c>
       <c r="G149">
         <v>-0.03294403992702666</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.80514871031371</v>
+        <v>-2.805481685599206</v>
       </c>
       <c r="G150">
         <v>-0.03250555187865456</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.813858992643388</v>
+        <v>-2.814151431724924</v>
       </c>
       <c r="G153">
         <v>-0.03177496589661732</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.838649252836611</v>
+        <v>-2.838961883365071</v>
       </c>
       <c r="G162">
         <v>-0.02824262115469423</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.848788144076897</v>
+        <v>-2.849100774605356</v>
       </c>
       <c r="G166">
         <v>-0.02579368797935999</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.851705421357848</v>
+        <v>-2.852495231368696</v>
       </c>
       <c r="G167">
         <v>-0.02556400915640611</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.854407454587537</v>
+        <v>-2.85463916601819</v>
       </c>
       <c r="G168">
         <v>-0.02511908628218995</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.85686401976549</v>
+        <v>-2.857095731196145</v>
       </c>
       <c r="G169">
         <v>-0.02442869535623815</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.865171606884743</v>
+        <v>-2.865715948843857</v>
       </c>
       <c r="G172">
         <v>-0.02329541416377523</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.875623128653492</v>
+        <v>-2.876480101141067</v>
       </c>
       <c r="G176">
         <v>-0.02115911151690419</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.877998774733638</v>
+        <v>-2.878079693831444</v>
       </c>
       <c r="G177">
         <v>-0.02038780149314412</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.88060342148613</v>
+        <v>-2.881161520066322</v>
       </c>
       <c r="G178">
         <v>-0.01984549214173159</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.886780830576964</v>
+        <v>-2.887244253438273</v>
       </c>
       <c r="G180">
         <v>-0.01972898902475606</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.889700818616227</v>
+        <v>-2.890326079673154</v>
       </c>
       <c r="G181">
         <v>-0.01950202096011355</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.894926579500602</v>
+        <v>-2.895239210029063</v>
       </c>
       <c r="G183">
         <v>-0.01843386963667804</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.90331508571766</v>
+        <v>-2.904172058205238</v>
       </c>
       <c r="G186">
         <v>-0.01738150754202028</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.90877255803269</v>
+        <v>-2.909166107658954</v>
       </c>
       <c r="G188">
         <v>-0.01654506764924024</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.917392775680397</v>
+        <v>-2.918018036737319</v>
       </c>
       <c r="G191">
         <v>-0.01572441698523186</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-2.92078723244374</v>
+        <v>-2.9210998629722</v>
       </c>
       <c r="G192">
         <v>-0.01597191764466982</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-2.934320580447362</v>
+        <v>-2.934714130073631</v>
       </c>
       <c r="G197">
         <v>-0.01377048512876616</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-2.93740240668224</v>
+        <v>-2.937715037210698</v>
       </c>
       <c r="G198">
         <v>-0.01370535525973954</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-2.940484232917116</v>
+        <v>-2.940796863445579</v>
       </c>
       <c r="G199">
         <v>-0.01364022539071064</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.942940798095074</v>
+        <v>-2.943253428623535</v>
       </c>
       <c r="G200">
         <v>-0.01294983446476272</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-2.946022624329949</v>
+        <v>-2.946960515915337</v>
       </c>
       <c r="G201">
         <v>-0.01288470459573293</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-2.949104450564829</v>
+        <v>-2.94941708109329</v>
       </c>
       <c r="G202">
         <v>-0.01281957472670803</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.716483734215324</v>
+        <v>-2.718343088834605</v>
       </c>
       <c r="G222">
         <v>-4.202000352337976e-05</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.774166401221754</v>
+        <v>-2.775772105137691</v>
       </c>
       <c r="G223">
         <v>-0.009578878906208343</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.836616047263415</v>
+        <v>-2.836900686881031</v>
       </c>
       <c r="G224">
         <v>-0.02388271684412491</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.897260410155522</v>
+        <v>-2.897391575168136</v>
       </c>
       <c r="G225">
         <v>-0.03638127163248717</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.939484022343069</v>
+        <v>-2.940031815528215</v>
       </c>
       <c r="G226">
         <v>-0.03045907571628925</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.981421673534949</v>
+        <v>-2.981508319785302</v>
       </c>
       <c r="G227">
         <v>-0.02425091880442487</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.829343151236155</v>
+        <v>-2.830084617874592</v>
       </c>
       <c r="G234">
         <v>-0.0004034434135520293</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.13181761356028</v>
+        <v>-3.131892602651948</v>
       </c>
       <c r="G240">
         <v>-0.008845917683053484</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.765562315834093</v>
+        <v>-2.765737015459748</v>
       </c>
       <c r="G243">
         <v>0.00769992751333648</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.81325108133848</v>
+        <v>-2.813768915285834</v>
       </c>
       <c r="G244">
         <v>0.009704282822607713</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.866940394025896</v>
+        <v>-2.866982704013658</v>
       </c>
       <c r="G245">
         <v>0.005708090948849831</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.051333261311306</v>
+        <v>-3.051387216219581</v>
       </c>
       <c r="G248">
         <v>-0.02906527127804548</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.099274030136171</v>
+        <v>-3.099311821163445</v>
       </c>
       <c r="G249">
         <v>-0.02677277667171218</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.138886592232752</v>
+        <v>-3.139139689729471</v>
       </c>
       <c r="G250">
         <v>-0.01669221795463449</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.181131360401366</v>
+        <v>-3.18114789142045</v>
       </c>
       <c r="G251">
         <v>-0.009243865309590149</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.795539480748022</v>
+        <v>-2.796069336396791</v>
       </c>
       <c r="G254">
         <v>0.008753289568131262</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.894560559590325</v>
+        <v>-2.895469414962832</v>
       </c>
       <c r="G256">
         <v>0.01055872809475189</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.131415779944449</v>
+        <v>-3.131561120222352</v>
       </c>
       <c r="G260">
         <v>-0.02464345752152652</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.217447008174765</v>
+        <v>-3.217511964623786</v>
       </c>
       <c r="G262">
         <v>-0.009848168382920242</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.817545806170651</v>
+        <v>-2.81823570154469</v>
       </c>
       <c r="G265">
         <v>0.01045204152333135</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.91544628083652</v>
+        <v>-2.915527015190549</v>
       </c>
       <c r="G267">
         <v>0.01437843774037373</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.970514964006869</v>
+        <v>-2.970911967722139</v>
       </c>
       <c r="G268">
         <v>0.009976037412250616</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.029995017905936</v>
+        <v>-3.030172720218364</v>
       </c>
       <c r="G269">
         <v>0.001409418954638753</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.093539305101378</v>
+        <v>-3.093912684543692</v>
       </c>
       <c r="G270">
         <v>-0.01122143279934718</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.244425227479366</v>
+        <v>-3.244524587657878</v>
       </c>
       <c r="G273">
         <v>-0.009614201452197935</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.835776494121848</v>
+        <v>-2.836130426125764</v>
       </c>
       <c r="G276">
         <v>0.0109134238837223</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.881180728577164</v>
+        <v>-2.881272631201746</v>
       </c>
       <c r="G277">
         <v>0.01670210140584549</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.985865962278002</v>
+        <v>-2.986062648772696</v>
       </c>
       <c r="G279">
         <v>0.01440269165988517</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.045127982365756</v>
+        <v>-3.045233132022384</v>
       </c>
       <c r="G280">
         <v>0.006333583549570587</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.224303325402429</v>
+        <v>-3.22432764127428</v>
       </c>
       <c r="G283">
         <v>-0.01926302355478549</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.895021883242668</v>
+        <v>-2.895096734103244</v>
       </c>
       <c r="G288">
         <v>0.01834735573873969</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.94390909322686</v>
+        <v>-2.944397007999181</v>
       </c>
       <c r="G289">
         <v>0.02089334808192378</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.862438222328202</v>
+        <v>-2.862515666762896</v>
       </c>
       <c r="G298">
         <v>0.01193677636712742</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.955146538487834</v>
+        <v>-2.955289461090561</v>
       </c>
       <c r="G300">
         <v>0.0225082782515158</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.127147924567278</v>
+        <v>-3.127356414646585</v>
       </c>
       <c r="G303">
         <v>0.005528272602320472</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.296135596428136</v>
+        <v>-3.296257730738682</v>
       </c>
       <c r="G306">
         <v>-0.008438018828289817</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.015960340425091</v>
+        <v>-3.016315931505781</v>
       </c>
       <c r="G312">
         <v>0.02447051610447293</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.200896213560651</v>
+        <v>-3.201143033609699</v>
       </c>
       <c r="G315">
         <v>-0.004930300863767112</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.264455306889649</v>
+        <v>-3.264466061808159</v>
       </c>
       <c r="G316">
         <v>-0.01659139129176268</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.308153290133734</v>
+        <v>-3.308217815011752</v>
       </c>
       <c r="G317">
         <v>-0.008470847902688372</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-2.880521710464243</v>
+        <v>-2.880956029372484</v>
       </c>
       <c r="G320">
         <v>0.0131827737639747</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-2.971253590038265</v>
+        <v>-2.97135558700226</v>
       </c>
       <c r="G322">
         <v>0.02652511922534906</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.080225873398986</v>
+        <v>-3.08062580524093</v>
       </c>
       <c r="G324">
         <v>0.02156375541034294</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.141205399416102</v>
+        <v>-3.141466282222761</v>
       </c>
       <c r="G325">
         <v>0.01262134191092579</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.274823309593062</v>
+        <v>-3.274835823679298</v>
       </c>
       <c r="G327">
         <v>-0.01698564872031805</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-2.887524593644133</v>
+        <v>-2.887770858950168</v>
       </c>
       <c r="G331">
         <v>0.01383682992992341</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-2.930429644858066</v>
+        <v>-2.930734787731363</v>
       </c>
       <c r="G332">
         <v>0.02309269720885743</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.029311631643274</v>
+        <v>-3.029396006560981</v>
       </c>
       <c r="G334">
         <v>0.02853254740938227</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.212381942863364</v>
+        <v>-3.212435644892019</v>
       </c>
       <c r="G337">
         <v>0.001944991667893192</v>
@@ -8166,7 +8166,7 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.281807729102533</v>
+        <v>-3.281872534537297</v>
       </c>
       <c r="G338">
         <v>-0.01531987607840912</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.327497022862997</v>
+        <v>-3.327519806119961</v>
       </c>
       <c r="G339">
         <v>-0.008848251346007474</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.411296817359462</v>
+        <v>-2.411934999177642</v>
       </c>
       <c r="G21">
         <v>-0.0127355560074407</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.444147804951247</v>
+        <v>-2.445424168587611</v>
       </c>
       <c r="G24">
         <v>-0.02267434415736114</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.61563907657737</v>
+        <v>-2.618723321111149</v>
       </c>
       <c r="G45">
         <v>-0.02905488693811797</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.644850016778299</v>
+        <v>-2.647098685172375</v>
       </c>
       <c r="G49">
         <v>-0.02712337881735205</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.667593798068698</v>
+        <v>-2.668429374208406</v>
       </c>
       <c r="G52">
         <v>-0.02548120270800269</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.683034844308871</v>
+        <v>-2.684705996588276</v>
       </c>
       <c r="G54">
         <v>-0.02522199477480291</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.548770005971579</v>
+        <v>-2.54937519889575</v>
       </c>
       <c r="G78">
         <v>-0.002707687017692528</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.552230333222256</v>
+        <v>-2.552891092949648</v>
       </c>
       <c r="G79">
         <v>-0.002387871445618472</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.555929435983138</v>
+        <v>-2.555985002786358</v>
       </c>
       <c r="G80">
         <v>-0.003573204821441411</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.561907992790317</v>
+        <v>-2.563677550621545</v>
       </c>
       <c r="G82">
         <v>-0.00228665291391783</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.571445006107968</v>
+        <v>-2.573227982117088</v>
       </c>
       <c r="G85">
         <v>-0.001949335160199794</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.579851940838352</v>
+        <v>-2.580431500389398</v>
       </c>
       <c r="G87">
         <v>-0.00546701694931917</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.584913133042455</v>
+        <v>-2.587226625838015</v>
       </c>
       <c r="G89">
         <v>-0.002682706270299207</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.666149409521172</v>
+        <v>-2.66744934677387</v>
       </c>
       <c r="G221">
         <v>0.002146496586884261</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.674060956979232</v>
+        <v>-2.67469243932477</v>
       </c>
       <c r="G53">
         <v>-0.02493381067155487</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.573227982117088</v>
+        <v>-2.573564052269712</v>
       </c>
       <c r="G85">
         <v>-0.001949335160199794</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -441,7 +441,7 @@
         <v>-1.984661672509521</v>
       </c>
       <c r="G2">
-        <v>-1.77635683940025e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>-2.058603744503724</v>
       </c>
       <c r="G3">
-        <v>-0.04599637960423975</v>
+        <v>-0.04599637960423864</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>-2.074350761232194</v>
       </c>
       <c r="G4">
-        <v>-0.03379770394274528</v>
+        <v>-0.03379770394274462</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>-2.094280599974568</v>
       </c>
       <c r="G5">
-        <v>-0.02578185029515501</v>
+        <v>-0.02578185029515478</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>-2.118393260730846</v>
       </c>
       <c r="G6">
-        <v>-0.02194881866146803</v>
+        <v>-0.02194881866146825</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>-2.13832309947322</v>
       </c>
       <c r="G7">
-        <v>-0.01393296501387731</v>
+        <v>-0.01393296501387775</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,7 +579,7 @@
         <v>-2.162435760229497</v>
       </c>
       <c r="G8">
-        <v>-0.01009993338019055</v>
+        <v>-0.01009993338019166</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>-2.186548420985775</v>
       </c>
       <c r="G9">
-        <v>-0.006266901746503128</v>
+        <v>-0.006266901746504794</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>-2.210661081742052</v>
       </c>
       <c r="G10">
-        <v>-0.002433870112816039</v>
+        <v>-0.002433870112818037</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>-2.23477374249833</v>
       </c>
       <c r="G11">
-        <v>0.001399161520871051</v>
+        <v>0.001399161520868497</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>-2.263069225268511</v>
       </c>
       <c r="G12">
-        <v>0.001049371140654065</v>
+        <v>0.001049371140651123</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>-2.287181886024789</v>
       </c>
       <c r="G13">
-        <v>0.004882402774341377</v>
+        <v>0.00488240277433788</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -717,7 +717,7 @@
         <v>-2.31547736879497</v>
       </c>
       <c r="G14">
-        <v>0.004532612394124558</v>
+        <v>0.0045326123941207</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -740,7 +740,7 @@
         <v>-2.347955673579055</v>
       </c>
       <c r="G15">
-        <v>4.440892098500626e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -763,7 +763,7 @@
         <v>-2.358672444100425</v>
       </c>
       <c r="G16">
-        <v>1.332267629550188e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,7 +786,7 @@
         <v>-2.368559136934052</v>
       </c>
       <c r="G17">
-        <v>-0.002036565746942554</v>
+        <v>-0.002036565746943886</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -809,7 +809,7 @@
         <v>-2.379084011585859</v>
       </c>
       <c r="G18">
-        <v>-0.004711313312067311</v>
+        <v>-0.004711313312068199</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -829,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-2.390247068055846</v>
+        <v>-2.390247068055847</v>
       </c>
       <c r="G19">
-        <v>-0.008024242695372497</v>
+        <v>-0.008024242695374273</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.411934999177642</v>
+        <v>-2.411934999177643</v>
       </c>
       <c r="G21">
-        <v>-0.0127355560074407</v>
+        <v>-0.01401191964380422</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.423098055647633</v>
+        <v>-2.421183510193086</v>
       </c>
       <c r="G22">
-        <v>-0.01732484902711162</v>
+        <v>-0.01541030357256457</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.434261112117622</v>
+        <v>-2.432346566663075</v>
       </c>
       <c r="G23">
-        <v>-0.01999959659223549</v>
+        <v>-0.01872323295587064</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.445424168587611</v>
+        <v>-2.438317158805241</v>
       </c>
       <c r="G24">
-        <v>-0.02267434415736114</v>
+        <v>-0.01684369801135421</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.4565872250576</v>
+        <v>-2.449737859822065</v>
       </c>
       <c r="G25">
-        <v>-0.02591876252522507</v>
+        <v>-0.0204142719414957</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.468319952330329</v>
+        <v>-2.461607609125678</v>
       </c>
       <c r="G26">
-        <v>-0.0311462373630782</v>
+        <v>-0.0244338941584259</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.480759372436684</v>
+        <v>-2.463124428959795</v>
       </c>
       <c r="G27">
-        <v>-0.03573553038275024</v>
+        <v>-0.01810058690585992</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.493198792543037</v>
+        <v>-2.480799231283031</v>
       </c>
       <c r="G28">
-        <v>-0.04032482340242116</v>
+        <v>-0.02792526214241309</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.506276394467572</v>
+        <v>-2.492273898530724</v>
       </c>
       <c r="G29">
-        <v>-0.0455522982402734</v>
+        <v>-0.03154980230342308</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.513028596518571</v>
+        <v>-2.484826210323354</v>
       </c>
       <c r="G30">
-        <v>-0.04445437320459056</v>
+        <v>-0.01625198700937069</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.51978079856957</v>
+        <v>-2.504942726493019</v>
       </c>
       <c r="G31">
-        <v>-0.04335644816890727</v>
+        <v>-0.02851837609235308</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.52653300062057</v>
+        <v>-2.510441929515006</v>
       </c>
       <c r="G32">
-        <v>-0.04225852313322376</v>
+        <v>-0.02616745202765713</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.53328520267157</v>
+        <v>-2.522585258139076</v>
       </c>
       <c r="G33">
-        <v>-0.0411605980975418</v>
+        <v>-0.03046065356504446</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.540037404722568</v>
+        <v>-2.52167503097666</v>
       </c>
       <c r="G34">
-        <v>-0.04006267306185762</v>
+        <v>-0.02170029931594608</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.546789606773568</v>
+        <v>-2.531841129566473</v>
       </c>
       <c r="G35">
-        <v>-0.03896474802617522</v>
+        <v>-0.02401627081907609</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.553807298683331</v>
+        <v>-2.529299049505627</v>
       </c>
       <c r="G36">
-        <v>-0.03758177985002109</v>
+        <v>-0.01362406367154745</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.56082499059309</v>
+        <v>-2.552411015550837</v>
       </c>
       <c r="G37">
-        <v>-0.03619881167386718</v>
+        <v>-0.02888590263007518</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.567319132619057</v>
+        <v>-2.5634876911256</v>
       </c>
       <c r="G38">
-        <v>-0.03594389261161623</v>
+        <v>-0.03211245111815542</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.574071334670056</v>
+        <v>-2.563257582193602</v>
       </c>
       <c r="G39">
-        <v>-0.03484596757593317</v>
+        <v>-0.02403221509947473</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.581374069720287</v>
+        <v>-2.571992138789487</v>
       </c>
       <c r="G40">
-        <v>-0.03317795625930486</v>
+        <v>-0.02491664460867704</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.588099288655849</v>
+        <v>-2.581781318616039</v>
       </c>
       <c r="G41">
-        <v>-0.03233809124865927</v>
+        <v>-0.02685569734854609</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.594566447566378</v>
+        <v>-2.589236717057903</v>
       </c>
       <c r="G42">
-        <v>-0.03127457916213583</v>
+        <v>-0.02646096870372738</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.601033606476906</v>
+        <v>-2.59020490070366</v>
       </c>
       <c r="G43">
-        <v>-0.03040773103605354</v>
+        <v>-0.01957902526280253</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.610007493806545</v>
+        <v>-2.60107739871422</v>
       </c>
       <c r="G44">
-        <v>-0.03127343125397308</v>
+        <v>-0.02260139618667889</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.618723321111149</v>
+        <v>-2.606121185982742</v>
       </c>
       <c r="G45">
-        <v>-0.02905488693811797</v>
+        <v>-0.01979505636851786</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.625190480021678</v>
+        <v>-2.614979672423823</v>
       </c>
       <c r="G46">
-        <v>-0.03101422332077863</v>
+        <v>-0.02080341572291644</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.631915698957243</v>
+        <v>-2.629150910513097</v>
       </c>
       <c r="G47">
-        <v>-0.02988931516966087</v>
+        <v>-0.02712452672550825</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.638960373982441</v>
+        <v>-2.634514153871246</v>
       </c>
       <c r="G48">
-        <v>-0.0290838631081759</v>
+        <v>-0.02463764299697435</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.647098685172375</v>
+        <v>-2.644618939868701</v>
       </c>
       <c r="G49">
-        <v>-0.02712337881735205</v>
+        <v>-0.0268923019077465</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.652988327968238</v>
+        <v>-2.649547478606307</v>
       </c>
       <c r="G50">
-        <v>-0.02741156292060853</v>
+        <v>-0.02397071355866986</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.661126639158172</v>
+        <v>-2.658361850714025</v>
       </c>
       <c r="G51">
-        <v>-0.02769974702386058</v>
+        <v>-0.02493495857970529</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.668429374208406</v>
+        <v>-2.664241214122249</v>
       </c>
       <c r="G52">
-        <v>-0.02548120270800269</v>
+        <v>-0.02296419490124624</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.67469243932477</v>
+        <v>-2.67306056998317</v>
       </c>
       <c r="G53">
-        <v>-0.02493381067155487</v>
+        <v>-0.02393342367548423</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.684705996588276</v>
+        <v>-2.680594381943005</v>
       </c>
       <c r="G54">
-        <v>-0.02522199477480291</v>
+        <v>-0.02361710854863686</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.691173155498805</v>
+        <v>-2.681334760594457</v>
       </c>
       <c r="G55">
-        <v>-0.02551017887805973</v>
+        <v>-0.01650736011340659</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.698475890549035</v>
+        <v>-2.692555295883436</v>
       </c>
       <c r="G56">
-        <v>-0.02579836298131066</v>
+        <v>-0.01987776831570298</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.705778625599271</v>
+        <v>-2.700693607073371</v>
       </c>
       <c r="G57">
-        <v>-0.02525097094486461</v>
+        <v>-0.02016595241895458</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.713916936789206</v>
+        <v>-2.701484988637223</v>
       </c>
       <c r="G58">
-        <v>-0.02553915504811699</v>
+        <v>-0.01310720689612366</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.722055247979141</v>
+        <v>-2.713128974655379</v>
       </c>
       <c r="G59">
-        <v>-0.02582733915136992</v>
+        <v>-0.01690106582759754</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.727753096803211</v>
+        <v>-2.721267285845316</v>
       </c>
       <c r="G60">
-        <v>-0.0236750608887572</v>
+        <v>-0.01718924993085125</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.73345094562728</v>
+        <v>-2.728570020895547</v>
       </c>
       <c r="G61">
-        <v>-0.0215227826261441</v>
+        <v>-0.01664185789439937</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.73914879445135</v>
+        <v>-2.736708332085483</v>
       </c>
       <c r="G62">
-        <v>-0.0193705043635316</v>
+        <v>-0.0169300419976533</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.74484664327542</v>
+        <v>-2.744846643275421</v>
       </c>
       <c r="G63">
-        <v>-0.01721822610091933</v>
+        <v>-0.0172182261009084</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1867,7 +1867,7 @@
         <v>-2.75054449209949</v>
       </c>
       <c r="G64">
-        <v>-0.01506594783830661</v>
+        <v>-0.01506594783829523</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.756242340923559</v>
+        <v>-2.753801878557693</v>
       </c>
       <c r="G65">
-        <v>-0.01291366957569307</v>
+        <v>-0.01047320720981471</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1913,7 +1913,7 @@
         <v>-2.761940189747629</v>
       </c>
       <c r="G66">
-        <v>-0.01076139131308079</v>
+        <v>-0.01076139131306894</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1936,7 +1936,7 @@
         <v>-2.767638038571698</v>
       </c>
       <c r="G67">
-        <v>-0.008609113050467215</v>
+        <v>-0.00860911305045442</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1959,7 +1959,7 @@
         <v>-2.773335887395767</v>
       </c>
       <c r="G68">
-        <v>-0.006456834787854082</v>
+        <v>-0.006456834787841703</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1982,7 +1982,7 @@
         <v>-2.779033736219836</v>
       </c>
       <c r="G69">
-        <v>-0.004304556525240047</v>
+        <v>-0.00430455652522721</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2005,7 +2005,7 @@
         <v>-2.784731585043905</v>
       </c>
       <c r="G70">
-        <v>-0.002152278262626907</v>
+        <v>-0.002152278262614049</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2028,7 +2028,7 @@
         <v>-2.790429433867974</v>
       </c>
       <c r="G71">
-        <v>-1.332267629550188e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2051,7 +2051,7 @@
         <v>-2.527180582330468</v>
       </c>
       <c r="G72">
-        <v>-1.199040866595169e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2074,7 +2074,7 @@
         <v>-2.530879685091349</v>
       </c>
       <c r="G73">
-        <v>-0.000552146656987329</v>
+        <v>-0.0005521466569757827</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2097,7 +2097,7 @@
         <v>-2.534578787852229</v>
       </c>
       <c r="G74">
-        <v>-0.001104293313963556</v>
+        <v>-0.001104293313951121</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2120,7 +2120,7 @@
         <v>-2.53827789061311</v>
       </c>
       <c r="G75">
-        <v>-0.001656439970938894</v>
+        <v>-0.001656439970926016</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.541976993373988</v>
+        <v>-2.541555009156802</v>
       </c>
       <c r="G76">
-        <v>-0.002208586627912457</v>
+        <v>-0.00178660241071249</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.54567609613487</v>
+        <v>-2.545676096134868</v>
       </c>
       <c r="G77">
-        <v>-0.002577524577904722</v>
+        <v>-0.002760733284874028</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.54937519889575</v>
+        <v>-2.548586797264598</v>
       </c>
       <c r="G78">
-        <v>-0.002707687017692528</v>
+        <v>-0.002524478310698353</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.552891092949648</v>
+        <v>-2.552469108732461</v>
       </c>
       <c r="G79">
-        <v>-0.002387871445618472</v>
+        <v>-0.003259833674655432</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.555985002786358</v>
+        <v>-2.555168607360529</v>
       </c>
       <c r="G80">
-        <v>-0.003573204821441411</v>
+        <v>-0.002812376198817912</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.559445330037033</v>
+        <v>-2.558362165306323</v>
       </c>
       <c r="G81">
-        <v>-0.003942142771431456</v>
+        <v>-0.002858978040707338</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.563677550621545</v>
+        <v>-2.560579507009472</v>
       </c>
       <c r="G82">
-        <v>-0.00228665291391783</v>
+        <v>-0.001929363639951553</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.565577582907236</v>
+        <v>-2.562191405237778</v>
       </c>
       <c r="G83">
-        <v>-0.003780483433823978</v>
+        <v>-0.0003943057643516212</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.569571027981543</v>
+        <v>-2.566189222794017</v>
       </c>
       <c r="G84">
-        <v>-0.004626972404226048</v>
+        <v>-0.001245167216684884</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.573564052269712</v>
+        <v>-2.572750431096681</v>
       </c>
       <c r="G85">
-        <v>-0.001949335160199794</v>
+        <v>-0.004659419415443455</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.576869164608083</v>
+        <v>-2.572424336100636</v>
       </c>
       <c r="G86">
-        <v>-0.004886876497664172</v>
+        <v>-0.001186368315493791</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.580431500389398</v>
+        <v>-2.573384867929999</v>
       </c>
       <c r="G87">
-        <v>-0.00546701694931917</v>
+        <v>0.001000055959047952</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.583129059382045</v>
+        <v>-2.578828851464774</v>
       </c>
       <c r="G88">
-        <v>-0.005597179389106977</v>
+        <v>-0.001296971471821617</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.587226625838015</v>
+        <v>-2.583311785129107</v>
       </c>
       <c r="G89">
-        <v>-0.002682706270299207</v>
+        <v>-0.002632949032248977</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.590394797981208</v>
+        <v>-2.587724829517587</v>
       </c>
       <c r="G90">
-        <v>-0.005356259510567618</v>
+        <v>-0.003899037316823506</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.593201130158747</v>
+        <v>-2.584146122266928</v>
       </c>
       <c r="G91">
-        <v>-0.004825662222964322</v>
+        <v>0.002826626037740532</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.597451798675989</v>
+        <v>-2.596389636932444</v>
       </c>
       <c r="G92">
-        <v>-0.007332094267431088</v>
+        <v>-0.006269932523869759</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.602161991067045</v>
+        <v>-2.598769730462215</v>
       </c>
       <c r="G93">
-        <v>-0.007571871464385094</v>
+        <v>-0.005503069949735817</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.604956733571492</v>
+        <v>-2.594059790181924</v>
       </c>
       <c r="G94">
-        <v>-0.00711240352931819</v>
+        <v>0.002353826434461137</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.610941582903781</v>
+        <v>-2.601325175647445</v>
       </c>
       <c r="G95">
-        <v>-0.00891451950240274</v>
+        <v>-0.001764602927154968</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.612208007684488</v>
+        <v>-2.600489778321085</v>
       </c>
       <c r="G96">
-        <v>-0.009308565863652696</v>
+        <v>0.002217750503110238</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.615805101914733</v>
+        <v>-2.608082151801618</v>
       </c>
       <c r="G97">
-        <v>-0.007848499908363227</v>
+        <v>-0.002227666873516831</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.618807167650003</v>
+        <v>-2.606499781574553</v>
       </c>
       <c r="G98">
-        <v>-0.009420019699042825</v>
+        <v>0.002501659457453176</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.623646520794102</v>
+        <v>-2.610252617516673</v>
       </c>
       <c r="G99">
-        <v>-0.01149812365820813</v>
+        <v>0.001895779619238702</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.625618103218465</v>
+        <v>-2.612992557019525</v>
       </c>
       <c r="G100">
-        <v>-0.01032274997866578</v>
+        <v>0.002302796220291725</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.630687013191566</v>
+        <v>-2.622385252669636</v>
       </c>
       <c r="G101">
-        <v>-0.01120163697644472</v>
+        <v>-0.003942943325914161</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.635765562632004</v>
+        <v>-2.625753414397848</v>
       </c>
       <c r="G102">
-        <v>-0.01244253715549304</v>
+        <v>-0.004164148950219992</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.638645909545506</v>
+        <v>-2.629756390170285</v>
       </c>
       <c r="G103">
-        <v>-0.0139096879939915</v>
+        <v>-0.005020168618752319</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.643008132455324</v>
+        <v>-2.629195654817832</v>
       </c>
       <c r="G104">
-        <v>-0.01512495479990394</v>
+        <v>-0.001312477162394243</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.646048415124231</v>
+        <v>-2.62856804083054</v>
       </c>
       <c r="G105">
-        <v>-0.01416130858389941</v>
+        <v>0.002462092928803283</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.650777055448022</v>
+        <v>-2.635348390952824</v>
       </c>
       <c r="G106">
-        <v>-0.01594209124082702</v>
+        <v>-0.001171301089575749</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.654798073530873</v>
+        <v>-2.632631016067668</v>
       </c>
       <c r="G107">
-        <v>-0.01747402756373861</v>
+        <v>0.004693029899486278</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.657917616740707</v>
+        <v>-2.640890867731051</v>
       </c>
       <c r="G108">
-        <v>-0.01744661466966724</v>
+        <v>-0.0004198656599920803</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.662407481554288</v>
+        <v>-2.643475347669218</v>
       </c>
       <c r="G109">
-        <v>-0.01720553467665309</v>
+        <v>0.0001426105057460436</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.666010815476922</v>
+        <v>-2.644938693782942</v>
       </c>
       <c r="G110">
-        <v>-0.0192459011980719</v>
+        <v>0.001826220495927622</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.671110698233521</v>
+        <v>-2.654865255205159</v>
       </c>
       <c r="G111">
-        <v>-0.02119882785076599</v>
+        <v>-0.004953384822383722</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.674730540453468</v>
+        <v>-2.654099677488281</v>
       </c>
       <c r="G112">
-        <v>-0.02129853189858966</v>
+        <v>-0.001040851001601117</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.678988815197238</v>
+        <v>-2.656508217580115</v>
       </c>
       <c r="G113">
-        <v>-0.02278303260667203</v>
+        <v>-0.000302434989529532</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.684224939971532</v>
+        <v>-2.663312177460698</v>
       </c>
       <c r="G114">
-        <v>-0.0248722012770608</v>
+        <v>-0.003959438766206969</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.68809226199136</v>
+        <v>-2.660913870710405</v>
       </c>
       <c r="G115">
-        <v>-0.02559256719298397</v>
+        <v>0.001585824087991794</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.692401382695242</v>
+        <v>-2.66960032050619</v>
       </c>
       <c r="G116">
-        <v>-0.02675473179296084</v>
+        <v>-0.003953669603887766</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.696447509189348</v>
+        <v>-2.667221935562319</v>
       </c>
       <c r="G117">
-        <v>-0.02696750908264511</v>
+        <v>0.001571671443887812</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.701658525552386</v>
+        <v>-2.678303663289133</v>
       </c>
       <c r="G118">
-        <v>-0.02971796244229452</v>
+        <v>-0.006363100179021197</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.704784833416485</v>
+        <v>-2.673106757154923</v>
       </c>
       <c r="G119">
-        <v>-0.02963928280197758</v>
+        <v>0.001980762059094809</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.710090568694028</v>
+        <v>-2.678315485055766</v>
       </c>
       <c r="G120">
-        <v>-0.03185609337612627</v>
+        <v>-8.100973784319621e-05</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.714644704600504</v>
+        <v>-2.682862854646538</v>
       </c>
       <c r="G121">
-        <v>-0.03268135320610721</v>
+        <v>-0.001481423224709122</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.718508147349495</v>
+        <v>-2.68358582376316</v>
       </c>
       <c r="G122">
-        <v>-0.03397975982378343</v>
+        <v>0.0009425637625741778</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.723769905496922</v>
+        <v>-2.68437482889457</v>
       </c>
       <c r="G123">
-        <v>-0.03609456186730475</v>
+        <v>0.003300514735068649</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.728083326257775</v>
+        <v>-2.690087457044128</v>
       </c>
       <c r="G124">
-        <v>-0.03726102652425323</v>
+        <v>0.0007348426894169258</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.732739470694888</v>
+        <v>-2.696875759377706</v>
       </c>
       <c r="G125">
-        <v>-0.03877021485746046</v>
+        <v>-0.002906503540256677</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.737449242299809</v>
+        <v>-2.701883312762405</v>
       </c>
       <c r="G126">
-        <v>-0.04033303035847702</v>
+        <v>-0.004767100821050141</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.742159013904725</v>
+        <v>-2.704796415097396</v>
       </c>
       <c r="G127">
-        <v>-0.0418958458594878</v>
+        <v>-0.004533247052135758</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.745173677662874</v>
+        <v>-2.705863643065691</v>
       </c>
       <c r="G128">
-        <v>-0.04176355351373129</v>
+        <v>-0.002453518916525343</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.748188341421021</v>
+        <v>-2.711216583654233</v>
       </c>
       <c r="G129">
-        <v>-0.041631261167973</v>
+        <v>-0.004659503401161835</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.751203005179167</v>
+        <v>-2.706293089807359</v>
       </c>
       <c r="G130">
-        <v>-0.04149896882221449</v>
+        <v>0.003410946549617266</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.754217668937316</v>
+        <v>-2.71368261106699</v>
       </c>
       <c r="G131">
-        <v>-0.04136667647645864</v>
+        <v>-0.0008316186061081421</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.757232332695465</v>
+        <v>-2.714202170857267</v>
       </c>
       <c r="G132">
-        <v>-0.04123438413070191</v>
+        <v>0.00179577770751993</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.760246996453611</v>
+        <v>-2.724686480311847</v>
       </c>
       <c r="G133">
-        <v>-0.04110209178494295</v>
+        <v>-0.005541575643154717</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.763261660211758</v>
+        <v>-2.7339865235535</v>
       </c>
       <c r="G134">
-        <v>-0.04096979943918488</v>
+        <v>-0.01169466278090292</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.766276323969907</v>
+        <v>-2.728396219566587</v>
       </c>
       <c r="G135">
-        <v>-0.04083750709342882</v>
+        <v>-0.002957402690084487</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.768692352943906</v>
+        <v>-2.735003049454874</v>
       </c>
       <c r="G136">
-        <v>-0.04010657996352252</v>
+        <v>-0.006417276474466327</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.77140082099944</v>
+        <v>-2.742039930787111</v>
       </c>
       <c r="G137">
-        <v>-0.03966809191515197</v>
+        <v>-0.01030720170279786</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.773524410891903</v>
+        <v>-2.741222735812906</v>
       </c>
       <c r="G138">
-        <v>-0.03864472570370947</v>
+        <v>-0.006343050624687097</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.776232878947437</v>
+        <v>-2.736722956338977</v>
       </c>
       <c r="G139">
-        <v>-0.0379137985738025</v>
+        <v>0.001303684953147144</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.779233786084508</v>
+        <v>-2.75345898548937</v>
       </c>
       <c r="G140">
-        <v>-0.03747531052543218</v>
+        <v>-0.01228538809334112</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.781357375976973</v>
+        <v>-2.749648976354915</v>
       </c>
       <c r="G141">
-        <v>-0.03653301672190445</v>
+        <v>-0.005328422854980808</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.784065844032506</v>
+        <v>-2.749155112259957</v>
       </c>
       <c r="G142">
-        <v>-0.03659833442869154</v>
+        <v>-0.001687602656117448</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.786229970128927</v>
+        <v>-2.7565363156419</v>
       </c>
       <c r="G143">
-        <v>-0.03557496821724859</v>
+        <v>-0.005921849934154455</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.788897901980502</v>
+        <v>-2.752625589113493</v>
       </c>
       <c r="G144">
-        <v>-0.0351364801688776</v>
+        <v>0.001135832698157424</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.79219124819911</v>
+        <v>-2.756484052930245</v>
       </c>
       <c r="G145">
-        <v>-0.03528287028358079</v>
+        <v>0.0004243249853110864</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.794607277173107</v>
+        <v>-2.763362610821607</v>
       </c>
       <c r="G146">
-        <v>-0.03435067220351851</v>
+        <v>-0.003307276802146264</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.797608184310182</v>
+        <v>-2.767197408033449</v>
       </c>
       <c r="G147">
-        <v>-0.03382101602376508</v>
+        <v>-0.003995117910082113</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.799731774202643</v>
+        <v>-2.770100792083096</v>
       </c>
       <c r="G148">
-        <v>-0.03338252797539809</v>
+        <v>-0.003751545855823935</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.803317559502783</v>
+        <v>-2.785099495902101</v>
       </c>
       <c r="G149">
-        <v>-0.03294403992702666</v>
+        <v>-0.0156032935709236</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.805481685599206</v>
+        <v>-2.779987566360066</v>
       </c>
       <c r="G150">
-        <v>-0.03250555187865456</v>
+        <v>-0.007344407924983809</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.807857178369247</v>
+        <v>-2.779366116338091</v>
       </c>
       <c r="G151">
-        <v>-0.03206706383028668</v>
+        <v>-0.00357600179910289</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.811442963669387</v>
+        <v>-2.786322624733267</v>
       </c>
       <c r="G152">
-        <v>-0.03250589302652185</v>
+        <v>-0.007385554090373558</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.814151431724924</v>
+        <v>-2.797361969897104</v>
       </c>
       <c r="G153">
-        <v>-0.03177496589661732</v>
+        <v>-0.01527794315030584</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.816567460698921</v>
+        <v>-2.794817657035912</v>
       </c>
       <c r="G154">
-        <v>-0.03133647784824545</v>
+        <v>-0.009586674185207755</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.819860806917529</v>
+        <v>-2.791109171126732</v>
       </c>
       <c r="G155">
-        <v>-0.03148286796294841</v>
+        <v>-0.002731232172123121</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.82227683589153</v>
+        <v>-2.804185978678271</v>
       </c>
       <c r="G156">
-        <v>-0.03075194083304411</v>
+        <v>-0.01266108361975693</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-2.8252777430286</v>
+        <v>-2.800605672765202</v>
       </c>
       <c r="G157">
-        <v>-0.0306058918662091</v>
+        <v>-0.005933821602781997</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.82827865016567</v>
+        <v>-2.810949401612467</v>
       </c>
       <c r="G158">
-        <v>-0.03045984289937453</v>
+        <v>-0.01313059434614217</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.831279557302742</v>
+        <v>-2.803102126791494</v>
       </c>
       <c r="G159">
-        <v>-0.03031379393254041</v>
+        <v>-0.002136363421263221</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.833736122480698</v>
+        <v>-2.81377764796589</v>
       </c>
       <c r="G160">
-        <v>-0.02962340300659183</v>
+        <v>-0.009664928491754265</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.836192687658654</v>
+        <v>-2.816873526190881</v>
       </c>
       <c r="G161">
-        <v>-0.02893301208064281</v>
+        <v>-0.009613850612839814</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.838961883365071</v>
+        <v>-2.82680797725405</v>
       </c>
       <c r="G162">
-        <v>-0.02824262115469423</v>
+        <v>-0.01640134557210349</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.841418448543026</v>
+        <v>-2.816193589306793</v>
       </c>
       <c r="G163">
-        <v>-0.02786486075720473</v>
+        <v>-0.002640001520941127</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.843875013720984</v>
+        <v>-2.819757758775611</v>
       </c>
       <c r="G164">
-        <v>-0.02717446983125693</v>
+        <v>-0.003057214885853976</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.846412497996749</v>
+        <v>-2.826944487327869</v>
       </c>
       <c r="G165">
-        <v>-0.0265649980031174</v>
+        <v>-0.007096987334206939</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.849100774605356</v>
+        <v>-2.833592756552776</v>
       </c>
       <c r="G166">
-        <v>-0.02579368797935999</v>
+        <v>-0.0105983004552086</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.852495231368696</v>
+        <v>-2.834046446650887</v>
       </c>
       <c r="G167">
-        <v>-0.02556400915640611</v>
+        <v>-0.007905034449413817</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.85463916601819</v>
+        <v>-2.83765768875341</v>
       </c>
       <c r="G168">
-        <v>-0.02511908628218995</v>
+        <v>-0.008369320448031292</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.857095731196145</v>
+        <v>-2.842682562502108</v>
       </c>
       <c r="G169">
-        <v>-0.02442869535623815</v>
+        <v>-0.01024723809282435</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.859633215471909</v>
+        <v>-2.85083038717418</v>
       </c>
       <c r="G170">
-        <v>-0.02405093495875155</v>
+        <v>-0.01524810666099163</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.862321492080521</v>
+        <v>-2.847688487434418</v>
       </c>
       <c r="G171">
-        <v>-0.02359225546345878</v>
+        <v>-0.008959250817324405</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.865715948843857</v>
+        <v>-2.858628341560074</v>
       </c>
       <c r="G172">
-        <v>-0.02329541416377523</v>
+        <v>-0.01675214883907428</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.868172514021815</v>
+        <v>-2.856470764169222</v>
       </c>
       <c r="G173">
-        <v>-0.02314936519694211</v>
+        <v>-0.01144761534431671</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.870464530245846</v>
+        <v>-2.853304332844354</v>
       </c>
       <c r="G174">
-        <v>-0.02229442531706805</v>
+        <v>-0.005134227915544298</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.873398274906188</v>
+        <v>-2.863676905396408</v>
       </c>
       <c r="G175">
-        <v>-0.02208121387350515</v>
+        <v>-0.0123598443636922</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.876480101141067</v>
+        <v>-2.866626817838443</v>
       </c>
       <c r="G176">
-        <v>-0.02115911151690419</v>
+        <v>-0.01216280070182241</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.878079693831444</v>
+        <v>-2.876147947410023</v>
       </c>
       <c r="G177">
-        <v>-0.02038780149314412</v>
+        <v>-0.01853697416949718</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.881161520066322</v>
+        <v>-2.876102693831467</v>
       </c>
       <c r="G178">
-        <v>-0.01984549214173159</v>
+        <v>-0.01534476448703559</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.884162427203395</v>
+        <v>-2.879177324851117</v>
       </c>
       <c r="G179">
-        <v>-0.02025754175509131</v>
+        <v>-0.01527243940278</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.887244253438273</v>
+        <v>-2.882617080434019</v>
       </c>
       <c r="G180">
-        <v>-0.01972898902475606</v>
+        <v>-0.01556523888177708</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.890326079673154</v>
+        <v>-2.88437778823502</v>
       </c>
       <c r="G181">
-        <v>-0.01950202096011355</v>
+        <v>-0.01417899057887273</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.891925672363532</v>
+        <v>-2.881981817802718</v>
       </c>
       <c r="G182">
-        <v>-0.01857991860351271</v>
+        <v>-0.008636064042665148</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.895239210029063</v>
+        <v>-2.89027079599818</v>
       </c>
       <c r="G183">
-        <v>-0.01843386963667804</v>
+        <v>-0.01377808613422238</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.898401955361747</v>
+        <v>-2.892616229991511</v>
       </c>
       <c r="G184">
-        <v>-0.01876228939391844</v>
+        <v>-0.01297656402364822</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.901402862498816</v>
+        <v>-2.889985216953417</v>
       </c>
       <c r="G185">
-        <v>-0.01861624042708221</v>
+        <v>-0.007198594881648757</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.904172058205238</v>
+        <v>-2.901644491886634</v>
       </c>
       <c r="G186">
-        <v>-0.01738150754202028</v>
+        <v>-0.01571091371095967</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.906709542480999</v>
+        <v>-2.903795364312591</v>
       </c>
       <c r="G187">
-        <v>-0.01762900820145519</v>
+        <v>-0.01471483003301155</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.909166107658954</v>
+        <v>-2.903458545047564</v>
       </c>
       <c r="G188">
-        <v>-0.01654506764924024</v>
+        <v>-0.01123105466407959</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.912167014796023</v>
+        <v>-2.905435793700311</v>
       </c>
       <c r="G189">
-        <v>-0.01679256830866838</v>
+        <v>-0.01006134721292173</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.915561471559366</v>
+        <v>-2.904703488229561</v>
       </c>
       <c r="G190">
-        <v>-0.01704006896810595</v>
+        <v>-0.006182085638265944</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.918018036737319</v>
+        <v>-2.916505173015607</v>
       </c>
       <c r="G191">
-        <v>-0.01572441698523186</v>
+        <v>-0.01483681432040607</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-2.9210998629722</v>
+        <v>-2.917970526373795</v>
       </c>
       <c r="G192">
-        <v>-0.01597191764466982</v>
+        <v>-0.01315521157468941</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-2.923012086191037</v>
+        <v>-2.921840492448452</v>
       </c>
       <c r="G193">
-        <v>-0.01504981528806232</v>
+        <v>-0.01387822154544083</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-2.927263515441954</v>
+        <v>-2.922810842628813</v>
       </c>
       <c r="G194">
-        <v>-0.01615428843507316</v>
+        <v>-0.01170161562189648</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-2.929720080619908</v>
+        <v>-2.926518083230722</v>
       </c>
       <c r="G195">
-        <v>-0.01546389750912297</v>
+        <v>-0.0122619001198998</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-2.932176645797864</v>
+        <v>-2.928423025666265</v>
       </c>
       <c r="G196">
-        <v>-0.01477350658317372</v>
+        <v>-0.01101988645153812</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-2.934714130073631</v>
+        <v>-2.927650953350563</v>
       </c>
       <c r="G197">
-        <v>-0.01377048512876616</v>
+        <v>-0.007100858031930335</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-2.937715037210698</v>
+        <v>-2.935818022005766</v>
       </c>
       <c r="G198">
-        <v>-0.01370535525973954</v>
+        <v>-0.0121209705832287</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-2.940796863445579</v>
+        <v>-2.939209537903251</v>
       </c>
       <c r="G199">
-        <v>-0.01364022539071064</v>
+        <v>-0.01236553037680838</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.943253428623535</v>
+        <v>-2.938437303657782</v>
       </c>
       <c r="G200">
-        <v>-0.01294983446476272</v>
+        <v>-0.008446340027433052</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-2.946960515915337</v>
+        <v>-2.944828848413889</v>
       </c>
       <c r="G201">
-        <v>-0.01288470459573293</v>
+        <v>-0.011690928679635</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-2.94941708109329</v>
+        <v>-2.946081541952324</v>
       </c>
       <c r="G202">
-        <v>-0.01281957472670803</v>
+        <v>-0.009796666114164909</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-2.952186276799707</v>
+        <v>-2.950274234278905</v>
       </c>
       <c r="G203">
-        <v>-0.01275444485768096</v>
+        <v>-0.01084240233684086</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-2.955268103034585</v>
+        <v>-2.950609227678882</v>
       </c>
       <c r="G204">
-        <v>-0.01268931498865339</v>
+        <v>-0.008030439632912223</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-2.958037298741003</v>
+        <v>-2.954862647656341</v>
       </c>
       <c r="G205">
-        <v>-0.01231155459116656</v>
+        <v>-0.009136903506466343</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-2.96111912497588</v>
+        <v>-2.960169146940483</v>
       </c>
       <c r="G206">
-        <v>-0.01224642472213858</v>
+        <v>-0.01129644668670321</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-2.964200951210757</v>
+        <v>-2.961663647633035</v>
       </c>
       <c r="G207">
-        <v>-0.01218129485311012</v>
+        <v>-0.009643991275349539</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-2.966332799410239</v>
+        <v>-2.96262390208993</v>
       </c>
       <c r="G208">
-        <v>-0.01116618694868693</v>
+        <v>-0.007457289628338637</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-2.968464647609725</v>
+        <v>-2.966564691538932</v>
       </c>
       <c r="G209">
-        <v>-0.01015107904426774</v>
+        <v>-0.008251122973436109</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-2.970596495809206</v>
+        <v>-2.969646517773815</v>
       </c>
       <c r="G210">
-        <v>-0.009135971139844101</v>
+        <v>-0.008185993104413536</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-2.972728344008688</v>
+        <v>-2.971778365973294</v>
       </c>
       <c r="G211">
-        <v>-0.008120863235420911</v>
+        <v>-0.007170885199987292</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5268,10 +5268,10 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-2.974860192208174</v>
+        <v>-2.973910214172779</v>
       </c>
       <c r="G212">
-        <v>-0.00710575533100144</v>
+        <v>-0.006155777295566572</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5291,10 +5291,10 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-2.976992040407656</v>
+        <v>-2.976992040407657</v>
       </c>
       <c r="G213">
-        <v>-0.00609064742657868</v>
+        <v>-0.006090647426540002</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5314,10 +5314,10 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-2.979123888607141</v>
+        <v>-2.978173910571742</v>
       </c>
       <c r="G214">
-        <v>-0.005075539522158154</v>
+        <v>-0.004125561486719026</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5337,10 +5337,10 @@
         <v>143</v>
       </c>
       <c r="F215">
-        <v>-2.981255736806621</v>
+        <v>-2.980305758771227</v>
       </c>
       <c r="G215">
-        <v>-0.004060431617733187</v>
+        <v>-0.00311045358229857</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5363,7 +5363,7 @@
         <v>-2.983387585006104</v>
       </c>
       <c r="G216">
-        <v>-0.003045323713311766</v>
+        <v>-0.003045323713271111</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5386,7 +5386,7 @@
         <v>-2.985519433205586</v>
       </c>
       <c r="G217">
-        <v>-0.002030215808888132</v>
+        <v>-0.002030215808847553</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5409,7 +5409,7 @@
         <v>-2.987651281405068</v>
       </c>
       <c r="G218">
-        <v>-0.001015107904464938</v>
+        <v>-0.001015107904423555</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5432,7 +5432,7 @@
         <v>-2.989783129604549</v>
       </c>
       <c r="G219">
-        <v>-4.130029651605582e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5455,7 +5455,7 @@
         <v>-2.621703188588206</v>
       </c>
       <c r="G220">
-        <v>9.769962616701378e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.66744934677387</v>
+        <v>-2.661796473014352</v>
       </c>
       <c r="G221">
-        <v>0.002146496586884261</v>
+        <v>0.006499433093621665</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.718343088834605</v>
+        <v>-2.705097259063427</v>
       </c>
       <c r="G222">
-        <v>-4.202000352337976e-05</v>
+        <v>0.01134445514830595</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.775772105137691</v>
+        <v>-2.755176470886682</v>
       </c>
       <c r="G223">
-        <v>-0.009578878906208343</v>
+        <v>0.00941105142881149</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.836900686881031</v>
+        <v>-2.80125386490506</v>
       </c>
       <c r="G224">
-        <v>-0.02388271684412491</v>
+        <v>0.01147946551419365</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.897391575168136</v>
+        <v>-2.861042683175921</v>
       </c>
       <c r="G225">
-        <v>-0.03638127163248717</v>
+        <v>-0.0001635446529069107</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.940031815528215</v>
+        <v>-2.909277330881913</v>
       </c>
       <c r="G226">
-        <v>-0.03045907571628925</v>
+        <v>-0.000252384255139404</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.981508319785302</v>
+        <v>-2.96189851940722</v>
       </c>
       <c r="G227">
-        <v>-0.02425091880442487</v>
+        <v>-0.004727764676686452</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.021988032746953</v>
+        <v>-3.013956369744217</v>
       </c>
       <c r="G228">
-        <v>-0.01667146991268376</v>
+        <v>-0.008639806909923275</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.06298485120606</v>
+        <v>-3.061130416966075</v>
       </c>
       <c r="G229">
-        <v>-0.00952248026804603</v>
+        <v>-0.007668046028020958</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5685,7 +5685,7 @@
         <v>-3.101608179041814</v>
       </c>
       <c r="G230">
-        <v>-5.595524044110789e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5708,7 +5708,7 @@
         <v>-2.681923713795318</v>
       </c>
       <c r="G231">
-        <v>-2.708944180085382e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.72602567939217</v>
+        <v>-2.724494542619776</v>
       </c>
       <c r="G232">
-        <v>0.004903365745557497</v>
+        <v>0.006434502517954854</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.77483716706227</v>
+        <v>-2.76903979932205</v>
       </c>
       <c r="G233">
-        <v>0.005097209417895598</v>
+        <v>0.01089457715809283</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.830084617874592</v>
+        <v>-2.812897799427372</v>
       </c>
       <c r="G234">
-        <v>-0.0004034434135520293</v>
+        <v>0.01604190839518327</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.8888207413901</v>
+        <v>-2.863460242346753</v>
       </c>
       <c r="G235">
-        <v>-0.01087570222505985</v>
+        <v>0.01448479681821446</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.951308544204023</v>
+        <v>-2.915889266160765</v>
       </c>
       <c r="G236">
-        <v>-0.02435817369654547</v>
+        <v>0.01106110434661467</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.00763758815939</v>
+        <v>-2.965784231663874</v>
       </c>
       <c r="G237">
-        <v>-0.03168188630947588</v>
+        <v>0.0101714701859188</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.049176476618119</v>
+        <v>-3.022106540769253</v>
       </c>
       <c r="G238">
-        <v>-0.02421544342576787</v>
+        <v>0.002854492422951216</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.092093902902514</v>
+        <v>-3.07819926417526</v>
       </c>
       <c r="G239">
-        <v>-0.0181275383677254</v>
+        <v>-0.004232899640643328</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.131892602651948</v>
+        <v>-3.129254537391706</v>
       </c>
       <c r="G240">
-        <v>-0.008845917683053484</v>
+        <v>-0.006282841514677062</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5938,7 +5938,7 @@
         <v>-3.172852122421985</v>
       </c>
       <c r="G241">
-        <v>2.220446049250313e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5961,7 +5961,7 @@
         <v>-2.723569122533946</v>
       </c>
       <c r="G242">
-        <v>-1.749711486809247e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.765737015459748</v>
+        <v>-2.763062852025338</v>
       </c>
       <c r="G243">
-        <v>0.00769992751333648</v>
+        <v>0.01019939132225467</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.813768915285834</v>
+        <v>-2.808567365097564</v>
       </c>
       <c r="G244">
-        <v>0.009704282822607713</v>
+        <v>0.01438799906367638</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.866982704013658</v>
+        <v>-2.855154786425197</v>
       </c>
       <c r="G245">
-        <v>0.005708090948849831</v>
+        <v>0.01749369854969141</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.92528457935397</v>
+        <v>-2.905493473702506</v>
       </c>
       <c r="G246">
-        <v>-0.002402830948025958</v>
+        <v>0.01738827470356852</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.986246960244614</v>
+        <v>-2.957270253566153</v>
       </c>
       <c r="G247">
-        <v>-0.0136720910250121</v>
+        <v>0.01530461565356922</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.051387216219581</v>
+        <v>-3.011795215629814</v>
       </c>
       <c r="G248">
-        <v>-0.02906527127804548</v>
+        <v>0.01047277440355643</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.099311821163445</v>
+        <v>-3.065350534847403</v>
       </c>
       <c r="G249">
-        <v>-0.02677277667171218</v>
+        <v>0.007150718617154439</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.139139689729471</v>
+        <v>-3.12137993032553</v>
       </c>
       <c r="G250">
-        <v>-0.01669221795463449</v>
+        <v>0.000814443952674937</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.18114789142045</v>
+        <v>-3.172744397134653</v>
       </c>
       <c r="G251">
-        <v>-0.009243865309590149</v>
+        <v>-0.0008569020428010887</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6191,7 +6191,7 @@
         <v>-3.222120758523039</v>
       </c>
       <c r="G252">
-        <v>-6.572520305780927e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6214,7 +6214,7 @@
         <v>-2.75405765035523</v>
       </c>
       <c r="G253">
-        <v>-2.713385072183883e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.796069336396791</v>
+        <v>-2.793530511883372</v>
       </c>
       <c r="G254">
-        <v>0.008753289568131262</v>
+        <v>0.01076225843307821</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.842776318510771</v>
+        <v>-2.836962432958538</v>
       </c>
       <c r="G255">
-        <v>0.01210784921311125</v>
+        <v>0.01792173476566639</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.895469414962832</v>
+        <v>-2.882191150358431</v>
       </c>
       <c r="G256">
-        <v>0.01055872809475189</v>
+        <v>0.02292813732699406</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.951723288563661</v>
+        <v>-2.932931003152867</v>
       </c>
       <c r="G257">
-        <v>0.003987396529143705</v>
+        <v>0.02277968194031232</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.011227743273713</v>
+        <v>-2.984691836770851</v>
       </c>
       <c r="G258">
-        <v>-0.005281938219713345</v>
+        <v>0.02125396828354909</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.075945891015271</v>
+        <v>-3.036731870718618</v>
       </c>
       <c r="G259">
-        <v>-0.01940868855354339</v>
+        <v>0.01980533174353583</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.131561120222352</v>
+        <v>-3.093028324277567</v>
       </c>
       <c r="G260">
-        <v>-0.02464345752152652</v>
+        <v>0.01374399814580662</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.17421501265109</v>
+        <v>-3.150483834604632</v>
       </c>
       <c r="G261">
-        <v>-0.01685129282043929</v>
+        <v>0.006879885226495963</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.217511964623786</v>
+        <v>-3.208841518090839</v>
       </c>
       <c r="G262">
-        <v>-0.009848168382920242</v>
+        <v>-0.001242678298489952</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6444,7 +6444,7 @@
         <v>-3.258190237200103</v>
       </c>
       <c r="G263">
-        <v>-5.293543381412746e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6467,7 +6467,7 @@
         <v>-2.777331564852105</v>
       </c>
       <c r="G264">
-        <v>-3.486100297322992e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.81823570154469</v>
+        <v>-2.816260808040775</v>
       </c>
       <c r="G265">
-        <v>0.01045204152333135</v>
+        <v>0.01173703965361028</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.864917092804344</v>
+        <v>-2.859324070282223</v>
       </c>
       <c r="G266">
-        <v>0.01399419033109339</v>
+        <v>0.01958721285367382</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.915527015190549</v>
+        <v>-2.904476009771394</v>
       </c>
       <c r="G267">
-        <v>0.01437843774037373</v>
+        <v>0.02534870880601403</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.970911967722139</v>
+        <v>-2.953237984484783</v>
       </c>
       <c r="G268">
-        <v>0.009976037412250616</v>
+        <v>0.02725301693490545</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.030172720218364</v>
+        <v>-3.004005565356579</v>
       </c>
       <c r="G269">
-        <v>0.001409418954638753</v>
+        <v>0.02739887150462028</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.093912684543692</v>
+        <v>-3.057326169980591</v>
       </c>
       <c r="G270">
-        <v>-0.01122143279934718</v>
+        <v>0.02499170232211956</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.157322026063241</v>
+        <v>-3.115707559873509</v>
       </c>
       <c r="G271">
-        <v>-0.02433787091898476</v>
+        <v>0.0172765952714824</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.201805354773041</v>
+        <v>-3.173195758014426</v>
       </c>
       <c r="G272">
-        <v>-0.01790776418732887</v>
+        <v>0.01070183257207702</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.244524587657878</v>
+        <v>-3.233062895322607</v>
       </c>
       <c r="G273">
-        <v>-0.009614201452197935</v>
+        <v>0.001748130705406081</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6697,7 +6697,7 @@
         <v>-3.285724461469525</v>
       </c>
       <c r="G274">
-        <v>-9.00612917575927e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6720,7 +6720,7 @@
         <v>-2.795675378544225</v>
       </c>
       <c r="G275">
-        <v>-4.929390229335695e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.836130426125764</v>
+        <v>-2.834387091644489</v>
       </c>
       <c r="G276">
-        <v>0.0109134238837223</v>
+        <v>0.01230282636153834</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.881272631201746</v>
+        <v>-2.877103477458761</v>
       </c>
       <c r="G277">
-        <v>0.01670210140584549</v>
+        <v>0.02077935252467</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.93177201473537</v>
+        <v>-2.920934397856443</v>
       </c>
       <c r="G278">
-        <v>0.01730372722507845</v>
+        <v>0.0281413441043914</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.986062648772696</v>
+        <v>-2.968656419614527</v>
       </c>
       <c r="G279">
-        <v>0.01440269165988517</v>
+        <v>0.03161223432371174</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.045233132022384</v>
+        <v>-3.020191757410803</v>
       </c>
       <c r="G280">
-        <v>0.006333583549570587</v>
+        <v>0.03126980850483951</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.107305009008996</v>
+        <v>-3.073958209825479</v>
       </c>
       <c r="G281">
-        <v>-0.004650531116230372</v>
+        <v>0.0286962680675662</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.174350477550608</v>
+        <v>-3.129520876365673</v>
       </c>
       <c r="G282">
-        <v>-0.02050308768040354</v>
+        <v>0.02432651350477633</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.22432764127428</v>
+        <v>-3.190194536604227</v>
       </c>
       <c r="G283">
-        <v>-0.01926302355478549</v>
+        <v>0.01484576524362535</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.265220976351211</v>
+        <v>-3.251304807989762</v>
       </c>
       <c r="G284">
-        <v>-0.00898776252612854</v>
+        <v>0.00492840583549442</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6950,7 +6950,7 @@
         <v>-3.30742612580266</v>
       </c>
       <c r="G285">
-        <v>-1.381117442633695e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6973,7 +6973,7 @@
         <v>-2.810502834325307</v>
       </c>
       <c r="G286">
-        <v>1.34869893031464e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.85036477933502</v>
+        <v>-2.848562587365766</v>
       </c>
       <c r="G287">
-        <v>0.01157125731901232</v>
+        <v>0.01337344928687134</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.895096734103244</v>
+        <v>-2.89046464501412</v>
       </c>
       <c r="G288">
-        <v>0.01834735573873969</v>
+        <v>0.02290459396584721</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.944397007999181</v>
+        <v>-2.934774962336035</v>
       </c>
       <c r="G289">
-        <v>0.02089334808192378</v>
+        <v>0.03002747897126223</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-2.998142891945056</v>
+        <v>-2.982176440074238</v>
       </c>
       <c r="G290">
-        <v>0.01809275169110358</v>
+        <v>0.03405920356038861</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.056097823156727</v>
+        <v>-3.032542689305405</v>
       </c>
       <c r="G291">
-        <v>0.01157102280680866</v>
+        <v>0.03512615665655217</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.118496508475197</v>
+        <v>-3.086336724247513</v>
       </c>
       <c r="G292">
-        <v>0.0006055398157138736</v>
+        <v>0.03276532404177357</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.185179772536009</v>
+        <v>-3.144468808178286</v>
       </c>
       <c r="G293">
-        <v>-0.01464452191772159</v>
+        <v>0.02606644243833067</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.240161202234405</v>
+        <v>-3.204572056482195</v>
       </c>
       <c r="G294">
-        <v>-0.01819274928874237</v>
+        <v>0.01739639646175228</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.282141449427837</v>
+        <v>-3.267245404382785</v>
       </c>
       <c r="G295">
-        <v>-0.008739794154797975</v>
+        <v>0.006156250888492032</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7203,7 +7203,7 @@
         <v>-3.324967759930202</v>
       </c>
       <c r="G296">
-        <v>1.808331262509455e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7226,7 +7226,7 @@
         <v>-2.822735089670116</v>
       </c>
       <c r="G297">
-        <v>3.202771381438652e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7246,10 +7246,10 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.862515666762896</v>
+        <v>-2.860766094054152</v>
       </c>
       <c r="G298">
-        <v>0.01193677636712742</v>
+        <v>0.0136089046379877</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7269,10 +7269,10 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.906831721073728</v>
+        <v>-2.901715927459944</v>
       </c>
       <c r="G299">
-        <v>0.01918318664361163</v>
+        <v>0.02429898025421906</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7292,10 +7292,10 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.955289461090561</v>
+        <v>-2.945505163137132</v>
       </c>
       <c r="G300">
-        <v>0.0225082782515158</v>
+        <v>0.03214965359905442</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7315,10 +7315,10 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.008255136469499</v>
+        <v>-2.992945581893</v>
       </c>
       <c r="G301">
-        <v>0.02114124265607797</v>
+        <v>0.03645079722942635</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7338,10 +7338,10 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.065757306119379</v>
+        <v>-3.043307642258136</v>
       </c>
       <c r="G302">
-        <v>0.0152789820282091</v>
+        <v>0.03772864588631397</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7361,10 +7361,10 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.127356414646585</v>
+        <v>-3.095951214073822</v>
       </c>
       <c r="G303">
-        <v>0.005528272602320472</v>
+        <v>0.03672498309265193</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7384,10 +7384,10 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.194109835687287</v>
+        <v>-3.155120649974549</v>
       </c>
       <c r="G304">
-        <v>-0.009692076131461391</v>
+        <v>0.02929710957816412</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7407,10 +7407,10 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.253049360694035</v>
+        <v>-3.215124854059323</v>
       </c>
       <c r="G305">
-        <v>-0.01699169211619933</v>
+        <v>0.02093281451541407</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7430,10 +7430,10 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.296257730738682</v>
+        <v>-3.278860114944988</v>
       </c>
       <c r="G306">
-        <v>-0.008438018828289817</v>
+        <v>0.008837462651772321</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7456,7 +7456,7 @@
         <v>-3.339439139983</v>
       </c>
       <c r="G307">
-        <v>3.072653242952583e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7479,7 +7479,7 @@
         <v>-2.832997797458318</v>
       </c>
       <c r="G308">
-        <v>2.922551090023262e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7499,10 +7499,10 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.872051921849963</v>
+        <v>-2.870525857569301</v>
       </c>
       <c r="G309">
-        <v>0.01276440224443665</v>
+        <v>0.01429046652205868</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7522,10 +7522,10 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.916011270669618</v>
+        <v>-2.910816155628909</v>
       </c>
       <c r="G310">
-        <v>0.02070305632578373</v>
+        <v>0.02589817136333483</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7545,10 +7545,10 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.963722911041733</v>
+        <v>-2.954666414808905</v>
       </c>
       <c r="G311">
-        <v>0.02480994258682867</v>
+        <v>0.03386643881638052</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7568,10 +7568,10 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.016315931505781</v>
+        <v>-3.002452571033761</v>
       </c>
       <c r="G312">
-        <v>0.02447051610447293</v>
+        <v>0.03797828549240845</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7591,10 +7591,10 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.073481391093787</v>
+        <v>-3.052434501941301</v>
       </c>
       <c r="G313">
-        <v>0.01876799206893565</v>
+        <v>0.03981488121790977</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7614,10 +7614,10 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.13539140834092</v>
+        <v>-3.106290271002067</v>
       </c>
       <c r="G314">
-        <v>0.008755977722804786</v>
+        <v>0.03785711505802802</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7637,10 +7637,10 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.201143033609699</v>
+        <v>-3.163614714224873</v>
       </c>
       <c r="G315">
-        <v>-0.004930300863767112</v>
+        <v>0.03235119846826351</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7660,10 +7660,10 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.264466061808159</v>
+        <v>-3.225020506530718</v>
       </c>
       <c r="G316">
-        <v>-0.01659139129176268</v>
+        <v>0.02284340906330207</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7683,10 +7683,10 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.308217815011752</v>
+        <v>-3.289398149063349</v>
       </c>
       <c r="G317">
-        <v>-0.008470847902688372</v>
+        <v>0.0102842931637131</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7709,7 +7709,7 @@
         <v>-3.351580445127946</v>
       </c>
       <c r="G318">
-        <v>4.101163852965328e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7732,7 +7732,7 @@
         <v>-2.841730677199684</v>
       </c>
       <c r="G319">
-        <v>5.155875726359227e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7752,10 +7752,10 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-2.880956029372484</v>
+        <v>-2.878956094899111</v>
       </c>
       <c r="G320">
-        <v>0.0131827737639747</v>
+        <v>0.01474838932814704</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7775,10 +7775,10 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-2.923985729692207</v>
+        <v>-2.919672322142051</v>
       </c>
       <c r="G321">
-        <v>0.02175586705370858</v>
+        <v>0.02606927460245956</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -7798,10 +7798,10 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-2.97135558700226</v>
+        <v>-2.962716343626878</v>
       </c>
       <c r="G322">
-        <v>0.02652511922534906</v>
+        <v>0.03506236563488563</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -7821,10 +7821,10 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.023381983047854</v>
+        <v>-3.009084789023407</v>
       </c>
       <c r="G323">
-        <v>0.02637053324377758</v>
+        <v>0.04066772726593082</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -7844,10 +7844,10 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.08062580524093</v>
+        <v>-3.059330905309504</v>
       </c>
       <c r="G324">
-        <v>0.02156375541034294</v>
+        <v>0.04245872349708635</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -7867,10 +7867,10 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.141466282222761</v>
+        <v>-3.114293054274524</v>
       </c>
       <c r="G325">
-        <v>0.01262134191092579</v>
+        <v>0.0395336870493197</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -7890,10 +7890,10 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.207241042722747</v>
+        <v>-3.17159099006457</v>
       </c>
       <c r="G326">
-        <v>-0.001440494367701439</v>
+        <v>0.03420955828684746</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -7913,10 +7913,10 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.274835823679298</v>
+        <v>-3.232974920586668</v>
       </c>
       <c r="G327">
-        <v>-0.01698564872031805</v>
+        <v>0.02486274028200275</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -7936,10 +7936,10 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.318545438485084</v>
+        <v>-3.298285279932884</v>
       </c>
       <c r="G328">
-        <v>-0.008670665094642316</v>
+        <v>0.01158949345304011</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -7962,7 +7962,7 @@
         <v>-3.361911885903178</v>
       </c>
       <c r="G329">
-        <v>4.96269692007445e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -7985,7 +7985,7 @@
         <v>-2.849251743705888</v>
       </c>
       <c r="G330">
-        <v>-1.424194095989151e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8005,10 +8005,10 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-2.887770858950168</v>
+        <v>-2.886492650914238</v>
       </c>
       <c r="G331">
-        <v>0.01383682992992341</v>
+        <v>0.01486877266053854</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8028,10 +8028,10 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-2.930734787731363</v>
+        <v>-2.926140875478411</v>
       </c>
       <c r="G332">
-        <v>0.02309269720885743</v>
+        <v>0.02738146658852791</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -8051,10 +8051,10 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-2.977749293131763</v>
+        <v>-2.969311522723017</v>
       </c>
       <c r="G333">
-        <v>0.02793396742802745</v>
+        <v>0.03637173783608438</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8074,10 +8074,10 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.029396006560981</v>
+        <v>-3.016502774545355</v>
       </c>
       <c r="G334">
-        <v>0.02853254740938227</v>
+        <v>0.04134140450590751</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8097,10 +8097,10 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.086141586582403</v>
+        <v>-3.066369349881866</v>
       </c>
       <c r="G335">
-        <v>0.02386351096312023</v>
+        <v>0.04363574766155831</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -8120,10 +8120,10 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.147032813853341</v>
+        <v>-3.120743168476019</v>
       </c>
       <c r="G336">
-        <v>0.01513320218504921</v>
+        <v>0.04142284755956815</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -8143,10 +8143,10 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.212435644892019</v>
+        <v>-3.178556836978006</v>
       </c>
       <c r="G337">
-        <v>0.001944991667893192</v>
+        <v>0.03577009754974347</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -8166,10 +8166,10 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.281872534537297</v>
+        <v>-3.24059164895192</v>
       </c>
       <c r="G338">
-        <v>-0.01531987607840912</v>
+        <v>0.02589620406799076</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -8189,10 +8189,10 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.327519806119961</v>
+        <v>-3.306268283437912</v>
       </c>
       <c r="G339">
-        <v>-0.008848251346007474</v>
+        <v>0.01238048807416042</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8215,7 +8215,7 @@
         <v>-3.370809690004235</v>
       </c>
       <c r="G340">
-        <v>5.621725307491943e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.421183510193086</v>
+        <v>-2.423098055647633</v>
       </c>
       <c r="G22">
         <v>-0.01541030357256457</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.432346566663075</v>
+        <v>-2.432984748481258</v>
       </c>
       <c r="G23">
         <v>-0.01872323295587064</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.438317158805241</v>
+        <v>-2.443441112117622</v>
       </c>
       <c r="G24">
         <v>-0.01684369801135421</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.449737859822065</v>
+        <v>-2.449806370837507</v>
       </c>
       <c r="G25">
         <v>-0.0204142719414957</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.461607609125678</v>
+        <v>-2.46224579094386</v>
       </c>
       <c r="G26">
         <v>-0.0244338941584259</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.463124428959795</v>
+        <v>-2.472603457419464</v>
       </c>
       <c r="G27">
         <v>-0.01810058690585992</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.492273898530724</v>
+        <v>-2.493340551580029</v>
       </c>
       <c r="G29">
         <v>-0.03154980230342308</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.484826210323354</v>
+        <v>-2.498000975432427</v>
       </c>
       <c r="G30">
         <v>-0.01625198700937069</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.510441929515006</v>
+        <v>-2.511892322865543</v>
       </c>
       <c r="G32">
         <v>-0.02616745202765713</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.522585258139076</v>
+        <v>-2.530812887201621</v>
       </c>
       <c r="G33">
         <v>-0.03046065356504446</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.52167503097666</v>
+        <v>-2.531790222378314</v>
       </c>
       <c r="G34">
         <v>-0.02170029931594608</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.531841129566473</v>
+        <v>-2.535785481297097</v>
       </c>
       <c r="G35">
         <v>-0.02401627081907609</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.529299049505627</v>
+        <v>-2.552143576237648</v>
       </c>
       <c r="G36">
         <v>-0.01362406367154745</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.5634876911256</v>
+        <v>-2.565389920314608</v>
       </c>
       <c r="G38">
         <v>-0.03211245111815542</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.571992138789487</v>
+        <v>-2.573549910615078</v>
       </c>
       <c r="G40">
         <v>-0.02491664460867704</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.581781318616039</v>
+        <v>-2.587325108580744</v>
       </c>
       <c r="G41">
         <v>-0.02685569734854609</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.589236717057903</v>
+        <v>-2.594050327516307</v>
       </c>
       <c r="G42">
         <v>-0.02646096870372738</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.59020490070366</v>
+        <v>-2.601353062566539</v>
       </c>
       <c r="G43">
         <v>-0.01957902526280253</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.606121185982742</v>
+        <v>-2.616474652717076</v>
       </c>
       <c r="G45">
         <v>-0.01979505636851786</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.614979672423823</v>
+        <v>-2.623519327742271</v>
       </c>
       <c r="G46">
         <v>-0.02080341572291644</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.629150910513097</v>
+        <v>-2.6299864866528</v>
       </c>
       <c r="G47">
         <v>-0.02712452672550825</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.634514153871246</v>
+        <v>-2.640054010147181</v>
       </c>
       <c r="G48">
         <v>-0.02463764299697435</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.649547478606307</v>
+        <v>-2.652152751828535</v>
       </c>
       <c r="G50">
         <v>-0.02397071355866986</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.658361850714025</v>
+        <v>-2.659224409969164</v>
       </c>
       <c r="G51">
         <v>-0.02493495857970529</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.664241214122249</v>
+        <v>-2.6675937980687</v>
       </c>
       <c r="G52">
         <v>-0.02296419490124624</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.67306056998317</v>
+        <v>-2.676309625373306</v>
       </c>
       <c r="G53">
         <v>-0.02393342367548423</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.681334760594457</v>
+        <v>-2.687666040083634</v>
       </c>
       <c r="G55">
         <v>-0.01650736011340659</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.692555295883436</v>
+        <v>-2.696035428183169</v>
       </c>
       <c r="G56">
         <v>-0.01987776831570298</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.700693607073371</v>
+        <v>-2.704173739373106</v>
       </c>
       <c r="G57">
         <v>-0.02016595241895458</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.701484988637223</v>
+        <v>-2.709871588197174</v>
       </c>
       <c r="G58">
         <v>-0.01310720689612366</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.713128974655379</v>
+        <v>-2.718009899387113</v>
       </c>
       <c r="G59">
         <v>-0.01690106582759754</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.721267285845316</v>
+        <v>-2.725312634437345</v>
       </c>
       <c r="G60">
         <v>-0.01718924993085125</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.728570020895547</v>
+        <v>-2.731010483261415</v>
       </c>
       <c r="G61">
         <v>-0.01664185789439937</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.736708332085483</v>
+        <v>-2.739148794451349</v>
       </c>
       <c r="G62">
         <v>-0.0169300419976533</v>
@@ -1887,7 +1887,7 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.753801878557693</v>
+        <v>-2.756242340923559</v>
       </c>
       <c r="G65">
         <v>-0.01047320720981471</v>
@@ -2140,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.541555009156802</v>
+        <v>-2.541976993373989</v>
       </c>
       <c r="G76">
         <v>-0.00178660241071249</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.548586797264598</v>
+        <v>-2.549191990188768</v>
       </c>
       <c r="G78">
         <v>-0.002524478310698353</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.552469108732461</v>
+        <v>-2.553074301656631</v>
       </c>
       <c r="G79">
         <v>-0.003259833674655432</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.555168607360529</v>
+        <v>-2.556590195710528</v>
       </c>
       <c r="G80">
         <v>-0.002812376198817912</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.558362165306323</v>
+        <v>-2.558784570309645</v>
       </c>
       <c r="G81">
         <v>-0.002858978040707338</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.560579507009472</v>
+        <v>-2.562750021589276</v>
       </c>
       <c r="G82">
         <v>-0.001929363639951553</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.562191405237778</v>
+        <v>-2.565385249124447</v>
       </c>
       <c r="G83">
         <v>-0.0003943057643516212</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.566189222794017</v>
+        <v>-2.569570607195402</v>
       </c>
       <c r="G84">
         <v>-0.001245167216684884</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.572424336100636</v>
+        <v>-2.574879699985519</v>
       </c>
       <c r="G86">
         <v>-0.001186368315493791</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.573384867929999</v>
+        <v>-2.577156985941004</v>
       </c>
       <c r="G87">
         <v>0.001000055959047952</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.578828851464774</v>
+        <v>-2.579887173684412</v>
       </c>
       <c r="G88">
         <v>-0.001296971471821617</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.584146122266928</v>
+        <v>-2.589645826914582</v>
       </c>
       <c r="G91">
         <v>0.002826626037740532</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.598769730462215</v>
+        <v>-2.599049406546051</v>
       </c>
       <c r="G93">
         <v>-0.005503069949735817</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.594059790181924</v>
+        <v>-2.59928914824738</v>
       </c>
       <c r="G94">
         <v>0.002353826434461137</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.601325175647445</v>
+        <v>-2.6017715399973</v>
       </c>
       <c r="G95">
         <v>-0.001764602927154968</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.600489778321085</v>
+        <v>-2.607987324219224</v>
       </c>
       <c r="G96">
         <v>0.002217750503110238</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.608082151801618</v>
+        <v>-2.608259865722468</v>
       </c>
       <c r="G97">
         <v>-0.002227666873516831</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.606499781574553</v>
+        <v>-2.612600679321358</v>
       </c>
       <c r="G98">
         <v>0.002501659457453176</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.610252617516673</v>
+        <v>-2.611501613192514</v>
       </c>
       <c r="G99">
         <v>0.001895779619238702</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.612992557019525</v>
+        <v>-2.616530260299892</v>
       </c>
       <c r="G100">
         <v>0.002302796220291725</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.62856804083054</v>
+        <v>-2.635606710242147</v>
       </c>
       <c r="G105">
         <v>0.002462092928803283</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.635348390952824</v>
+        <v>-2.6407463402139</v>
       </c>
       <c r="G106">
         <v>-0.001171301089575749</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.632631016067668</v>
+        <v>-2.635313223766713</v>
       </c>
       <c r="G107">
         <v>0.004693029899486278</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.640890867731051</v>
+        <v>-2.643916996821219</v>
       </c>
       <c r="G108">
         <v>-0.0004198656599920803</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.643475347669218</v>
+        <v>-2.652474795764701</v>
       </c>
       <c r="G109">
         <v>0.0001426105057460436</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.644938693782942</v>
+        <v>-2.649493829173267</v>
       </c>
       <c r="G110">
         <v>0.001826220495927622</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.654099677488281</v>
+        <v>-2.654962401061518</v>
       </c>
       <c r="G112">
         <v>-0.001040851001601117</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.656508217580115</v>
+        <v>-2.662509517999385</v>
       </c>
       <c r="G113">
         <v>-0.000302434989529532</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.663312177460698</v>
+        <v>-2.663463147686417</v>
       </c>
       <c r="G114">
         <v>-0.003959438766206969</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.660913870710405</v>
+        <v>-2.665811771323623</v>
       </c>
       <c r="G115">
         <v>0.001585824087991794</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.678303663289133</v>
+        <v>-2.679150846380567</v>
       </c>
       <c r="G118">
         <v>-0.006363100179021197</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.673106757154923</v>
+        <v>-2.684186423629842</v>
       </c>
       <c r="G119">
         <v>0.001980762059094809</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.678315485055766</v>
+        <v>-2.682735488507878</v>
       </c>
       <c r="G120">
         <v>-8.100973784319621e-05</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.682862854646538</v>
+        <v>-2.689643373415961</v>
       </c>
       <c r="G121">
         <v>-0.001481423224709122</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.68358582376316</v>
+        <v>-2.697137259429808</v>
       </c>
       <c r="G122">
         <v>0.0009425637625741778</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.68437482889457</v>
+        <v>-2.697791507097658</v>
       </c>
       <c r="G123">
         <v>0.003300514735068649</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.690087457044128</v>
+        <v>-2.694959432794062</v>
       </c>
       <c r="G124">
         <v>0.0007348426894169258</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.696875759377706</v>
+        <v>-2.701583301605007</v>
       </c>
       <c r="G125">
         <v>-0.002906503540256677</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.701883312762405</v>
+        <v>-2.704610623429922</v>
       </c>
       <c r="G126">
         <v>-0.004767100821050141</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.711216583654233</v>
+        <v>-2.714674723035776</v>
       </c>
       <c r="G129">
         <v>-0.004659503401161835</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.706293089807359</v>
+        <v>-2.715267350059217</v>
       </c>
       <c r="G130">
         <v>0.003410946549617266</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.71368261106699</v>
+        <v>-2.72157753243638</v>
       </c>
       <c r="G131">
         <v>-0.0008316186061081421</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.714202170857267</v>
+        <v>-2.715948415027086</v>
       </c>
       <c r="G132">
         <v>0.00179577770751993</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.724686480311847</v>
+        <v>-2.731702791558081</v>
       </c>
       <c r="G133">
         <v>-0.005541575643154717</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.728396219566587</v>
+        <v>-2.72973966856435</v>
       </c>
       <c r="G135">
         <v>-0.002957402690084487</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.735003049454874</v>
+        <v>-2.73843759740627</v>
       </c>
       <c r="G136">
         <v>-0.006417276474466327</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.741222735812906</v>
+        <v>-2.742448151421949</v>
       </c>
       <c r="G138">
         <v>-0.006343050624687097</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.736722956338977</v>
+        <v>-2.745879332258412</v>
       </c>
       <c r="G139">
         <v>0.001303684953147144</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.75345898548937</v>
+        <v>-2.755969767945635</v>
       </c>
       <c r="G140">
         <v>-0.01228538809334112</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.749648976354915</v>
+        <v>-2.75333194441428</v>
       </c>
       <c r="G141">
         <v>-0.005328422854980808</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.749155112259957</v>
+        <v>-2.753986918481919</v>
       </c>
       <c r="G142">
         <v>-0.001687602656117448</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.752625589113493</v>
+        <v>-2.766530655575127</v>
       </c>
       <c r="G144">
         <v>0.001135832698157424</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.756484052930245</v>
+        <v>-2.76656285958381</v>
       </c>
       <c r="G145">
         <v>0.0004243249853110864</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.763362610821607</v>
+        <v>-2.77215640119465</v>
       </c>
       <c r="G146">
         <v>-0.003307276802146264</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.767197408033449</v>
+        <v>-2.773256129199428</v>
       </c>
       <c r="G147">
         <v>-0.003995117910082113</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.770100792083096</v>
+        <v>-2.77670832209779</v>
       </c>
       <c r="G148">
         <v>-0.003751545855823935</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.779987566360066</v>
+        <v>-2.787134798480807</v>
       </c>
       <c r="G150">
         <v>-0.007344407924983809</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.779366116338091</v>
+        <v>-2.796681801739557</v>
       </c>
       <c r="G151">
         <v>-0.00357600179910289</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.786322624733267</v>
+        <v>-2.786520889621404</v>
       </c>
       <c r="G152">
         <v>-0.007385554090373558</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.794817657035912</v>
+        <v>-2.799393156425488</v>
       </c>
       <c r="G154">
         <v>-0.009586674185207755</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.791109171126732</v>
+        <v>-2.798862354906402</v>
       </c>
       <c r="G155">
         <v>-0.002731232172123121</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-2.800605672765202</v>
+        <v>-2.806089429144729</v>
       </c>
       <c r="G157">
         <v>-0.005933821602781997</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.810949401612467</v>
+        <v>-2.812182696731819</v>
       </c>
       <c r="G158">
         <v>-0.01313059434614217</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.803102126791494</v>
+        <v>-2.81723770855402</v>
       </c>
       <c r="G159">
         <v>-0.002136363421263221</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.81377764796589</v>
+        <v>-2.826937415956196</v>
       </c>
       <c r="G160">
         <v>-0.009664928491754265</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.816873526190881</v>
+        <v>-2.823209734990426</v>
       </c>
       <c r="G161">
         <v>-0.009613850612839814</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.816193589306793</v>
+        <v>-2.824959606187551</v>
       </c>
       <c r="G163">
         <v>-0.002640001520941127</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.819757758775611</v>
+        <v>-2.837870230503615</v>
       </c>
       <c r="G164">
         <v>-0.003057214885853976</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.826944487327869</v>
+        <v>-2.833627944996452</v>
       </c>
       <c r="G165">
         <v>-0.007096987334206939</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.833592756552776</v>
+        <v>-2.83575232924592</v>
       </c>
       <c r="G166">
         <v>-0.0105983004552086</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.834046446650887</v>
+        <v>-2.837517007644824</v>
       </c>
       <c r="G167">
         <v>-0.007905034449413817</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.83765768875341</v>
+        <v>-2.838153154145091</v>
       </c>
       <c r="G168">
         <v>-0.008369320448031292</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.842682562502108</v>
+        <v>-2.845979610582524</v>
       </c>
       <c r="G169">
         <v>-0.01024723809282435</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.85083038717418</v>
+        <v>-2.852289771746771</v>
       </c>
       <c r="G170">
         <v>-0.01524810666099163</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.847688487434418</v>
+        <v>-2.852582641391188</v>
       </c>
       <c r="G171">
         <v>-0.008959250817324405</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.856470764169222</v>
+        <v>-2.861466526634055</v>
       </c>
       <c r="G173">
         <v>-0.01144761534431671</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.853304332844354</v>
+        <v>-2.864879984116369</v>
       </c>
       <c r="G174">
         <v>-0.005134227915544298</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.863676905396408</v>
+        <v>-2.865080389217598</v>
       </c>
       <c r="G175">
         <v>-0.0123598443636922</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.866626817838443</v>
+        <v>-2.869578049575691</v>
       </c>
       <c r="G176">
         <v>-0.01216280070182241</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.876102693831467</v>
+        <v>-2.876437299832074</v>
       </c>
       <c r="G178">
         <v>-0.01534476448703559</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.879177324851117</v>
+        <v>-2.879876416013069</v>
       </c>
       <c r="G179">
         <v>-0.01527243940278</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.88437778823502</v>
+        <v>-2.886056317851006</v>
       </c>
       <c r="G181">
         <v>-0.01417899057887273</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.881981817802718</v>
+        <v>-2.888994008285346</v>
       </c>
       <c r="G182">
         <v>-0.008636064042665148</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.89027079599818</v>
+        <v>-2.893664921076048</v>
       </c>
       <c r="G183">
         <v>-0.01377808613422238</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.889985216953417</v>
+        <v>-2.898119330108716</v>
       </c>
       <c r="G185">
         <v>-0.007198594881648757</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.901644491886634</v>
+        <v>-2.902559223774818</v>
       </c>
       <c r="G186">
         <v>-0.01571091371095967</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.903458545047564</v>
+        <v>-2.90649303906425</v>
       </c>
       <c r="G188">
         <v>-0.01123105466407959</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.905435793700311</v>
+        <v>-2.908645189993619</v>
       </c>
       <c r="G189">
         <v>-0.01006134721292173</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.904703488229561</v>
+        <v>-2.912533398815801</v>
       </c>
       <c r="G190">
         <v>-0.006182085638265944</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-2.921840492448452</v>
+        <v>-2.921899229372788</v>
       </c>
       <c r="G193">
         <v>-0.01387822154544083</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-2.922810842628813</v>
+        <v>-2.922985052097621</v>
       </c>
       <c r="G194">
         <v>-0.01170161562189648</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-2.928423025666265</v>
+        <v>-2.930460710096162</v>
       </c>
       <c r="G196">
         <v>-0.01101988645153812</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-2.927650953350563</v>
+        <v>-2.932824269726305</v>
       </c>
       <c r="G197">
         <v>-0.007100858031930335</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.938437303657782</v>
+        <v>-2.940991160236169</v>
       </c>
       <c r="G200">
         <v>-0.008446340027433052</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-2.946081541952324</v>
+        <v>-2.946879777515565</v>
       </c>
       <c r="G202">
         <v>-0.009796666114164909</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-2.950274234278905</v>
+        <v>-2.952498907328168</v>
       </c>
       <c r="G203">
         <v>-0.01084240233684086</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-2.950609227678882</v>
+        <v>-2.953793974487001</v>
       </c>
       <c r="G204">
         <v>-0.008030439632912223</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-2.954862647656341</v>
+        <v>-2.956762603727133</v>
       </c>
       <c r="G205">
         <v>-0.009136903506466343</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-2.96262390208993</v>
+        <v>-2.965382821374842</v>
       </c>
       <c r="G208">
         <v>-0.007457289628338637</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-2.971778365973294</v>
+        <v>-2.97272834400869</v>
       </c>
       <c r="G211">
         <v>-0.007170885199987292</v>
@@ -5314,7 +5314,7 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-2.978173910571742</v>
+        <v>-2.979123888607141</v>
       </c>
       <c r="G214">
         <v>-0.004125561486719026</v>
@@ -5337,7 +5337,7 @@
         <v>143</v>
       </c>
       <c r="F215">
-        <v>-2.980305758771227</v>
+        <v>-2.981255736806622</v>
       </c>
       <c r="G215">
         <v>-0.00311045358229857</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.661796473014352</v>
+        <v>-2.666188086224606</v>
       </c>
       <c r="G221">
         <v>0.006499433093621665</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.705097259063427</v>
+        <v>-2.710330416468853</v>
       </c>
       <c r="G222">
         <v>0.01134445514830595</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.80125386490506</v>
+        <v>-2.806572982736514</v>
       </c>
       <c r="G224">
         <v>0.01147946551419365</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.861042683175921</v>
+        <v>-2.861584340913687</v>
       </c>
       <c r="G225">
         <v>-0.0001635446529069107</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.909277330881913</v>
+        <v>-2.912998131490691</v>
       </c>
       <c r="G226">
         <v>-0.000252384255139404</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.96189851940722</v>
+        <v>-2.964678626642663</v>
       </c>
       <c r="G227">
         <v>-0.004727764676686452</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.013956369744217</v>
+        <v>-3.0165526301788</v>
       </c>
       <c r="G228">
         <v>-0.008639806909923275</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.061130416966075</v>
+        <v>-3.062027355645469</v>
       </c>
       <c r="G229">
         <v>-0.007668046028020958</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.812897799427372</v>
+        <v>-2.816765944972533</v>
       </c>
       <c r="G234">
         <v>0.01604190839518327</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.863460242346753</v>
+        <v>-2.864516369750308</v>
       </c>
       <c r="G235">
         <v>0.01448479681821446</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.915889266160765</v>
+        <v>-2.922278624946518</v>
       </c>
       <c r="G236">
         <v>0.01106110434661467</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-2.965784231663874</v>
+        <v>-2.969137131196552</v>
       </c>
       <c r="G237">
         <v>0.0101714701859188</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.022106540769253</v>
+        <v>-3.026655998514644</v>
       </c>
       <c r="G238">
         <v>0.002854492422951216</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.07819926417526</v>
+        <v>-3.0797625538127</v>
       </c>
       <c r="G239">
         <v>-0.004232899640643328</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.763062852025338</v>
+        <v>-2.764971873158906</v>
       </c>
       <c r="G243">
         <v>0.01019939132225467</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.808567365097564</v>
+        <v>-2.809238301822275</v>
       </c>
       <c r="G244">
         <v>0.01438799906367638</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.855154786425197</v>
+        <v>-2.855345893431209</v>
       </c>
       <c r="G245">
         <v>0.01749369854969141</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.957270253566153</v>
+        <v>-2.961181133023251</v>
       </c>
       <c r="G247">
         <v>0.01530461565356922</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.065350534847403</v>
+        <v>-3.066352008605495</v>
       </c>
       <c r="G249">
         <v>0.007150718617154439</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.12137993032553</v>
+        <v>-3.125083162061988</v>
       </c>
       <c r="G250">
         <v>0.000814443952674937</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.172744397134653</v>
+        <v>-3.176369681081626</v>
       </c>
       <c r="G251">
         <v>-0.0008569020428010887</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.793530511883372</v>
+        <v>-2.793958096740129</v>
       </c>
       <c r="G254">
         <v>0.01076225843307821</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.836962432958538</v>
+        <v>-2.838794544462729</v>
       </c>
       <c r="G255">
         <v>0.01792173476566639</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.882191150358431</v>
+        <v>-2.884706106753832</v>
       </c>
       <c r="G256">
         <v>0.02292813732699406</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.932931003152867</v>
+        <v>-2.933700413601438</v>
       </c>
       <c r="G257">
         <v>0.02277968194031232</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.036731870718618</v>
+        <v>-3.039094205424536</v>
       </c>
       <c r="G259">
         <v>0.01980533174353583</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.093028324277567</v>
+        <v>-3.093504582751318</v>
       </c>
       <c r="G260">
         <v>0.01374399814580662</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.150483834604632</v>
+        <v>-3.151709543900776</v>
       </c>
       <c r="G261">
         <v>0.006879885226495963</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.208841518090839</v>
+        <v>-3.209154820666167</v>
       </c>
       <c r="G262">
         <v>-0.001242678298489952</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.816260808040775</v>
+        <v>-2.817457904761309</v>
       </c>
       <c r="G265">
         <v>0.01173703965361028</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.859324070282223</v>
+        <v>-2.859946896316819</v>
       </c>
       <c r="G266">
         <v>0.01958721285367382</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.904476009771394</v>
+        <v>-2.90611976821758</v>
       </c>
       <c r="G267">
         <v>0.02534870880601403</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.953237984484783</v>
+        <v>-2.955304037151095</v>
       </c>
       <c r="G268">
         <v>0.02725301693490545</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.004005565356579</v>
+        <v>-3.00435025895273</v>
       </c>
       <c r="G269">
         <v>0.02739887150462028</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.057326169980591</v>
+        <v>-3.058877763713635</v>
       </c>
       <c r="G270">
         <v>0.02499170232211956</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.173195758014426</v>
+        <v>-3.173342707626357</v>
       </c>
       <c r="G272">
         <v>0.01070183257207702</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.233062895322607</v>
+        <v>-3.233271811292877</v>
       </c>
       <c r="G273">
         <v>0.001748130705406081</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.834387091644489</v>
+        <v>-2.835124694933695</v>
       </c>
       <c r="G276">
         <v>0.01230282636153834</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.877103477458761</v>
+        <v>-2.877372143770715</v>
       </c>
       <c r="G277">
         <v>0.02077935252467</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.920934397856443</v>
+        <v>-2.922079640435621</v>
       </c>
       <c r="G278">
         <v>0.0281413441043914</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.968656419614527</v>
+        <v>-2.969250425672525</v>
       </c>
       <c r="G279">
         <v>0.03161223432371174</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.020191757410803</v>
+        <v>-3.020512047853255</v>
       </c>
       <c r="G280">
         <v>0.03126980850483951</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.073958209825479</v>
+        <v>-3.074372552507489</v>
       </c>
       <c r="G281">
         <v>0.0286962680675662</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.129520876365673</v>
+        <v>-3.130892960575601</v>
       </c>
       <c r="G282">
         <v>0.02432651350477633</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.190194536604227</v>
+        <v>-3.191029078431307</v>
       </c>
       <c r="G283">
         <v>0.01484576524362535</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.251304807989762</v>
+        <v>-3.252364401052989</v>
       </c>
       <c r="G284">
         <v>0.00492840583549442</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.848562587365766</v>
+        <v>-2.849354478497802</v>
       </c>
       <c r="G287">
         <v>0.01337344928687134</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.89046464501412</v>
+        <v>-2.89056544871052</v>
       </c>
       <c r="G288">
         <v>0.02290459396584721</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.934774962336035</v>
+        <v>-2.935427534762933</v>
       </c>
       <c r="G289">
         <v>0.03002747897126223</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-2.982176440074238</v>
+        <v>-2.982560741603932</v>
       </c>
       <c r="G290">
         <v>0.03405920356038861</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.032542689305405</v>
+        <v>-3.033576566532039</v>
       </c>
       <c r="G291">
         <v>0.03512615665655217</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.086336724247513</v>
+        <v>-3.087513068430754</v>
       </c>
       <c r="G292">
         <v>0.03276532404177357</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.267245404382785</v>
+        <v>-3.267576150477185</v>
       </c>
       <c r="G295">
         <v>0.006156250888492032</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.860766094054152</v>
+        <v>-2.861333701806473</v>
       </c>
       <c r="G298">
         <v>0.0136089046379877</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.901715927459944</v>
+        <v>-2.902121146853315</v>
       </c>
       <c r="G299">
         <v>0.02429898025421906</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.945505163137132</v>
+        <v>-2.945865648229793</v>
       </c>
       <c r="G300">
         <v>0.03214965359905442</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.043307642258136</v>
+        <v>-3.043710446645833</v>
       </c>
       <c r="G302">
         <v>0.03772864588631397</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.095951214073822</v>
+        <v>-3.097255062118899</v>
       </c>
       <c r="G303">
         <v>0.03672498309265193</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.155120649974549</v>
+        <v>-3.155412419032377</v>
       </c>
       <c r="G304">
         <v>0.02929710957816412</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.215124854059323</v>
+        <v>-3.216100212818866</v>
       </c>
       <c r="G305">
         <v>0.02093281451541407</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.278860114944988</v>
+        <v>-3.279831402690168</v>
       </c>
       <c r="G306">
         <v>0.008837462651772321</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.870525857569301</v>
+        <v>-2.870925919087751</v>
       </c>
       <c r="G309">
         <v>0.01429046652205868</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.910816155628909</v>
+        <v>-2.912075426053458</v>
       </c>
       <c r="G310">
         <v>0.02589817136333483</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.052434501941301</v>
+        <v>-3.052650466815097</v>
       </c>
       <c r="G313">
         <v>0.03981488121790977</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.106290271002067</v>
+        <v>-3.106817649512808</v>
       </c>
       <c r="G314">
         <v>0.03785711505802802</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.163614714224873</v>
+        <v>-3.164779450940215</v>
       </c>
       <c r="G315">
         <v>0.03235119846826351</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.225020506530718</v>
+        <v>-3.225599331980427</v>
       </c>
       <c r="G316">
         <v>0.02284340906330207</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.289398149063349</v>
+        <v>-3.289682714052971</v>
       </c>
       <c r="G317">
         <v>0.0102842931637131</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-2.878956094899111</v>
+        <v>-2.879422293144411</v>
       </c>
       <c r="G320">
         <v>0.01474838932814704</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.009084789023407</v>
+        <v>-3.009380048224338</v>
       </c>
       <c r="G323">
         <v>0.04066772726593082</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.059330905309504</v>
+        <v>-3.05971325998234</v>
       </c>
       <c r="G324">
         <v>0.04245872349708635</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.17159099006457</v>
+        <v>-3.172755714296927</v>
       </c>
       <c r="G326">
         <v>0.03420955828684746</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.232974920586668</v>
+        <v>-3.233353937923811</v>
       </c>
       <c r="G327">
         <v>0.02486274028200275</v>
@@ -7936,7 +7936,7 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.298285279932884</v>
+        <v>-3.298889353913585</v>
       </c>
       <c r="G328">
         <v>0.01158949345304011</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-2.886492650914238</v>
+        <v>-2.886569217879971</v>
       </c>
       <c r="G331">
         <v>0.01486877266053854</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-2.926140875478411</v>
+        <v>-2.926158956421722</v>
       </c>
       <c r="G332">
         <v>0.02738146658852791</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.066369349881866</v>
+        <v>-3.06648078270719</v>
       </c>
       <c r="G335">
         <v>0.04363574766155831</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.120743168476019</v>
+        <v>-3.120922133334501</v>
       </c>
       <c r="G336">
         <v>0.04142284755956815</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.178556836978006</v>
+        <v>-3.179198075995335</v>
       </c>
       <c r="G337">
         <v>0.03577009754974347</v>
@@ -8166,7 +8166,7 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.24059164895192</v>
+        <v>-3.241056066012347</v>
       </c>
       <c r="G338">
         <v>0.02589620406799076</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.306268283437912</v>
+        <v>-3.306495248074137</v>
       </c>
       <c r="G339">
         <v>0.01238048807416042</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.432984748481258</v>
+        <v>-2.434261112117622</v>
       </c>
       <c r="G23">
         <v>-0.01872323295587064</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.443441112117622</v>
+        <v>-2.445424168587611</v>
       </c>
       <c r="G24">
         <v>-0.01684369801135421</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.449806370837507</v>
+        <v>-2.4565872250576</v>
       </c>
       <c r="G25">
         <v>-0.0204142719414957</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.46224579094386</v>
+        <v>-2.468388463345772</v>
       </c>
       <c r="G26">
         <v>-0.0244338941584259</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.472603457419464</v>
+        <v>-2.480759372436682</v>
       </c>
       <c r="G27">
         <v>-0.01810058690585992</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.480799231283031</v>
+        <v>-2.493198792543037</v>
       </c>
       <c r="G28">
         <v>-0.02792526214241309</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.493340551580029</v>
+        <v>-2.506276394467572</v>
       </c>
       <c r="G29">
         <v>-0.03154980230342308</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.498000975432427</v>
+        <v>-2.513028596518571</v>
       </c>
       <c r="G30">
         <v>-0.01625198700937069</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.504942726493019</v>
+        <v>-2.51978079856957</v>
       </c>
       <c r="G31">
         <v>-0.02851837609235308</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.511892322865543</v>
+        <v>-2.526533000620571</v>
       </c>
       <c r="G32">
         <v>-0.02616745202765713</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.530812887201621</v>
+        <v>-2.533285202671569</v>
       </c>
       <c r="G33">
         <v>-0.03046065356504446</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.531790222378314</v>
+        <v>-2.540037404722569</v>
       </c>
       <c r="G34">
         <v>-0.02170029931594608</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.535785481297097</v>
+        <v>-2.546789606773568</v>
       </c>
       <c r="G35">
         <v>-0.02401627081907609</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.552143576237648</v>
+        <v>-2.553522255542858</v>
       </c>
       <c r="G36">
         <v>-0.01362406367154745</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.552411015550837</v>
+        <v>-2.560559500734327</v>
       </c>
       <c r="G37">
         <v>-0.02888590263007518</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.565389920314608</v>
+        <v>-2.567319132619053</v>
       </c>
       <c r="G38">
         <v>-0.03211245111815542</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.563257582193602</v>
+        <v>-2.575484426924424</v>
       </c>
       <c r="G39">
         <v>-0.02403221509947473</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.573549910615078</v>
+        <v>-2.581632129745323</v>
       </c>
       <c r="G40">
         <v>-0.02491664460867704</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.587325108580744</v>
+        <v>-2.59003593079402</v>
       </c>
       <c r="G41">
         <v>-0.02685569734854609</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.594050327516307</v>
+        <v>-2.596530072819983</v>
       </c>
       <c r="G42">
         <v>-0.02646096870372738</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.601353062566539</v>
+        <v>-2.60328227487098</v>
       </c>
       <c r="G43">
         <v>-0.01957902526280253</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.60107739871422</v>
+        <v>-2.610843069946248</v>
       </c>
       <c r="G44">
         <v>-0.02260139618667889</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.616474652717076</v>
+        <v>-2.617310228856779</v>
       </c>
       <c r="G45">
         <v>-0.01979505636851786</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.623519327742271</v>
+        <v>-2.625448540046712</v>
       </c>
       <c r="G46">
         <v>-0.02080341572291644</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.6299864866528</v>
+        <v>-2.632751275096947</v>
       </c>
       <c r="G47">
         <v>-0.02712452672550825</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.644618939868701</v>
+        <v>-2.645685592918005</v>
       </c>
       <c r="G49">
         <v>-0.0268923019077465</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.652152751828535</v>
+        <v>-2.652988327968238</v>
       </c>
       <c r="G50">
         <v>-0.02397071355866986</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.659224409969164</v>
+        <v>-2.661126639158172</v>
       </c>
       <c r="G51">
         <v>-0.02493495857970529</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.6675937980687</v>
+        <v>-2.668429374208403</v>
       </c>
       <c r="G52">
         <v>-0.02296419490124624</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.680594381943005</v>
+        <v>-2.682199268169165</v>
       </c>
       <c r="G54">
         <v>-0.02361710854863686</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.687666040083634</v>
+        <v>-2.691173155498805</v>
       </c>
       <c r="G55">
         <v>-0.01650736011340659</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.696035428183169</v>
+        <v>-2.698475890549039</v>
       </c>
       <c r="G56">
         <v>-0.01987776831570298</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.704173739373106</v>
+        <v>-2.705778625599271</v>
       </c>
       <c r="G57">
         <v>-0.02016595241895458</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.709871588197174</v>
+        <v>-2.713916936789204</v>
       </c>
       <c r="G58">
         <v>-0.01310720689612366</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.718009899387113</v>
+        <v>-2.722055247979141</v>
       </c>
       <c r="G59">
         <v>-0.01690106582759754</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.725312634437345</v>
+        <v>-2.727753096803211</v>
       </c>
       <c r="G60">
         <v>-0.01718924993085125</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.731010483261415</v>
+        <v>-2.733450945627282</v>
       </c>
       <c r="G61">
         <v>-0.01664185789439937</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.558784570309645</v>
+        <v>-2.559206554526831</v>
       </c>
       <c r="G81">
         <v>-0.002858978040707338</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.562750021589276</v>
+        <v>-2.562961224090936</v>
       </c>
       <c r="G82">
         <v>-0.001929363639951553</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.565385249124447</v>
+        <v>-2.567504295286188</v>
       </c>
       <c r="G83">
         <v>-0.0003943057643516212</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.572750431096681</v>
+        <v>-2.573353270554185</v>
       </c>
       <c r="G85">
         <v>-0.004659419415443455</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.574879699985519</v>
+        <v>-2.577235582022047</v>
       </c>
       <c r="G86">
         <v>-0.001186368315493791</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.577156985941004</v>
+        <v>-2.580668336264182</v>
       </c>
       <c r="G87">
         <v>0.001000055959047952</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.579887173684412</v>
+        <v>-2.582783450322371</v>
       </c>
       <c r="G88">
         <v>-0.001296971471821617</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.583311785129107</v>
+        <v>-2.587702064007396</v>
       </c>
       <c r="G89">
         <v>-0.002632949032248977</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.587724829517587</v>
+        <v>-2.592539477516075</v>
       </c>
       <c r="G90">
         <v>-0.003899037316823506</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.589645826914582</v>
+        <v>-2.596266574071636</v>
       </c>
       <c r="G91">
         <v>0.002826626037740532</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.596389636932444</v>
+        <v>-2.59792977048254</v>
       </c>
       <c r="G92">
         <v>-0.006269932523869759</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.599049406546051</v>
+        <v>-2.601257429138814</v>
       </c>
       <c r="G93">
         <v>-0.005503069949735817</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.59928914824738</v>
+        <v>-2.606604993367085</v>
       </c>
       <c r="G94">
         <v>0.002353826434461137</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.6017715399973</v>
+        <v>-2.609302552359736</v>
       </c>
       <c r="G95">
         <v>-0.001764602927154968</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.607987324219224</v>
+        <v>-2.613899250722789</v>
       </c>
       <c r="G96">
         <v>0.002217750503110238</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.608259865722468</v>
+        <v>-2.616621497340565</v>
       </c>
       <c r="G97">
         <v>-0.002227666873516831</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.612600679321358</v>
+        <v>-2.620928153447164</v>
       </c>
       <c r="G98">
         <v>0.002501659457453176</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.611501613192514</v>
+        <v>-2.625819194123648</v>
       </c>
       <c r="G99">
         <v>0.001895779619238702</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.616530260299892</v>
+        <v>-2.627769968193725</v>
       </c>
       <c r="G100">
         <v>0.002302796220291725</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.622385252669636</v>
+        <v>-2.632171353785187</v>
       </c>
       <c r="G101">
         <v>-0.003942943325914161</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.625753414397848</v>
+        <v>-2.636185607213776</v>
       </c>
       <c r="G102">
         <v>-0.004164148950219992</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.629756390170285</v>
+        <v>-2.638293535831571</v>
       </c>
       <c r="G103">
         <v>-0.005020168618752319</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.629195654817832</v>
+        <v>-2.644487648030102</v>
       </c>
       <c r="G104">
         <v>-0.001312477162394243</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.635606710242147</v>
+        <v>-2.646918016931729</v>
       </c>
       <c r="G105">
         <v>0.002462092928803283</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.6407463402139</v>
+        <v>-2.651994626736758</v>
       </c>
       <c r="G106">
         <v>-0.001171301089575749</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.635313223766713</v>
+        <v>-2.654876809109933</v>
       </c>
       <c r="G107">
         <v>0.004693029899486278</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.643916996821219</v>
+        <v>-2.660461007541192</v>
       </c>
       <c r="G108">
         <v>-0.0004198656599920803</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.652474795764701</v>
+        <v>-2.663316141867694</v>
       </c>
       <c r="G109">
         <v>0.0001426105057460436</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.649493829173267</v>
+        <v>-2.668999884232301</v>
       </c>
       <c r="G110">
         <v>0.001826220495927622</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.654865255205159</v>
+        <v>-2.671855018558809</v>
       </c>
       <c r="G111">
         <v>-0.004953384822383722</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.654962401061518</v>
+        <v>-2.675574929673977</v>
       </c>
       <c r="G112">
         <v>-0.001040851001601117</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.662509517999385</v>
+        <v>-2.680293405568568</v>
       </c>
       <c r="G113">
         <v>-0.000302434989529532</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.663463147686417</v>
+        <v>-2.684679322216102</v>
       </c>
       <c r="G114">
         <v>-0.003959438766206969</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.665811771323623</v>
+        <v>-2.688755907102169</v>
       </c>
       <c r="G115">
         <v>0.001585824087991794</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.66960032050619</v>
+        <v>-2.693115244628577</v>
       </c>
       <c r="G116">
         <v>-0.003953669603887766</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.667221935562319</v>
+        <v>-2.697108689702877</v>
       </c>
       <c r="G117">
         <v>0.001571671443887812</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.679150846380567</v>
+        <v>-2.701238480970617</v>
       </c>
       <c r="G118">
         <v>-0.006363100179021197</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.684186423629842</v>
+        <v>-2.705491509909415</v>
       </c>
       <c r="G119">
         <v>0.001980762059094809</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.682735488507878</v>
+        <v>-2.710282481690681</v>
       </c>
       <c r="G120">
         <v>-8.100973784319621e-05</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.689643373415961</v>
+        <v>-2.714883480110709</v>
       </c>
       <c r="G121">
         <v>-0.001481423224709122</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.697137259429808</v>
+        <v>-2.719380109578549</v>
       </c>
       <c r="G122">
         <v>0.0009425637625741778</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.697791507097658</v>
+        <v>-2.723558702995256</v>
       </c>
       <c r="G123">
         <v>0.003300514735068649</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.694959432794062</v>
+        <v>-2.728296468394852</v>
       </c>
       <c r="G124">
         <v>0.0007348426894169258</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.701583301605007</v>
+        <v>-2.732739470694889</v>
       </c>
       <c r="G125">
         <v>-0.002906503540256677</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.704610623429922</v>
+        <v>-2.737449242299807</v>
       </c>
       <c r="G126">
         <v>-0.004767100821050141</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.704796415097396</v>
+        <v>-2.742159013904725</v>
       </c>
       <c r="G127">
         <v>-0.004533247052135758</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.705863643065691</v>
+        <v>-2.745173677662872</v>
       </c>
       <c r="G128">
         <v>-0.002453518916525343</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.714674723035776</v>
+        <v>-2.748188341421022</v>
       </c>
       <c r="G129">
         <v>-0.004659503401161835</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.715267350059217</v>
+        <v>-2.751203005179169</v>
       </c>
       <c r="G130">
         <v>0.003410946549617266</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.72157753243638</v>
+        <v>-2.754217668937318</v>
       </c>
       <c r="G131">
         <v>-0.0008316186061081421</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.715948415027086</v>
+        <v>-2.757232332695463</v>
       </c>
       <c r="G132">
         <v>0.00179577770751993</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.731702791558081</v>
+        <v>-2.760246996453611</v>
       </c>
       <c r="G133">
         <v>-0.005541575643154717</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.7339865235535</v>
+        <v>-2.763261660211758</v>
       </c>
       <c r="G134">
         <v>-0.01169466278090292</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.72973966856435</v>
+        <v>-2.766276323969907</v>
       </c>
       <c r="G135">
         <v>-0.002957402690084487</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-2.73843759740627</v>
+        <v>-2.768692352943906</v>
       </c>
       <c r="G136">
         <v>-0.006417276474466327</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.742039930787111</v>
+        <v>-2.771148918121861</v>
       </c>
       <c r="G137">
         <v>-0.01030720170279786</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-2.742448151421949</v>
+        <v>-2.774109289054976</v>
       </c>
       <c r="G138">
         <v>-0.006343050624687097</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.745879332258412</v>
+        <v>-2.776232878947437</v>
       </c>
       <c r="G139">
         <v>0.001303684953147144</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.755969767945635</v>
+        <v>-2.77894134700297</v>
       </c>
       <c r="G140">
         <v>-0.01228538809334112</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.75333194441428</v>
+        <v>-2.781649815058508</v>
       </c>
       <c r="G141">
         <v>-0.005328422854980808</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.753986918481919</v>
+        <v>-2.784650722195578</v>
       </c>
       <c r="G142">
         <v>-0.001687602656117448</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.7565363156419</v>
+        <v>-2.78677431208804</v>
       </c>
       <c r="G143">
         <v>-0.005921849934154455</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.766530655575127</v>
+        <v>-2.789523316347531</v>
       </c>
       <c r="G144">
         <v>0.001135832698157424</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.76656285958381</v>
+        <v>-2.791898809117571</v>
       </c>
       <c r="G145">
         <v>0.0004243249853110864</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.77215640119465</v>
+        <v>-2.794899716254645</v>
       </c>
       <c r="G146">
         <v>-0.003307276802146264</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.773256129199428</v>
+        <v>-2.798193062473251</v>
       </c>
       <c r="G147">
         <v>-0.003995117910082113</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.77670832209779</v>
+        <v>-2.800316652365715</v>
       </c>
       <c r="G148">
         <v>-0.003751545855823935</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.785099495902101</v>
+        <v>-2.803317559502786</v>
       </c>
       <c r="G149">
         <v>-0.0156032935709236</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.787134798480807</v>
+        <v>-2.805441149395249</v>
       </c>
       <c r="G150">
         <v>-0.007344407924983809</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.796681801739557</v>
+        <v>-2.808149617450783</v>
       </c>
       <c r="G151">
         <v>-0.00357600179910289</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.786520889621404</v>
+        <v>-2.81115052458785</v>
       </c>
       <c r="G152">
         <v>-0.007385554090373558</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.797361969897104</v>
+        <v>-2.814443870806462</v>
       </c>
       <c r="G153">
         <v>-0.01527794315030584</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.799393156425488</v>
+        <v>-2.817152338861994</v>
       </c>
       <c r="G154">
         <v>-0.009586674185207755</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.798862354906402</v>
+        <v>-2.819860806917529</v>
       </c>
       <c r="G155">
         <v>-0.002731232172123121</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.804185978678271</v>
+        <v>-2.822569274973065</v>
       </c>
       <c r="G156">
         <v>-0.01266108361975693</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-2.806089429144729</v>
+        <v>-2.825570182110138</v>
       </c>
       <c r="G157">
         <v>-0.005933821602781997</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-2.812182696731819</v>
+        <v>-2.828278650165672</v>
       </c>
       <c r="G158">
         <v>-0.01313059434614217</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-2.81723770855402</v>
+        <v>-2.831279557302742</v>
       </c>
       <c r="G159">
         <v>-0.002136363421263221</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-2.826937415956196</v>
+        <v>-2.833736122480698</v>
       </c>
       <c r="G160">
         <v>-0.009664928491754265</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.823209734990426</v>
+        <v>-2.836192687658654</v>
       </c>
       <c r="G161">
         <v>-0.009613850612839814</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.82680797725405</v>
+        <v>-2.838649252836611</v>
       </c>
       <c r="G162">
         <v>-0.01640134557210349</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.824959606187551</v>
+        <v>-2.841418448543029</v>
       </c>
       <c r="G163">
         <v>-0.002640001520941127</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.837870230503615</v>
+        <v>-2.843875013720984</v>
       </c>
       <c r="G164">
         <v>-0.003057214885853976</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.833627944996452</v>
+        <v>-2.847269470484324</v>
       </c>
       <c r="G165">
         <v>-0.007096987334206939</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.83575232924592</v>
+        <v>-2.849413405133819</v>
       </c>
       <c r="G166">
         <v>-0.0105983004552086</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.837517007644824</v>
+        <v>-2.852182600840235</v>
       </c>
       <c r="G167">
         <v>-0.007905034449413817</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.838153154145091</v>
+        <v>-2.854720085115998</v>
       </c>
       <c r="G168">
         <v>-0.008369320448031292</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.845979610582524</v>
+        <v>-2.857489280822415</v>
       </c>
       <c r="G169">
         <v>-0.01024723809282435</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.852289771746771</v>
+        <v>-2.860490187959484</v>
       </c>
       <c r="G170">
         <v>-0.01524810666099163</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.852582641391188</v>
+        <v>-2.862946753137443</v>
       </c>
       <c r="G171">
         <v>-0.008959250817324405</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.858628341560074</v>
+        <v>-2.865157850263671</v>
       </c>
       <c r="G172">
         <v>-0.01675214883907428</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.861466526634055</v>
+        <v>-2.868253433119622</v>
       </c>
       <c r="G173">
         <v>-0.01144761534431671</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.864879984116369</v>
+        <v>-2.870941709728234</v>
       </c>
       <c r="G174">
         <v>-0.005134227915544298</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.865080389217598</v>
+        <v>-2.87433616649157</v>
       </c>
       <c r="G175">
         <v>-0.0123598443636922</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.869578049575691</v>
+        <v>-2.876480101141066</v>
       </c>
       <c r="G176">
         <v>-0.01216280070182241</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.876147947410023</v>
+        <v>-2.879249296847483</v>
       </c>
       <c r="G177">
         <v>-0.01853697416949718</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.876437299832074</v>
+        <v>-2.882109507375169</v>
       </c>
       <c r="G178">
         <v>-0.01534476448703559</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.879876416013069</v>
+        <v>-2.885100318788776</v>
       </c>
       <c r="G179">
         <v>-0.01527243940278</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.882617080434019</v>
+        <v>-2.887869514495194</v>
       </c>
       <c r="G180">
         <v>-0.01556523888177708</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.886056317851006</v>
+        <v>-2.890013449144692</v>
       </c>
       <c r="G181">
         <v>-0.01417899057887273</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.888994008285346</v>
+        <v>-2.892782644851107</v>
       </c>
       <c r="G182">
         <v>-0.008636064042665148</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.893664921076048</v>
+        <v>-2.895551840557521</v>
       </c>
       <c r="G183">
         <v>-0.01377808613422238</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.892616229991511</v>
+        <v>-2.898633666792402</v>
       </c>
       <c r="G184">
         <v>-0.01297656402364822</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.898119330108716</v>
+        <v>-2.90109023197036</v>
       </c>
       <c r="G185">
         <v>-0.007198594881648757</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.902559223774818</v>
+        <v>-2.903315085717662</v>
       </c>
       <c r="G186">
         <v>-0.01571091371095967</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.903795364312591</v>
+        <v>-2.906709542480998</v>
       </c>
       <c r="G187">
         <v>-0.01471483003301155</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.90649303906425</v>
+        <v>-2.909710449618072</v>
       </c>
       <c r="G188">
         <v>-0.01123105466407959</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.908645189993619</v>
+        <v>-2.912479645324487</v>
       </c>
       <c r="G189">
         <v>-0.01006134721292173</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.912533398815801</v>
+        <v>-2.914936210502444</v>
       </c>
       <c r="G190">
         <v>-0.006182085638265944</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.916505173015607</v>
+        <v>-2.918018036737325</v>
       </c>
       <c r="G191">
         <v>-0.01483681432040607</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-2.917970526373795</v>
+        <v>-2.921099862972198</v>
       </c>
       <c r="G192">
         <v>-0.01315521157468941</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-2.921899229372788</v>
+        <v>-2.924181689207078</v>
       </c>
       <c r="G193">
         <v>-0.01387822154544083</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-2.922985052097621</v>
+        <v>-2.92671917348284</v>
       </c>
       <c r="G194">
         <v>-0.01170161562189648</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-2.926518083230722</v>
+        <v>-2.929407450091448</v>
       </c>
       <c r="G195">
         <v>-0.0122619001198998</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-2.930460710096162</v>
+        <v>-2.931864015269407</v>
       </c>
       <c r="G196">
         <v>-0.01101988645153812</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-2.932824269726305</v>
+        <v>-2.935258472032747</v>
       </c>
       <c r="G197">
         <v>-0.007100858031930335</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-2.935818022005766</v>
+        <v>-2.937402406682241</v>
       </c>
       <c r="G198">
         <v>-0.0121209705832287</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-2.939209537903251</v>
+        <v>-2.941109493974041</v>
       </c>
       <c r="G199">
         <v>-0.01236553037680838</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.940991160236169</v>
+        <v>-2.943334347721342</v>
       </c>
       <c r="G200">
         <v>-0.008446340027433052</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-2.944828848413889</v>
+        <v>-2.946647885386873</v>
       </c>
       <c r="G201">
         <v>-0.011690928679635</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-2.946879777515565</v>
+        <v>-2.949104450564831</v>
       </c>
       <c r="G202">
         <v>-0.009796666114164909</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-2.953793974487001</v>
+        <v>-2.955268103034586</v>
       </c>
       <c r="G204">
         <v>-0.008030439632912223</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-2.956762603727133</v>
+        <v>-2.958349929269462</v>
       </c>
       <c r="G205">
         <v>-0.009136903506466343</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-2.960169146940483</v>
+        <v>-2.96111912497588</v>
       </c>
       <c r="G206">
         <v>-0.01129644668670321</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-2.961663647633035</v>
+        <v>-2.964200951210757</v>
       </c>
       <c r="G207">
         <v>-0.009643991275349539</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-2.965382821374842</v>
+        <v>-2.966332799410241</v>
       </c>
       <c r="G208">
         <v>-0.007457289628338637</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-2.966564691538932</v>
+        <v>-2.968464647609725</v>
       </c>
       <c r="G209">
         <v>-0.008251122973436109</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-2.969646517773815</v>
+        <v>-2.970596495809208</v>
       </c>
       <c r="G210">
         <v>-0.008185993104413536</v>
@@ -5268,7 +5268,7 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-2.973910214172779</v>
+        <v>-2.974860192208174</v>
       </c>
       <c r="G212">
         <v>-0.006155777295566572</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.666188086224606</v>
+        <v>-2.667902233701785</v>
       </c>
       <c r="G221">
         <v>0.006499433093621665</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.710330416468853</v>
+        <v>-2.717445281990594</v>
       </c>
       <c r="G222">
         <v>0.01134445514830595</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.755176470886682</v>
+        <v>-2.776060071925529</v>
       </c>
       <c r="G223">
         <v>0.00941105142881149</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.806572982736514</v>
+        <v>-2.837063116657696</v>
       </c>
       <c r="G224">
         <v>0.01147946551419365</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.861584340913687</v>
+        <v>-2.897653905193357</v>
       </c>
       <c r="G225">
         <v>-0.0001635446529069107</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.912998131490691</v>
+        <v>-2.939953862111952</v>
       </c>
       <c r="G226">
         <v>-0.000252384255139404</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.964678626642663</v>
+        <v>-2.98144791116218</v>
       </c>
       <c r="G227">
         <v>-0.004727764676686452</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.0165526301788</v>
+        <v>-3.021669627757747</v>
       </c>
       <c r="G228">
         <v>-0.008639806909923275</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.062027355645469</v>
+        <v>-3.063147717236958</v>
       </c>
       <c r="G229">
         <v>-0.007668046028020958</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.724494542619776</v>
+        <v>-2.7245996731067</v>
       </c>
       <c r="G232">
         <v>0.006434502517954854</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.76903979932205</v>
+        <v>-2.774881450970561</v>
       </c>
       <c r="G233">
         <v>0.01089457715809283</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.816765944972533</v>
+        <v>-2.828548513379527</v>
       </c>
       <c r="G234">
         <v>0.01604190839518327</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.864516369750308</v>
+        <v>-2.889431553754487</v>
       </c>
       <c r="G235">
         <v>0.01448479681821446</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.922278624946518</v>
+        <v>-2.951858610263123</v>
       </c>
       <c r="G236">
         <v>0.01106110434661467</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-2.969137131196552</v>
+        <v>-3.007454293602128</v>
       </c>
       <c r="G237">
         <v>0.0101714701859188</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.026655998514644</v>
+        <v>-3.049458335095768</v>
       </c>
       <c r="G238">
         <v>0.002854492422951216</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.0797625538127</v>
+        <v>-3.092031726221283</v>
       </c>
       <c r="G239">
         <v>-0.004232899640643328</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.129254537391706</v>
+        <v>-3.132329313946855</v>
       </c>
       <c r="G240">
         <v>-0.006282841514677062</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.764971873158906</v>
+        <v>-2.765948933648604</v>
       </c>
       <c r="G243">
         <v>0.01019939132225467</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.809238301822275</v>
+        <v>-2.811756492362968</v>
       </c>
       <c r="G244">
         <v>0.01438799906367638</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.855345893431209</v>
+        <v>-2.866889649606362</v>
       </c>
       <c r="G245">
         <v>0.01749369854969141</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.905493473702506</v>
+        <v>-2.924655732590197</v>
       </c>
       <c r="G246">
         <v>0.01738827470356852</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.961181133023251</v>
+        <v>-2.986885111388873</v>
       </c>
       <c r="G247">
         <v>0.01530461565356922</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.011795215629814</v>
+        <v>-3.051366511623884</v>
       </c>
       <c r="G248">
         <v>0.01047277440355643</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.066352008605495</v>
+        <v>-3.099367179746108</v>
       </c>
       <c r="G249">
         <v>0.007150718617154439</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.125083162061988</v>
+        <v>-3.13921527178403</v>
       </c>
       <c r="G250">
         <v>0.000814443952674937</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.176369681081626</v>
+        <v>-3.181168263521962</v>
       </c>
       <c r="G251">
         <v>-0.0008569020428010887</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.793958096740129</v>
+        <v>-2.794424438769605</v>
       </c>
       <c r="G254">
         <v>0.01076225843307821</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.838794544462729</v>
+        <v>-2.839484490673271</v>
       </c>
       <c r="G255">
         <v>0.01792173476566639</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.884706106753832</v>
+        <v>-2.895036207419923</v>
       </c>
       <c r="G256">
         <v>0.02292813732699406</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.933700413601438</v>
+        <v>-2.952041129794874</v>
       </c>
       <c r="G257">
         <v>0.02277968194031232</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-2.984691836770851</v>
+        <v>-3.012368923545749</v>
       </c>
       <c r="G258">
         <v>0.02125396828354909</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.039094205424536</v>
+        <v>-3.076448576665712</v>
       </c>
       <c r="G259">
         <v>0.01980533174353583</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.093504582751318</v>
+        <v>-3.131583389015712</v>
       </c>
       <c r="G260">
         <v>0.01374399814580662</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.151709543900776</v>
+        <v>-3.174511928108615</v>
       </c>
       <c r="G261">
         <v>0.006879885226495963</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.209154820666167</v>
+        <v>-3.21748714907218</v>
       </c>
       <c r="G262">
         <v>-0.001242678298489952</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.817457904761309</v>
+        <v>-2.817845901324886</v>
       </c>
       <c r="G265">
         <v>0.01173703965361028</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.859946896316819</v>
+        <v>-2.862204381847179</v>
       </c>
       <c r="G266">
         <v>0.01958721285367382</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.90611976821758</v>
+        <v>-2.916329910372502</v>
       </c>
       <c r="G267">
         <v>0.02534870880601403</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.955304037151095</v>
+        <v>-2.972017331472127</v>
       </c>
       <c r="G268">
         <v>0.02725301693490545</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.00435025895273</v>
+        <v>-3.031744056811892</v>
       </c>
       <c r="G269">
         <v>0.02739887150462028</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.058877763713635</v>
+        <v>-3.094365676422978</v>
       </c>
       <c r="G270">
         <v>0.02499170232211956</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.115707559873509</v>
+        <v>-3.157316734797123</v>
       </c>
       <c r="G271">
         <v>0.0172765952714824</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.173342707626357</v>
+        <v>-3.201793530621146</v>
       </c>
       <c r="G272">
         <v>0.01070183257207702</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.233271811292877</v>
+        <v>-3.244584533996749</v>
       </c>
       <c r="G273">
         <v>0.001748130705406081</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.835124694933695</v>
+        <v>-2.835604344496264</v>
       </c>
       <c r="G276">
         <v>0.01230282636153834</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.877372143770715</v>
+        <v>-2.878809004887536</v>
       </c>
       <c r="G277">
         <v>0.02077935252467</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.922079640435621</v>
+        <v>-2.932731662039081</v>
       </c>
       <c r="G278">
         <v>0.0281413441043914</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.969250425672525</v>
+        <v>-2.98804155948067</v>
       </c>
       <c r="G279">
         <v>0.03161223432371174</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.020512047853255</v>
+        <v>-3.046753833956048</v>
       </c>
       <c r="G280">
         <v>0.03126980850483951</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.074372552507489</v>
+        <v>-3.108627028605087</v>
       </c>
       <c r="G281">
         <v>0.0286962680675662</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.130892960575601</v>
+        <v>-3.174448664674076</v>
       </c>
       <c r="G282">
         <v>0.02432651350477633</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.191029078431307</v>
+        <v>-3.224357608890162</v>
       </c>
       <c r="G283">
         <v>0.01484576524362535</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.252364401052989</v>
+        <v>-3.265442053150466</v>
       </c>
       <c r="G284">
         <v>0.00492840583549442</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.849354478497802</v>
+        <v>-2.849979616811606</v>
       </c>
       <c r="G287">
         <v>0.01337344928687134</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.89056544871052</v>
+        <v>-2.896054059995006</v>
       </c>
       <c r="G288">
         <v>0.02290459396584721</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.935427534762933</v>
+        <v>-2.945857165515963</v>
       </c>
       <c r="G289">
         <v>0.03002747897126223</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-2.982560741603932</v>
+        <v>-3.001455099236753</v>
       </c>
       <c r="G290">
         <v>0.03405920356038861</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.033576566532039</v>
+        <v>-3.059672437830045</v>
       </c>
       <c r="G291">
         <v>0.03512615665655217</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.087513068430754</v>
+        <v>-3.120839369676257</v>
       </c>
       <c r="G292">
         <v>0.03276532404177357</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.144468808178286</v>
+        <v>-3.185887377114534</v>
       </c>
       <c r="G293">
         <v>0.02606644243833067</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.204572056482195</v>
+        <v>-3.24024729356932</v>
       </c>
       <c r="G294">
         <v>0.01739639646175228</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.267576150477185</v>
+        <v>-3.28227016352636</v>
       </c>
       <c r="G295">
         <v>0.006156250888492032</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.861333701806473</v>
+        <v>-2.861737290483251</v>
       </c>
       <c r="G298">
         <v>0.0136089046379877</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.902121146853315</v>
+        <v>-2.907807329578204</v>
       </c>
       <c r="G299">
         <v>0.02429898025421906</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.945865648229793</v>
+        <v>-2.957531956490592</v>
       </c>
       <c r="G300">
         <v>0.03214965359905442</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-2.992945581893</v>
+        <v>-3.011379694882864</v>
       </c>
       <c r="G301">
         <v>0.03645079722942635</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.043710446645833</v>
+        <v>-3.069026988090342</v>
       </c>
       <c r="G302">
         <v>0.03772864588631397</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.097255062118899</v>
+        <v>-3.13044542980417</v>
       </c>
       <c r="G303">
         <v>0.03672498309265193</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.155412419032377</v>
+        <v>-3.194927377243355</v>
       </c>
       <c r="G304">
         <v>0.02929710957816412</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.216100212818866</v>
+        <v>-3.253244419016611</v>
       </c>
       <c r="G305">
         <v>0.02093281451541407</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.279831402690168</v>
+        <v>-3.296468268018057</v>
       </c>
       <c r="G306">
         <v>0.008837462651772321</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.870925919087751</v>
+        <v>-2.871702707837375</v>
       </c>
       <c r="G309">
         <v>0.01429046652205868</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.912075426053458</v>
+        <v>-2.917448558053892</v>
       </c>
       <c r="G310">
         <v>0.02589817136333483</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.954666414808905</v>
+        <v>-2.966384550148765</v>
       </c>
       <c r="G311">
         <v>0.03386643881638052</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.002452571033761</v>
+        <v>-3.019419063118634</v>
       </c>
       <c r="G312">
         <v>0.03797828549240845</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.052650466815097</v>
+        <v>-3.077333471808183</v>
       </c>
       <c r="G313">
         <v>0.03981488121790977</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.106817649512808</v>
+        <v>-3.138213798287344</v>
       </c>
       <c r="G314">
         <v>0.03785711505802802</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.164779450940215</v>
+        <v>-3.20297401463655</v>
       </c>
       <c r="G315">
         <v>0.03235119846826351</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.225599331980427</v>
+        <v>-3.264512417615416</v>
       </c>
       <c r="G316">
         <v>0.02284340906330207</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.289682714052971</v>
+        <v>-3.308484207052202</v>
       </c>
       <c r="G317">
         <v>0.0102842931637131</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-2.879422293144411</v>
+        <v>-2.880250509319882</v>
       </c>
       <c r="G320">
         <v>0.01474838932814704</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-2.919672322142051</v>
+        <v>-2.925595432767308</v>
       </c>
       <c r="G321">
         <v>0.02606927460245956</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-2.962716343626878</v>
+        <v>-2.97456893428036</v>
       </c>
       <c r="G322">
         <v>0.03506236563488563</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.009380048224338</v>
+        <v>-3.027282707013695</v>
       </c>
       <c r="G323">
         <v>0.04066772726593082</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.05971325998234</v>
+        <v>-3.08394217322243</v>
       </c>
       <c r="G324">
         <v>0.04245872349708635</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.114293054274524</v>
+        <v>-3.144831983922409</v>
       </c>
       <c r="G325">
         <v>0.0395336870493197</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.172755714296927</v>
+        <v>-3.208778803478986</v>
       </c>
       <c r="G326">
         <v>0.03420955828684746</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.233353937923811</v>
+        <v>-3.274887065624082</v>
       </c>
       <c r="G327">
         <v>0.02486274028200275</v>
@@ -7936,7 +7936,7 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.298889353913585</v>
+        <v>-3.31874151677652</v>
       </c>
       <c r="G328">
         <v>0.01158949345304011</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-2.886569217879971</v>
+        <v>-2.887666339798147</v>
       </c>
       <c r="G331">
         <v>0.01486877266053854</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-2.926158956421722</v>
+        <v>-2.932721193012555</v>
       </c>
       <c r="G332">
         <v>0.02738146658852791</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-2.969311522723017</v>
+        <v>-2.981049253424905</v>
       </c>
       <c r="G333">
         <v>0.03637173783608438</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.016502774545355</v>
+        <v>-3.033913724720085</v>
       </c>
       <c r="G334">
         <v>0.04134140450590751</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.06648078270719</v>
+        <v>-3.089725742966668</v>
       </c>
       <c r="G335">
         <v>0.04363574766155831</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.120922133334501</v>
+        <v>-3.150091272033135</v>
       </c>
       <c r="G336">
         <v>0.04142284755956815</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.179198075995335</v>
+        <v>-3.214498649502567</v>
       </c>
       <c r="G337">
         <v>0.03577009754974347</v>
@@ -8166,7 +8166,7 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.241056066012347</v>
+        <v>-3.281995214220228</v>
       </c>
       <c r="G338">
         <v>0.02589620406799076</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.306495248074137</v>
+        <v>-3.327703825426452</v>
       </c>
       <c r="G339">
         <v>0.01238048807416042</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.581632129745323</v>
+        <v>-2.582182662744556</v>
       </c>
       <c r="G40">
         <v>-0.02491664460867704</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.59003593079402</v>
+        <v>-2.590320973934491</v>
       </c>
       <c r="G41">
         <v>-0.02685569734854609</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.610843069946248</v>
+        <v>-2.612514222225655</v>
       </c>
       <c r="G44">
         <v>-0.02260139618667889</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.617310228856779</v>
+        <v>-2.617887744971447</v>
       </c>
       <c r="G45">
         <v>-0.01979505636851786</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.645685592918005</v>
+        <v>-2.646521169057709</v>
       </c>
       <c r="G49">
         <v>-0.0268923019077465</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.652988327968238</v>
+        <v>-2.654659480247645</v>
       </c>
       <c r="G50">
         <v>-0.02397071355866986</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.676309625373306</v>
+        <v>-2.676567685398341</v>
       </c>
       <c r="G53">
         <v>-0.02393342367548423</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.682199268169165</v>
+        <v>-2.683034844308871</v>
       </c>
       <c r="G54">
         <v>-0.02361710854863686</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.705778625599271</v>
+        <v>-2.706614201738975</v>
       </c>
       <c r="G57">
         <v>-0.02016595241895458</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.549191990188768</v>
+        <v>-2.549247556991988</v>
       </c>
       <c r="G78">
         <v>-0.002524478310698353</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.559206554526831</v>
+        <v>-2.559500896840257</v>
       </c>
       <c r="G81">
         <v>-0.002858978040707338</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.562961224090936</v>
+        <v>-2.56386075932853</v>
       </c>
       <c r="G82">
         <v>-0.001929363639951553</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.573353270554185</v>
+        <v>-2.57440844149022</v>
       </c>
       <c r="G85">
         <v>-0.004659419415443455</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.580668336264182</v>
+        <v>-2.581384662794794</v>
       </c>
       <c r="G87">
         <v>0.001000055959047952</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.582783450322371</v>
+        <v>-2.584371739082035</v>
       </c>
       <c r="G88">
         <v>-0.001296971471821617</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.587702064007396</v>
+        <v>-2.588179615027804</v>
       </c>
       <c r="G89">
         <v>-0.002632949032248977</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.59792977048254</v>
+        <v>-2.599121708398141</v>
       </c>
       <c r="G92">
         <v>-0.006269932523869759</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.601257429138814</v>
+        <v>-2.603005959501422</v>
       </c>
       <c r="G93">
         <v>-0.005503069949735817</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.609302552359736</v>
+        <v>-2.609696963568378</v>
       </c>
       <c r="G95">
         <v>-0.001764602927154968</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.613899250722789</v>
+        <v>-2.614165599241537</v>
       </c>
       <c r="G96">
         <v>0.002217750503110238</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.616621497340565</v>
+        <v>-2.616785837328674</v>
       </c>
       <c r="G97">
         <v>-0.002227666873516831</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.620928153447164</v>
+        <v>-2.621305635572355</v>
       </c>
       <c r="G98">
         <v>0.002501659457453176</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.625819194123648</v>
+        <v>-2.626831802603106</v>
       </c>
       <c r="G99">
         <v>0.001895779619238702</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.627769968193725</v>
+        <v>-2.628409498780696</v>
       </c>
       <c r="G100">
         <v>0.002302796220291725</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.632171353785187</v>
+        <v>-2.633678021582362</v>
       </c>
       <c r="G101">
         <v>-0.003942943325914161</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.636185607213776</v>
+        <v>-2.637351911756254</v>
       </c>
       <c r="G102">
         <v>-0.004164148950219992</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.638293535831571</v>
+        <v>-2.640341031854643</v>
       </c>
       <c r="G103">
         <v>-0.005020168618752319</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.644487648030102</v>
+        <v>-2.645072032599987</v>
       </c>
       <c r="G104">
         <v>-0.001312477162394243</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.646918016931729</v>
+        <v>-2.64742356174682</v>
       </c>
       <c r="G105">
         <v>0.002462092928803283</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.651994626736758</v>
+        <v>-2.653056562327048</v>
       </c>
       <c r="G106">
         <v>-0.001171301089575749</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.654876809109933</v>
+        <v>-2.655486827052941</v>
       </c>
       <c r="G107">
         <v>0.004693029899486278</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.660461007541192</v>
+        <v>-2.66159931828899</v>
       </c>
       <c r="G108">
         <v>-0.0004198656599920803</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.663316141867694</v>
+        <v>-2.665407615020895</v>
       </c>
       <c r="G109">
         <v>0.0001426105057460436</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.671855018558809</v>
+        <v>-2.672991389671193</v>
       </c>
       <c r="G111">
         <v>-0.004953384822383722</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.675574929673977</v>
+        <v>-2.676720005076033</v>
       </c>
       <c r="G112">
         <v>-0.001040851001601117</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.680293405568568</v>
+        <v>-2.68240804749761</v>
       </c>
       <c r="G113">
         <v>-0.000302434989529532</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.684679322216102</v>
+        <v>-2.685715624433267</v>
       </c>
       <c r="G114">
         <v>-0.003959438766206969</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.693115244628577</v>
+        <v>-2.693995911147301</v>
       </c>
       <c r="G116">
         <v>-0.003953669603887766</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.697108689702877</v>
+        <v>-2.698247000450673</v>
       </c>
       <c r="G117">
         <v>0.001571671443887812</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.705491509909415</v>
+        <v>-2.706845848177716</v>
       </c>
       <c r="G119">
         <v>0.001980762059094809</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.710282481690681</v>
+        <v>-2.710465690397662</v>
       </c>
       <c r="G120">
         <v>-8.100973784319621e-05</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.714883480110709</v>
+        <v>-2.714911053119252</v>
       </c>
       <c r="G121">
         <v>-0.001481423224709122</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.719380109578549</v>
+        <v>-2.7197000852651</v>
       </c>
       <c r="G122">
         <v>0.0009425637625741778</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.723558702995256</v>
+        <v>-2.723853045308679</v>
       </c>
       <c r="G123">
         <v>0.003300514735068649</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.728296468394852</v>
+        <v>-2.7285628169136</v>
       </c>
       <c r="G124">
         <v>0.0007348426894169258</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.732739470694889</v>
+        <v>-2.732950673196554</v>
       </c>
       <c r="G125">
         <v>-0.002906503540256677</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.776232878947437</v>
+        <v>-2.776525318028974</v>
       </c>
       <c r="G139">
         <v>0.001303684953147144</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.77894134700297</v>
+        <v>-2.779526225166045</v>
       </c>
       <c r="G140">
         <v>-0.01228538809334112</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.78677431208804</v>
+        <v>-2.78687557594288</v>
       </c>
       <c r="G143">
         <v>-0.005921849934154455</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.789523316347531</v>
+        <v>-2.789815755429068</v>
       </c>
       <c r="G144">
         <v>0.001135832698157424</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.791898809117571</v>
+        <v>-2.792483687280648</v>
       </c>
       <c r="G145">
         <v>0.0004243249853110864</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.794899716254645</v>
+        <v>-2.79519215533618</v>
       </c>
       <c r="G146">
         <v>-0.003307276802146264</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.800316652365715</v>
+        <v>-2.800649627651208</v>
       </c>
       <c r="G148">
         <v>-0.003751545855823935</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.805441149395249</v>
+        <v>-2.806026027558323</v>
       </c>
       <c r="G150">
         <v>-0.007344407924983809</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.808149617450783</v>
+        <v>-2.809026934695393</v>
       </c>
       <c r="G151">
         <v>-0.00357600179910289</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.81115052458785</v>
+        <v>-2.811735402750926</v>
       </c>
       <c r="G152">
         <v>-0.007385554090373558</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-2.814443870806462</v>
+        <v>-2.814736309887997</v>
       </c>
       <c r="G153">
         <v>-0.01527794315030584</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-2.817152338861994</v>
+        <v>-2.817444777943532</v>
       </c>
       <c r="G154">
         <v>-0.009586674185207755</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.819860806917529</v>
+        <v>-2.819901343121491</v>
       </c>
       <c r="G155">
         <v>-0.002731232172123121</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-2.836192687658654</v>
+        <v>-2.836505318187114</v>
       </c>
       <c r="G161">
         <v>-0.009613850612839814</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.838649252836611</v>
+        <v>-2.838961883365071</v>
       </c>
       <c r="G162">
         <v>-0.01640134557210349</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.841418448543029</v>
+        <v>-2.841731079071489</v>
       </c>
       <c r="G163">
         <v>-0.002640001520941127</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.843875013720984</v>
+        <v>-2.844500274777903</v>
       </c>
       <c r="G164">
         <v>-0.003057214885853976</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.852182600840235</v>
+        <v>-2.852495231368695</v>
       </c>
       <c r="G167">
         <v>-0.007905034449413817</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.854720085115998</v>
+        <v>-2.854951796546653</v>
       </c>
       <c r="G168">
         <v>-0.008369320448031292</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.857489280822415</v>
+        <v>-2.858033622781531</v>
       </c>
       <c r="G169">
         <v>-0.01024723809282435</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.860490187959484</v>
+        <v>-2.860802818487945</v>
       </c>
       <c r="G170">
         <v>-0.01524810666099163</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.865157850263671</v>
+        <v>-2.865783111320595</v>
       </c>
       <c r="G172">
         <v>-0.01675214883907428</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.870941709728234</v>
+        <v>-2.871566970785157</v>
       </c>
       <c r="G174">
         <v>-0.005134227915544298</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.876480101141066</v>
+        <v>-2.876561020238873</v>
       </c>
       <c r="G176">
         <v>-0.01216280070182241</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.879249296847483</v>
+        <v>-2.879561927375943</v>
       </c>
       <c r="G177">
         <v>-0.01853697416949718</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.882109507375169</v>
+        <v>-2.88242213790363</v>
       </c>
       <c r="G178">
         <v>-0.01534476448703559</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.885100318788776</v>
+        <v>-2.885480111793969</v>
       </c>
       <c r="G179">
         <v>-0.01527243940278</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.890013449144692</v>
+        <v>-2.890326079673153</v>
       </c>
       <c r="G181">
         <v>-0.01417899057887273</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.892782644851107</v>
+        <v>-2.893095275379567</v>
       </c>
       <c r="G182">
         <v>-0.008636064042665148</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.895551840557521</v>
+        <v>-2.895864471085981</v>
       </c>
       <c r="G183">
         <v>-0.01377808613422238</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.898633666792402</v>
+        <v>-2.898946297320863</v>
       </c>
       <c r="G184">
         <v>-0.01297656402364822</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.90109023197036</v>
+        <v>-2.90171549302728</v>
       </c>
       <c r="G185">
         <v>-0.007198594881648757</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.903315085717662</v>
+        <v>-2.904484688733698</v>
       </c>
       <c r="G186">
         <v>-0.01571091371095967</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.906709542480998</v>
+        <v>-2.907022173009459</v>
       </c>
       <c r="G187">
         <v>-0.01471483003301155</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.909710449618072</v>
+        <v>-2.910335710674993</v>
       </c>
       <c r="G188">
         <v>-0.01123105466407959</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.912479645324487</v>
+        <v>-2.913104906381409</v>
       </c>
       <c r="G189">
         <v>-0.01006134721292173</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.914936210502444</v>
+        <v>-2.915561471559363</v>
       </c>
       <c r="G190">
         <v>-0.006182085638265944</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.918018036737325</v>
+        <v>-2.918397829742515</v>
       </c>
       <c r="G191">
         <v>-0.01483681432040607</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-2.929407450091448</v>
+        <v>-2.92972008061991</v>
       </c>
       <c r="G195">
         <v>-0.0122619001198998</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-2.931864015269407</v>
+        <v>-2.932489276326329</v>
       </c>
       <c r="G196">
         <v>-0.01101988645153812</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-2.935258472032747</v>
+        <v>-2.935571102561208</v>
       </c>
       <c r="G197">
         <v>-0.007100858031930335</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-2.937402406682241</v>
+        <v>-2.938340298267624</v>
       </c>
       <c r="G198">
         <v>-0.0121209705832287</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.943334347721342</v>
+        <v>-2.943646978249801</v>
       </c>
       <c r="G200">
         <v>-0.008446340027433052</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-2.946647885386873</v>
+        <v>-2.946960515915334</v>
       </c>
       <c r="G201">
         <v>-0.011690928679635</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-2.949104450564831</v>
+        <v>-2.949729711621752</v>
       </c>
       <c r="G202">
         <v>-0.009796666114164909</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-2.955268103034586</v>
+        <v>-2.955580733563047</v>
       </c>
       <c r="G204">
         <v>-0.008030439632912223</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.667902233701785</v>
+        <v>-2.668243010400814</v>
       </c>
       <c r="G221">
         <v>0.006499433093621665</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.717445281990594</v>
+        <v>-2.71844397715695</v>
       </c>
       <c r="G222">
         <v>0.01134445514830595</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.939953862111952</v>
+        <v>-2.940525234913547</v>
       </c>
       <c r="G226">
         <v>-0.000252384255139404</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.98144791116218</v>
+        <v>-2.981500386416636</v>
       </c>
       <c r="G227">
         <v>-0.004727764676686452</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.021669627757747</v>
+        <v>-3.021835899695494</v>
       </c>
       <c r="G228">
         <v>-0.008639806909923275</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.7245996731067</v>
+        <v>-2.727569279393237</v>
       </c>
       <c r="G232">
         <v>0.006434502517954854</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.774881450970561</v>
+        <v>-2.775513836185978</v>
       </c>
       <c r="G233">
         <v>0.01089457715809283</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.828548513379527</v>
+        <v>-2.829810757960631</v>
       </c>
       <c r="G234">
         <v>0.01604190839518327</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.951858610263123</v>
+        <v>-2.951988272800683</v>
       </c>
       <c r="G236">
         <v>0.01106110434661467</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.007454293602128</v>
+        <v>-3.007907170728329</v>
       </c>
       <c r="G237">
         <v>0.0101714701859188</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.049458335095768</v>
+        <v>-3.049534963518203</v>
       </c>
       <c r="G238">
         <v>0.002854492422951216</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.092031726221283</v>
+        <v>-3.09212280638492</v>
       </c>
       <c r="G239">
         <v>-0.004232899640643328</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.765948933648604</v>
+        <v>-2.766633901868534</v>
       </c>
       <c r="G243">
         <v>0.01019939132225467</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.811756492362968</v>
+        <v>-2.812830967937224</v>
       </c>
       <c r="G244">
         <v>0.01438799906367638</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.866889649606362</v>
+        <v>-2.867433337447356</v>
       </c>
       <c r="G245">
         <v>0.01749369854969141</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.986885111388873</v>
+        <v>-2.987001948532503</v>
       </c>
       <c r="G247">
         <v>0.01530461565356922</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.099367179746108</v>
+        <v>-3.099404970773381</v>
       </c>
       <c r="G249">
         <v>0.007150718617154439</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.13921527178403</v>
+        <v>-3.139270630366695</v>
       </c>
       <c r="G250">
         <v>0.000814443952674937</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.794424438769605</v>
+        <v>-2.794495001790365</v>
       </c>
       <c r="G254">
         <v>0.01076225843307821</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.839484490673271</v>
+        <v>-2.840284670804682</v>
       </c>
       <c r="G255">
         <v>0.01792173476566639</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.895036207419923</v>
+        <v>-2.895912383394282</v>
       </c>
       <c r="G256">
         <v>0.02292813732699406</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.952041129794874</v>
+        <v>-2.952884478306846</v>
       </c>
       <c r="G257">
         <v>0.02277968194031232</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.131583389015712</v>
+        <v>-3.131648367186884</v>
       </c>
       <c r="G260">
         <v>0.01374399814580662</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.21748714907218</v>
+        <v>-3.217552105521204</v>
       </c>
       <c r="G262">
         <v>-0.001242678298489952</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.817845901324886</v>
+        <v>-2.817995986927268</v>
       </c>
       <c r="G265">
         <v>0.01173703965361028</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.862204381847179</v>
+        <v>-2.862358303843184</v>
       </c>
       <c r="G266">
         <v>0.01958721285367382</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.916329910372502</v>
+        <v>-2.916613908220828</v>
       </c>
       <c r="G267">
         <v>0.02534870880601403</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.972017331472127</v>
+        <v>-2.972594899527509</v>
       </c>
       <c r="G268">
         <v>0.02725301693490545</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.031744056811892</v>
+        <v>-3.032277598738178</v>
       </c>
       <c r="G269">
         <v>0.02739887150462028</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.094365676422978</v>
+        <v>-3.094711517814496</v>
       </c>
       <c r="G270">
         <v>0.02499170232211956</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.157316734797123</v>
+        <v>-3.157350850423463</v>
       </c>
       <c r="G271">
         <v>0.0172765952714824</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.201793530621146</v>
+        <v>-3.201894082540503</v>
       </c>
       <c r="G272">
         <v>0.01070183257207702</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.244584533996749</v>
+        <v>-3.244622389934114</v>
       </c>
       <c r="G273">
         <v>0.001748130705406081</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.835604344496264</v>
+        <v>-2.835822909926785</v>
       </c>
       <c r="G276">
         <v>0.01230282636153834</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.878809004887536</v>
+        <v>-2.879290200744777</v>
       </c>
       <c r="G277">
         <v>0.02077935252467</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.932731662039081</v>
+        <v>-2.933303395834016</v>
       </c>
       <c r="G278">
         <v>0.0281413441043914</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.98804155948067</v>
+        <v>-2.988192530699185</v>
       </c>
       <c r="G279">
         <v>0.03161223432371174</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.046753833956048</v>
+        <v>-3.047998899670763</v>
       </c>
       <c r="G280">
         <v>0.03126980850483951</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.108627028605087</v>
+        <v>-3.108709393281857</v>
       </c>
       <c r="G281">
         <v>0.0286962680675662</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.224357608890162</v>
+        <v>-3.224369766826091</v>
       </c>
       <c r="G283">
         <v>0.01484576524362535</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.849979616811606</v>
+        <v>-2.850039532334253</v>
       </c>
       <c r="G287">
         <v>0.01337344928687134</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.896054059995006</v>
+        <v>-2.896308604217062</v>
       </c>
       <c r="G288">
         <v>0.02290459396584721</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.945857165515963</v>
+        <v>-2.946251277764801</v>
       </c>
       <c r="G289">
         <v>0.03002747897126223</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.001455099236753</v>
+        <v>-3.002241464292599</v>
       </c>
       <c r="G290">
         <v>0.03405920356038861</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.059672437830045</v>
+        <v>-3.060652699284269</v>
       </c>
       <c r="G291">
         <v>0.03512615665655217</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.120839369676257</v>
+        <v>-3.122153665834901</v>
       </c>
       <c r="G292">
         <v>0.03276532404177357</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.185887377114534</v>
+        <v>-3.186026047897161</v>
       </c>
       <c r="G293">
         <v>0.02606644243833067</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.24024729356932</v>
+        <v>-3.240328243137073</v>
       </c>
       <c r="G294">
         <v>0.01739639646175228</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.28227016352636</v>
+        <v>-3.282415165462741</v>
       </c>
       <c r="G295">
         <v>0.006156250888492032</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.861737290483251</v>
+        <v>-2.862136663451926</v>
       </c>
       <c r="G298">
         <v>0.0136089046379877</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.907807329578204</v>
+        <v>-2.908057720016791</v>
       </c>
       <c r="G299">
         <v>0.02429898025421906</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.957531956490592</v>
+        <v>-2.958206897099419</v>
       </c>
       <c r="G300">
         <v>0.03214965359905442</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.011379694882864</v>
+        <v>-3.012690138506884</v>
       </c>
       <c r="G301">
         <v>0.03645079722942635</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.069026988090342</v>
+        <v>-3.070367255333626</v>
       </c>
       <c r="G302">
         <v>0.03772864588631397</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.13044542980417</v>
+        <v>-3.131971200385497</v>
       </c>
       <c r="G303">
         <v>0.03672498309265193</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.194927377243355</v>
+        <v>-3.195855537628394</v>
       </c>
       <c r="G304">
         <v>0.02929710957816412</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.253244419016611</v>
+        <v>-3.253316181735494</v>
       </c>
       <c r="G305">
         <v>0.02093281451541407</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.296468268018057</v>
+        <v>-3.296604067374872</v>
       </c>
       <c r="G306">
         <v>0.008837462651772321</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.871702707837375</v>
+        <v>-2.872283156299992</v>
       </c>
       <c r="G309">
         <v>0.01429046652205868</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.917448558053892</v>
+        <v>-2.91768769823139</v>
       </c>
       <c r="G310">
         <v>0.02589817136333483</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.966384550148765</v>
+        <v>-2.967122728981717</v>
       </c>
       <c r="G311">
         <v>0.03386643881638052</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.019419063118634</v>
+        <v>-3.021450493025906</v>
       </c>
       <c r="G312">
         <v>0.03797828549240845</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.077333471808183</v>
+        <v>-3.079702215387321</v>
       </c>
       <c r="G313">
         <v>0.03981488121790977</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.138213798287344</v>
+        <v>-3.140772789985199</v>
       </c>
       <c r="G314">
         <v>0.03785711505802802</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.20297401463655</v>
+        <v>-3.204158187913265</v>
       </c>
       <c r="G315">
         <v>0.03235119846826351</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.264512417615416</v>
+        <v>-3.264589830885427</v>
       </c>
       <c r="G316">
         <v>0.02284340906330207</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.308484207052202</v>
+        <v>-3.308635737555599</v>
       </c>
       <c r="G317">
         <v>0.0102842931637131</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-2.880250509319882</v>
+        <v>-2.880547097884191</v>
       </c>
       <c r="G320">
         <v>0.01474838932814704</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-2.925595432767308</v>
+        <v>-2.92600208026407</v>
       </c>
       <c r="G321">
         <v>0.02606927460245956</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-2.97456893428036</v>
+        <v>-2.975505972280911</v>
       </c>
       <c r="G322">
         <v>0.03506236563488563</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.027282707013695</v>
+        <v>-3.02955226328091</v>
       </c>
       <c r="G323">
         <v>0.04066772726593082</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.08394217322243</v>
+        <v>-3.086685468717302</v>
       </c>
       <c r="G324">
         <v>0.04245872349708635</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.144831983922409</v>
+        <v>-3.147151330712901</v>
       </c>
       <c r="G325">
         <v>0.0395336870493197</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.208778803478986</v>
+        <v>-3.210566767112373</v>
       </c>
       <c r="G326">
         <v>0.03420955828684746</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.274887065624082</v>
+        <v>-3.27491533577121</v>
       </c>
       <c r="G327">
         <v>0.02486274028200275</v>
@@ -7936,7 +7936,7 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.31874151677652</v>
+        <v>-3.31885365328732</v>
       </c>
       <c r="G328">
         <v>0.01158949345304011</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-2.887666339798147</v>
+        <v>-2.888386134905221</v>
       </c>
       <c r="G331">
         <v>0.01486877266053854</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-2.932721193012555</v>
+        <v>-2.933106632483018</v>
       </c>
       <c r="G332">
         <v>0.02738146658852791</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-2.981049253424905</v>
+        <v>-2.982738339461597</v>
       </c>
       <c r="G333">
         <v>0.03637173783608438</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.033913724720085</v>
+        <v>-3.036258764911877</v>
       </c>
       <c r="G334">
         <v>0.04134140450590751</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.089725742966668</v>
+        <v>-3.092967713092975</v>
       </c>
       <c r="G335">
         <v>0.04363574766155831</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.150091272033135</v>
+        <v>-3.15333202743119</v>
       </c>
       <c r="G336">
         <v>0.04142284755956815</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.214498649502567</v>
+        <v>-3.216628968507662</v>
       </c>
       <c r="G337">
         <v>0.03577009754974347</v>
@@ -8166,7 +8166,7 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.281995214220228</v>
+        <v>-3.282071047324224</v>
       </c>
       <c r="G338">
         <v>0.02589620406799076</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.327703825426452</v>
+        <v>-3.327842952116063</v>
       </c>
       <c r="G339">
         <v>0.01238048807416042</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.567319132619053</v>
+        <v>-2.568697811924266</v>
       </c>
       <c r="G38">
         <v>-0.03211245111815542</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.582182662744556</v>
+        <v>-2.583045221999694</v>
       </c>
       <c r="G40">
         <v>-0.02491664460867704</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.661126639158172</v>
+        <v>-2.662797791437579</v>
       </c>
       <c r="G51">
         <v>-0.02493495857970529</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.668429374208403</v>
+        <v>-2.670100526487813</v>
       </c>
       <c r="G52">
         <v>-0.02296419490124624</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.683034844308871</v>
+        <v>-2.684705996588276</v>
       </c>
       <c r="G54">
         <v>-0.02361710854863686</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.559500896840257</v>
+        <v>-2.559922881057442</v>
       </c>
       <c r="G81">
         <v>-0.002858978040707338</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.569570607195402</v>
+        <v>-2.570414996415912</v>
       </c>
       <c r="G84">
         <v>-0.001245167216684884</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.577235582022047</v>
+        <v>-2.577474357532252</v>
       </c>
       <c r="G86">
         <v>-0.001186368315493791</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.584371739082035</v>
+        <v>-2.585672450182527</v>
       </c>
       <c r="G88">
         <v>-0.001296971471821617</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.603005959501422</v>
+        <v>-2.603511083530373</v>
       </c>
       <c r="G93">
         <v>-0.005503069949735817</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.609696963568378</v>
+        <v>-2.610596498805973</v>
       </c>
       <c r="G95">
         <v>-0.001764602927154968</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.614165599241537</v>
+        <v>-2.614376801743198</v>
       </c>
       <c r="G96">
         <v>0.002217750503110238</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.621305635572355</v>
+        <v>-2.621644479977776</v>
       </c>
       <c r="G98">
         <v>0.002501659457453176</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.626831802603106</v>
+        <v>-2.627464989321953</v>
       </c>
       <c r="G99">
         <v>0.001895779619238702</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.628409498780696</v>
+        <v>-2.628885110165684</v>
       </c>
       <c r="G100">
         <v>0.002302796220291725</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.640341031854643</v>
+        <v>-2.641106160534224</v>
       </c>
       <c r="G103">
         <v>-0.005020168618752319</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.64742356174682</v>
+        <v>-2.647606770453804</v>
       </c>
       <c r="G105">
         <v>0.002462092928803283</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.653056562327048</v>
+        <v>-2.653506540338911</v>
       </c>
       <c r="G106">
         <v>-0.001171301089575749</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.655486827052941</v>
+        <v>-2.657053886672182</v>
       </c>
       <c r="G107">
         <v>0.004693029899486278</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.665407615020895</v>
+        <v>-2.665802026229537</v>
       </c>
       <c r="G109">
         <v>0.0001426105057460436</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.676720005076033</v>
+        <v>-2.676958780586236</v>
       </c>
       <c r="G112">
         <v>-0.001040851001601117</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.685715624433267</v>
+        <v>-2.685956339578887</v>
       </c>
       <c r="G114">
         <v>-0.003959438766206969</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.688755907102169</v>
+        <v>-2.688809113483838</v>
       </c>
       <c r="G115">
         <v>0.001585824087991794</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.701238480970617</v>
+        <v>-2.70250679404373</v>
       </c>
       <c r="G118">
         <v>-0.006363100179021197</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.706845848177716</v>
+        <v>-2.707216565648648</v>
       </c>
       <c r="G119">
         <v>0.001980762059094809</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.732950673196554</v>
+        <v>-2.732978246205094</v>
       </c>
       <c r="G125">
         <v>-0.002906503540256677</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-2.771148918121861</v>
+        <v>-2.771400820999441</v>
       </c>
       <c r="G137">
         <v>-0.01030720170279786</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-2.781649815058508</v>
+        <v>-2.78223469322158</v>
       </c>
       <c r="G141">
         <v>-0.005328422854980808</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.78687557594288</v>
+        <v>-2.787359190251114</v>
       </c>
       <c r="G143">
         <v>-0.005921849934154455</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.792483687280648</v>
+        <v>-2.792776126362184</v>
       </c>
       <c r="G145">
         <v>0.0004243249853110864</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.803317559502786</v>
+        <v>-2.803609998584322</v>
       </c>
       <c r="G149">
         <v>-0.0156032935709236</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.806026027558323</v>
+        <v>-2.806318466639858</v>
       </c>
       <c r="G150">
         <v>-0.007344407924983809</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.822569274973065</v>
+        <v>-2.822861714054602</v>
       </c>
       <c r="G156">
         <v>-0.01266108361975693</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.854951796546653</v>
+        <v>-2.855264427075114</v>
       </c>
       <c r="G168">
         <v>-0.008369320448031292</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.865783111320595</v>
+        <v>-2.866028579372324</v>
       </c>
       <c r="G172">
         <v>-0.01675214883907428</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.868253433119622</v>
+        <v>-2.868485144550275</v>
       </c>
       <c r="G173">
         <v>-0.01144761534431671</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.876561020238873</v>
+        <v>-2.877105362197989</v>
       </c>
       <c r="G176">
         <v>-0.01216280070182241</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.879561927375943</v>
+        <v>-2.879874557904404</v>
       </c>
       <c r="G177">
         <v>-0.01853697416949718</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.88242213790363</v>
+        <v>-2.882956384139283</v>
       </c>
       <c r="G178">
         <v>-0.01534476448703559</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.887869514495194</v>
+        <v>-2.888182145023655</v>
       </c>
       <c r="G180">
         <v>-0.01556523888177708</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.890326079673153</v>
+        <v>-2.890951340730073</v>
       </c>
       <c r="G181">
         <v>-0.01417899057887273</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.893095275379567</v>
+        <v>-2.893407905908028</v>
       </c>
       <c r="G182">
         <v>-0.008636064042665148</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.907022173009459</v>
+        <v>-2.907253884440114</v>
       </c>
       <c r="G187">
         <v>-0.01471483003301155</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.910335710674993</v>
+        <v>-2.910648341203453</v>
       </c>
       <c r="G188">
         <v>-0.01123105466407959</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-2.921099862972198</v>
+        <v>-2.921180782070005</v>
       </c>
       <c r="G192">
         <v>-0.01315521157468941</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-2.935571102561208</v>
+        <v>-2.935883733089669</v>
       </c>
       <c r="G197">
         <v>-0.007100858031930335</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.837063116657696</v>
+        <v>-2.83755611479984</v>
       </c>
       <c r="G224">
         <v>0.01147946551419365</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.897653905193357</v>
+        <v>-2.897785070205968</v>
       </c>
       <c r="G225">
         <v>-0.0001635446529069107</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.727569279393237</v>
+        <v>-2.727835829481291</v>
       </c>
       <c r="G232">
         <v>0.006434502517954854</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.829810757960631</v>
+        <v>-2.830500027122967</v>
       </c>
       <c r="G234">
         <v>0.01604190839518327</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.889431553754487</v>
+        <v>-2.889613691573305</v>
       </c>
       <c r="G235">
         <v>0.01448479681821446</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.049534963518203</v>
+        <v>-3.049897458016932</v>
       </c>
       <c r="G238">
         <v>0.002854492422951216</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.132329313946855</v>
+        <v>-3.132420896885828</v>
       </c>
       <c r="G240">
         <v>-0.006282841514677062</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.766633901868534</v>
+        <v>-2.767034259768585</v>
       </c>
       <c r="G243">
         <v>0.01019939132225467</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.812830967937224</v>
+        <v>-2.813334585362888</v>
       </c>
       <c r="G244">
         <v>0.01438799906367638</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.867433337447356</v>
+        <v>-2.867934847648687</v>
       </c>
       <c r="G245">
         <v>0.01749369854969141</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.924655732590197</v>
+        <v>-2.92487612921436</v>
       </c>
       <c r="G246">
         <v>0.01738827470356852</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.987001948532503</v>
+        <v>-2.987057300274842</v>
       </c>
       <c r="G247">
         <v>0.01530461565356922</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.139270630366695</v>
+        <v>-3.139334772727054</v>
       </c>
       <c r="G250">
         <v>0.000814443952674937</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.181168263521962</v>
+        <v>-3.181218054082834</v>
       </c>
       <c r="G251">
         <v>-0.0008569020428010887</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.794495001790365</v>
+        <v>-2.794619897495154</v>
       </c>
       <c r="G254">
         <v>0.01076225843307821</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.840284670804682</v>
+        <v>-2.84077387961057</v>
       </c>
       <c r="G255">
         <v>0.01792173476566639</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.952884478306846</v>
+        <v>-2.953155770302286</v>
       </c>
       <c r="G257">
         <v>0.02277968194031232</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.012368923545749</v>
+        <v>-3.012416329423032</v>
       </c>
       <c r="G258">
         <v>0.02125396828354909</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.076448576665712</v>
+        <v>-3.076501052448225</v>
       </c>
       <c r="G259">
         <v>0.01980533174353583</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.131648367186884</v>
+        <v>-3.131741988459752</v>
       </c>
       <c r="G260">
         <v>0.01374399814580662</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.217552105521204</v>
+        <v>-3.21757692107281</v>
       </c>
       <c r="G262">
         <v>-0.001242678298489952</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.817995986927268</v>
+        <v>-2.818064241667181</v>
       </c>
       <c r="G265">
         <v>0.01173703965361028</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.862358303843184</v>
+        <v>-2.862375367528163</v>
       </c>
       <c r="G266">
         <v>0.01958721285367382</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.916613908220828</v>
+        <v>-2.91668216296074</v>
       </c>
       <c r="G267">
         <v>0.02534870880601403</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.972594899527509</v>
+        <v>-2.972978355851411</v>
       </c>
       <c r="G268">
         <v>0.02725301693490545</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.032277598738178</v>
+        <v>-3.032311726108135</v>
       </c>
       <c r="G269">
         <v>0.02739887150462028</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.094711517814496</v>
+        <v>-3.094745645184453</v>
       </c>
       <c r="G270">
         <v>0.02499170232211956</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.157350850423463</v>
+        <v>-3.157433493856245</v>
       </c>
       <c r="G271">
         <v>0.0172765952714824</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.201894082540503</v>
+        <v>-3.201914981201167</v>
       </c>
       <c r="G272">
         <v>0.01070183257207702</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.835822909926785</v>
+        <v>-2.835873708989211</v>
       </c>
       <c r="G276">
         <v>0.01230282636153834</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.879290200744777</v>
+        <v>-2.879535366226568</v>
       </c>
       <c r="G277">
         <v>0.02077935252467</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.933303395834016</v>
+        <v>-2.933363603587789</v>
       </c>
       <c r="G278">
         <v>0.0281413441043914</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.047998899670763</v>
+        <v>-3.048072305038486</v>
       </c>
       <c r="G280">
         <v>0.03126980850483951</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.265442053150466</v>
+        <v>-3.265457036958408</v>
       </c>
       <c r="G284">
         <v>0.00492840583549442</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.850039532334253</v>
+        <v>-2.850056258207279</v>
       </c>
       <c r="G287">
         <v>0.01337344928687134</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.896308604217062</v>
+        <v>-2.896395147834165</v>
       </c>
       <c r="G288">
         <v>0.02290459396584721</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.946251277764801</v>
+        <v>-2.946536523242567</v>
       </c>
       <c r="G289">
         <v>0.03002747897126223</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.002241464292599</v>
+        <v>-3.002294821762954</v>
       </c>
       <c r="G290">
         <v>0.03405920356038861</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.060652699284269</v>
+        <v>-3.06068055789537</v>
       </c>
       <c r="G291">
         <v>0.03512615665655217</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.122153665834901</v>
+        <v>-3.122314519722927</v>
       </c>
       <c r="G292">
         <v>0.03276532404177357</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.282415165462741</v>
+        <v>-3.282448481307472</v>
       </c>
       <c r="G295">
         <v>0.006156250888492032</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.862136663451926</v>
+        <v>-2.862229578985698</v>
       </c>
       <c r="G298">
         <v>0.0136089046379877</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.908057720016791</v>
+        <v>-2.908196441378908</v>
       </c>
       <c r="G299">
         <v>0.02429898025421906</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.958206897099419</v>
+        <v>-2.958230758924756</v>
       </c>
       <c r="G300">
         <v>0.03214965359905442</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.012690138506884</v>
+        <v>-3.012717759990259</v>
       </c>
       <c r="G301">
         <v>0.03645079722942635</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.070367255333626</v>
+        <v>-3.070442417003452</v>
       </c>
       <c r="G302">
         <v>0.03772864588631397</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.131971200385497</v>
+        <v>-3.132021886284752</v>
       </c>
       <c r="G303">
         <v>0.03672498309265193</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.195855537628394</v>
+        <v>-3.195890064482613</v>
       </c>
       <c r="G304">
         <v>0.02929710957816412</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.253316181735494</v>
+        <v>-3.253353908631042</v>
       </c>
       <c r="G305">
         <v>0.02093281451541407</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.872283156299992</v>
+        <v>-2.872304673541372</v>
       </c>
       <c r="G309">
         <v>0.01429046652205868</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.91768769823139</v>
+        <v>-2.91775762926587</v>
       </c>
       <c r="G310">
         <v>0.02589817136333483</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.967122728981717</v>
+        <v>-2.967214177257572</v>
       </c>
       <c r="G311">
         <v>0.03386643881638052</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.021450493025906</v>
+        <v>-3.021541941301766</v>
       </c>
       <c r="G312">
         <v>0.03797828549240845</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.079702215387321</v>
+        <v>-3.07971297400801</v>
       </c>
       <c r="G313">
         <v>0.03981488121790977</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.140772789985199</v>
+        <v>-3.140902712208969</v>
       </c>
       <c r="G314">
         <v>0.03785711505802802</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.204158187913265</v>
+        <v>-3.204275433290136</v>
       </c>
       <c r="G315">
         <v>0.03235119846826351</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-2.880547097884191</v>
+        <v>-2.88058630144807</v>
       </c>
       <c r="G320">
         <v>0.01474838932814704</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-2.92600208026407</v>
+        <v>-2.926070085396534</v>
       </c>
       <c r="G321">
         <v>0.02606927460245956</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-2.975505972280911</v>
+        <v>-2.975529805524685</v>
       </c>
       <c r="G322">
         <v>0.03506236563488563</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.02955226328091</v>
+        <v>-3.029650510816504</v>
       </c>
       <c r="G323">
         <v>0.04066772726593082</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.086685468717302</v>
+        <v>-3.086718459516929</v>
       </c>
       <c r="G324">
         <v>0.04245872349708635</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.147151330712901</v>
+        <v>-3.14726979295674</v>
       </c>
       <c r="G325">
         <v>0.0395336870493197</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.210566767112373</v>
+        <v>-3.210721039137717</v>
       </c>
       <c r="G326">
         <v>0.03420955828684746</v>
@@ -7936,7 +7936,7 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.31885365328732</v>
+        <v>-3.318864116606046</v>
       </c>
       <c r="G328">
         <v>0.01158949345304011</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-2.888386134905221</v>
+        <v>-2.888442225595636</v>
       </c>
       <c r="G331">
         <v>0.01486877266053854</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-2.933106632483018</v>
+        <v>-2.933152107865259</v>
       </c>
       <c r="G332">
         <v>0.02738146658852791</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-2.982738339461597</v>
+        <v>-2.982827903019053</v>
       </c>
       <c r="G333">
         <v>0.03637173783608438</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.036258764911877</v>
+        <v>-3.036293247670497</v>
       </c>
       <c r="G334">
         <v>0.04134140450590751</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.092967713092975</v>
+        <v>-3.093340774682106</v>
       </c>
       <c r="G335">
         <v>0.04363574766155831</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.15333202743119</v>
+        <v>-3.153556870138321</v>
       </c>
       <c r="G336">
         <v>0.04142284755956815</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.216628968507662</v>
+        <v>-3.217221104624693</v>
       </c>
       <c r="G337">
         <v>0.03577009754974347</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.327842952116063</v>
+        <v>-3.327866457863716</v>
       </c>
       <c r="G339">
         <v>0.01238048807416042</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.4565872250576</v>
+        <v>-2.457225406875781</v>
       </c>
       <c r="G25">
         <v>-0.0204142719414957</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.560559500734327</v>
+        <v>-2.561137016848996</v>
       </c>
       <c r="G37">
         <v>-0.02888590263007518</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.625448540046712</v>
+        <v>-2.625999073045947</v>
       </c>
       <c r="G46">
         <v>-0.02080341572291644</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.640054010147181</v>
+        <v>-2.640889586286882</v>
       </c>
       <c r="G48">
         <v>-0.02463764299697435</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.559922881057442</v>
+        <v>-2.560161656567647</v>
       </c>
       <c r="G81">
         <v>-0.002858978040707338</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.570414996415912</v>
+        <v>-2.570598205122896</v>
       </c>
       <c r="G84">
         <v>-0.001245167216684884</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.57440844149022</v>
+        <v>-2.574647217000424</v>
       </c>
       <c r="G85">
         <v>-0.004659419415443455</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.577474357532252</v>
+        <v>-2.577629993230692</v>
       </c>
       <c r="G86">
         <v>-0.001186368315493791</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.588179615027804</v>
+        <v>-2.588307256931565</v>
       </c>
       <c r="G89">
         <v>-0.002632949032248977</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.614376801743198</v>
+        <v>-2.614826358968932</v>
       </c>
       <c r="G96">
         <v>0.002217750503110238</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.621644479977776</v>
+        <v>-2.622177597801407</v>
       </c>
       <c r="G98">
         <v>0.002501659457453176</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.657053886672182</v>
+        <v>-2.657109453475403</v>
       </c>
       <c r="G107">
         <v>0.004693029899486278</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.707216565648648</v>
+        <v>-2.707270192816451</v>
       </c>
       <c r="G119">
         <v>0.001980762059094809</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-2.792776126362184</v>
+        <v>-2.79306856544372</v>
       </c>
       <c r="G145">
         <v>0.0004243249853110864</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.800649627651208</v>
+        <v>-2.800901530528787</v>
       </c>
       <c r="G148">
         <v>-0.003751545855823935</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-2.841731079071489</v>
+        <v>-2.842043709599951</v>
       </c>
       <c r="G163">
         <v>-0.002640001520941127</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.868485144550275</v>
+        <v>-2.868797775078736</v>
       </c>
       <c r="G173">
         <v>-0.01144761534431671</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.890951340730073</v>
+        <v>-2.891032259827882</v>
       </c>
       <c r="G181">
         <v>-0.01417899057887273</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.904484688733698</v>
+        <v>-2.904565607831503</v>
       </c>
       <c r="G186">
         <v>-0.01571091371095967</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.943646978249801</v>
+        <v>-2.943878689680453</v>
       </c>
       <c r="G200">
         <v>-0.008446340027433052</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.063147717236958</v>
+        <v>-3.063296444381566</v>
       </c>
       <c r="G229">
         <v>-0.007668046028020958</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.775513836185978</v>
+        <v>-2.775576403030898</v>
       </c>
       <c r="G233">
         <v>0.01089457715809283</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.951988272800683</v>
+        <v>-2.952067122353979</v>
       </c>
       <c r="G236">
         <v>0.01106110434661467</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.007907170728329</v>
+        <v>-3.007926572037446</v>
       </c>
       <c r="G237">
         <v>0.0101714701859188</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.867934847648687</v>
+        <v>-2.868031608582405</v>
       </c>
       <c r="G245">
         <v>0.01749369854969141</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.92487612921436</v>
+        <v>-2.925184745934032</v>
       </c>
       <c r="G246">
         <v>0.01738827470356852</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.181218054082834</v>
+        <v>-3.181267844643705</v>
       </c>
       <c r="G251">
         <v>-0.0008569020428010887</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.794619897495154</v>
+        <v>-2.794696937425826</v>
       </c>
       <c r="G254">
         <v>0.01076225843307821</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.953155770302286</v>
+        <v>-2.95319674447025</v>
       </c>
       <c r="G257">
         <v>0.02277968194031232</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.012416329423032</v>
+        <v>-3.012465940730453</v>
       </c>
       <c r="G258">
         <v>0.02125396828354909</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.076501052448225</v>
+        <v>-3.076552459291738</v>
       </c>
       <c r="G259">
         <v>0.01980533174353583</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.174511928108615</v>
+        <v>-3.174542308705778</v>
       </c>
       <c r="G261">
         <v>0.006879885226495963</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.818064241667181</v>
+        <v>-2.81816378152215</v>
       </c>
       <c r="G265">
         <v>0.01173703965361028</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.862375367528163</v>
+        <v>-2.862411305977683</v>
       </c>
       <c r="G266">
         <v>0.01958721285367382</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.91668216296074</v>
+        <v>-2.916773284217874</v>
       </c>
       <c r="G267">
         <v>0.02534870880601403</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.972978355851411</v>
+        <v>-2.97299541953639</v>
       </c>
       <c r="G268">
         <v>0.02725301693490545</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.032311726108135</v>
+        <v>-3.032374178015805</v>
       </c>
       <c r="G269">
         <v>0.02739887150462028</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.094745645184453</v>
+        <v>-3.094762708869431</v>
       </c>
       <c r="G270">
         <v>0.02499170232211956</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.244622389934114</v>
+        <v>-3.244639347210814</v>
       </c>
       <c r="G273">
         <v>0.001748130705406081</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.835873708989211</v>
+        <v>-2.835885943217165</v>
       </c>
       <c r="G276">
         <v>0.01230282636153834</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.879535366226568</v>
+        <v>-2.879610146384287</v>
       </c>
       <c r="G277">
         <v>0.02077935252467</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.933363603587789</v>
+        <v>-2.933416152218559</v>
       </c>
       <c r="G278">
         <v>0.0281413441043914</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.988192530699185</v>
+        <v>-2.988216999155093</v>
       </c>
       <c r="G279">
         <v>0.03161223432371174</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.048072305038486</v>
+        <v>-3.048157944634167</v>
       </c>
       <c r="G280">
         <v>0.03126980850483951</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.108709393281857</v>
+        <v>-3.108776248811761</v>
       </c>
       <c r="G281">
         <v>0.0286962680675662</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.850056258207279</v>
+        <v>-2.850075049393942</v>
       </c>
       <c r="G287">
         <v>0.01337344928687134</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.896395147834165</v>
+        <v>-2.896438781542291</v>
       </c>
       <c r="G288">
         <v>0.02290459396584721</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.946536523242567</v>
+        <v>-2.946559594888606</v>
       </c>
       <c r="G289">
         <v>0.03002747897126223</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.122314519722927</v>
+        <v>-3.12236398747239</v>
       </c>
       <c r="G292">
         <v>0.03276532404177357</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.862229578985698</v>
+        <v>-2.862281062294409</v>
       </c>
       <c r="G298">
         <v>0.0136089046379877</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.958230758924756</v>
+        <v>-2.958310977501456</v>
       </c>
       <c r="G300">
         <v>0.03214965359905442</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.012717759990259</v>
+        <v>-3.012745381473633</v>
       </c>
       <c r="G301">
         <v>0.03645079722942635</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.070442417003452</v>
+        <v>-3.07047694385767</v>
       </c>
       <c r="G302">
         <v>0.03772864588631397</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.132021886284752</v>
+        <v>-3.132036748080953</v>
       </c>
       <c r="G303">
         <v>0.03672498309265193</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.296604067374872</v>
+        <v>-3.296617953576265</v>
       </c>
       <c r="G306">
         <v>0.008837462651772321</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.91775762926587</v>
+        <v>-2.917773767196903</v>
       </c>
       <c r="G310">
         <v>0.02589817136333483</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.967214177257572</v>
+        <v>-2.967253272390501</v>
       </c>
       <c r="G311">
         <v>0.03386643881638052</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.021541941301766</v>
+        <v>-3.021574217163832</v>
       </c>
       <c r="G312">
         <v>0.03797828549240845</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-2.926070085396534</v>
+        <v>-2.926121344980325</v>
       </c>
       <c r="G321">
         <v>0.02606927460245956</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.029650510816504</v>
+        <v>-3.029729346116271</v>
       </c>
       <c r="G323">
         <v>0.04066772726593082</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.210721039137717</v>
+        <v>-3.210748614853693</v>
       </c>
       <c r="G326">
         <v>0.03420955828684746</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.27491533577121</v>
+        <v>-3.274927849857449</v>
       </c>
       <c r="G327">
         <v>0.02486274028200275</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-2.888442225595636</v>
+        <v>-2.888484837895889</v>
       </c>
       <c r="G331">
         <v>0.01486877266053854</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-2.933152107865259</v>
+        <v>-2.933198506299111</v>
       </c>
       <c r="G332">
         <v>0.02738146658852791</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-2.982827903019053</v>
+        <v>-2.982867436226176</v>
       </c>
       <c r="G333">
         <v>0.03637173783608438</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.036293247670497</v>
+        <v>-3.036322313110084</v>
       </c>
       <c r="G334">
         <v>0.04134140450590751</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.093340774682106</v>
+        <v>-3.093378705716589</v>
       </c>
       <c r="G335">
         <v>0.04363574766155831</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.153556870138321</v>
+        <v>-3.15358685862952</v>
       </c>
       <c r="G336">
         <v>0.04142284755956815</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.217221104624693</v>
+        <v>-3.217454664331703</v>
       </c>
       <c r="G337">
         <v>0.03577009754974347</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.540037404722569</v>
+        <v>-2.54007181767173</v>
       </c>
       <c r="G34">
         <v>-0.02170029931594608</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.596530072819983</v>
+        <v>-2.597073175985491</v>
       </c>
       <c r="G42">
         <v>-0.02646096870372738</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.691173155498805</v>
+        <v>-2.692008731638506</v>
       </c>
       <c r="G55">
         <v>-0.01650736011340659</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.570598205122896</v>
+        <v>-2.5708369806331</v>
       </c>
       <c r="G84">
         <v>-0.001245167216684884</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.588307256931565</v>
+        <v>-2.588362823734786</v>
       </c>
       <c r="G89">
         <v>-0.002632949032248977</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.603511083530373</v>
+        <v>-2.604118636876096</v>
       </c>
       <c r="G93">
         <v>-0.005503069949735817</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.616785837328674</v>
+        <v>-2.618472255348138</v>
       </c>
       <c r="G97">
         <v>-0.002227666873516831</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.633678021582362</v>
+        <v>-2.633733588385585</v>
       </c>
       <c r="G101">
         <v>-0.003942943325914161</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.641106160534224</v>
+        <v>-2.641161727337447</v>
       </c>
       <c r="G103">
         <v>-0.005020168618752319</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.647606770453804</v>
+        <v>-2.649120623691375</v>
       </c>
       <c r="G105">
         <v>0.002462092928803283</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.688809113483838</v>
+        <v>-2.689785444665082</v>
       </c>
       <c r="G115">
         <v>0.001585824087991794</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.852495231368695</v>
+        <v>-2.852807861897158</v>
       </c>
       <c r="G167">
         <v>-0.007905034449413817</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.862946753137443</v>
+        <v>-2.863326546142636</v>
       </c>
       <c r="G171">
         <v>-0.008959250817324405</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.910648341203453</v>
+        <v>-2.910960971731914</v>
       </c>
       <c r="G188">
         <v>-0.01123105466407959</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.71844397715695</v>
+        <v>-2.718557569389959</v>
       </c>
       <c r="G222">
         <v>0.01134445514830595</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.776060071925529</v>
+        <v>-2.77618188643547</v>
       </c>
       <c r="G223">
         <v>0.00941105142881149</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.940525234913547</v>
+        <v>-2.940664356418356</v>
       </c>
       <c r="G226">
         <v>-0.000252384255139404</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.727835829481291</v>
+        <v>-2.728162715744512</v>
       </c>
       <c r="G232">
         <v>0.006434502517954854</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.830500027122967</v>
+        <v>-2.831086764082815</v>
       </c>
       <c r="G234">
         <v>0.01604190839518327</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.767034259768585</v>
+        <v>-2.767110316106613</v>
       </c>
       <c r="G243">
         <v>0.01019939132225467</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.813334585362888</v>
+        <v>-2.813637659158362</v>
       </c>
       <c r="G244">
         <v>0.01438799906367638</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.868031608582405</v>
+        <v>-2.868149775544321</v>
       </c>
       <c r="G245">
         <v>0.01749369854969141</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.794696937425826</v>
+        <v>-2.795001759843511</v>
       </c>
       <c r="G254">
         <v>0.01076225843307821</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.84077387961057</v>
+        <v>-2.840870237750319</v>
       </c>
       <c r="G255">
         <v>0.01792173476566639</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.895912383394282</v>
+        <v>-2.895986800355412</v>
       </c>
       <c r="G256">
         <v>0.02292813732699406</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.95319674447025</v>
+        <v>-2.953568829275905</v>
       </c>
       <c r="G257">
         <v>0.02277968194031232</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.81816378152215</v>
+        <v>-2.818502318273169</v>
       </c>
       <c r="G265">
         <v>0.01173703965361028</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.862411305977683</v>
+        <v>-2.862606779802758</v>
       </c>
       <c r="G266">
         <v>0.01958721285367382</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.201914981201167</v>
+        <v>-3.201931938477867</v>
       </c>
       <c r="G272">
         <v>0.01070183257207702</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.835885943217165</v>
+        <v>-2.835899063009278</v>
       </c>
       <c r="G276">
         <v>0.01230282636153834</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.879610146384287</v>
+        <v>-2.879659083296105</v>
       </c>
       <c r="G277">
         <v>0.02077935252467</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.988216999155093</v>
+        <v>-2.988335180951565</v>
       </c>
       <c r="G279">
         <v>0.03161223432371174</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.108776248811761</v>
+        <v>-3.108812951495624</v>
       </c>
       <c r="G281">
         <v>0.0286962680675662</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.896438781542291</v>
+        <v>-2.896469067366606</v>
       </c>
       <c r="G288">
         <v>0.02290459396584721</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.002294821762954</v>
+        <v>-3.002415125493865</v>
       </c>
       <c r="G290">
         <v>0.03405920356038861</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.862281062294409</v>
+        <v>-2.862318734861433</v>
       </c>
       <c r="G298">
         <v>0.0136089046379877</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.908196441378908</v>
+        <v>-2.908310073025212</v>
       </c>
       <c r="G299">
         <v>0.02429898025421906</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.958310977501456</v>
+        <v>-2.958323737188629</v>
       </c>
       <c r="G300">
         <v>0.03214965359905442</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.012745381473633</v>
+        <v>-3.012888483067278</v>
       </c>
       <c r="G301">
         <v>0.03645079722942635</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.872304673541372</v>
+        <v>-2.872343573032815</v>
       </c>
       <c r="G309">
         <v>0.01429046652205868</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.967253272390501</v>
+        <v>-2.96726403101119</v>
       </c>
       <c r="G311">
         <v>0.03386643881638052</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.021574217163832</v>
+        <v>-3.021584975784521</v>
       </c>
       <c r="G312">
         <v>0.03797828549240845</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-2.926121344980325</v>
+        <v>-2.926151207599636</v>
       </c>
       <c r="G321">
         <v>0.02606927460245956</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.029729346116271</v>
+        <v>-3.029795366520089</v>
       </c>
       <c r="G323">
         <v>0.04066772726593082</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.210748614853693</v>
+        <v>-3.210764557929955</v>
       </c>
       <c r="G326">
         <v>0.03420955828684746</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-2.888484837895889</v>
+        <v>-2.888529665482097</v>
       </c>
       <c r="G331">
         <v>0.01486877266053854</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-2.933198506299111</v>
+        <v>-2.933222644230147</v>
       </c>
       <c r="G332">
         <v>0.02738146658852791</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-2.982867436226176</v>
+        <v>-2.982904444209048</v>
       </c>
       <c r="G333">
         <v>0.03637173783608438</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.036322313110084</v>
+        <v>-3.036356239687628</v>
       </c>
       <c r="G334">
         <v>0.04134140450590751</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.15358685862952</v>
+        <v>-3.153624141867969</v>
       </c>
       <c r="G336">
         <v>0.04142284755956815</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.217454664331703</v>
+        <v>-3.217581634067559</v>
       </c>
       <c r="G337">
         <v>0.03577009754974347</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.468388463345772</v>
+        <v>-2.468958134148512</v>
       </c>
       <c r="G26">
         <v>-0.0244338941584259</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.54007181767173</v>
+        <v>-2.540880410696</v>
       </c>
       <c r="G34">
         <v>-0.02170029931594608</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.546789606773568</v>
+        <v>-2.548441205771265</v>
       </c>
       <c r="G35">
         <v>-0.02401627081907609</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.553522255542858</v>
+        <v>-2.555193407822265</v>
       </c>
       <c r="G36">
         <v>-0.01362406367154745</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.561137016848996</v>
+        <v>-2.561945609873264</v>
       </c>
       <c r="G37">
         <v>-0.02888590263007518</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.575484426924424</v>
+        <v>-2.577101612972963</v>
       </c>
       <c r="G39">
         <v>-0.02403221509947473</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.583045221999694</v>
+        <v>-2.583853815023963</v>
       </c>
       <c r="G40">
         <v>-0.02491664460867704</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.590320973934491</v>
+        <v>-2.590606017074962</v>
       </c>
       <c r="G41">
         <v>-0.02685569734854609</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.597073175985491</v>
+        <v>-2.598201225099393</v>
       </c>
       <c r="G42">
         <v>-0.02646096870372738</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.60328227487098</v>
+        <v>-2.60495342715039</v>
       </c>
       <c r="G43">
         <v>-0.01957902526280253</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.617887744971447</v>
+        <v>-2.619531914135421</v>
       </c>
       <c r="G45">
         <v>-0.01979505636851786</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.625999073045947</v>
+        <v>-2.626861632301086</v>
       </c>
       <c r="G46">
         <v>-0.02080341572291644</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.632751275096947</v>
+        <v>-2.634422427376355</v>
       </c>
       <c r="G47">
         <v>-0.02712452672550825</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.646521169057709</v>
+        <v>-2.648769837451784</v>
       </c>
       <c r="G49">
         <v>-0.0268923019077465</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.654659480247645</v>
+        <v>-2.656330632527051</v>
       </c>
       <c r="G50">
         <v>-0.02397071355866986</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.676567685398341</v>
+        <v>-2.67823883767775</v>
       </c>
       <c r="G53">
         <v>-0.02393342367548423</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.698475890549039</v>
+        <v>-2.700147042828446</v>
       </c>
       <c r="G56">
         <v>-0.01987776831570298</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.549247556991988</v>
+        <v>-2.549541899305414</v>
       </c>
       <c r="G78">
         <v>-0.002524478310698353</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.556590195710528</v>
+        <v>-2.556773404417513</v>
       </c>
       <c r="G80">
         <v>-0.002812376198817912</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.560161656567647</v>
+        <v>-2.560639207588057</v>
       </c>
       <c r="G81">
         <v>-0.002858978040707338</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.56386075932853</v>
+        <v>-2.56433831034894</v>
       </c>
       <c r="G82">
         <v>-0.001929363639951553</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.567504295286188</v>
+        <v>-2.56803741310982</v>
       </c>
       <c r="G83">
         <v>-0.0003943057643516212</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.5708369806331</v>
+        <v>-2.571736515870697</v>
       </c>
       <c r="G84">
         <v>-0.001245167216684884</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.574647217000424</v>
+        <v>-2.575435618631579</v>
       </c>
       <c r="G85">
         <v>-0.004659419415443455</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.577629993230692</v>
+        <v>-2.579301421802124</v>
       </c>
       <c r="G86">
         <v>-0.001186368315493791</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.581384662794794</v>
+        <v>-2.583000524563005</v>
       </c>
       <c r="G87">
         <v>0.001000055959047952</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.585672450182527</v>
+        <v>-2.586571985420123</v>
       </c>
       <c r="G88">
         <v>-0.001296971471821617</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.588362823734786</v>
+        <v>-2.590398730084766</v>
       </c>
       <c r="G89">
         <v>-0.002632949032248977</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.592539477516075</v>
+        <v>-2.594264533255308</v>
       </c>
       <c r="G90">
         <v>-0.003899037316823506</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.596266574071636</v>
+        <v>-2.597963636016189</v>
       </c>
       <c r="G91">
         <v>0.002826626037740532</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.599121708398141</v>
+        <v>-2.601662738777067</v>
       </c>
       <c r="G92">
         <v>-0.006269932523869759</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.604118636876096</v>
+        <v>-2.605449281406689</v>
       </c>
       <c r="G93">
         <v>-0.005503069949735817</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.606604993367085</v>
+        <v>-2.609310784520255</v>
       </c>
       <c r="G94">
         <v>0.002353826434461137</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.610596498805973</v>
+        <v>-2.612826678574163</v>
       </c>
       <c r="G95">
         <v>-0.001764602927154968</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.614826358968932</v>
+        <v>-2.61652578133504</v>
       </c>
       <c r="G96">
         <v>0.002217750503110238</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.618472255348138</v>
+        <v>-2.620491653400798</v>
       </c>
       <c r="G97">
         <v>-0.002227666873516831</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.622177597801407</v>
+        <v>-2.624352210766371</v>
       </c>
       <c r="G98">
         <v>0.002501659457453176</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.627464989321953</v>
+        <v>-2.628612004359428</v>
       </c>
       <c r="G99">
         <v>0.001895779619238702</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.628885110165684</v>
+        <v>-2.63201912522843</v>
       </c>
       <c r="G100">
         <v>0.002302796220291725</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.633733588385585</v>
+        <v>-2.636170145636594</v>
       </c>
       <c r="G101">
         <v>-0.003942943325914161</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.637351911756254</v>
+        <v>-2.639820446248511</v>
       </c>
       <c r="G102">
         <v>-0.004164148950219992</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.641161727337447</v>
+        <v>-2.643945833283548</v>
       </c>
       <c r="G103">
         <v>-0.005020168618752319</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.645072032599987</v>
+        <v>-2.647883711554632</v>
       </c>
       <c r="G104">
         <v>-0.001312477162394243</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.649120623691375</v>
+        <v>-2.651877156628929</v>
       </c>
       <c r="G105">
         <v>0.002462092928803283</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.653506540338911</v>
+        <v>-2.655631826193039</v>
       </c>
       <c r="G106">
         <v>-0.001171301089575749</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.657109453475403</v>
+        <v>-2.659544071091</v>
       </c>
       <c r="G107">
         <v>0.004693029899486278</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.66159931828899</v>
+        <v>-2.663456315988953</v>
       </c>
       <c r="G108">
         <v>-0.0004198656599920803</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.665802026229537</v>
+        <v>-2.667319758737943</v>
       </c>
       <c r="G109">
         <v>0.0001426105057460436</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.668999884232301</v>
+        <v>-2.671257637009034</v>
       </c>
       <c r="G110">
         <v>0.001826220495927622</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.672991389671193</v>
+        <v>-2.675487392996258</v>
       </c>
       <c r="G111">
         <v>-0.004953384822383722</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.676958780586236</v>
+        <v>-2.679664046777539</v>
       </c>
       <c r="G112">
         <v>-0.001040851001601117</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.68240804749761</v>
+        <v>-2.683446289350192</v>
       </c>
       <c r="G113">
         <v>-0.000302434989529532</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.685956339578887</v>
+        <v>-2.687439734424495</v>
       </c>
       <c r="G114">
         <v>-0.003959438766206969</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.689785444665082</v>
+        <v>-2.691588815197242</v>
       </c>
       <c r="G115">
         <v>0.001585824087991794</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.693995911147301</v>
+        <v>-2.695372997405304</v>
       </c>
       <c r="G116">
         <v>-0.003953669603887766</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.698247000450673</v>
+        <v>-2.699522078178045</v>
       </c>
       <c r="G117">
         <v>0.001571671443887812</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.70250679404373</v>
+        <v>-2.703673098586212</v>
       </c>
       <c r="G118">
         <v>-0.006363100179021197</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.707270192816451</v>
+        <v>-2.707905319170715</v>
       </c>
       <c r="G119">
         <v>0.001980762059094809</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.710465690397662</v>
+        <v>-2.711926337253562</v>
       </c>
       <c r="G120">
         <v>-8.100973784319621e-05</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.714911053119252</v>
+        <v>-2.715947355336421</v>
       </c>
       <c r="G121">
         <v>-0.001481423224709122</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.7197000852651</v>
+        <v>-2.719940800410726</v>
       </c>
       <c r="G122">
         <v>0.0009425637625741778</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.723853045308679</v>
+        <v>-2.724330596329088</v>
       </c>
       <c r="G123">
         <v>0.003300514735068649</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.7285628169136</v>
+        <v>-2.728746025620583</v>
       </c>
       <c r="G124">
         <v>0.0007348426894169258</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-2.776525318028974</v>
+        <v>-2.777110196192047</v>
       </c>
       <c r="G139">
         <v>0.001303684953147144</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-2.779526225166045</v>
+        <v>-2.779566761370003</v>
       </c>
       <c r="G140">
         <v>-0.01228538809334112</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-2.784650722195578</v>
+        <v>-2.784802617977838</v>
       </c>
       <c r="G142">
         <v>-0.001687602656117448</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-2.787359190251114</v>
+        <v>-2.787944068414187</v>
       </c>
       <c r="G143">
         <v>-0.005921849934154455</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-2.789815755429068</v>
+        <v>-2.790400633592142</v>
       </c>
       <c r="G144">
         <v>0.001135832698157424</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-2.79519215533618</v>
+        <v>-2.795777033499256</v>
       </c>
       <c r="G146">
         <v>-0.003307276802146264</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-2.798193062473251</v>
+        <v>-2.798294326328091</v>
       </c>
       <c r="G147">
         <v>-0.003995117910082113</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-2.800901530528787</v>
+        <v>-2.801234505814284</v>
       </c>
       <c r="G148">
         <v>-0.003751545855823935</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-2.803609998584322</v>
+        <v>-2.803902437665857</v>
       </c>
       <c r="G149">
         <v>-0.0156032935709236</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-2.806318466639858</v>
+        <v>-2.806772897227117</v>
       </c>
       <c r="G150">
         <v>-0.007344407924983809</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-2.809026934695393</v>
+        <v>-2.809542092933536</v>
       </c>
       <c r="G151">
         <v>-0.00357600179910289</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-2.811735402750926</v>
+        <v>-2.812068378036422</v>
       </c>
       <c r="G152">
         <v>-0.007385554090373558</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-2.819901343121491</v>
+        <v>-2.820445685080604</v>
       </c>
       <c r="G155">
         <v>-0.002731232172123121</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-2.822861714054602</v>
+        <v>-2.822902250258561</v>
       </c>
       <c r="G156">
         <v>-0.01266108361975693</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-2.838961883365071</v>
+        <v>-2.839274513893533</v>
       </c>
       <c r="G162">
         <v>-0.01640134557210349</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-2.844500274777903</v>
+        <v>-2.844893824404171</v>
       </c>
       <c r="G164">
         <v>-0.003057214885853976</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-2.847269470484324</v>
+        <v>-2.847966658365006</v>
       </c>
       <c r="G165">
         <v>-0.007096987334206939</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-2.849413405133819</v>
+        <v>-2.850351296719203</v>
       </c>
       <c r="G166">
         <v>-0.0105983004552086</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-2.852807861897158</v>
+        <v>-2.853676033557608</v>
       </c>
       <c r="G167">
         <v>-0.007905034449413817</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-2.855264427075114</v>
+        <v>-2.855889688132038</v>
       </c>
       <c r="G168">
         <v>-0.008369320448031292</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-2.858033622781531</v>
+        <v>-2.858658883838454</v>
       </c>
       <c r="G169">
         <v>-0.01024723809282435</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-2.860802818487945</v>
+        <v>-2.861115449016409</v>
       </c>
       <c r="G170">
         <v>-0.01524810666099163</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-2.863326546142636</v>
+        <v>-2.863855307691744</v>
       </c>
       <c r="G171">
         <v>-0.008959250817324405</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-2.866028579372324</v>
+        <v>-2.866624503398164</v>
       </c>
       <c r="G172">
         <v>-0.01675214883907428</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-2.868797775078736</v>
+        <v>-2.869735666664123</v>
       </c>
       <c r="G173">
         <v>-0.01144761534431671</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-2.871566970785157</v>
+        <v>-2.872747772974069</v>
       </c>
       <c r="G174">
         <v>-0.005134227915544298</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-2.87433616649157</v>
+        <v>-2.874790443768723</v>
       </c>
       <c r="G175">
         <v>-0.0123598443636922</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-2.877105362197989</v>
+        <v>-2.878124172881178</v>
       </c>
       <c r="G176">
         <v>-0.01216280070182241</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-2.879874557904404</v>
+        <v>-2.880641465710014</v>
       </c>
       <c r="G177">
         <v>-0.01853697416949718</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-2.882956384139283</v>
+        <v>-2.883269014667748</v>
       </c>
       <c r="G178">
         <v>-0.01534476448703559</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-2.885480111793969</v>
+        <v>-2.886906382034611</v>
       </c>
       <c r="G179">
         <v>-0.01527243940278</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-2.888182145023655</v>
+        <v>-2.889029971927074</v>
       </c>
       <c r="G180">
         <v>-0.01556523888177708</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-2.891032259827882</v>
+        <v>-2.891889232315456</v>
       </c>
       <c r="G181">
         <v>-0.01417899057887273</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-2.893407905908028</v>
+        <v>-2.894739347119684</v>
       </c>
       <c r="G182">
         <v>-0.008636064042665148</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-2.895864471085981</v>
+        <v>-2.897114993199834</v>
       </c>
       <c r="G183">
         <v>-0.01377808613422238</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-2.898946297320863</v>
+        <v>-2.899884188906247</v>
       </c>
       <c r="G184">
         <v>-0.01297656402364822</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-2.90171549302728</v>
+        <v>-2.902966015141127</v>
       </c>
       <c r="G185">
         <v>-0.007198594881648757</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-2.904565607831503</v>
+        <v>-2.905735210847541</v>
       </c>
       <c r="G186">
         <v>-0.01571091371095967</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-2.907253884440114</v>
+        <v>-2.908646053302648</v>
       </c>
       <c r="G187">
         <v>-0.01471483003301155</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-2.910960971731914</v>
+        <v>-2.911340764737106</v>
       </c>
       <c r="G188">
         <v>-0.01123105466407959</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-2.913104906381409</v>
+        <v>-2.913871814187022</v>
       </c>
       <c r="G189">
         <v>-0.01006134721292173</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-2.915561471559363</v>
+        <v>-2.916811993673215</v>
       </c>
       <c r="G190">
         <v>-0.006182085638265944</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-2.918397829742515</v>
+        <v>-2.919581189379628</v>
       </c>
       <c r="G191">
         <v>-0.01483681432040607</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-2.921180782070005</v>
+        <v>-2.922350385086047</v>
       </c>
       <c r="G192">
         <v>-0.01315521157468941</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-2.924181689207078</v>
+        <v>-2.925119580792465</v>
       </c>
       <c r="G193">
         <v>-0.01387822154544083</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-2.92671917348284</v>
+        <v>-2.927969695596687</v>
       </c>
       <c r="G194">
         <v>-0.01170161562189648</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-2.92972008061991</v>
+        <v>-2.930970602733758</v>
       </c>
       <c r="G195">
         <v>-0.0122619001198998</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-2.932489276326329</v>
+        <v>-2.933114537383255</v>
       </c>
       <c r="G196">
         <v>-0.01101988645153812</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-2.935883733089669</v>
+        <v>-2.936196363618131</v>
       </c>
       <c r="G197">
         <v>-0.007100858031930335</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-2.938340298267624</v>
+        <v>-2.938965559324549</v>
       </c>
       <c r="G198">
         <v>-0.0121209705832287</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-2.941109493974041</v>
+        <v>-2.941734755030965</v>
       </c>
       <c r="G199">
         <v>-0.01236553037680838</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-2.943878689680453</v>
+        <v>-2.94457111321411</v>
       </c>
       <c r="G200">
         <v>-0.008446340027433052</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-2.946960515915334</v>
+        <v>-2.947585776972258</v>
       </c>
       <c r="G201">
         <v>-0.011690928679635</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-2.949729711621752</v>
+        <v>-2.950042342150214</v>
       </c>
       <c r="G202">
         <v>-0.009796666114164909</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-2.952498907328168</v>
+        <v>-2.952811537856631</v>
       </c>
       <c r="G203">
         <v>-0.01084240233684086</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.668243010400814</v>
+        <v>-2.673251704994911</v>
       </c>
       <c r="G221">
         <v>0.006499433093621665</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.718557569389959</v>
+        <v>-2.727719329072475</v>
       </c>
       <c r="G222">
         <v>0.01134445514830595</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.77618188643547</v>
+        <v>-2.783380798565556</v>
       </c>
       <c r="G223">
         <v>0.00941105142881149</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.83755611479984</v>
+        <v>-2.840712758208436</v>
       </c>
       <c r="G224">
         <v>0.01147946551419365</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-2.897785070205968</v>
+        <v>-2.89791623521858</v>
       </c>
       <c r="G225">
         <v>-0.0001635446529069107</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-2.940664356418356</v>
+        <v>-2.941220842437589</v>
       </c>
       <c r="G226">
         <v>-0.000252384255139404</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.981500386416636</v>
+        <v>-2.982067463815316</v>
       </c>
       <c r="G227">
         <v>-0.004727764676686452</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.021835899695494</v>
+        <v>-3.022561990625391</v>
       </c>
       <c r="G228">
         <v>-0.008639806909923275</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.063296444381566</v>
+        <v>-3.063873808166857</v>
       </c>
       <c r="G229">
         <v>-0.007668046028020958</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.728162715744512</v>
+        <v>-2.734611383723601</v>
       </c>
       <c r="G232">
         <v>0.006434502517954854</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.775576403030898</v>
+        <v>-2.787075611585582</v>
       </c>
       <c r="G233">
         <v>0.01089457715809283</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-2.831086764082815</v>
+        <v>-2.842573870623681</v>
       </c>
       <c r="G234">
         <v>0.01604190839518327</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-2.889613691573305</v>
+        <v>-2.898022808888286</v>
       </c>
       <c r="G235">
         <v>0.01448479681821446</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.952067122353979</v>
+        <v>-2.955235279786659</v>
       </c>
       <c r="G236">
         <v>0.01106110434661467</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.007926572037446</v>
+        <v>-3.008215555915509</v>
       </c>
       <c r="G237">
         <v>0.0101714701859188</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.049897458016932</v>
+        <v>-3.050500379224682</v>
       </c>
       <c r="G238">
         <v>0.002854492422951216</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.09212280638492</v>
+        <v>-3.092137258126124</v>
       </c>
       <c r="G239">
         <v>-0.004232899640643328</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.132420896885828</v>
+        <v>-3.132975004072334</v>
       </c>
       <c r="G240">
         <v>-0.006282841514677062</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.767110316106613</v>
+        <v>-2.775107638804119</v>
       </c>
       <c r="G243">
         <v>0.01019939132225467</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.813637659158362</v>
+        <v>-2.829163686330511</v>
       </c>
       <c r="G244">
         <v>0.01438799906367638</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.868149775544321</v>
+        <v>-2.883192737354997</v>
       </c>
       <c r="G245">
         <v>0.01749369854969141</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.925184745934032</v>
+        <v>-2.938424023510477</v>
       </c>
       <c r="G246">
         <v>0.01738827470356852</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.987057300274842</v>
+        <v>-2.994430687095612</v>
       </c>
       <c r="G247">
         <v>0.01530461565356922</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.051366511623884</v>
+        <v>-3.051752890428324</v>
       </c>
       <c r="G248">
         <v>0.01047277440355643</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.139334772727054</v>
+        <v>-3.140446440185099</v>
       </c>
       <c r="G250">
         <v>0.000814443952674937</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.181267844643705</v>
+        <v>-3.18172183330053</v>
       </c>
       <c r="G251">
         <v>-0.0008569020428010887</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.795001759843511</v>
+        <v>-2.805127613323617</v>
       </c>
       <c r="G254">
         <v>0.01076225843307821</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.840870237750319</v>
+        <v>-2.858425653625142</v>
       </c>
       <c r="G255">
         <v>0.01792173476566639</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.895986800355412</v>
+        <v>-2.911629919310368</v>
       </c>
       <c r="G256">
         <v>0.02292813732699406</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.953568829275905</v>
+        <v>-2.966943068601461</v>
       </c>
       <c r="G257">
         <v>0.02277968194031232</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.012465940730453</v>
+        <v>-3.022474678439776</v>
       </c>
       <c r="G258">
         <v>0.02125396828354909</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.076552459291738</v>
+        <v>-3.079764015222756</v>
       </c>
       <c r="G259">
         <v>0.01980533174353583</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.131741988459752</v>
+        <v>-3.132381953434249</v>
       </c>
       <c r="G260">
         <v>0.01374399814580662</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.174542308705778</v>
+        <v>-3.175879474665237</v>
       </c>
       <c r="G261">
         <v>0.006879885226495963</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.21757692107281</v>
+        <v>-3.217674355746346</v>
       </c>
       <c r="G262">
         <v>-0.001242678298489952</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.818502318273169</v>
+        <v>-2.82821893302031</v>
       </c>
       <c r="G265">
         <v>0.01173703965361028</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.862606779802758</v>
+        <v>-2.880650373009924</v>
       </c>
       <c r="G266">
         <v>0.01958721285367382</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.916773284217874</v>
+        <v>-2.932336711308717</v>
       </c>
       <c r="G267">
         <v>0.02534870880601403</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.97299541953639</v>
+        <v>-2.988919114248193</v>
       </c>
       <c r="G268">
         <v>0.02725301693490545</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.032374178015805</v>
+        <v>-3.044625252496675</v>
       </c>
       <c r="G269">
         <v>0.02739887150462028</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.094762708869431</v>
+        <v>-3.100924370003802</v>
       </c>
       <c r="G270">
         <v>0.02499170232211956</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.157433493856245</v>
+        <v>-3.15770697407388</v>
       </c>
       <c r="G271">
         <v>0.0172765952714824</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.201931938477867</v>
+        <v>-3.202724496559198</v>
       </c>
       <c r="G272">
         <v>0.01070183257207702</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.244639347210814</v>
+        <v>-3.244840451049539</v>
       </c>
       <c r="G273">
         <v>0.001748130705406081</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.835899063009278</v>
+        <v>-2.846300847835111</v>
       </c>
       <c r="G276">
         <v>0.01230282636153834</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.879659083296105</v>
+        <v>-2.897533436127722</v>
       </c>
       <c r="G277">
         <v>0.02077935252467</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.933416152218559</v>
+        <v>-2.94927258985058</v>
       </c>
       <c r="G278">
         <v>0.0281413441043914</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-2.988335180951565</v>
+        <v>-3.005024464030985</v>
       </c>
       <c r="G279">
         <v>0.03161223432371174</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.048157944634167</v>
+        <v>-3.060475649059543</v>
       </c>
       <c r="G280">
         <v>0.03126980850483951</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.108812951495624</v>
+        <v>-3.116949905678438</v>
       </c>
       <c r="G281">
         <v>0.0286962680675662</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.174448664674076</v>
+        <v>-3.175180243433108</v>
       </c>
       <c r="G282">
         <v>0.02432651350477633</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.224369766826091</v>
+        <v>-3.224460293119164</v>
       </c>
       <c r="G283">
         <v>0.01484576524362535</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.265457036958408</v>
+        <v>-3.265943025004484</v>
       </c>
       <c r="G284">
         <v>0.00492840583549442</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.850075049393942</v>
+        <v>-2.860943987387913</v>
       </c>
       <c r="G287">
         <v>0.01337344928687134</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.896469067366606</v>
+        <v>-2.912722191938966</v>
       </c>
       <c r="G288">
         <v>0.02290459396584721</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.946559594888606</v>
+        <v>-2.963263646856981</v>
       </c>
       <c r="G289">
         <v>0.03002747897126223</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.002415125493865</v>
+        <v>-3.018110532865214</v>
       </c>
       <c r="G290">
         <v>0.03405920356038861</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.06068055789537</v>
+        <v>-3.072358965994766</v>
       </c>
       <c r="G291">
         <v>0.03512615665655217</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.12236398747239</v>
+        <v>-3.129939704969195</v>
       </c>
       <c r="G292">
         <v>0.03276532404177357</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.186026047897161</v>
+        <v>-3.187996822736897</v>
       </c>
       <c r="G293">
         <v>0.02606644243833067</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.240328243137073</v>
+        <v>-3.240632654458906</v>
       </c>
       <c r="G294">
         <v>0.01739639646175228</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.282448481307472</v>
+        <v>-3.28312835836299</v>
       </c>
       <c r="G295">
         <v>0.006156250888492032</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.862318734861433</v>
+        <v>-2.872934403456408</v>
       </c>
       <c r="G298">
         <v>0.0136089046379877</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.908310073025212</v>
+        <v>-2.924086904938913</v>
       </c>
       <c r="G299">
         <v>0.02429898025421906</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.958323737188629</v>
+        <v>-2.975235065225301</v>
       </c>
       <c r="G300">
         <v>0.03214965359905442</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.012888483067278</v>
+        <v>-3.028526110372608</v>
       </c>
       <c r="G301">
         <v>0.03645079722942635</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.07047694385767</v>
+        <v>-3.082548929384268</v>
       </c>
       <c r="G302">
         <v>0.03772864588631397</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.132036748080953</v>
+        <v>-3.139757476297355</v>
       </c>
       <c r="G303">
         <v>0.03672498309265193</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.195890064482613</v>
+        <v>-3.199120173865732</v>
       </c>
       <c r="G304">
         <v>0.02929710957816412</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.253353908631042</v>
+        <v>-3.253762930002072</v>
       </c>
       <c r="G305">
         <v>0.02093281451541407</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.296617953576265</v>
+        <v>-3.29731628268634</v>
       </c>
       <c r="G306">
         <v>0.008837462651772321</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.872343573032815</v>
+        <v>-2.882878429484565</v>
       </c>
       <c r="G309">
         <v>0.01429046652205868</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.917773767196903</v>
+        <v>-2.932342350720653</v>
       </c>
       <c r="G310">
         <v>0.02589817136333483</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.96726403101119</v>
+        <v>-2.98296804124067</v>
       </c>
       <c r="G311">
         <v>0.03386643881638052</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.021584975784521</v>
+        <v>-3.036101390432982</v>
       </c>
       <c r="G312">
         <v>0.03797828549240845</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.07971297400801</v>
+        <v>-3.091308148390551</v>
       </c>
       <c r="G313">
         <v>0.03981488121790977</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.140902712208969</v>
+        <v>-3.149540785474033</v>
       </c>
       <c r="G314">
         <v>0.03785711505802802</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.204275433290136</v>
+        <v>-3.207753242951594</v>
       </c>
       <c r="G315">
         <v>0.03235119846826351</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.264589830885427</v>
+        <v>-3.264982537237437</v>
       </c>
       <c r="G316">
         <v>0.02284340906330207</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.308635737555599</v>
+        <v>-3.309200827092028</v>
       </c>
       <c r="G317">
         <v>0.0102842931637131</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-2.88058630144807</v>
+        <v>-2.89119197480431</v>
       </c>
       <c r="G320">
         <v>0.01474838932814704</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-2.926151207599636</v>
+        <v>-2.940226120752643</v>
       </c>
       <c r="G321">
         <v>0.02606927460245956</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-2.975529805524685</v>
+        <v>-2.991027368503456</v>
       </c>
       <c r="G322">
         <v>0.03506236563488563</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.029795366520089</v>
+        <v>-3.043326648846763</v>
       </c>
       <c r="G323">
         <v>0.04066772726593082</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.086718459516929</v>
+        <v>-3.09812637551914</v>
       </c>
       <c r="G324">
         <v>0.04245872349708635</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.14726979295674</v>
+        <v>-3.155591381363287</v>
       </c>
       <c r="G325">
         <v>0.0395336870493197</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.210764557929955</v>
+        <v>-3.214890030671671</v>
       </c>
       <c r="G326">
         <v>0.03420955828684746</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.274927849857449</v>
+        <v>-3.274980782283329</v>
       </c>
       <c r="G327">
         <v>0.02486274028200275</v>
@@ -7936,7 +7936,7 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.318864116606046</v>
+        <v>-3.319389580458592</v>
       </c>
       <c r="G328">
         <v>0.01158949345304011</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-2.888529665482097</v>
+        <v>-2.898427170218075</v>
       </c>
       <c r="G331">
         <v>0.01486877266053854</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-2.933222644230147</v>
+        <v>-2.946948607876108</v>
       </c>
       <c r="G332">
         <v>0.02738146658852791</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-2.982904444209048</v>
+        <v>-2.997112077786899</v>
       </c>
       <c r="G333">
         <v>0.03637173783608438</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.036356239687628</v>
+        <v>-3.049483322945018</v>
       </c>
       <c r="G334">
         <v>0.04134140450590751</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.093378705716589</v>
+        <v>-3.105166260629153</v>
       </c>
       <c r="G335">
         <v>0.04363574766155831</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.153624141867969</v>
+        <v>-3.162077365333852</v>
       </c>
       <c r="G336">
         <v>0.04142284755956815</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.217581634067559</v>
+        <v>-3.221396812230632</v>
       </c>
       <c r="G337">
         <v>0.03577009754974347</v>
@@ -8166,7 +8166,7 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.282071047324224</v>
+        <v>-3.282219321160793</v>
       </c>
       <c r="G338">
         <v>0.02589620406799076</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.327866457863716</v>
+        <v>-3.328258796847168</v>
       </c>
       <c r="G339">
         <v>0.01238048807416042</v>

--- a/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
+++ b/data/bimetallic_results/cuboctahedron/cuboctahedron_AgCu_data.xlsx
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.533285202671569</v>
+        <v>-2.533550692530333</v>
       </c>
       <c r="G33">
         <v>-0.03046065356504446</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.568697811924266</v>
+        <v>-2.569540817897696</v>
       </c>
       <c r="G38">
         <v>-0.03211245111815542</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-2.840712758208436</v>
+        <v>-2.840852584954431</v>
       </c>
       <c r="G224">
         <v>0.01147946551419365</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-2.982067463815316</v>
+        <v>-2.982308877818258</v>
       </c>
       <c r="G227">
         <v>-0.004727764676686452</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.787075611585582</v>
+        <v>-2.787528029525912</v>
       </c>
       <c r="G233">
         <v>0.01089457715809283</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-2.955235279786659</v>
+        <v>-2.95531912368313</v>
       </c>
       <c r="G236">
         <v>0.01106110434661467</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.050500379224682</v>
+        <v>-3.050578455659932</v>
       </c>
       <c r="G238">
         <v>0.002854492422951216</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.775107638804119</v>
+        <v>-2.77559778248389</v>
       </c>
       <c r="G243">
         <v>0.01019939132225467</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.829163686330511</v>
+        <v>-2.829219038072843</v>
       </c>
       <c r="G244">
         <v>0.01438799906367638</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-2.883192737354997</v>
+        <v>-2.883409679910058</v>
       </c>
       <c r="G245">
         <v>0.01749369854969141</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-2.938424023510477</v>
+        <v>-2.938627714386679</v>
       </c>
       <c r="G246">
         <v>0.01738827470356852</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-2.994430687095612</v>
+        <v>-2.994503990797055</v>
       </c>
       <c r="G247">
         <v>0.01530461565356922</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.140446440185099</v>
+        <v>-3.140493014990067</v>
       </c>
       <c r="G250">
         <v>0.000814443952674937</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.18172183330053</v>
+        <v>-3.181778637692711</v>
       </c>
       <c r="G251">
         <v>-0.0008569020428010887</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.805127613323617</v>
+        <v>-2.805217741256807</v>
       </c>
       <c r="G254">
         <v>0.01076225843307821</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.858425653625142</v>
+        <v>-2.858586580682539</v>
       </c>
       <c r="G255">
         <v>0.01792173476566639</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-2.911629919310368</v>
+        <v>-2.912159616016892</v>
       </c>
       <c r="G256">
         <v>0.02292813732699406</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-2.966943068601461</v>
+        <v>-2.967136420087962</v>
       </c>
       <c r="G257">
         <v>0.02277968194031232</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.022474678439776</v>
+        <v>-3.022708345049282</v>
       </c>
       <c r="G258">
         <v>0.02125396828354909</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.079764015222756</v>
+        <v>-3.079808055368575</v>
       </c>
       <c r="G259">
         <v>0.01980533174353583</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.132381953434249</v>
+        <v>-3.132504217808811</v>
       </c>
       <c r="G260">
         <v>0.01374399814580662</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.175879474665237</v>
+        <v>-3.176008459130025</v>
       </c>
       <c r="G261">
         <v>0.006879885226495963</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.82821893302031</v>
+        <v>-2.828387989918053</v>
       </c>
       <c r="G265">
         <v>0.01173703965361028</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-2.880650373009924</v>
+        <v>-2.881168869436009</v>
       </c>
       <c r="G266">
         <v>0.01958721285367382</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-2.932336711308717</v>
+        <v>-2.932654101209212</v>
       </c>
       <c r="G267">
         <v>0.02534870880601403</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-2.988919114248193</v>
+        <v>-2.989796212366927</v>
       </c>
       <c r="G268">
         <v>0.02725301693490545</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.044625252496675</v>
+        <v>-3.045120994409061</v>
       </c>
       <c r="G269">
         <v>0.02739887150462028</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.100924370003802</v>
+        <v>-3.101300851202854</v>
       </c>
       <c r="G270">
         <v>0.02499170232211956</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.202724496559198</v>
+        <v>-3.202741453835898</v>
       </c>
       <c r="G272">
         <v>0.01070183257207702</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.846300847835111</v>
+        <v>-2.846390725735692</v>
       </c>
       <c r="G276">
         <v>0.01230282636153834</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-2.897533436127722</v>
+        <v>-2.898035364516931</v>
       </c>
       <c r="G277">
         <v>0.02077935252467</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-2.94927258985058</v>
+        <v>-2.949917168492166</v>
       </c>
       <c r="G278">
         <v>0.0281413441043914</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.005024464030985</v>
+        <v>-3.005889568678112</v>
       </c>
       <c r="G279">
         <v>0.03161223432371174</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.060475649059543</v>
+        <v>-3.061384099204595</v>
       </c>
       <c r="G280">
         <v>0.03126980850483951</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.116949905678438</v>
+        <v>-3.117623079942059</v>
       </c>
       <c r="G281">
         <v>0.0286962680675662</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.175180243433108</v>
+        <v>-3.175252133253287</v>
       </c>
       <c r="G282">
         <v>0.02432651350477633</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.224460293119164</v>
+        <v>-3.224481159673583</v>
       </c>
       <c r="G283">
         <v>0.01484576524362535</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.265943025004484</v>
+        <v>-3.265963660556458</v>
       </c>
       <c r="G284">
         <v>0.00492840583549442</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.860943987387913</v>
+        <v>-2.86119507396815</v>
       </c>
       <c r="G287">
         <v>0.01337344928687134</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-2.912722191938966</v>
+        <v>-2.91362398017854</v>
       </c>
       <c r="G288">
         <v>0.02290459396584721</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-2.963263646856981</v>
+        <v>-2.964123208715996</v>
       </c>
       <c r="G289">
         <v>0.03002747897126223</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.018110532865214</v>
+        <v>-3.019512983542692</v>
       </c>
       <c r="G290">
         <v>0.03405920356038861</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.072358965994766</v>
+        <v>-3.073324469619654</v>
       </c>
       <c r="G291">
         <v>0.03512615665655217</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.129939704969195</v>
+        <v>-3.131052619936108</v>
       </c>
       <c r="G292">
         <v>0.03276532404177357</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.187996822736897</v>
+        <v>-3.188348125934586</v>
       </c>
       <c r="G293">
         <v>0.02606644243833067</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.240632654458906</v>
+        <v>-3.240680158521013</v>
       </c>
       <c r="G294">
         <v>0.01739639646175228</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.28312835836299</v>
+        <v>-3.283204000932895</v>
       </c>
       <c r="G295">
         <v>0.006156250888492032</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.872934403456408</v>
+        <v>-2.873238284521033</v>
       </c>
       <c r="G298">
         <v>0.0136089046379877</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-2.924086904938913</v>
+        <v>-2.924911812999926</v>
       </c>
       <c r="G299">
         <v>0.02429898025421906</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-2.975235065225301</v>
+        <v>-2.976876041808704</v>
       </c>
       <c r="G300">
         <v>0.03214965359905442</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.028526110372608</v>
+        <v>-3.0299904852783</v>
       </c>
       <c r="G301">
         <v>0.03645079722942635</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.082548929384268</v>
+        <v>-3.083627258311817</v>
       </c>
       <c r="G302">
         <v>0.03772864588631397</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.139757476297355</v>
+        <v>-3.140727881895278</v>
       </c>
       <c r="G303">
         <v>0.03672498309265193</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.199120173865732</v>
+        <v>-3.199539832610683</v>
       </c>
       <c r="G304">
         <v>0.02929710957816412</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.253762930002072</v>
+        <v>-3.253831001648749</v>
       </c>
       <c r="G305">
         <v>0.02093281451541407</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.29731628268634</v>
+        <v>-3.297392398544077</v>
       </c>
       <c r="G306">
         <v>0.008837462651772321</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.882878429484565</v>
+        <v>-2.883257120916269</v>
       </c>
       <c r="G309">
         <v>0.01429046652205868</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-2.932342350720653</v>
+        <v>-2.933449566978748</v>
       </c>
       <c r="G310">
         <v>0.02589817136333483</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-2.98296804124067</v>
+        <v>-2.984357111461996</v>
       </c>
       <c r="G311">
         <v>0.03386643881638052</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.036101390432982</v>
+        <v>-3.037769031316946</v>
       </c>
       <c r="G312">
         <v>0.03797828549240845</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.091308148390551</v>
+        <v>-3.092566064344842</v>
       </c>
       <c r="G313">
         <v>0.03981488121790977</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.149540785474033</v>
+        <v>-3.150709341864582</v>
       </c>
       <c r="G314">
         <v>0.03785711505802802</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.207753242951594</v>
+        <v>-3.208226386772045</v>
       </c>
       <c r="G315">
         <v>0.03235119846826351</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.264982537237437</v>
+        <v>-3.265072373492569</v>
       </c>
       <c r="G316">
         <v>0.02284340906330207</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.309200827092028</v>
+        <v>-3.309276696466815</v>
       </c>
       <c r="G317">
         <v>0.0102842931637131</v>
@@ -7752,7 +7752,7 @@
         <v>821</v>
       </c>
       <c r="F320">
-        <v>-2.89119197480431</v>
+        <v>-2.891572621806098</v>
       </c>
       <c r="G320">
         <v>0.01474838932814704</v>
@@ -7775,7 +7775,7 @@
         <v>1643</v>
       </c>
       <c r="F321">
-        <v>-2.940226120752643</v>
+        <v>-2.941329520113371</v>
       </c>
       <c r="G321">
         <v>0.02606927460245956</v>
@@ -7798,7 +7798,7 @@
         <v>2465</v>
       </c>
       <c r="F322">
-        <v>-2.991027368503456</v>
+        <v>-2.992477055659182</v>
       </c>
       <c r="G322">
         <v>0.03506236563488563</v>
@@ -7821,7 +7821,7 @@
         <v>3286</v>
       </c>
       <c r="F323">
-        <v>-3.043326648846763</v>
+        <v>-3.04491152257829</v>
       </c>
       <c r="G323">
         <v>0.04066772726593082</v>
@@ -7844,7 +7844,7 @@
         <v>4108</v>
       </c>
       <c r="F324">
-        <v>-3.09812637551914</v>
+        <v>-3.099792519139655</v>
       </c>
       <c r="G324">
         <v>0.04245872349708635</v>
@@ -7867,7 +7867,7 @@
         <v>4930</v>
       </c>
       <c r="F325">
-        <v>-3.155591381363287</v>
+        <v>-3.156805440809003</v>
       </c>
       <c r="G325">
         <v>0.0395336870493197</v>
@@ -7890,7 +7890,7 @@
         <v>5751</v>
       </c>
       <c r="F326">
-        <v>-3.214890030671671</v>
+        <v>-3.215649752622228</v>
       </c>
       <c r="G326">
         <v>0.03420955828684746</v>
@@ -7913,7 +7913,7 @@
         <v>6573</v>
       </c>
       <c r="F327">
-        <v>-3.274980782283329</v>
+        <v>-3.275011335711471</v>
       </c>
       <c r="G327">
         <v>0.02486274028200275</v>
@@ -7936,7 +7936,7 @@
         <v>7395</v>
       </c>
       <c r="F328">
-        <v>-3.319389580458592</v>
+        <v>-3.319451075371834</v>
       </c>
       <c r="G328">
         <v>0.01158949345304011</v>
@@ -8005,7 +8005,7 @@
         <v>1017</v>
       </c>
       <c r="F331">
-        <v>-2.898427170218075</v>
+        <v>-2.898970234340059</v>
       </c>
       <c r="G331">
         <v>0.01486877266053854</v>
@@ -8028,7 +8028,7 @@
         <v>2035</v>
       </c>
       <c r="F332">
-        <v>-2.946948607876108</v>
+        <v>-2.948227698584924</v>
       </c>
       <c r="G332">
         <v>0.02738146658852791</v>
@@ -8051,7 +8051,7 @@
         <v>3053</v>
       </c>
       <c r="F333">
-        <v>-2.997112077786899</v>
+        <v>-2.998910438619516</v>
       </c>
       <c r="G333">
         <v>0.03637173783608438</v>
@@ -8074,7 +8074,7 @@
         <v>4071</v>
       </c>
       <c r="F334">
-        <v>-3.049483322945018</v>
+        <v>-3.05123563636437</v>
       </c>
       <c r="G334">
         <v>0.04134140450590751</v>
@@ -8097,7 +8097,7 @@
         <v>5089</v>
       </c>
       <c r="F335">
-        <v>-3.105166260629153</v>
+        <v>-3.106871706674039</v>
       </c>
       <c r="G335">
         <v>0.04363574766155831</v>
@@ -8120,7 +8120,7 @@
         <v>6107</v>
       </c>
       <c r="F336">
-        <v>-3.162077365333852</v>
+        <v>-3.163414244296274</v>
       </c>
       <c r="G336">
         <v>0.04142284755956815</v>
@@ -8143,7 +8143,7 @@
         <v>7125</v>
       </c>
       <c r="F337">
-        <v>-3.221396812230632</v>
+        <v>-3.2221699458257</v>
       </c>
       <c r="G337">
         <v>0.03577009754974347</v>
@@ -8166,7 +8166,7 @@
         <v>8143</v>
       </c>
       <c r="F338">
-        <v>-3.282219321160793</v>
+        <v>-3.282248452560271</v>
       </c>
       <c r="G338">
         <v>0.02589620406799076</v>
@@ -8189,7 +8189,7 @@
         <v>9161</v>
       </c>
       <c r="F339">
-        <v>-3.328258796847168</v>
+        <v>-3.328299195627527</v>
       </c>
       <c r="G339">
         <v>0.01238048807416042</v>
